--- a/Cnl/Mapeos_INV_CNL_V1.xlsx
+++ b/Cnl/Mapeos_INV_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="T20TERCERO" sheetId="28" r:id="rId1"/>
@@ -14,9 +14,10 @@
     <sheet name="T23INFFINANCIERA" sheetId="37" r:id="rId5"/>
     <sheet name="T22INFLABORAL" sheetId="38" r:id="rId6"/>
     <sheet name="T70OBLIGACION" sheetId="39" r:id="rId7"/>
+    <sheet name="T15CARGO" sheetId="40" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="Asset_Name">[1]ReadMe!$C$1</definedName>
@@ -1275,8 +1276,186 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>dlira</author>
+  </authors>
+  <commentList>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dlira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Este numero debe ser unico, ya que identifica cada uno de los campos que componen la interface de origen. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dlira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Detallar solo si aplica.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dlira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Identificador unico, este numero debe ser correlativo con el identificador de los campos de la interface de entrada. No debe repetirse.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dlira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre de la regla.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dlira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Este campo define como encontrar la regla dentro del documentod e reglas asociado.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dlira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Este indice corresponde al componente que quedara en el campo destino. Puede referirse tanto a un campo de entrada (carga directa sin regla asociada) o a una regla especifica ubicada dentro del documento de reglas.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dlira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Considerar solo si es aplicable.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="753">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3481,6 +3660,60 @@
   </si>
   <si>
     <t>Update CLI</t>
+  </si>
+  <si>
+    <t>T15CARGO</t>
+  </si>
+  <si>
+    <t>C15NOMBRE</t>
+  </si>
+  <si>
+    <t>C15IDCARGO</t>
+  </si>
+  <si>
+    <t>ID_POS_EMP</t>
+  </si>
+  <si>
+    <t>ID_TIP_POS_EMP</t>
+  </si>
+  <si>
+    <t>FEC_D_TIP_POS_D_EMP</t>
+  </si>
+  <si>
+    <t>TIP_EST_CIC_D_VID_D_CGO</t>
+  </si>
+  <si>
+    <t>ID_UNI_ORGZL_DO_REP</t>
+  </si>
+  <si>
+    <t>FEC_UNI_ORGZL_DO_REP</t>
+  </si>
+  <si>
+    <t>ID_EMP</t>
+  </si>
+  <si>
+    <t>FEC_EMP</t>
+  </si>
+  <si>
+    <t>NRO_POS_EMP</t>
+  </si>
+  <si>
+    <t>POS_PRI_D_EMPDR</t>
+  </si>
+  <si>
+    <t>NOM_CGO</t>
+  </si>
+  <si>
+    <t>Busqueda tipo Posicion empleado</t>
+  </si>
+  <si>
+    <t>Upsert CGO_EMP</t>
+  </si>
+  <si>
+    <t>1. Búsqueda del correlativo</t>
+  </si>
+  <si>
+    <t>2. Búsqueda tipo Posición empleado</t>
   </si>
 </sst>
 </file>
@@ -4527,7 +4760,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -4690,6 +4923,52 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4747,24 +5026,6 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4774,37 +5035,12 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -5283,7 +5519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5333,26 +5569,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -5365,11 +5601,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -5382,11 +5618,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5398,29 +5634,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="98" t="s">
+      <c r="M7" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5497,19 +5733,19 @@
         <v>388</v>
       </c>
       <c r="L9" s="68"/>
-      <c r="M9" s="127">
+      <c r="M9" s="108">
         <v>40</v>
       </c>
-      <c r="N9" s="124" t="s">
+      <c r="N9" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="O9" s="124" t="s">
+      <c r="O9" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="124" t="s">
+      <c r="P9" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="124" t="s">
+      <c r="Q9" s="105" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="41" t="s">
@@ -5544,7 +5780,7 @@
         <v>36</v>
       </c>
       <c r="L10" s="68"/>
-      <c r="M10" s="128">
+      <c r="M10" s="109">
         <v>41</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -5587,7 +5823,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="68"/>
-      <c r="M11" s="128">
+      <c r="M11" s="109">
         <v>42</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -5626,11 +5862,11 @@
       <c r="J12" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="134" t="s">
+      <c r="K12" s="115" t="s">
         <v>389</v>
       </c>
       <c r="L12" s="68"/>
-      <c r="M12" s="129">
+      <c r="M12" s="110">
         <v>43</v>
       </c>
       <c r="N12" s="31" t="s">
@@ -5673,7 +5909,7 @@
         <v>31</v>
       </c>
       <c r="L13" s="43"/>
-      <c r="M13" s="129">
+      <c r="M13" s="110">
         <v>2</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -5716,7 +5952,7 @@
         <v>39</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="129">
+      <c r="M14" s="110">
         <v>46</v>
       </c>
       <c r="N14" s="31" t="s">
@@ -5752,14 +5988,14 @@
       <c r="I15" s="33">
         <v>46</v>
       </c>
-      <c r="J15" s="134" t="s">
+      <c r="J15" s="115" t="s">
         <v>227</v>
       </c>
       <c r="K15" s="65" t="s">
         <v>390</v>
       </c>
       <c r="L15" s="43"/>
-      <c r="M15" s="129">
+      <c r="M15" s="110">
         <v>44</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -5802,7 +6038,7 @@
         <v>391</v>
       </c>
       <c r="L16" s="43"/>
-      <c r="M16" s="129">
+      <c r="M16" s="110">
         <v>47</v>
       </c>
       <c r="N16" s="31" t="s">
@@ -5845,7 +6081,7 @@
         <v>39</v>
       </c>
       <c r="L17" s="43"/>
-      <c r="M17" s="129">
+      <c r="M17" s="110">
         <v>37</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -5888,22 +6124,22 @@
         <v>392</v>
       </c>
       <c r="L18" s="43"/>
-      <c r="M18" s="130">
+      <c r="M18" s="111">
         <v>48</v>
       </c>
-      <c r="N18" s="117" t="s">
+      <c r="N18" s="98" t="s">
         <v>307</v>
       </c>
-      <c r="O18" s="117" t="s">
+      <c r="O18" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="P18" s="117" t="s">
+      <c r="P18" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="Q18" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="119"/>
+      <c r="Q18" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="100"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="76">
@@ -5931,22 +6167,22 @@
         <v>393</v>
       </c>
       <c r="L19" s="43"/>
-      <c r="M19" s="130">
+      <c r="M19" s="111">
         <v>48</v>
       </c>
-      <c r="N19" s="117" t="s">
+      <c r="N19" s="98" t="s">
         <v>307</v>
       </c>
-      <c r="O19" s="117" t="s">
+      <c r="O19" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="P19" s="117" t="s">
+      <c r="P19" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="Q19" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="119"/>
+      <c r="Q19" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="100"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="48">
@@ -5974,7 +6210,7 @@
         <v>394</v>
       </c>
       <c r="L20" s="43"/>
-      <c r="M20" s="128">
+      <c r="M20" s="109">
         <v>44</v>
       </c>
       <c r="N20" s="31" t="s">
@@ -6017,7 +6253,7 @@
         <v>395</v>
       </c>
       <c r="L21" s="43"/>
-      <c r="M21" s="128">
+      <c r="M21" s="109">
         <v>45</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -6060,7 +6296,7 @@
         <v>396</v>
       </c>
       <c r="L22" s="43"/>
-      <c r="M22" s="128">
+      <c r="M22" s="109">
         <v>44</v>
       </c>
       <c r="N22" s="31" t="s">
@@ -6103,7 +6339,7 @@
         <v>397</v>
       </c>
       <c r="L23" s="43"/>
-      <c r="M23" s="129">
+      <c r="M23" s="110">
         <v>45</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -6136,7 +6372,7 @@
       <c r="F24" s="72"/>
       <c r="G24" s="73"/>
       <c r="L24" s="43"/>
-      <c r="M24" s="128">
+      <c r="M24" s="109">
         <v>44</v>
       </c>
       <c r="N24" s="31" t="s">
@@ -6169,7 +6405,7 @@
       <c r="F25" s="72"/>
       <c r="G25" s="73"/>
       <c r="L25" s="43"/>
-      <c r="M25" s="128">
+      <c r="M25" s="109">
         <v>45</v>
       </c>
       <c r="N25" s="31" t="s">
@@ -6202,7 +6438,7 @@
       <c r="F26" s="72"/>
       <c r="G26" s="73"/>
       <c r="L26" s="43"/>
-      <c r="M26" s="128">
+      <c r="M26" s="109">
         <v>44</v>
       </c>
       <c r="N26" s="31" t="s">
@@ -6235,7 +6471,7 @@
       <c r="F27" s="72"/>
       <c r="G27" s="73"/>
       <c r="L27" s="43"/>
-      <c r="M27" s="128">
+      <c r="M27" s="109">
         <v>45</v>
       </c>
       <c r="N27" s="31" t="s">
@@ -6268,7 +6504,7 @@
       <c r="F28" s="72"/>
       <c r="G28" s="73"/>
       <c r="L28" s="43"/>
-      <c r="M28" s="128">
+      <c r="M28" s="109">
         <v>44</v>
       </c>
       <c r="N28" s="31" t="s">
@@ -6301,7 +6537,7 @@
       <c r="F29" s="72"/>
       <c r="G29" s="73"/>
       <c r="L29" s="43"/>
-      <c r="M29" s="128">
+      <c r="M29" s="109">
         <v>45</v>
       </c>
       <c r="N29" s="31" t="s">
@@ -6334,7 +6570,7 @@
       <c r="F30" s="72"/>
       <c r="G30" s="73"/>
       <c r="L30" s="43"/>
-      <c r="M30" s="128">
+      <c r="M30" s="109">
         <v>44</v>
       </c>
       <c r="N30" s="31" t="s">
@@ -6367,7 +6603,7 @@
       <c r="F31" s="72"/>
       <c r="G31" s="73"/>
       <c r="L31" s="43"/>
-      <c r="M31" s="128">
+      <c r="M31" s="109">
         <v>45</v>
       </c>
       <c r="N31" s="31" t="s">
@@ -6400,7 +6636,7 @@
       <c r="F32" s="72"/>
       <c r="G32" s="73"/>
       <c r="L32" s="43"/>
-      <c r="M32" s="128">
+      <c r="M32" s="109">
         <v>44</v>
       </c>
       <c r="N32" s="31" t="s">
@@ -6433,7 +6669,7 @@
       <c r="F33" s="72"/>
       <c r="G33" s="73"/>
       <c r="L33" s="43"/>
-      <c r="M33" s="128">
+      <c r="M33" s="109">
         <v>45</v>
       </c>
       <c r="N33" s="31" t="s">
@@ -6466,7 +6702,7 @@
       <c r="F34" s="72"/>
       <c r="G34" s="73"/>
       <c r="L34" s="43"/>
-      <c r="M34" s="128">
+      <c r="M34" s="109">
         <v>4</v>
       </c>
       <c r="N34" s="31" t="s">
@@ -6499,7 +6735,7 @@
       <c r="F35" s="72"/>
       <c r="G35" s="73"/>
       <c r="L35" s="43"/>
-      <c r="M35" s="128">
+      <c r="M35" s="109">
         <v>45</v>
       </c>
       <c r="N35" s="31" t="s">
@@ -6532,7 +6768,7 @@
       <c r="F36" s="72"/>
       <c r="G36" s="73"/>
       <c r="L36" s="43"/>
-      <c r="M36" s="128">
+      <c r="M36" s="109">
         <v>45</v>
       </c>
       <c r="N36" s="31" t="s">
@@ -6565,7 +6801,7 @@
       <c r="F37" s="72"/>
       <c r="G37" s="73"/>
       <c r="L37" s="43"/>
-      <c r="M37" s="128">
+      <c r="M37" s="109">
         <v>45</v>
       </c>
       <c r="N37" s="31" t="s">
@@ -6598,7 +6834,7 @@
       <c r="F38" s="72"/>
       <c r="G38" s="73"/>
       <c r="L38" s="43"/>
-      <c r="M38" s="128">
+      <c r="M38" s="109">
         <v>27</v>
       </c>
       <c r="N38" s="31" t="s">
@@ -6631,7 +6867,7 @@
       <c r="F39" s="72"/>
       <c r="G39" s="73"/>
       <c r="L39" s="43"/>
-      <c r="M39" s="128">
+      <c r="M39" s="109">
         <v>45</v>
       </c>
       <c r="N39" s="31" t="s">
@@ -6664,7 +6900,7 @@
       <c r="F40" s="72"/>
       <c r="G40" s="73"/>
       <c r="L40" s="43"/>
-      <c r="M40" s="128">
+      <c r="M40" s="109">
         <v>45</v>
       </c>
       <c r="N40" s="31" t="s">
@@ -6697,7 +6933,7 @@
       <c r="F41" s="72"/>
       <c r="G41" s="73"/>
       <c r="L41" s="43"/>
-      <c r="M41" s="128">
+      <c r="M41" s="109">
         <v>44</v>
       </c>
       <c r="N41" s="31" t="s">
@@ -6730,7 +6966,7 @@
       <c r="F42" s="72"/>
       <c r="G42" s="73"/>
       <c r="L42" s="43"/>
-      <c r="M42" s="128">
+      <c r="M42" s="109">
         <v>45</v>
       </c>
       <c r="N42" s="31" t="s">
@@ -6763,7 +6999,7 @@
       <c r="F43" s="72"/>
       <c r="G43" s="73"/>
       <c r="L43" s="43"/>
-      <c r="M43" s="128">
+      <c r="M43" s="109">
         <v>45</v>
       </c>
       <c r="N43" s="31" t="s">
@@ -6796,7 +7032,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="73"/>
       <c r="L44" s="43"/>
-      <c r="M44" s="128">
+      <c r="M44" s="109">
         <v>45</v>
       </c>
       <c r="N44" s="31" t="s">
@@ -6829,7 +7065,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="73"/>
       <c r="L45" s="43"/>
-      <c r="M45" s="128">
+      <c r="M45" s="109">
         <v>45</v>
       </c>
       <c r="N45" s="31" t="s">
@@ -6862,7 +7098,7 @@
       <c r="F46" s="72"/>
       <c r="G46" s="73"/>
       <c r="L46" s="43"/>
-      <c r="M46" s="128">
+      <c r="M46" s="109">
         <v>45</v>
       </c>
       <c r="N46" s="31" t="s">
@@ -6895,7 +7131,7 @@
       <c r="F47" s="74"/>
       <c r="G47" s="75"/>
       <c r="L47" s="43"/>
-      <c r="M47" s="128">
+      <c r="M47" s="109">
         <v>45</v>
       </c>
       <c r="N47" s="31" t="s">
@@ -6914,7 +7150,7 @@
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L48" s="43"/>
-      <c r="M48" s="128">
+      <c r="M48" s="109">
         <v>45</v>
       </c>
       <c r="N48" s="31" t="s">
@@ -6933,7 +7169,7 @@
     </row>
     <row r="49" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L49" s="43"/>
-      <c r="M49" s="128">
+      <c r="M49" s="109">
         <v>45</v>
       </c>
       <c r="N49" s="31" t="s">
@@ -6952,7 +7188,7 @@
     </row>
     <row r="50" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L50" s="43"/>
-      <c r="M50" s="128">
+      <c r="M50" s="109">
         <v>45</v>
       </c>
       <c r="N50" s="31" t="s">
@@ -6971,7 +7207,7 @@
     </row>
     <row r="51" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L51" s="43"/>
-      <c r="M51" s="128">
+      <c r="M51" s="109">
         <v>36</v>
       </c>
       <c r="N51" s="31" t="s">
@@ -6990,26 +7226,26 @@
     </row>
     <row r="52" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L52" s="43"/>
-      <c r="M52" s="131">
+      <c r="M52" s="112">
         <v>45</v>
       </c>
-      <c r="N52" s="132" t="s">
+      <c r="N52" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="O52" s="132" t="s">
+      <c r="O52" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="132" t="s">
+      <c r="P52" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="Q52" s="132" t="s">
+      <c r="Q52" s="113" t="s">
         <v>20</v>
       </c>
       <c r="R52" s="60"/>
     </row>
     <row r="53" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L53" s="43"/>
-      <c r="M53" s="128">
+      <c r="M53" s="109">
         <v>45</v>
       </c>
       <c r="N53" s="31" t="s">
@@ -7028,7 +7264,7 @@
     </row>
     <row r="54" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L54" s="43"/>
-      <c r="M54" s="128">
+      <c r="M54" s="109">
         <v>49</v>
       </c>
       <c r="N54" s="31" t="s">
@@ -7047,7 +7283,7 @@
     </row>
     <row r="55" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L55" s="43"/>
-      <c r="M55" s="128">
+      <c r="M55" s="109">
         <v>2</v>
       </c>
       <c r="N55" s="31" t="s">
@@ -7066,7 +7302,7 @@
     </row>
     <row r="56" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L56" s="43"/>
-      <c r="M56" s="128">
+      <c r="M56" s="109">
         <v>45</v>
       </c>
       <c r="N56" s="31" t="s">
@@ -7085,7 +7321,7 @@
     </row>
     <row r="57" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L57" s="44"/>
-      <c r="M57" s="133">
+      <c r="M57" s="114">
         <v>45</v>
       </c>
       <c r="N57" s="93" t="s">
@@ -7107,16 +7343,16 @@
       <c r="M58" s="57">
         <v>40</v>
       </c>
-      <c r="N58" s="124" t="s">
+      <c r="N58" s="105" t="s">
         <v>314</v>
       </c>
-      <c r="O58" s="124" t="s">
+      <c r="O58" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="P58" s="124" t="s">
+      <c r="P58" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="124" t="s">
+      <c r="Q58" s="105" t="s">
         <v>17</v>
       </c>
       <c r="R58" s="81" t="s">
@@ -7562,22 +7798,22 @@
     </row>
     <row r="82" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L82" s="43"/>
-      <c r="M82" s="118">
+      <c r="M82" s="99">
         <v>48</v>
       </c>
-      <c r="N82" s="117" t="s">
+      <c r="N82" s="98" t="s">
         <v>314</v>
       </c>
-      <c r="O82" s="117" t="s">
+      <c r="O82" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="P82" s="117" t="s">
+      <c r="P82" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="Q82" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="R82" s="119"/>
+      <c r="Q82" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="R82" s="100"/>
     </row>
     <row r="83" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L83" s="43"/>
@@ -7619,22 +7855,22 @@
     </row>
     <row r="85" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L85" s="43"/>
-      <c r="M85" s="118">
+      <c r="M85" s="99">
         <v>48</v>
       </c>
-      <c r="N85" s="117" t="s">
+      <c r="N85" s="98" t="s">
         <v>314</v>
       </c>
-      <c r="O85" s="117" t="s">
+      <c r="O85" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="P85" s="117" t="s">
+      <c r="P85" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="Q85" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="R85" s="119"/>
+      <c r="Q85" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="R85" s="100"/>
     </row>
     <row r="86" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L86" s="43"/>
@@ -7657,41 +7893,41 @@
     </row>
     <row r="87" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L87" s="43"/>
-      <c r="M87" s="118">
+      <c r="M87" s="99">
         <v>48</v>
       </c>
-      <c r="N87" s="117" t="s">
+      <c r="N87" s="98" t="s">
         <v>314</v>
       </c>
-      <c r="O87" s="117" t="s">
+      <c r="O87" s="98" t="s">
         <v>259</v>
       </c>
-      <c r="P87" s="117" t="s">
+      <c r="P87" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="Q87" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="R87" s="119"/>
+      <c r="Q87" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="R87" s="100"/>
     </row>
     <row r="88" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L88" s="43"/>
-      <c r="M88" s="118">
+      <c r="M88" s="99">
         <v>48</v>
       </c>
-      <c r="N88" s="117" t="s">
+      <c r="N88" s="98" t="s">
         <v>314</v>
       </c>
-      <c r="O88" s="117" t="s">
+      <c r="O88" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="P88" s="117" t="s">
+      <c r="P88" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="Q88" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="R88" s="119"/>
+      <c r="Q88" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="R88" s="100"/>
     </row>
     <row r="89" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L89" s="43"/>
@@ -8227,60 +8463,60 @@
     </row>
     <row r="117" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L117" s="43"/>
-      <c r="M117" s="118">
+      <c r="M117" s="99">
         <v>48</v>
       </c>
-      <c r="N117" s="117" t="s">
+      <c r="N117" s="98" t="s">
         <v>314</v>
       </c>
-      <c r="O117" s="117" t="s">
+      <c r="O117" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="P117" s="117" t="s">
+      <c r="P117" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Q117" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="R117" s="119"/>
+      <c r="Q117" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="R117" s="100"/>
     </row>
     <row r="118" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L118" s="43"/>
-      <c r="M118" s="118">
+      <c r="M118" s="99">
         <v>48</v>
       </c>
-      <c r="N118" s="117" t="s">
+      <c r="N118" s="98" t="s">
         <v>314</v>
       </c>
-      <c r="O118" s="117" t="s">
+      <c r="O118" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="P118" s="117" t="s">
+      <c r="P118" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="Q118" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="R118" s="119"/>
+      <c r="Q118" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="R118" s="100"/>
     </row>
     <row r="119" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L119" s="43"/>
-      <c r="M119" s="118">
+      <c r="M119" s="99">
         <v>48</v>
       </c>
-      <c r="N119" s="117" t="s">
+      <c r="N119" s="98" t="s">
         <v>314</v>
       </c>
-      <c r="O119" s="117" t="s">
+      <c r="O119" s="98" t="s">
         <v>292</v>
       </c>
-      <c r="P119" s="117" t="s">
+      <c r="P119" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Q119" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="R119" s="119"/>
+      <c r="Q119" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="R119" s="100"/>
     </row>
     <row r="120" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L120" s="43"/>
@@ -8553,16 +8789,16 @@
       <c r="M134" s="57">
         <v>40</v>
       </c>
-      <c r="N134" s="124" t="s">
+      <c r="N134" s="105" t="s">
         <v>386</v>
       </c>
-      <c r="O134" s="124" t="s">
+      <c r="O134" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="P134" s="124" t="s">
+      <c r="P134" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q134" s="124" t="s">
+      <c r="Q134" s="105" t="s">
         <v>17</v>
       </c>
       <c r="R134" s="81" t="s">
@@ -9008,22 +9244,22 @@
     </row>
     <row r="158" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L158" s="43"/>
-      <c r="M158" s="118">
+      <c r="M158" s="99">
         <v>48</v>
       </c>
-      <c r="N158" s="117" t="s">
+      <c r="N158" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="O158" s="117" t="s">
+      <c r="O158" s="98" t="s">
         <v>338</v>
       </c>
-      <c r="P158" s="117" t="s">
+      <c r="P158" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Q158" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="R158" s="119"/>
+      <c r="Q158" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="R158" s="100"/>
     </row>
     <row r="159" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L159" s="43"/>
@@ -9084,22 +9320,22 @@
     </row>
     <row r="162" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L162" s="43"/>
-      <c r="M162" s="118">
+      <c r="M162" s="99">
         <v>48</v>
       </c>
-      <c r="N162" s="117" t="s">
+      <c r="N162" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="O162" s="117" t="s">
+      <c r="O162" s="98" t="s">
         <v>342</v>
       </c>
-      <c r="P162" s="117" t="s">
+      <c r="P162" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Q162" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="R162" s="119"/>
+      <c r="Q162" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="R162" s="100"/>
     </row>
     <row r="163" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L163" s="43"/>
@@ -9122,7 +9358,7 @@
     </row>
     <row r="164" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L164" s="43"/>
-      <c r="M164" s="120">
+      <c r="M164" s="101">
         <v>39</v>
       </c>
       <c r="N164" s="31" t="s">
@@ -9146,16 +9382,16 @@
       <c r="M165" s="82">
         <v>45</v>
       </c>
-      <c r="N165" s="132" t="s">
+      <c r="N165" s="113" t="s">
         <v>386</v>
       </c>
-      <c r="O165" s="132" t="s">
+      <c r="O165" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="P165" s="132" t="s">
+      <c r="P165" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="Q165" s="132" t="s">
+      <c r="Q165" s="113" t="s">
         <v>20</v>
       </c>
       <c r="R165" s="60"/>
@@ -9979,7 +10215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -10019,26 +10255,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="137" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -10051,11 +10287,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -10068,11 +10304,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10084,29 +10320,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="98" t="s">
+      <c r="M7" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10183,19 +10419,19 @@
         <v>430</v>
       </c>
       <c r="L9" s="68"/>
-      <c r="M9" s="127">
-        <v>20</v>
-      </c>
-      <c r="N9" s="124" t="s">
+      <c r="M9" s="108">
+        <v>20</v>
+      </c>
+      <c r="N9" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="O9" s="124" t="s">
+      <c r="O9" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="124" t="s">
+      <c r="P9" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="124" t="s">
+      <c r="Q9" s="105" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="41" t="s">
@@ -10228,7 +10464,7 @@
         <v>36</v>
       </c>
       <c r="L10" s="68"/>
-      <c r="M10" s="128">
+      <c r="M10" s="109">
         <v>21</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -10271,7 +10507,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="68"/>
-      <c r="M11" s="128">
+      <c r="M11" s="109">
         <v>22</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -10314,7 +10550,7 @@
         <v>431</v>
       </c>
       <c r="L12" s="68"/>
-      <c r="M12" s="129">
+      <c r="M12" s="110">
         <v>23</v>
       </c>
       <c r="N12" s="31" t="s">
@@ -10357,7 +10593,7 @@
         <v>31</v>
       </c>
       <c r="L13" s="43"/>
-      <c r="M13" s="129">
+      <c r="M13" s="110">
         <v>3</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -10400,7 +10636,7 @@
         <v>39</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="129">
+      <c r="M14" s="110">
         <v>27</v>
       </c>
       <c r="N14" s="31" t="s">
@@ -10443,7 +10679,7 @@
         <v>432</v>
       </c>
       <c r="L15" s="43"/>
-      <c r="M15" s="129">
+      <c r="M15" s="110">
         <v>24</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -10486,7 +10722,7 @@
         <v>433</v>
       </c>
       <c r="L16" s="43"/>
-      <c r="M16" s="129">
+      <c r="M16" s="110">
         <v>28</v>
       </c>
       <c r="N16" s="31" t="s">
@@ -10519,7 +10755,7 @@
       <c r="F17" s="72"/>
       <c r="G17" s="73"/>
       <c r="L17" s="43"/>
-      <c r="M17" s="129">
+      <c r="M17" s="110">
         <v>16</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -10552,7 +10788,7 @@
       <c r="F18" s="72"/>
       <c r="G18" s="73"/>
       <c r="L18" s="43"/>
-      <c r="M18" s="129">
+      <c r="M18" s="110">
         <v>24</v>
       </c>
       <c r="N18" s="31" t="s">
@@ -10585,7 +10821,7 @@
       <c r="F19" s="72"/>
       <c r="G19" s="73"/>
       <c r="L19" s="43"/>
-      <c r="M19" s="129">
+      <c r="M19" s="110">
         <v>25</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -10618,7 +10854,7 @@
       <c r="F20" s="72"/>
       <c r="G20" s="73"/>
       <c r="L20" s="43"/>
-      <c r="M20" s="128">
+      <c r="M20" s="109">
         <v>24</v>
       </c>
       <c r="N20" s="31" t="s">
@@ -10651,7 +10887,7 @@
       <c r="F21" s="72"/>
       <c r="G21" s="73"/>
       <c r="L21" s="43"/>
-      <c r="M21" s="128">
+      <c r="M21" s="109">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -10684,7 +10920,7 @@
       <c r="F22" s="72"/>
       <c r="G22" s="73"/>
       <c r="L22" s="43"/>
-      <c r="M22" s="128">
+      <c r="M22" s="109">
         <v>24</v>
       </c>
       <c r="N22" s="31" t="s">
@@ -10717,7 +10953,7 @@
       <c r="F23" s="72"/>
       <c r="G23" s="73"/>
       <c r="L23" s="43"/>
-      <c r="M23" s="129">
+      <c r="M23" s="110">
         <v>25</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -10750,7 +10986,7 @@
       <c r="F24" s="72"/>
       <c r="G24" s="73"/>
       <c r="L24" s="43"/>
-      <c r="M24" s="128">
+      <c r="M24" s="109">
         <v>24</v>
       </c>
       <c r="N24" s="31" t="s">
@@ -10783,7 +11019,7 @@
       <c r="F25" s="72"/>
       <c r="G25" s="73"/>
       <c r="L25" s="43"/>
-      <c r="M25" s="128">
+      <c r="M25" s="109">
         <v>25</v>
       </c>
       <c r="N25" s="31" t="s">
@@ -10816,7 +11052,7 @@
       <c r="F26" s="72"/>
       <c r="G26" s="73"/>
       <c r="L26" s="43"/>
-      <c r="M26" s="128">
+      <c r="M26" s="109">
         <v>24</v>
       </c>
       <c r="N26" s="31" t="s">
@@ -10849,7 +11085,7 @@
       <c r="F27" s="74"/>
       <c r="G27" s="75"/>
       <c r="L27" s="43"/>
-      <c r="M27" s="128">
+      <c r="M27" s="109">
         <v>25</v>
       </c>
       <c r="N27" s="31" t="s">
@@ -10868,7 +11104,7 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L28" s="43"/>
-      <c r="M28" s="128">
+      <c r="M28" s="109">
         <v>24</v>
       </c>
       <c r="N28" s="31" t="s">
@@ -10887,7 +11123,7 @@
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L29" s="43"/>
-      <c r="M29" s="128">
+      <c r="M29" s="109">
         <v>25</v>
       </c>
       <c r="N29" s="31" t="s">
@@ -10906,7 +11142,7 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L30" s="43"/>
-      <c r="M30" s="128">
+      <c r="M30" s="109">
         <v>24</v>
       </c>
       <c r="N30" s="31" t="s">
@@ -10925,7 +11161,7 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L31" s="43"/>
-      <c r="M31" s="128">
+      <c r="M31" s="109">
         <v>25</v>
       </c>
       <c r="N31" s="31" t="s">
@@ -10944,7 +11180,7 @@
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L32" s="43"/>
-      <c r="M32" s="128">
+      <c r="M32" s="109">
         <v>24</v>
       </c>
       <c r="N32" s="31" t="s">
@@ -10963,7 +11199,7 @@
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L33" s="43"/>
-      <c r="M33" s="128">
+      <c r="M33" s="109">
         <v>25</v>
       </c>
       <c r="N33" s="31" t="s">
@@ -10982,7 +11218,7 @@
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L34" s="43"/>
-      <c r="M34" s="129">
+      <c r="M34" s="110">
         <v>1</v>
       </c>
       <c r="N34" s="31" t="s">
@@ -11001,7 +11237,7 @@
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L35" s="43"/>
-      <c r="M35" s="128">
+      <c r="M35" s="109">
         <v>25</v>
       </c>
       <c r="N35" s="31" t="s">
@@ -11020,7 +11256,7 @@
     </row>
     <row r="36" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L36" s="43"/>
-      <c r="M36" s="128">
+      <c r="M36" s="109">
         <v>25</v>
       </c>
       <c r="N36" s="31" t="s">
@@ -11039,7 +11275,7 @@
     </row>
     <row r="37" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L37" s="43"/>
-      <c r="M37" s="128">
+      <c r="M37" s="109">
         <v>25</v>
       </c>
       <c r="N37" s="31" t="s">
@@ -11058,7 +11294,7 @@
     </row>
     <row r="38" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L38" s="43"/>
-      <c r="M38" s="128">
+      <c r="M38" s="109">
         <v>25</v>
       </c>
       <c r="N38" s="31" t="s">
@@ -11077,7 +11313,7 @@
     </row>
     <row r="39" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L39" s="43"/>
-      <c r="M39" s="128">
+      <c r="M39" s="109">
         <v>25</v>
       </c>
       <c r="N39" s="31" t="s">
@@ -11096,7 +11332,7 @@
     </row>
     <row r="40" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L40" s="43"/>
-      <c r="M40" s="128">
+      <c r="M40" s="109">
         <v>25</v>
       </c>
       <c r="N40" s="31" t="s">
@@ -11115,7 +11351,7 @@
     </row>
     <row r="41" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L41" s="43"/>
-      <c r="M41" s="128">
+      <c r="M41" s="109">
         <v>24</v>
       </c>
       <c r="N41" s="31" t="s">
@@ -11134,7 +11370,7 @@
     </row>
     <row r="42" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L42" s="43"/>
-      <c r="M42" s="128">
+      <c r="M42" s="109">
         <v>25</v>
       </c>
       <c r="N42" s="31" t="s">
@@ -11153,7 +11389,7 @@
     </row>
     <row r="43" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L43" s="43"/>
-      <c r="M43" s="128">
+      <c r="M43" s="109">
         <v>25</v>
       </c>
       <c r="N43" s="31" t="s">
@@ -11172,7 +11408,7 @@
     </row>
     <row r="44" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L44" s="43"/>
-      <c r="M44" s="128">
+      <c r="M44" s="109">
         <v>25</v>
       </c>
       <c r="N44" s="31" t="s">
@@ -11191,7 +11427,7 @@
     </row>
     <row r="45" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L45" s="43"/>
-      <c r="M45" s="128">
+      <c r="M45" s="109">
         <v>25</v>
       </c>
       <c r="N45" s="31" t="s">
@@ -11210,7 +11446,7 @@
     </row>
     <row r="46" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L46" s="43"/>
-      <c r="M46" s="128">
+      <c r="M46" s="109">
         <v>25</v>
       </c>
       <c r="N46" s="31" t="s">
@@ -11229,7 +11465,7 @@
     </row>
     <row r="47" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L47" s="43"/>
-      <c r="M47" s="128">
+      <c r="M47" s="109">
         <v>25</v>
       </c>
       <c r="N47" s="31" t="s">
@@ -11248,7 +11484,7 @@
     </row>
     <row r="48" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L48" s="43"/>
-      <c r="M48" s="128">
+      <c r="M48" s="109">
         <v>25</v>
       </c>
       <c r="N48" s="31" t="s">
@@ -11267,7 +11503,7 @@
     </row>
     <row r="49" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L49" s="43"/>
-      <c r="M49" s="128">
+      <c r="M49" s="109">
         <v>25</v>
       </c>
       <c r="N49" s="31" t="s">
@@ -11286,7 +11522,7 @@
     </row>
     <row r="50" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L50" s="43"/>
-      <c r="M50" s="128">
+      <c r="M50" s="109">
         <v>25</v>
       </c>
       <c r="N50" s="31" t="s">
@@ -11305,7 +11541,7 @@
     </row>
     <row r="51" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L51" s="43"/>
-      <c r="M51" s="129">
+      <c r="M51" s="110">
         <v>19</v>
       </c>
       <c r="N51" s="31" t="s">
@@ -11324,26 +11560,26 @@
     </row>
     <row r="52" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L52" s="43"/>
-      <c r="M52" s="131">
+      <c r="M52" s="112">
         <v>25</v>
       </c>
-      <c r="N52" s="132" t="s">
+      <c r="N52" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="O52" s="132" t="s">
+      <c r="O52" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="132" t="s">
+      <c r="P52" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="Q52" s="132" t="s">
+      <c r="Q52" s="113" t="s">
         <v>20</v>
       </c>
       <c r="R52" s="60"/>
     </row>
     <row r="53" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L53" s="43"/>
-      <c r="M53" s="128">
+      <c r="M53" s="109">
         <v>25</v>
       </c>
       <c r="N53" s="31" t="s">
@@ -11362,7 +11598,7 @@
     </row>
     <row r="54" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L54" s="43"/>
-      <c r="M54" s="128">
+      <c r="M54" s="109">
         <v>24</v>
       </c>
       <c r="N54" s="31" t="s">
@@ -11381,7 +11617,7 @@
     </row>
     <row r="55" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L55" s="43"/>
-      <c r="M55" s="128">
+      <c r="M55" s="109">
         <v>5</v>
       </c>
       <c r="N55" s="31" t="s">
@@ -11400,7 +11636,7 @@
     </row>
     <row r="56" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L56" s="43"/>
-      <c r="M56" s="128">
+      <c r="M56" s="109">
         <v>25</v>
       </c>
       <c r="N56" s="31" t="s">
@@ -11419,7 +11655,7 @@
     </row>
     <row r="57" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L57" s="44"/>
-      <c r="M57" s="133">
+      <c r="M57" s="114">
         <v>25</v>
       </c>
       <c r="N57" s="93" t="s">
@@ -11441,16 +11677,16 @@
       <c r="M58" s="57">
         <v>20</v>
       </c>
-      <c r="N58" s="124" t="s">
+      <c r="N58" s="105" t="s">
         <v>314</v>
       </c>
-      <c r="O58" s="124" t="s">
+      <c r="O58" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="P58" s="124" t="s">
+      <c r="P58" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="124" t="s">
+      <c r="Q58" s="105" t="s">
         <v>17</v>
       </c>
       <c r="R58" s="81" t="s">
@@ -12943,26 +13179,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="137" t="s">
         <v>442</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -12975,11 +13211,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -12992,11 +13228,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13008,29 +13244,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="98" t="s">
+      <c r="M7" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13106,20 +13342,20 @@
       <c r="K9" s="58" t="s">
         <v>435</v>
       </c>
-      <c r="L9" s="122"/>
+      <c r="L9" s="103"/>
       <c r="M9" s="36">
         <v>14</v>
       </c>
-      <c r="N9" s="124" t="s">
+      <c r="N9" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="O9" s="124" t="s">
+      <c r="O9" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="124" t="s">
+      <c r="P9" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="124" t="s">
+      <c r="Q9" s="105" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="41" t="s">
@@ -13151,8 +13387,8 @@
       <c r="K10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="122"/>
-      <c r="M10" s="120">
+      <c r="L10" s="103"/>
+      <c r="M10" s="101">
         <v>15</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -13194,8 +13430,8 @@
       <c r="K11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="122"/>
-      <c r="M11" s="120">
+      <c r="L11" s="103"/>
+      <c r="M11" s="101">
         <v>16</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -13237,7 +13473,7 @@
       <c r="K12" s="55" t="s">
         <v>436</v>
       </c>
-      <c r="L12" s="122"/>
+      <c r="L12" s="103"/>
       <c r="M12" s="48">
         <v>17</v>
       </c>
@@ -13280,7 +13516,7 @@
       <c r="K13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="123"/>
+      <c r="L13" s="104"/>
       <c r="M13" s="48">
         <v>8</v>
       </c>
@@ -13323,7 +13559,7 @@
       <c r="K14" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="123"/>
+      <c r="L14" s="104"/>
       <c r="M14" s="48">
         <v>21</v>
       </c>
@@ -13366,7 +13602,7 @@
       <c r="K15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="123"/>
+      <c r="L15" s="104"/>
       <c r="M15" s="48">
         <v>18</v>
       </c>
@@ -13411,7 +13647,7 @@
       <c r="K16" s="55" t="s">
         <v>437</v>
       </c>
-      <c r="L16" s="123"/>
+      <c r="L16" s="104"/>
       <c r="M16" s="48">
         <v>22</v>
       </c>
@@ -13454,7 +13690,7 @@
       <c r="K17" s="55" t="s">
         <v>438</v>
       </c>
-      <c r="L17" s="123"/>
+      <c r="L17" s="104"/>
       <c r="M17" s="48">
         <v>23</v>
       </c>
@@ -13497,7 +13733,7 @@
       <c r="K18" s="55" t="s">
         <v>439</v>
       </c>
-      <c r="L18" s="123"/>
+      <c r="L18" s="104"/>
       <c r="M18" s="48">
         <v>18</v>
       </c>
@@ -13540,7 +13776,7 @@
       <c r="K19" s="63" t="s">
         <v>440</v>
       </c>
-      <c r="L19" s="123"/>
+      <c r="L19" s="104"/>
       <c r="M19" s="48">
         <v>19</v>
       </c>
@@ -14199,16 +14435,16 @@
       <c r="M52" s="82">
         <v>19</v>
       </c>
-      <c r="N52" s="132" t="s">
+      <c r="N52" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="O52" s="132" t="s">
+      <c r="O52" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="132" t="s">
+      <c r="P52" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="Q52" s="132" t="s">
+      <c r="Q52" s="113" t="s">
         <v>20</v>
       </c>
       <c r="R52" s="60"/>
@@ -14234,7 +14470,7 @@
     </row>
     <row r="54" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L54" s="86"/>
-      <c r="M54" s="120">
+      <c r="M54" s="101">
         <v>24</v>
       </c>
       <c r="N54" s="31" t="s">
@@ -14253,7 +14489,7 @@
     </row>
     <row r="55" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L55" s="86"/>
-      <c r="M55" s="120">
+      <c r="M55" s="101">
         <v>5</v>
       </c>
       <c r="N55" s="31" t="s">
@@ -14306,7 +14542,7 @@
       <c r="Q57" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R57" s="126"/>
+      <c r="R57" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14369,26 +14605,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -14401,11 +14637,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -14418,11 +14654,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14434,29 +14670,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="135" t="s">
+      <c r="M7" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="137"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="153"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14488,22 +14724,22 @@
         <v>11</v>
       </c>
       <c r="L8" s="12"/>
-      <c r="M8" s="138" t="s">
+      <c r="M8" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="139" t="s">
+      <c r="N8" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="139" t="s">
+      <c r="O8" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="P8" s="139" t="s">
+      <c r="P8" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="139" t="s">
+      <c r="Q8" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="140" t="s">
+      <c r="R8" s="118" t="s">
         <v>28</v>
       </c>
     </row>
@@ -14536,16 +14772,16 @@
       <c r="M9" s="36">
         <v>90</v>
       </c>
-      <c r="N9" s="124" t="s">
+      <c r="N9" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="O9" s="124" t="s">
+      <c r="O9" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="124" t="s">
+      <c r="P9" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="124" t="s">
+      <c r="Q9" s="105" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="41" t="s">
@@ -14578,7 +14814,7 @@
         <v>36</v>
       </c>
       <c r="L10" s="68"/>
-      <c r="M10" s="120">
+      <c r="M10" s="101">
         <v>91</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -14621,7 +14857,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="68"/>
-      <c r="M11" s="120">
+      <c r="M11" s="101">
         <v>92</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -16067,16 +16303,16 @@
       <c r="M52" s="59">
         <v>95</v>
       </c>
-      <c r="N52" s="132" t="s">
+      <c r="N52" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="O52" s="132" t="s">
+      <c r="O52" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="132" t="s">
+      <c r="P52" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="Q52" s="132" t="s">
+      <c r="Q52" s="113" t="s">
         <v>20</v>
       </c>
       <c r="R52" s="60"/>
@@ -16163,7 +16399,7 @@
       <c r="F55" s="72"/>
       <c r="G55" s="73"/>
       <c r="L55" s="43"/>
-      <c r="M55" s="120">
+      <c r="M55" s="101">
         <v>14</v>
       </c>
       <c r="N55" s="31" t="s">
@@ -16229,7 +16465,7 @@
       <c r="F57" s="72"/>
       <c r="G57" s="73"/>
       <c r="L57" s="44"/>
-      <c r="M57" s="121">
+      <c r="M57" s="102">
         <v>95</v>
       </c>
       <c r="N57" s="93" t="s">
@@ -16265,16 +16501,16 @@
       <c r="M58" s="57">
         <v>90</v>
       </c>
-      <c r="N58" s="124" t="s">
+      <c r="N58" s="105" t="s">
         <v>733</v>
       </c>
-      <c r="O58" s="124" t="s">
+      <c r="O58" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="P58" s="124" t="s">
+      <c r="P58" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="124" t="s">
+      <c r="Q58" s="105" t="s">
         <v>17</v>
       </c>
       <c r="R58" s="91" t="s">
@@ -17826,32 +18062,32 @@
       <c r="O111" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="P111" s="141" t="s">
+      <c r="P111" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="Q111" s="141" t="s">
+      <c r="Q111" s="119" t="s">
         <v>20</v>
       </c>
       <c r="R111" s="35"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L112" s="83"/>
-      <c r="M112" s="153">
+      <c r="M112" s="130">
         <v>90</v>
       </c>
-      <c r="N112" s="142" t="s">
+      <c r="N112" s="120" t="s">
         <v>521</v>
       </c>
-      <c r="O112" s="142" t="s">
+      <c r="O112" s="120" t="s">
         <v>497</v>
       </c>
-      <c r="P112" s="142" t="s">
+      <c r="P112" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="Q112" s="142" t="s">
+      <c r="Q112" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="R112" s="154"/>
+      <c r="R112" s="131"/>
     </row>
     <row r="113" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L113" s="43"/>
@@ -18292,8 +18528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18332,26 +18568,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="137" t="s">
         <v>597</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -18364,11 +18600,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -18381,11 +18617,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -18397,29 +18633,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="135" t="s">
+      <c r="M7" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="137"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="153"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18451,22 +18687,22 @@
         <v>11</v>
       </c>
       <c r="L8" s="12"/>
-      <c r="M8" s="138" t="s">
+      <c r="M8" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="139" t="s">
+      <c r="N8" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="139" t="s">
+      <c r="O8" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="P8" s="139" t="s">
+      <c r="P8" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="139" t="s">
+      <c r="Q8" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="140" t="s">
+      <c r="R8" s="118" t="s">
         <v>28</v>
       </c>
     </row>
@@ -18499,16 +18735,16 @@
       <c r="M9" s="36">
         <v>22</v>
       </c>
-      <c r="N9" s="124" t="s">
+      <c r="N9" s="105" t="s">
         <v>550</v>
       </c>
-      <c r="O9" s="124" t="s">
+      <c r="O9" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="124" t="s">
+      <c r="P9" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="124" t="s">
+      <c r="Q9" s="105" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="41" t="s">
@@ -18541,7 +18777,7 @@
         <v>590</v>
       </c>
       <c r="L10" s="56"/>
-      <c r="M10" s="120">
+      <c r="M10" s="101">
         <v>23</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -18583,8 +18819,8 @@
       <c r="K11" s="55" t="s">
         <v>583</v>
       </c>
-      <c r="L11" s="144"/>
-      <c r="M11" s="125">
+      <c r="L11" s="122"/>
+      <c r="M11" s="106">
         <v>21</v>
       </c>
       <c r="N11" s="39" t="s">
@@ -18599,7 +18835,7 @@
       <c r="Q11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="126"/>
+      <c r="R11" s="107"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="48">
@@ -18626,20 +18862,20 @@
       <c r="K12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="145"/>
+      <c r="L12" s="123"/>
       <c r="M12" s="47">
         <v>22</v>
       </c>
-      <c r="N12" s="124" t="s">
+      <c r="N12" s="105" t="s">
         <v>552</v>
       </c>
-      <c r="O12" s="124" t="s">
+      <c r="O12" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="P12" s="124" t="s">
+      <c r="P12" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="124" t="s">
+      <c r="Q12" s="105" t="s">
         <v>17</v>
       </c>
       <c r="R12" s="41" t="s">
@@ -18687,7 +18923,7 @@
       <c r="Q13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="126"/>
+      <c r="R13" s="107"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="48">
@@ -18718,16 +18954,16 @@
       <c r="M14" s="47">
         <v>22</v>
       </c>
-      <c r="N14" s="124" t="s">
+      <c r="N14" s="105" t="s">
         <v>581</v>
       </c>
-      <c r="O14" s="124" t="s">
+      <c r="O14" s="105" t="s">
         <v>553</v>
       </c>
-      <c r="P14" s="124" t="s">
+      <c r="P14" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="124" t="s">
+      <c r="Q14" s="105" t="s">
         <v>17</v>
       </c>
       <c r="R14" s="41" t="s">
@@ -19188,16 +19424,16 @@
       <c r="M26" s="59">
         <v>26</v>
       </c>
-      <c r="N26" s="132" t="s">
+      <c r="N26" s="113" t="s">
         <v>581</v>
       </c>
-      <c r="O26" s="132" t="s">
+      <c r="O26" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="P26" s="132" t="s">
+      <c r="P26" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="132" t="s">
+      <c r="Q26" s="113" t="s">
         <v>20</v>
       </c>
       <c r="R26" s="60"/>
@@ -19603,7 +19839,7 @@
       <c r="Q45" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R45" s="126"/>
+      <c r="R45" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19666,26 +19902,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="137" t="s">
         <v>615</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -19698,11 +19934,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -19715,11 +19951,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -19731,29 +19967,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="146" t="s">
+      <c r="M7" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="137"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="153"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -19800,7 +20036,7 @@
       <c r="Q8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="148" t="s">
+      <c r="R8" s="125" t="s">
         <v>28</v>
       </c>
     </row>
@@ -19829,20 +20065,20 @@
       <c r="K9" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="L9" s="147"/>
+      <c r="L9" s="124"/>
       <c r="M9" s="36">
         <v>18</v>
       </c>
-      <c r="N9" s="124" t="s">
+      <c r="N9" s="105" t="s">
         <v>552</v>
       </c>
-      <c r="O9" s="124" t="s">
+      <c r="O9" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="124" t="s">
+      <c r="P9" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="124" t="s">
+      <c r="Q9" s="105" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="41" t="s">
@@ -19874,8 +20110,8 @@
       <c r="K10" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="L10" s="147"/>
-      <c r="M10" s="120">
+      <c r="L10" s="124"/>
+      <c r="M10" s="101">
         <v>15</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -19908,8 +20144,8 @@
       <c r="F11" s="61"/>
       <c r="G11" s="71"/>
       <c r="H11" s="43"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="120">
+      <c r="L11" s="124"/>
+      <c r="M11" s="101">
         <v>13</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -19942,7 +20178,7 @@
       <c r="F12" s="61"/>
       <c r="G12" s="71"/>
       <c r="H12" s="43"/>
-      <c r="L12" s="147"/>
+      <c r="L12" s="124"/>
       <c r="M12" s="48">
         <v>19</v>
       </c>
@@ -20060,7 +20296,7 @@
       <c r="Q15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R15" s="126"/>
+      <c r="R15" s="107"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="48">
@@ -20229,7 +20465,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="74"/>
-      <c r="G25" s="149"/>
+      <c r="G25" s="126"/>
       <c r="H25" s="44"/>
     </row>
   </sheetData>
@@ -20253,7 +20489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R122"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -20293,26 +20529,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="137" t="s">
         <v>618</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -20325,11 +20561,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -20342,11 +20578,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20358,29 +20594,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="146" t="s">
+      <c r="M7" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="137"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="153"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20427,7 +20663,7 @@
       <c r="Q8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="148" t="s">
+      <c r="R8" s="125" t="s">
         <v>28</v>
       </c>
     </row>
@@ -20447,29 +20683,29 @@
       <c r="F9" s="50"/>
       <c r="G9" s="51"/>
       <c r="H9" s="44"/>
-      <c r="I9" s="150">
+      <c r="I9" s="127">
         <v>115</v>
       </c>
-      <c r="J9" s="151" t="s">
+      <c r="J9" s="128" t="s">
         <v>226</v>
       </c>
-      <c r="K9" s="152" t="s">
+      <c r="K9" s="129" t="s">
         <v>732</v>
       </c>
       <c r="L9" s="68"/>
       <c r="M9" s="36">
         <v>115</v>
       </c>
-      <c r="N9" s="124" t="s">
+      <c r="N9" s="105" t="s">
         <v>734</v>
       </c>
-      <c r="O9" s="124" t="s">
+      <c r="O9" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="124" t="s">
+      <c r="P9" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="124" t="s">
+      <c r="Q9" s="105" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="41"/>
@@ -20490,7 +20726,7 @@
       <c r="F10" s="38"/>
       <c r="G10" s="52"/>
       <c r="L10" s="68"/>
-      <c r="M10" s="120">
+      <c r="M10" s="101">
         <v>12</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -20522,8 +20758,8 @@
       </c>
       <c r="F11" s="61"/>
       <c r="G11" s="52"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="125">
+      <c r="L11" s="121"/>
+      <c r="M11" s="106">
         <v>64</v>
       </c>
       <c r="N11" s="39" t="s">
@@ -20538,7 +20774,7 @@
       <c r="Q11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="126"/>
+      <c r="R11" s="107"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="48">
@@ -22315,6 +22551,486 @@
       </c>
       <c r="F122" s="74"/>
       <c r="G122" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="I7:K7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="137" t="s">
+        <v>735</v>
+      </c>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="134" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="143" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="143" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="148" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="153"/>
+    </row>
+    <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="125" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="47">
+        <v>1</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>736</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="50">
+        <v>50</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="95">
+        <v>3</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K9" s="64" t="s">
+        <v>751</v>
+      </c>
+      <c r="L9" s="68"/>
+      <c r="M9" s="95">
+        <v>3</v>
+      </c>
+      <c r="N9" s="105" t="s">
+        <v>750</v>
+      </c>
+      <c r="O9" s="105" t="s">
+        <v>738</v>
+      </c>
+      <c r="P9" s="105" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q9" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="53">
+        <v>2</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>737</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="54">
+        <v>22</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="42">
+        <v>4</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>749</v>
+      </c>
+      <c r="K10" s="66" t="s">
+        <v>752</v>
+      </c>
+      <c r="L10" s="68"/>
+      <c r="M10" s="42">
+        <v>4</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H11" s="43"/>
+      <c r="I11" s="42">
+        <v>6</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="68"/>
+      <c r="M11" s="42">
+        <v>7</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>740</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="44"/>
+      <c r="I12" s="96">
+        <v>7</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="42">
+        <v>6</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>741</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="34"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L13" s="43"/>
+      <c r="M13" s="42">
+        <v>6</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>742</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L14" s="43"/>
+      <c r="M14" s="42">
+        <v>7</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>743</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="34"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L15" s="43"/>
+      <c r="M15" s="42">
+        <v>6</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>744</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="34"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L16" s="43"/>
+      <c r="M16" s="42">
+        <v>7</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>745</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="34"/>
+    </row>
+    <row r="17" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L17" s="43"/>
+      <c r="M17" s="42">
+        <v>6</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>746</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="34"/>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L18" s="43"/>
+      <c r="M18" s="42">
+        <v>6</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="P18" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="34"/>
+    </row>
+    <row r="19" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="44"/>
+      <c r="M19" s="96">
+        <v>1</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>750</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>748</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Cnl/Mapeos_INV_CNL_V1.xlsx
+++ b/Cnl/Mapeos_INV_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="285" yWindow="615" windowWidth="9225" windowHeight="4410" tabRatio="583" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="T20TERCERO" sheetId="28" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="771">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3710,10 +3710,64 @@
     <t>Upsert CGO_EMP</t>
   </si>
   <si>
-    <t>1. Búsqueda del correlativo</t>
-  </si>
-  <si>
-    <t>2. Búsqueda tipo Posición empleado</t>
+    <t>Busqueda de Naturaleza Entidad</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T26PAGADURIA /8. Búsqueda de Naturaleza Entidad</t>
+  </si>
+  <si>
+    <t>Busqueda del sector economico</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T26PAGADURIA /9. Búsqueda del sector económico</t>
+  </si>
+  <si>
+    <t>Busqueda del tipo de estado trabajo persona</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T22INFLABORAL /3. Búsqueda del tipo de estado trabajo persona</t>
+  </si>
+  <si>
+    <t>Busqueda Cargo en Empresa</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T22INFLABORAL /4. Búsqueda Cargo en Empresa</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T15CARGO /1. Búsqueda del correlativo</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T15CARGO /2. Búsqueda tipo Posición empleado</t>
+  </si>
+  <si>
+    <t>22,10</t>
+  </si>
+  <si>
+    <t>22,3</t>
+  </si>
+  <si>
+    <t>22,6</t>
+  </si>
+  <si>
+    <t>22,1</t>
+  </si>
+  <si>
+    <t>22,0</t>
+  </si>
+  <si>
+    <t>22,15</t>
+  </si>
+  <si>
+    <t>22,4</t>
+  </si>
+  <si>
+    <t>22,19</t>
+  </si>
+  <si>
+    <t>22,18</t>
+  </si>
+  <si>
+    <t>22,2</t>
   </si>
 </sst>
 </file>
@@ -4760,7 +4814,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -4957,7 +5011,6 @@
     <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4969,6 +5022,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5038,8 +5096,11 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="86">
@@ -5519,7 +5580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5529,8 +5590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R207"/>
   <sheetViews>
-    <sheetView topLeftCell="L202" workbookViewId="0">
-      <selection activeCell="M220" sqref="M220"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5544,8 +5605,8 @@
     <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" style="2" customWidth="1"/>
     <col min="9" max="9" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="69" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="106.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="75.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="2" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.5703125" style="2" customWidth="1"/>
@@ -5569,26 +5630,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -5601,11 +5662,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -5618,11 +5679,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="147"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5634,29 +5695,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="152"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="132" t="s">
+      <c r="M7" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6028,13 +6089,13 @@
       <c r="F16" s="72"/>
       <c r="G16" s="73"/>
       <c r="H16" s="43"/>
-      <c r="I16" s="33">
+      <c r="I16" s="101">
         <v>47</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="K16" s="66" t="s">
+      <c r="K16" s="132" t="s">
         <v>391</v>
       </c>
       <c r="L16" s="43"/>
@@ -6366,8 +6427,8 @@
       <c r="D24" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="38">
-        <v>22</v>
+      <c r="E24" s="157" t="s">
+        <v>761</v>
       </c>
       <c r="F24" s="72"/>
       <c r="G24" s="73"/>
@@ -6399,8 +6460,8 @@
       <c r="D25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="38">
-        <v>22</v>
+      <c r="E25" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F25" s="72"/>
       <c r="G25" s="73"/>
@@ -6432,8 +6493,8 @@
       <c r="D26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="38">
-        <v>22</v>
+      <c r="E26" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F26" s="72"/>
       <c r="G26" s="73"/>
@@ -6465,8 +6526,8 @@
       <c r="D27" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="38">
-        <v>22</v>
+      <c r="E27" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F27" s="72"/>
       <c r="G27" s="73"/>
@@ -6498,8 +6559,8 @@
       <c r="D28" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="38">
-        <v>22</v>
+      <c r="E28" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F28" s="72"/>
       <c r="G28" s="73"/>
@@ -6531,8 +6592,8 @@
       <c r="D29" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="38">
-        <v>22</v>
+      <c r="E29" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F29" s="72"/>
       <c r="G29" s="73"/>
@@ -6564,8 +6625,8 @@
       <c r="D30" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="38">
-        <v>22</v>
+      <c r="E30" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F30" s="72"/>
       <c r="G30" s="73"/>
@@ -6597,8 +6658,8 @@
       <c r="D31" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="38">
-        <v>22</v>
+      <c r="E31" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F31" s="72"/>
       <c r="G31" s="73"/>
@@ -6630,8 +6691,8 @@
       <c r="D32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="38">
-        <v>22</v>
+      <c r="E32" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F32" s="72"/>
       <c r="G32" s="73"/>
@@ -6663,8 +6724,8 @@
       <c r="D33" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="38">
-        <v>22</v>
+      <c r="E33" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F33" s="72"/>
       <c r="G33" s="73"/>
@@ -6696,8 +6757,8 @@
       <c r="D34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="38">
-        <v>22</v>
+      <c r="E34" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F34" s="72"/>
       <c r="G34" s="73"/>
@@ -6729,8 +6790,8 @@
       <c r="D35" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="38">
-        <v>22</v>
+      <c r="E35" s="158" t="s">
+        <v>764</v>
       </c>
       <c r="F35" s="72"/>
       <c r="G35" s="73"/>
@@ -6762,8 +6823,8 @@
       <c r="D36" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="38">
-        <v>22</v>
+      <c r="E36" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F36" s="72"/>
       <c r="G36" s="73"/>
@@ -6795,8 +6856,8 @@
       <c r="D37" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="38">
-        <v>22</v>
+      <c r="E37" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F37" s="72"/>
       <c r="G37" s="73"/>
@@ -6828,8 +6889,8 @@
       <c r="D38" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="38">
-        <v>22</v>
+      <c r="E38" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F38" s="72"/>
       <c r="G38" s="73"/>
@@ -6861,8 +6922,8 @@
       <c r="D39" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="38">
-        <v>22</v>
+      <c r="E39" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F39" s="72"/>
       <c r="G39" s="73"/>
@@ -8807,7 +8868,7 @@
     </row>
     <row r="135" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L135" s="43"/>
-      <c r="M135" s="33">
+      <c r="M135" s="101">
         <v>47</v>
       </c>
       <c r="N135" s="31" t="s">
@@ -8822,7 +8883,7 @@
       <c r="Q135" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R135" s="34"/>
+      <c r="R135" s="37"/>
     </row>
     <row r="136" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L136" s="43"/>
@@ -10215,8 +10276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10255,26 +10316,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="139" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -10287,11 +10348,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -10304,11 +10365,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="147"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10320,29 +10381,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="152"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="132" t="s">
+      <c r="M7" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10712,13 +10773,13 @@
       <c r="F16" s="72"/>
       <c r="G16" s="73"/>
       <c r="H16" s="87"/>
-      <c r="I16" s="32">
+      <c r="I16" s="106">
         <v>28</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="K16" s="67" t="s">
+      <c r="K16" s="133" t="s">
         <v>433</v>
       </c>
       <c r="L16" s="43"/>
@@ -10782,8 +10843,8 @@
       <c r="D18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="38">
-        <v>22</v>
+      <c r="E18" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="73"/>
@@ -10815,8 +10876,8 @@
       <c r="D19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="38">
-        <v>22</v>
+      <c r="E19" s="158" t="s">
+        <v>764</v>
       </c>
       <c r="F19" s="72"/>
       <c r="G19" s="73"/>
@@ -10848,8 +10909,8 @@
       <c r="D20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="38">
-        <v>22</v>
+      <c r="E20" s="158" t="s">
+        <v>764</v>
       </c>
       <c r="F20" s="72"/>
       <c r="G20" s="73"/>
@@ -10881,8 +10942,8 @@
       <c r="D21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="38">
-        <v>22</v>
+      <c r="E21" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F21" s="72"/>
       <c r="G21" s="73"/>
@@ -10914,8 +10975,8 @@
       <c r="D22" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="38">
-        <v>22</v>
+      <c r="E22" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F22" s="72"/>
       <c r="G22" s="73"/>
@@ -10947,8 +11008,8 @@
       <c r="D23" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="38">
-        <v>22</v>
+      <c r="E23" s="158" t="s">
+        <v>764</v>
       </c>
       <c r="F23" s="72"/>
       <c r="G23" s="73"/>
@@ -13139,8 +13200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R57"/>
   <sheetViews>
-    <sheetView topLeftCell="K19" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13179,26 +13240,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="139" t="s">
         <v>442</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -13211,11 +13272,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -13228,11 +13289,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="147"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13244,29 +13305,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="152"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="132" t="s">
+      <c r="M7" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13630,8 +13691,8 @@
       <c r="D16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="38">
-        <v>22</v>
+      <c r="E16" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="79" t="s">
@@ -13675,8 +13736,8 @@
       <c r="D17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="38">
-        <v>22</v>
+      <c r="E17" s="158" t="s">
+        <v>765</v>
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="73"/>
@@ -13718,8 +13779,8 @@
       <c r="D18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="38">
-        <v>22</v>
+      <c r="E18" s="158" t="s">
+        <v>764</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="73"/>
@@ -13761,8 +13822,8 @@
       <c r="D19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="38">
-        <v>22</v>
+      <c r="E19" s="158" t="s">
+        <v>764</v>
       </c>
       <c r="F19" s="72"/>
       <c r="G19" s="73"/>
@@ -13804,8 +13865,8 @@
       <c r="D20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="38">
-        <v>22</v>
+      <c r="E20" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F20" s="72"/>
       <c r="G20" s="73"/>
@@ -14565,8 +14626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R134"/>
   <sheetViews>
-    <sheetView topLeftCell="L106" workbookViewId="0">
-      <selection activeCell="N124" sqref="N124"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14605,26 +14666,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -14637,11 +14698,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -14654,11 +14715,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="147"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14670,29 +14731,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="152"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="151" t="s">
+      <c r="M7" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="153"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="155"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14758,17 +14819,17 @@
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="62"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="95">
+      <c r="H9" s="86"/>
+      <c r="I9" s="57">
         <v>90</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="K9" s="64" t="s">
+      <c r="K9" s="58" t="s">
         <v>522</v>
       </c>
-      <c r="L9" s="68"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="36">
         <v>90</v>
       </c>
@@ -14803,17 +14864,17 @@
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="71"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="42">
+      <c r="H10" s="86"/>
+      <c r="I10" s="33">
         <v>91</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="68"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="101">
         <v>91</v>
       </c>
@@ -14846,17 +14907,17 @@
       </c>
       <c r="F11" s="61"/>
       <c r="G11" s="71"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="42">
+      <c r="H11" s="86"/>
+      <c r="I11" s="33">
         <v>92</v>
       </c>
       <c r="J11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="65" t="s">
+      <c r="K11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="68"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="101">
         <v>92</v>
       </c>
@@ -14889,17 +14950,17 @@
       </c>
       <c r="F12" s="61"/>
       <c r="G12" s="71"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="42">
+      <c r="H12" s="86"/>
+      <c r="I12" s="33">
         <v>93</v>
       </c>
       <c r="J12" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="66" t="s">
+      <c r="K12" s="55" t="s">
         <v>523</v>
       </c>
-      <c r="L12" s="68"/>
+      <c r="L12" s="56"/>
       <c r="M12" s="48">
         <v>93</v>
       </c>
@@ -14932,17 +14993,17 @@
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="88"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="42">
+      <c r="H13" s="86"/>
+      <c r="I13" s="33">
         <v>94</v>
       </c>
       <c r="J13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="66" t="s">
+      <c r="K13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="43"/>
+      <c r="L13" s="49"/>
       <c r="M13" s="48">
         <v>1</v>
       </c>
@@ -14975,17 +15036,17 @@
       </c>
       <c r="F14" s="72"/>
       <c r="G14" s="89"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="42">
+      <c r="H14" s="86"/>
+      <c r="I14" s="33">
         <v>95</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="43"/>
+      <c r="L14" s="49"/>
       <c r="M14" s="48">
         <v>97</v>
       </c>
@@ -15018,17 +15079,17 @@
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="89"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="42">
+      <c r="H15" s="86"/>
+      <c r="I15" s="33">
         <v>96</v>
       </c>
       <c r="J15" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="K15" s="65" t="s">
+      <c r="K15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="43"/>
+      <c r="L15" s="49"/>
       <c r="M15" s="48">
         <v>94</v>
       </c>
@@ -15061,17 +15122,17 @@
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="88"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="42">
+      <c r="H16" s="86"/>
+      <c r="I16" s="33">
         <v>97</v>
       </c>
       <c r="J16" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="K16" s="66" t="s">
+      <c r="K16" s="55" t="s">
         <v>524</v>
       </c>
-      <c r="L16" s="43"/>
+      <c r="L16" s="49"/>
       <c r="M16" s="48">
         <v>98</v>
       </c>
@@ -15104,17 +15165,17 @@
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="89"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="42">
+      <c r="H17" s="86"/>
+      <c r="I17" s="101">
         <v>98</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="K17" s="66" t="s">
+      <c r="K17" s="90" t="s">
         <v>525</v>
       </c>
-      <c r="L17" s="43"/>
+      <c r="L17" s="49"/>
       <c r="M17" s="48">
         <v>89</v>
       </c>
@@ -15147,17 +15208,17 @@
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="89"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="42">
+      <c r="H18" s="86"/>
+      <c r="I18" s="33">
         <v>100</v>
       </c>
       <c r="J18" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="K18" s="66" t="s">
+      <c r="K18" s="55" t="s">
         <v>526</v>
       </c>
-      <c r="L18" s="43"/>
+      <c r="L18" s="49"/>
       <c r="M18" s="48">
         <v>94</v>
       </c>
@@ -15190,17 +15251,17 @@
       </c>
       <c r="F19" s="72"/>
       <c r="G19" s="89"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="42">
+      <c r="H19" s="86"/>
+      <c r="I19" s="33">
         <v>101</v>
       </c>
       <c r="J19" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="K19" s="66" t="s">
+      <c r="K19" s="55" t="s">
         <v>527</v>
       </c>
-      <c r="L19" s="43"/>
+      <c r="L19" s="49"/>
       <c r="M19" s="48">
         <v>95</v>
       </c>
@@ -15218,7 +15279,7 @@
       </c>
       <c r="R19" s="37"/>
     </row>
-    <row r="20" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="48">
         <v>12</v>
       </c>
@@ -15233,17 +15294,17 @@
       </c>
       <c r="F20" s="72"/>
       <c r="G20" s="89"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="96">
+      <c r="H20" s="86"/>
+      <c r="I20" s="33">
         <v>103</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="K20" s="67" t="s">
+      <c r="K20" s="55" t="s">
         <v>528</v>
       </c>
-      <c r="L20" s="43"/>
+      <c r="L20" s="49"/>
       <c r="M20" s="48">
         <v>94</v>
       </c>
@@ -15276,7 +15337,17 @@
       </c>
       <c r="F21" s="72"/>
       <c r="G21" s="89"/>
-      <c r="L21" s="43"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="33">
+        <v>104</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>751</v>
+      </c>
+      <c r="K21" s="55" t="s">
+        <v>752</v>
+      </c>
+      <c r="L21" s="49"/>
       <c r="M21" s="48">
         <v>95</v>
       </c>
@@ -15294,7 +15365,7 @@
       </c>
       <c r="R21" s="90"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="48">
         <v>14</v>
       </c>
@@ -15309,7 +15380,17 @@
       </c>
       <c r="F22" s="72"/>
       <c r="G22" s="89"/>
-      <c r="L22" s="43"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="32">
+        <v>105</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>753</v>
+      </c>
+      <c r="K22" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="L22" s="49"/>
       <c r="M22" s="48">
         <v>94</v>
       </c>
@@ -15700,8 +15781,8 @@
       <c r="D34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="38">
-        <v>22</v>
+      <c r="E34" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F34" s="72"/>
       <c r="G34" s="73"/>
@@ -15733,8 +15814,8 @@
       <c r="D35" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="38">
-        <v>22</v>
+      <c r="E35" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F35" s="72"/>
       <c r="G35" s="73"/>
@@ -15766,8 +15847,8 @@
       <c r="D36" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="38">
-        <v>22</v>
+      <c r="E36" s="158" t="s">
+        <v>764</v>
       </c>
       <c r="F36" s="72"/>
       <c r="G36" s="73"/>
@@ -15799,8 +15880,8 @@
       <c r="D37" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="38">
-        <v>22</v>
+      <c r="E37" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F37" s="72"/>
       <c r="G37" s="73"/>
@@ -15832,8 +15913,8 @@
       <c r="D38" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="38">
-        <v>22</v>
+      <c r="E38" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F38" s="72"/>
       <c r="G38" s="73"/>
@@ -15865,8 +15946,8 @@
       <c r="D39" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="38">
-        <v>22</v>
+      <c r="E39" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F39" s="72"/>
       <c r="G39" s="73"/>
@@ -15898,8 +15979,8 @@
       <c r="D40" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="38">
-        <v>22</v>
+      <c r="E40" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F40" s="72"/>
       <c r="G40" s="73"/>
@@ -15931,8 +16012,8 @@
       <c r="D41" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="38">
-        <v>22</v>
+      <c r="E41" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F41" s="72"/>
       <c r="G41" s="73"/>
@@ -15964,8 +16045,8 @@
       <c r="D42" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="38">
-        <v>22</v>
+      <c r="E42" s="158" t="s">
+        <v>764</v>
       </c>
       <c r="F42" s="72"/>
       <c r="G42" s="73"/>
@@ -15997,8 +16078,8 @@
       <c r="D43" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="38">
-        <v>22</v>
+      <c r="E43" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F43" s="72"/>
       <c r="G43" s="73"/>
@@ -16030,8 +16111,8 @@
       <c r="D44" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="38">
-        <v>22</v>
+      <c r="E44" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F44" s="72"/>
       <c r="G44" s="73"/>
@@ -16063,8 +16144,8 @@
       <c r="D45" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="38">
-        <v>22</v>
+      <c r="E45" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F45" s="72"/>
       <c r="G45" s="73"/>
@@ -16096,8 +16177,8 @@
       <c r="D46" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="38">
-        <v>22</v>
+      <c r="E46" s="158" t="s">
+        <v>766</v>
       </c>
       <c r="F46" s="72"/>
       <c r="G46" s="73"/>
@@ -16129,8 +16210,8 @@
       <c r="D47" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="38">
-        <v>22</v>
+      <c r="E47" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F47" s="72"/>
       <c r="G47" s="73"/>
@@ -16162,8 +16243,8 @@
       <c r="D48" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="38">
-        <v>22</v>
+      <c r="E48" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F48" s="72"/>
       <c r="G48" s="73"/>
@@ -16195,8 +16276,8 @@
       <c r="D49" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="38">
-        <v>22</v>
+      <c r="E49" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F49" s="72"/>
       <c r="G49" s="73"/>
@@ -16228,8 +16309,8 @@
       <c r="D50" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="38">
-        <v>22</v>
+      <c r="E50" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F50" s="72"/>
       <c r="G50" s="73"/>
@@ -16261,8 +16342,8 @@
       <c r="D51" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="38">
-        <v>22</v>
+      <c r="E51" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F51" s="72"/>
       <c r="G51" s="73"/>
@@ -16294,8 +16375,8 @@
       <c r="D52" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="38">
-        <v>22</v>
+      <c r="E52" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F52" s="72"/>
       <c r="G52" s="73"/>
@@ -16327,8 +16408,8 @@
       <c r="D53" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="38">
-        <v>22</v>
+      <c r="E53" s="158" t="s">
+        <v>767</v>
       </c>
       <c r="F53" s="72"/>
       <c r="G53" s="73"/>
@@ -16360,8 +16441,8 @@
       <c r="D54" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="38">
-        <v>22</v>
+      <c r="E54" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F54" s="72"/>
       <c r="G54" s="73"/>
@@ -16393,8 +16474,8 @@
       <c r="D55" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="38">
-        <v>22</v>
+      <c r="E55" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F55" s="72"/>
       <c r="G55" s="73"/>
@@ -16426,8 +16507,8 @@
       <c r="D56" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="38">
-        <v>22</v>
+      <c r="E56" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F56" s="72"/>
       <c r="G56" s="73"/>
@@ -16459,8 +16540,8 @@
       <c r="D57" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="38">
-        <v>22</v>
+      <c r="E57" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="73"/>
@@ -16492,8 +16573,8 @@
       <c r="D58" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="38">
-        <v>22</v>
+      <c r="E58" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F58" s="72"/>
       <c r="G58" s="73"/>
@@ -16527,8 +16608,8 @@
       <c r="D59" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="38">
-        <v>22</v>
+      <c r="E59" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F59" s="72"/>
       <c r="G59" s="73"/>
@@ -16560,8 +16641,8 @@
       <c r="D60" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="38">
-        <v>22</v>
+      <c r="E60" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F60" s="72"/>
       <c r="G60" s="73"/>
@@ -16593,8 +16674,8 @@
       <c r="D61" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="38">
-        <v>22</v>
+      <c r="E61" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F61" s="72"/>
       <c r="G61" s="73"/>
@@ -16626,8 +16707,8 @@
       <c r="D62" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="38">
-        <v>22</v>
+      <c r="E62" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F62" s="72"/>
       <c r="G62" s="73"/>
@@ -16659,8 +16740,8 @@
       <c r="D63" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="38">
-        <v>22</v>
+      <c r="E63" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F63" s="72"/>
       <c r="G63" s="73"/>
@@ -16692,8 +16773,8 @@
       <c r="D64" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E64" s="38">
-        <v>22</v>
+      <c r="E64" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F64" s="72"/>
       <c r="G64" s="73"/>
@@ -16725,8 +16806,8 @@
       <c r="D65" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="38">
-        <v>22</v>
+      <c r="E65" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F65" s="72"/>
       <c r="G65" s="73"/>
@@ -16758,8 +16839,8 @@
       <c r="D66" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="38">
-        <v>22</v>
+      <c r="E66" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F66" s="72"/>
       <c r="G66" s="73"/>
@@ -16791,8 +16872,8 @@
       <c r="D67" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="38">
-        <v>22</v>
+      <c r="E67" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F67" s="72"/>
       <c r="G67" s="73"/>
@@ -16824,8 +16905,8 @@
       <c r="D68" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E68" s="38">
-        <v>22</v>
+      <c r="E68" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F68" s="72"/>
       <c r="G68" s="73"/>
@@ -16857,8 +16938,8 @@
       <c r="D69" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E69" s="38">
-        <v>22</v>
+      <c r="E69" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F69" s="72"/>
       <c r="G69" s="73"/>
@@ -16890,8 +16971,8 @@
       <c r="D70" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="38">
-        <v>22</v>
+      <c r="E70" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F70" s="72"/>
       <c r="G70" s="73"/>
@@ -16923,8 +17004,8 @@
       <c r="D71" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="38">
-        <v>22</v>
+      <c r="E71" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F71" s="72"/>
       <c r="G71" s="73"/>
@@ -16956,8 +17037,8 @@
       <c r="D72" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="38">
-        <v>22</v>
+      <c r="E72" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F72" s="72"/>
       <c r="G72" s="73"/>
@@ -16989,8 +17070,8 @@
       <c r="D73" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="38">
-        <v>22</v>
+      <c r="E73" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F73" s="72"/>
       <c r="G73" s="73"/>
@@ -17022,8 +17103,8 @@
       <c r="D74" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="38">
-        <v>22</v>
+      <c r="E74" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F74" s="72"/>
       <c r="G74" s="73"/>
@@ -17055,14 +17136,14 @@
       <c r="D75" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="38">
-        <v>22</v>
+      <c r="E75" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F75" s="72"/>
       <c r="G75" s="73"/>
       <c r="L75" s="86"/>
-      <c r="M75" s="33">
-        <v>56</v>
+      <c r="M75" s="101">
+        <v>104</v>
       </c>
       <c r="N75" s="31" t="s">
         <v>733</v>
@@ -17076,7 +17157,7 @@
       <c r="Q75" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R75" s="34"/>
+      <c r="R75" s="37"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="48">
@@ -17088,8 +17169,8 @@
       <c r="D76" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E76" s="38">
-        <v>22</v>
+      <c r="E76" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F76" s="72"/>
       <c r="G76" s="73"/>
@@ -17121,8 +17202,8 @@
       <c r="D77" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="38">
-        <v>22</v>
+      <c r="E77" s="158" t="s">
+        <v>765</v>
       </c>
       <c r="F77" s="72"/>
       <c r="G77" s="73"/>
@@ -17154,8 +17235,8 @@
       <c r="D78" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="38">
-        <v>22</v>
+      <c r="E78" s="158" t="s">
+        <v>767</v>
       </c>
       <c r="F78" s="72"/>
       <c r="G78" s="73"/>
@@ -17187,13 +17268,13 @@
       <c r="D79" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E79" s="38">
-        <v>22</v>
+      <c r="E79" s="158" t="s">
+        <v>767</v>
       </c>
       <c r="F79" s="72"/>
       <c r="G79" s="73"/>
       <c r="L79" s="86"/>
-      <c r="M79" s="33">
+      <c r="M79" s="101">
         <v>98</v>
       </c>
       <c r="N79" s="31" t="s">
@@ -17208,7 +17289,7 @@
       <c r="Q79" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R79" s="34"/>
+      <c r="R79" s="37"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" s="48">
@@ -17220,8 +17301,8 @@
       <c r="D80" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="38">
-        <v>22</v>
+      <c r="E80" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F80" s="72"/>
       <c r="G80" s="73"/>
@@ -17253,8 +17334,8 @@
       <c r="D81" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E81" s="38">
-        <v>22</v>
+      <c r="E81" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F81" s="72"/>
       <c r="G81" s="73"/>
@@ -17286,8 +17367,8 @@
       <c r="D82" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="38">
-        <v>22</v>
+      <c r="E82" s="158" t="s">
+        <v>764</v>
       </c>
       <c r="F82" s="72"/>
       <c r="G82" s="73"/>
@@ -17319,8 +17400,8 @@
       <c r="D83" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="38">
-        <v>22</v>
+      <c r="E83" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F83" s="72"/>
       <c r="G83" s="73"/>
@@ -17352,8 +17433,8 @@
       <c r="D84" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="38">
-        <v>22</v>
+      <c r="E84" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F84" s="72"/>
       <c r="G84" s="73"/>
@@ -17385,14 +17466,14 @@
       <c r="D85" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="38">
-        <v>22</v>
+      <c r="E85" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F85" s="72"/>
       <c r="G85" s="73"/>
       <c r="L85" s="86"/>
-      <c r="M85" s="76">
-        <v>45</v>
+      <c r="M85" s="48">
+        <v>105</v>
       </c>
       <c r="N85" s="31" t="s">
         <v>733</v>
@@ -17406,7 +17487,7 @@
       <c r="Q85" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R85" s="34"/>
+      <c r="R85" s="37"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B86" s="48">
@@ -18072,7 +18153,7 @@
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L112" s="83"/>
-      <c r="M112" s="130">
+      <c r="M112" s="129">
         <v>90</v>
       </c>
       <c r="N112" s="120" t="s">
@@ -18087,7 +18168,7 @@
       <c r="Q112" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="R112" s="131"/>
+      <c r="R112" s="130"/>
     </row>
     <row r="113" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L113" s="43"/>
@@ -18148,7 +18229,7 @@
     </row>
     <row r="116" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L116" s="43"/>
-      <c r="M116" s="33">
+      <c r="M116" s="101">
         <v>98</v>
       </c>
       <c r="N116" s="31" t="s">
@@ -18163,7 +18244,7 @@
       <c r="Q116" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R116" s="34"/>
+      <c r="R116" s="37"/>
     </row>
     <row r="117" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L117" s="43"/>
@@ -18528,8 +18609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:K13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18568,26 +18649,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="139" t="s">
         <v>597</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -18600,11 +18681,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -18617,11 +18698,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="147"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -18633,29 +18714,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="152"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="151" t="s">
+      <c r="M7" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="153"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="155"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18767,13 +18848,13 @@
       <c r="F10" s="38"/>
       <c r="G10" s="52"/>
       <c r="H10" s="49"/>
-      <c r="I10" s="33">
+      <c r="I10" s="101">
         <v>23</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="90" t="s">
         <v>590</v>
       </c>
       <c r="L10" s="56"/>
@@ -18892,8 +18973,8 @@
       <c r="D13" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="38">
-        <v>22</v>
+      <c r="E13" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="79"/>
@@ -18935,8 +19016,8 @@
       <c r="D14" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="38">
-        <v>22</v>
+      <c r="E14" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F14" s="72"/>
       <c r="G14" s="73"/>
@@ -18980,8 +19061,8 @@
       <c r="D15" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="38">
-        <v>22</v>
+      <c r="E15" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="73"/>
@@ -19023,8 +19104,8 @@
       <c r="D16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="38">
-        <v>22</v>
+      <c r="E16" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="79"/>
@@ -19066,8 +19147,8 @@
       <c r="D17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="38">
-        <v>22</v>
+      <c r="E17" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="73"/>
@@ -19111,8 +19192,8 @@
       <c r="D18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="38">
-        <v>22</v>
+      <c r="E18" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="73"/>
@@ -19154,8 +19235,8 @@
       <c r="D19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="38">
-        <v>22</v>
+      <c r="E19" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F19" s="72"/>
       <c r="G19" s="73"/>
@@ -19197,8 +19278,8 @@
       <c r="D20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="38">
-        <v>22</v>
+      <c r="E20" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F20" s="72"/>
       <c r="G20" s="73"/>
@@ -19240,8 +19321,8 @@
       <c r="D21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="38">
-        <v>22</v>
+      <c r="E21" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F21" s="72"/>
       <c r="G21" s="73"/>
@@ -19283,8 +19364,8 @@
       <c r="D22" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="38">
-        <v>22</v>
+      <c r="E22" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F22" s="72"/>
       <c r="G22" s="73"/>
@@ -19316,8 +19397,8 @@
       <c r="D23" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="38">
-        <v>22</v>
+      <c r="E23" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F23" s="72"/>
       <c r="G23" s="73"/>
@@ -19349,8 +19430,8 @@
       <c r="D24" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="38">
-        <v>22</v>
+      <c r="E24" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F24" s="72"/>
       <c r="G24" s="73"/>
@@ -19382,8 +19463,8 @@
       <c r="D25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="38">
-        <v>22</v>
+      <c r="E25" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F25" s="72"/>
       <c r="G25" s="73"/>
@@ -19415,8 +19496,8 @@
       <c r="D26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="38">
-        <v>22</v>
+      <c r="E26" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F26" s="72"/>
       <c r="G26" s="73"/>
@@ -19448,8 +19529,8 @@
       <c r="D27" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="38">
-        <v>22</v>
+      <c r="E27" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F27" s="72"/>
       <c r="G27" s="73"/>
@@ -19862,8 +19943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19902,26 +19983,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="139" t="s">
         <v>615</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -19934,11 +20015,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -19951,11 +20032,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="147"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -19967,29 +20048,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="152"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="154" t="s">
+      <c r="M7" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="153"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="155"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20036,7 +20117,7 @@
       <c r="Q8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="125" t="s">
+      <c r="R8" s="124" t="s">
         <v>28</v>
       </c>
     </row>
@@ -20055,7 +20136,7 @@
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="62"/>
-      <c r="H9" s="43"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="57">
         <v>18</v>
       </c>
@@ -20065,7 +20146,7 @@
       <c r="K9" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="L9" s="124"/>
+      <c r="L9" s="103"/>
       <c r="M9" s="36">
         <v>18</v>
       </c>
@@ -20085,7 +20166,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="48">
         <v>2</v>
       </c>
@@ -20100,17 +20181,17 @@
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="71"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="32">
+      <c r="H10" s="86"/>
+      <c r="I10" s="33">
         <v>19</v>
       </c>
-      <c r="J10" s="54" t="s">
+      <c r="J10" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="K10" s="63" t="s">
+      <c r="K10" s="55" t="s">
         <v>617</v>
       </c>
-      <c r="L10" s="124"/>
+      <c r="L10" s="103"/>
       <c r="M10" s="101">
         <v>15</v>
       </c>
@@ -20143,10 +20224,19 @@
       </c>
       <c r="F11" s="61"/>
       <c r="G11" s="71"/>
-      <c r="H11" s="43"/>
-      <c r="L11" s="124"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="33">
+        <v>20</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>755</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>756</v>
+      </c>
+      <c r="L11" s="103"/>
       <c r="M11" s="101">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
         <v>552</v>
@@ -20162,7 +20252,7 @@
       </c>
       <c r="R11" s="37"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="48">
         <v>4</v>
       </c>
@@ -20177,8 +20267,17 @@
       </c>
       <c r="F12" s="61"/>
       <c r="G12" s="71"/>
-      <c r="H12" s="43"/>
-      <c r="L12" s="124"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="32">
+        <v>21</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="K12" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="L12" s="103"/>
       <c r="M12" s="48">
         <v>19</v>
       </c>
@@ -20248,7 +20347,7 @@
       <c r="H14" s="43"/>
       <c r="L14" s="86"/>
       <c r="M14" s="48">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N14" s="31" t="s">
         <v>552</v>
@@ -20308,8 +20407,8 @@
       <c r="D16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="38">
-        <v>22</v>
+      <c r="E16" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="88"/>
@@ -20325,8 +20424,8 @@
       <c r="D17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="38">
-        <v>22</v>
+      <c r="E17" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="89"/>
@@ -20342,8 +20441,8 @@
       <c r="D18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="38">
-        <v>22</v>
+      <c r="E18" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="89"/>
@@ -20359,8 +20458,8 @@
       <c r="D19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="38">
-        <v>22</v>
+      <c r="E19" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F19" s="72"/>
       <c r="G19" s="89"/>
@@ -20376,8 +20475,8 @@
       <c r="D20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="38">
-        <v>22</v>
+      <c r="E20" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F20" s="72"/>
       <c r="G20" s="89"/>
@@ -20393,8 +20492,8 @@
       <c r="D21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="38">
-        <v>22</v>
+      <c r="E21" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F21" s="72"/>
       <c r="G21" s="89"/>
@@ -20465,7 +20564,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="74"/>
-      <c r="G25" s="126"/>
+      <c r="G25" s="125"/>
       <c r="H25" s="44"/>
     </row>
   </sheetData>
@@ -20489,8 +20588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20529,26 +20628,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="139" t="s">
         <v>618</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -20561,11 +20660,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -20578,11 +20677,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="147"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20594,29 +20693,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="152"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="154" t="s">
+      <c r="M7" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="153"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="155"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20663,7 +20762,7 @@
       <c r="Q8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="125" t="s">
+      <c r="R8" s="124" t="s">
         <v>28</v>
       </c>
     </row>
@@ -20683,13 +20782,13 @@
       <c r="F9" s="50"/>
       <c r="G9" s="51"/>
       <c r="H9" s="44"/>
-      <c r="I9" s="127">
+      <c r="I9" s="126">
         <v>115</v>
       </c>
-      <c r="J9" s="128" t="s">
+      <c r="J9" s="127" t="s">
         <v>226</v>
       </c>
-      <c r="K9" s="129" t="s">
+      <c r="K9" s="128" t="s">
         <v>732</v>
       </c>
       <c r="L9" s="68"/>
@@ -21090,8 +21189,8 @@
       <c r="D31" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="38">
-        <v>22</v>
+      <c r="E31" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F31" s="72"/>
       <c r="G31" s="73"/>
@@ -21106,8 +21205,8 @@
       <c r="D32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="38">
-        <v>22</v>
+      <c r="E32" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F32" s="72"/>
       <c r="G32" s="73"/>
@@ -21122,8 +21221,8 @@
       <c r="D33" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="38">
-        <v>22</v>
+      <c r="E33" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F33" s="72"/>
       <c r="G33" s="73"/>
@@ -21138,8 +21237,8 @@
       <c r="D34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="38">
-        <v>22</v>
+      <c r="E34" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F34" s="72"/>
       <c r="G34" s="73"/>
@@ -21154,8 +21253,8 @@
       <c r="D35" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="38">
-        <v>22</v>
+      <c r="E35" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F35" s="72"/>
       <c r="G35" s="73"/>
@@ -21170,8 +21269,8 @@
       <c r="D36" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="38">
-        <v>22</v>
+      <c r="E36" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F36" s="72"/>
       <c r="G36" s="73"/>
@@ -21186,8 +21285,8 @@
       <c r="D37" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="38">
-        <v>22</v>
+      <c r="E37" s="158" t="s">
+        <v>769</v>
       </c>
       <c r="F37" s="72"/>
       <c r="G37" s="73"/>
@@ -21202,8 +21301,8 @@
       <c r="D38" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="38">
-        <v>22</v>
+      <c r="E38" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F38" s="72"/>
       <c r="G38" s="73"/>
@@ -21218,8 +21317,8 @@
       <c r="D39" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="38">
-        <v>22</v>
+      <c r="E39" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F39" s="72"/>
       <c r="G39" s="73"/>
@@ -21234,8 +21333,8 @@
       <c r="D40" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="38">
-        <v>22</v>
+      <c r="E40" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F40" s="72"/>
       <c r="G40" s="73"/>
@@ -21250,8 +21349,8 @@
       <c r="D41" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="38">
-        <v>22</v>
+      <c r="E41" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F41" s="72"/>
       <c r="G41" s="73"/>
@@ -21266,8 +21365,8 @@
       <c r="D42" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="38">
-        <v>22</v>
+      <c r="E42" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F42" s="72"/>
       <c r="G42" s="73"/>
@@ -21282,8 +21381,8 @@
       <c r="D43" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="38">
-        <v>22</v>
+      <c r="E43" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F43" s="72"/>
       <c r="G43" s="73"/>
@@ -21298,8 +21397,8 @@
       <c r="D44" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="38">
-        <v>22</v>
+      <c r="E44" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F44" s="72"/>
       <c r="G44" s="73"/>
@@ -21314,8 +21413,8 @@
       <c r="D45" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="38">
-        <v>22</v>
+      <c r="E45" s="158" t="s">
+        <v>765</v>
       </c>
       <c r="F45" s="72"/>
       <c r="G45" s="73"/>
@@ -21330,8 +21429,8 @@
       <c r="D46" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="38">
-        <v>22</v>
+      <c r="E46" s="158" t="s">
+        <v>770</v>
       </c>
       <c r="F46" s="72"/>
       <c r="G46" s="73"/>
@@ -21346,8 +21445,8 @@
       <c r="D47" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="38">
-        <v>22</v>
+      <c r="E47" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F47" s="72"/>
       <c r="G47" s="73"/>
@@ -21362,8 +21461,8 @@
       <c r="D48" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="38">
-        <v>22</v>
+      <c r="E48" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F48" s="72"/>
       <c r="G48" s="73"/>
@@ -21378,8 +21477,8 @@
       <c r="D49" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="38">
-        <v>22</v>
+      <c r="E49" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F49" s="72"/>
       <c r="G49" s="73"/>
@@ -21394,8 +21493,8 @@
       <c r="D50" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="38">
-        <v>22</v>
+      <c r="E50" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F50" s="72"/>
       <c r="G50" s="73"/>
@@ -21410,8 +21509,8 @@
       <c r="D51" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="38">
-        <v>22</v>
+      <c r="E51" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F51" s="72"/>
       <c r="G51" s="73"/>
@@ -21426,8 +21525,8 @@
       <c r="D52" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="38">
-        <v>22</v>
+      <c r="E52" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F52" s="72"/>
       <c r="G52" s="73"/>
@@ -21442,8 +21541,8 @@
       <c r="D53" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="38">
-        <v>22</v>
+      <c r="E53" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F53" s="72"/>
       <c r="G53" s="73"/>
@@ -21458,8 +21557,8 @@
       <c r="D54" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="38">
-        <v>22</v>
+      <c r="E54" s="158" t="s">
+        <v>769</v>
       </c>
       <c r="F54" s="72"/>
       <c r="G54" s="73"/>
@@ -21474,8 +21573,8 @@
       <c r="D55" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="38">
-        <v>22</v>
+      <c r="E55" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F55" s="72"/>
       <c r="G55" s="73"/>
@@ -21490,8 +21589,8 @@
       <c r="D56" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="38">
-        <v>22</v>
+      <c r="E56" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F56" s="72"/>
       <c r="G56" s="73"/>
@@ -21506,8 +21605,8 @@
       <c r="D57" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="38">
-        <v>22</v>
+      <c r="E57" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="73"/>
@@ -21522,8 +21621,8 @@
       <c r="D58" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="38">
-        <v>22</v>
+      <c r="E58" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F58" s="72"/>
       <c r="G58" s="73"/>
@@ -21538,8 +21637,8 @@
       <c r="D59" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="38">
-        <v>22</v>
+      <c r="E59" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F59" s="72"/>
       <c r="G59" s="73"/>
@@ -21554,8 +21653,8 @@
       <c r="D60" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="38">
-        <v>22</v>
+      <c r="E60" s="158" t="s">
+        <v>769</v>
       </c>
       <c r="F60" s="72"/>
       <c r="G60" s="73"/>
@@ -21570,8 +21669,8 @@
       <c r="D61" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="38">
-        <v>22</v>
+      <c r="E61" s="158" t="s">
+        <v>764</v>
       </c>
       <c r="F61" s="72"/>
       <c r="G61" s="73"/>
@@ -21586,8 +21685,8 @@
       <c r="D62" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="38">
-        <v>22</v>
+      <c r="E62" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F62" s="72"/>
       <c r="G62" s="73"/>
@@ -21602,8 +21701,8 @@
       <c r="D63" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="38">
-        <v>22</v>
+      <c r="E63" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F63" s="72"/>
       <c r="G63" s="73"/>
@@ -21618,8 +21717,8 @@
       <c r="D64" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E64" s="38">
-        <v>22</v>
+      <c r="E64" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F64" s="72"/>
       <c r="G64" s="73"/>
@@ -21634,8 +21733,8 @@
       <c r="D65" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="38">
-        <v>22</v>
+      <c r="E65" s="158" t="s">
+        <v>764</v>
       </c>
       <c r="F65" s="72"/>
       <c r="G65" s="73"/>
@@ -21650,8 +21749,8 @@
       <c r="D66" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="38">
-        <v>22</v>
+      <c r="E66" s="158" t="s">
+        <v>764</v>
       </c>
       <c r="F66" s="72"/>
       <c r="G66" s="73"/>
@@ -21666,8 +21765,8 @@
       <c r="D67" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="38">
-        <v>22</v>
+      <c r="E67" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F67" s="72"/>
       <c r="G67" s="73"/>
@@ -21682,8 +21781,8 @@
       <c r="D68" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E68" s="38">
-        <v>22</v>
+      <c r="E68" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F68" s="72"/>
       <c r="G68" s="73"/>
@@ -21698,8 +21797,8 @@
       <c r="D69" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E69" s="38">
-        <v>22</v>
+      <c r="E69" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F69" s="72"/>
       <c r="G69" s="73"/>
@@ -21714,8 +21813,8 @@
       <c r="D70" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="38">
-        <v>22</v>
+      <c r="E70" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F70" s="72"/>
       <c r="G70" s="73"/>
@@ -21730,8 +21829,8 @@
       <c r="D71" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="38">
-        <v>22</v>
+      <c r="E71" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F71" s="72"/>
       <c r="G71" s="73"/>
@@ -21746,8 +21845,8 @@
       <c r="D72" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="38">
-        <v>22</v>
+      <c r="E72" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F72" s="72"/>
       <c r="G72" s="73"/>
@@ -21762,8 +21861,8 @@
       <c r="D73" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="38">
-        <v>22</v>
+      <c r="E73" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F73" s="72"/>
       <c r="G73" s="73"/>
@@ -21778,8 +21877,8 @@
       <c r="D74" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="38">
-        <v>22</v>
+      <c r="E74" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F74" s="72"/>
       <c r="G74" s="73"/>
@@ -21794,8 +21893,8 @@
       <c r="D75" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="38">
-        <v>22</v>
+      <c r="E75" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F75" s="72"/>
       <c r="G75" s="73"/>
@@ -21810,8 +21909,8 @@
       <c r="D76" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E76" s="38">
-        <v>22</v>
+      <c r="E76" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F76" s="72"/>
       <c r="G76" s="73"/>
@@ -21826,8 +21925,8 @@
       <c r="D77" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="38">
-        <v>22</v>
+      <c r="E77" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F77" s="72"/>
       <c r="G77" s="73"/>
@@ -21842,8 +21941,8 @@
       <c r="D78" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="38">
-        <v>22</v>
+      <c r="E78" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F78" s="72"/>
       <c r="G78" s="73"/>
@@ -21858,8 +21957,8 @@
       <c r="D79" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E79" s="38">
-        <v>22</v>
+      <c r="E79" s="158" t="s">
+        <v>762</v>
       </c>
       <c r="F79" s="72"/>
       <c r="G79" s="73"/>
@@ -21874,8 +21973,8 @@
       <c r="D80" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="38">
-        <v>22</v>
+      <c r="E80" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F80" s="72"/>
       <c r="G80" s="73"/>
@@ -21890,8 +21989,8 @@
       <c r="D81" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E81" s="38">
-        <v>22</v>
+      <c r="E81" s="158" t="s">
+        <v>761</v>
       </c>
       <c r="F81" s="72"/>
       <c r="G81" s="73"/>
@@ -21906,8 +22005,8 @@
       <c r="D82" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="38">
-        <v>22</v>
+      <c r="E82" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F82" s="72"/>
       <c r="G82" s="73"/>
@@ -21922,8 +22021,8 @@
       <c r="D83" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="38">
-        <v>22</v>
+      <c r="E83" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F83" s="72"/>
       <c r="G83" s="73"/>
@@ -21938,8 +22037,8 @@
       <c r="D84" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="38">
-        <v>22</v>
+      <c r="E84" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F84" s="72"/>
       <c r="G84" s="73"/>
@@ -21954,8 +22053,8 @@
       <c r="D85" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="38">
-        <v>22</v>
+      <c r="E85" s="158" t="s">
+        <v>763</v>
       </c>
       <c r="F85" s="72"/>
       <c r="G85" s="73"/>
@@ -21970,8 +22069,8 @@
       <c r="D86" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E86" s="38">
-        <v>22</v>
+      <c r="E86" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F86" s="72"/>
       <c r="G86" s="73"/>
@@ -21986,8 +22085,8 @@
       <c r="D87" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E87" s="38">
-        <v>22</v>
+      <c r="E87" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F87" s="72"/>
       <c r="G87" s="73"/>
@@ -22002,8 +22101,8 @@
       <c r="D88" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E88" s="38">
-        <v>22</v>
+      <c r="E88" s="158" t="s">
+        <v>764</v>
       </c>
       <c r="F88" s="72"/>
       <c r="G88" s="73"/>
@@ -22018,8 +22117,8 @@
       <c r="D89" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E89" s="38">
-        <v>22</v>
+      <c r="E89" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F89" s="72"/>
       <c r="G89" s="73"/>
@@ -22034,8 +22133,8 @@
       <c r="D90" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="38">
-        <v>22</v>
+      <c r="E90" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F90" s="72"/>
       <c r="G90" s="73"/>
@@ -22050,8 +22149,8 @@
       <c r="D91" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="38">
-        <v>22</v>
+      <c r="E91" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F91" s="72"/>
       <c r="G91" s="73"/>
@@ -22066,8 +22165,8 @@
       <c r="D92" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="38">
-        <v>22</v>
+      <c r="E92" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F92" s="72"/>
       <c r="G92" s="73"/>
@@ -22082,8 +22181,8 @@
       <c r="D93" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E93" s="38">
-        <v>22</v>
+      <c r="E93" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F93" s="72"/>
       <c r="G93" s="73"/>
@@ -22098,8 +22197,8 @@
       <c r="D94" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E94" s="38">
-        <v>22</v>
+      <c r="E94" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F94" s="72"/>
       <c r="G94" s="73"/>
@@ -22114,8 +22213,8 @@
       <c r="D95" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E95" s="38">
-        <v>22</v>
+      <c r="E95" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F95" s="72"/>
       <c r="G95" s="73"/>
@@ -22130,8 +22229,8 @@
       <c r="D96" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E96" s="38">
-        <v>22</v>
+      <c r="E96" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F96" s="72"/>
       <c r="G96" s="73"/>
@@ -22146,8 +22245,8 @@
       <c r="D97" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E97" s="38">
-        <v>22</v>
+      <c r="E97" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F97" s="72"/>
       <c r="G97" s="73"/>
@@ -22162,8 +22261,8 @@
       <c r="D98" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E98" s="38">
-        <v>22</v>
+      <c r="E98" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F98" s="72"/>
       <c r="G98" s="73"/>
@@ -22178,8 +22277,8 @@
       <c r="D99" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E99" s="38">
-        <v>22</v>
+      <c r="E99" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F99" s="72"/>
       <c r="G99" s="73"/>
@@ -22194,8 +22293,8 @@
       <c r="D100" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="38">
-        <v>22</v>
+      <c r="E100" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F100" s="72"/>
       <c r="G100" s="73"/>
@@ -22210,8 +22309,8 @@
       <c r="D101" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E101" s="38">
-        <v>22</v>
+      <c r="E101" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F101" s="72"/>
       <c r="G101" s="73"/>
@@ -22226,8 +22325,8 @@
       <c r="D102" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E102" s="38">
-        <v>22</v>
+      <c r="E102" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F102" s="72"/>
       <c r="G102" s="73"/>
@@ -22242,8 +22341,8 @@
       <c r="D103" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E103" s="38">
-        <v>22</v>
+      <c r="E103" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F103" s="72"/>
       <c r="G103" s="73"/>
@@ -22258,8 +22357,8 @@
       <c r="D104" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E104" s="38">
-        <v>22</v>
+      <c r="E104" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F104" s="72"/>
       <c r="G104" s="73"/>
@@ -22274,8 +22373,8 @@
       <c r="D105" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E105" s="38">
-        <v>22</v>
+      <c r="E105" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F105" s="72"/>
       <c r="G105" s="73"/>
@@ -22290,8 +22389,8 @@
       <c r="D106" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E106" s="38">
-        <v>22</v>
+      <c r="E106" s="158" t="s">
+        <v>768</v>
       </c>
       <c r="F106" s="72"/>
       <c r="G106" s="73"/>
@@ -22573,8 +22672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22588,8 +22687,8 @@
     <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" style="2" customWidth="1"/>
     <col min="9" max="9" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="60.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="63.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="2" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.5703125" style="2" customWidth="1"/>
@@ -22613,26 +22712,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="139" t="s">
         <v>735</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -22645,11 +22744,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -22662,11 +22761,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="147"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -22678,29 +22777,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="152"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="154" t="s">
+      <c r="M7" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="153"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="155"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -22747,7 +22846,7 @@
       <c r="Q8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="125" t="s">
+      <c r="R8" s="124" t="s">
         <v>28</v>
       </c>
     </row>
@@ -22774,7 +22873,7 @@
         <v>226</v>
       </c>
       <c r="K9" s="64" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="L9" s="68"/>
       <c r="M9" s="95">
@@ -22807,10 +22906,10 @@
         <v>42</v>
       </c>
       <c r="E10" s="54">
-        <v>22</v>
+        <v>22.6</v>
       </c>
       <c r="F10" s="54"/>
-      <c r="G10" s="155"/>
+      <c r="G10" s="131"/>
       <c r="H10" s="43"/>
       <c r="I10" s="42">
         <v>4</v>
@@ -22819,7 +22918,7 @@
         <v>749</v>
       </c>
       <c r="K10" s="66" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="L10" s="68"/>
       <c r="M10" s="42">

--- a/Cnl/Mapeos_INV_CNL_V1.xlsx
+++ b/Cnl/Mapeos_INV_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="615" windowWidth="9225" windowHeight="4410" tabRatio="583" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="T20TERCERO" sheetId="28" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="772">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3131,9 +3131,6 @@
     <t>ID_MON_OGNL</t>
   </si>
   <si>
-    <t>ID_FMA_D_CMCN_PRFDA</t>
-  </si>
-  <si>
     <t>TIP_D_CMB_A_MON_OGNL</t>
   </si>
   <si>
@@ -3152,9 +3149,6 @@
     <t>NRO_D_DPDTES</t>
   </si>
   <si>
-    <t>NRO_D_NNS_A_CGO</t>
-  </si>
-  <si>
     <t>EDD_D_PER</t>
   </si>
   <si>
@@ -3768,16 +3762,32 @@
   </si>
   <si>
     <t>22,2</t>
+  </si>
+  <si>
+    <t>ID_CLI</t>
+  </si>
+  <si>
+    <t>NRO_D_HJ</t>
+  </si>
+  <si>
+    <t>ID_FMA_CMCN_PRFDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -4726,213 +4736,256 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="86">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4947,12 +5000,12 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4963,77 +5016,83 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5042,68 +5101,62 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="86">
+  <cellStyles count="129">
     <cellStyle name="20% - Accent1" xfId="1"/>
     <cellStyle name="20% - Accent2" xfId="2"/>
     <cellStyle name="20% - Accent3" xfId="3"/>
@@ -5111,11 +5164,17 @@
     <cellStyle name="20% - Accent5" xfId="5"/>
     <cellStyle name="20% - Accent6" xfId="6"/>
     <cellStyle name="20% - Énfasis1" xfId="7" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="88"/>
     <cellStyle name="20% - Énfasis2" xfId="8" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="89"/>
     <cellStyle name="20% - Énfasis3" xfId="9" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="90"/>
     <cellStyle name="20% - Énfasis4" xfId="10" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="91"/>
     <cellStyle name="20% - Énfasis5" xfId="11" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="92"/>
     <cellStyle name="20% - Énfasis6" xfId="12" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="93"/>
     <cellStyle name="40% - Accent1" xfId="13"/>
     <cellStyle name="40% - Accent2" xfId="14"/>
     <cellStyle name="40% - Accent3" xfId="15"/>
@@ -5123,11 +5182,17 @@
     <cellStyle name="40% - Accent5" xfId="17"/>
     <cellStyle name="40% - Accent6" xfId="18"/>
     <cellStyle name="40% - Énfasis1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="94"/>
     <cellStyle name="40% - Énfasis2" xfId="20" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="95"/>
     <cellStyle name="40% - Énfasis3" xfId="21" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="96"/>
     <cellStyle name="40% - Énfasis4" xfId="22" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="97"/>
     <cellStyle name="40% - Énfasis5" xfId="23" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="98"/>
     <cellStyle name="40% - Énfasis6" xfId="24" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="99"/>
     <cellStyle name="60% - Accent1" xfId="25"/>
     <cellStyle name="60% - Accent2" xfId="26"/>
     <cellStyle name="60% - Accent3" xfId="27"/>
@@ -5135,11 +5200,17 @@
     <cellStyle name="60% - Accent5" xfId="29"/>
     <cellStyle name="60% - Accent6" xfId="30"/>
     <cellStyle name="60% - Énfasis1" xfId="31" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="100"/>
     <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="101"/>
     <cellStyle name="60% - Énfasis3" xfId="33" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="102"/>
     <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="103"/>
     <cellStyle name="60% - Énfasis5" xfId="35" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="104"/>
     <cellStyle name="60% - Énfasis6" xfId="36" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="105"/>
     <cellStyle name="Accent1" xfId="37"/>
     <cellStyle name="Accent2" xfId="38"/>
     <cellStyle name="Accent3" xfId="39"/>
@@ -5148,19 +5219,31 @@
     <cellStyle name="Accent6" xfId="42"/>
     <cellStyle name="Bad" xfId="43"/>
     <cellStyle name="Buena" xfId="44" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena 2" xfId="106"/>
     <cellStyle name="Calculation" xfId="45"/>
     <cellStyle name="Cálculo" xfId="46" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cálculo 2" xfId="107"/>
     <cellStyle name="Celda de comprobación" xfId="47" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación 2" xfId="108"/>
     <cellStyle name="Celda vinculada" xfId="48" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada 2" xfId="109"/>
     <cellStyle name="Check Cell" xfId="49"/>
     <cellStyle name="Encabezado 4" xfId="50" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4 2" xfId="110"/>
     <cellStyle name="Énfasis1" xfId="51" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis1 2" xfId="111"/>
     <cellStyle name="Énfasis2" xfId="52" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis2 2" xfId="112"/>
     <cellStyle name="Énfasis3" xfId="53" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis3 2" xfId="113"/>
     <cellStyle name="Énfasis4" xfId="54" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis4 2" xfId="114"/>
     <cellStyle name="Énfasis5" xfId="55" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis5 2" xfId="115"/>
     <cellStyle name="Énfasis6" xfId="56" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Énfasis6 2" xfId="116"/>
     <cellStyle name="Entrada" xfId="57" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Entrada 2" xfId="117"/>
     <cellStyle name="Explanatory Text" xfId="58"/>
     <cellStyle name="Good" xfId="59"/>
     <cellStyle name="Heading 1" xfId="60"/>
@@ -5168,27 +5251,40 @@
     <cellStyle name="Heading 3" xfId="62"/>
     <cellStyle name="Heading 4" xfId="63"/>
     <cellStyle name="Incorrecto" xfId="64" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Incorrecto 2" xfId="118"/>
     <cellStyle name="Input" xfId="65"/>
     <cellStyle name="l]_x000d__x000a_MultiplesUnidades=True_x000d__x000a_log=2_x000d__x000a_DistribucionForm=False_x000d__x000a_Novedades=proxy:8080/data/sim/sim44htm" xfId="66"/>
     <cellStyle name="Linked Cell" xfId="67"/>
     <cellStyle name="Neutral" xfId="68" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="119"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="69"/>
     <cellStyle name="Normal 3" xfId="85"/>
+    <cellStyle name="Normal 4" xfId="87"/>
+    <cellStyle name="Normal 5" xfId="86"/>
     <cellStyle name="Normal_Libro1" xfId="70"/>
     <cellStyle name="Normal_Planilla_Mapeo_CCCLTEMT" xfId="71"/>
     <cellStyle name="Notas" xfId="72" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Notas 2" xfId="120"/>
     <cellStyle name="Note" xfId="73"/>
     <cellStyle name="Output" xfId="74"/>
     <cellStyle name="Salida" xfId="75" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Salida 2" xfId="121"/>
     <cellStyle name="Texto de advertencia" xfId="76" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia 2" xfId="122"/>
     <cellStyle name="Texto explicativo" xfId="77" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo 2" xfId="123"/>
     <cellStyle name="Title" xfId="78"/>
     <cellStyle name="Título" xfId="79" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 1" xfId="80"/>
+    <cellStyle name="Título 1 2" xfId="125"/>
     <cellStyle name="Título 2" xfId="81" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 2 2" xfId="126"/>
     <cellStyle name="Título 3" xfId="82" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 3 2" xfId="127"/>
+    <cellStyle name="Título 4" xfId="124"/>
     <cellStyle name="Total" xfId="83" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Total 2" xfId="128"/>
     <cellStyle name="Warning Text" xfId="84"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5580,7 +5676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5590,8 +5686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R207"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="K204" workbookViewId="0">
+      <selection activeCell="N218" sqref="N218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5630,26 +5726,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="139" t="s">
+      <c r="D2" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -5662,11 +5758,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="146"/>
-      <c r="F4" s="147"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -5679,11 +5775,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="146"/>
-      <c r="F5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5695,29 +5791,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="150" t="s">
+      <c r="I7" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="151"/>
-      <c r="K7" s="152"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="154"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="134" t="s">
+      <c r="M7" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="135"/>
-      <c r="R7" s="135"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6427,8 +6523,8 @@
       <c r="D24" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="157" t="s">
-        <v>761</v>
+      <c r="E24" s="134" t="s">
+        <v>759</v>
       </c>
       <c r="F24" s="72"/>
       <c r="G24" s="73"/>
@@ -6460,8 +6556,8 @@
       <c r="D25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="158" t="s">
-        <v>762</v>
+      <c r="E25" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F25" s="72"/>
       <c r="G25" s="73"/>
@@ -6493,8 +6589,8 @@
       <c r="D26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="158" t="s">
-        <v>762</v>
+      <c r="E26" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F26" s="72"/>
       <c r="G26" s="73"/>
@@ -6526,8 +6622,8 @@
       <c r="D27" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="158" t="s">
-        <v>762</v>
+      <c r="E27" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F27" s="72"/>
       <c r="G27" s="73"/>
@@ -6559,8 +6655,8 @@
       <c r="D28" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="158" t="s">
-        <v>763</v>
+      <c r="E28" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F28" s="72"/>
       <c r="G28" s="73"/>
@@ -6592,8 +6688,8 @@
       <c r="D29" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="158" t="s">
-        <v>763</v>
+      <c r="E29" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F29" s="72"/>
       <c r="G29" s="73"/>
@@ -6625,8 +6721,8 @@
       <c r="D30" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="158" t="s">
-        <v>762</v>
+      <c r="E30" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F30" s="72"/>
       <c r="G30" s="73"/>
@@ -6658,8 +6754,8 @@
       <c r="D31" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="158" t="s">
-        <v>763</v>
+      <c r="E31" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F31" s="72"/>
       <c r="G31" s="73"/>
@@ -6691,8 +6787,8 @@
       <c r="D32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="158" t="s">
-        <v>762</v>
+      <c r="E32" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F32" s="72"/>
       <c r="G32" s="73"/>
@@ -6724,8 +6820,8 @@
       <c r="D33" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="158" t="s">
-        <v>763</v>
+      <c r="E33" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F33" s="72"/>
       <c r="G33" s="73"/>
@@ -6757,8 +6853,8 @@
       <c r="D34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="158" t="s">
-        <v>761</v>
+      <c r="E34" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F34" s="72"/>
       <c r="G34" s="73"/>
@@ -6790,8 +6886,8 @@
       <c r="D35" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="158" t="s">
-        <v>764</v>
+      <c r="E35" s="135" t="s">
+        <v>762</v>
       </c>
       <c r="F35" s="72"/>
       <c r="G35" s="73"/>
@@ -6823,8 +6919,8 @@
       <c r="D36" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="158" t="s">
-        <v>762</v>
+      <c r="E36" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F36" s="72"/>
       <c r="G36" s="73"/>
@@ -6856,8 +6952,8 @@
       <c r="D37" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="158" t="s">
-        <v>763</v>
+      <c r="E37" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F37" s="72"/>
       <c r="G37" s="73"/>
@@ -6889,8 +6985,8 @@
       <c r="D38" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="158" t="s">
-        <v>763</v>
+      <c r="E38" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F38" s="72"/>
       <c r="G38" s="73"/>
@@ -6922,8 +7018,8 @@
       <c r="D39" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="158" t="s">
-        <v>762</v>
+      <c r="E39" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F39" s="72"/>
       <c r="G39" s="73"/>
@@ -8854,7 +8950,7 @@
         <v>386</v>
       </c>
       <c r="O134" s="105" t="s">
-        <v>181</v>
+        <v>769</v>
       </c>
       <c r="P134" s="105" t="s">
         <v>16</v>
@@ -10276,8 +10372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R133"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="K158" workbookViewId="0">
+      <selection activeCell="N179" sqref="N179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10316,26 +10412,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="139" t="s">
+      <c r="D2" s="141" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -10348,11 +10444,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="146"/>
-      <c r="F4" s="147"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -10365,11 +10461,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="146"/>
-      <c r="F5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10381,29 +10477,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="150" t="s">
+      <c r="I7" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="151"/>
-      <c r="K7" s="152"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="154"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="134" t="s">
+      <c r="M7" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="135"/>
-      <c r="R7" s="135"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10843,8 +10939,8 @@
       <c r="D18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="158" t="s">
-        <v>762</v>
+      <c r="E18" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="73"/>
@@ -10876,8 +10972,8 @@
       <c r="D19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="158" t="s">
-        <v>764</v>
+      <c r="E19" s="135" t="s">
+        <v>762</v>
       </c>
       <c r="F19" s="72"/>
       <c r="G19" s="73"/>
@@ -10909,8 +11005,8 @@
       <c r="D20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="158" t="s">
-        <v>764</v>
+      <c r="E20" s="135" t="s">
+        <v>762</v>
       </c>
       <c r="F20" s="72"/>
       <c r="G20" s="73"/>
@@ -10942,8 +11038,8 @@
       <c r="D21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="158" t="s">
-        <v>762</v>
+      <c r="E21" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F21" s="72"/>
       <c r="G21" s="73"/>
@@ -10975,8 +11071,8 @@
       <c r="D22" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="158" t="s">
-        <v>763</v>
+      <c r="E22" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F22" s="72"/>
       <c r="G22" s="73"/>
@@ -11008,8 +11104,8 @@
       <c r="D23" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="158" t="s">
-        <v>764</v>
+      <c r="E23" s="135" t="s">
+        <v>762</v>
       </c>
       <c r="F23" s="72"/>
       <c r="G23" s="73"/>
@@ -13200,8 +13296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E20"/>
+    <sheetView topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13240,26 +13336,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="139" t="s">
+      <c r="D2" s="141" t="s">
         <v>442</v>
       </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -13272,11 +13368,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="146"/>
-      <c r="F4" s="147"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -13289,11 +13385,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="146"/>
-      <c r="F5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13305,29 +13401,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="150" t="s">
+      <c r="I7" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="151"/>
-      <c r="K7" s="152"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="154"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="134" t="s">
+      <c r="M7" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="135"/>
-      <c r="R7" s="135"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13691,8 +13787,8 @@
       <c r="D16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="158" t="s">
-        <v>763</v>
+      <c r="E16" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="79" t="s">
@@ -13736,8 +13832,8 @@
       <c r="D17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="158" t="s">
-        <v>765</v>
+      <c r="E17" s="135" t="s">
+        <v>763</v>
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="73"/>
@@ -13779,8 +13875,8 @@
       <c r="D18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="158" t="s">
-        <v>764</v>
+      <c r="E18" s="135" t="s">
+        <v>762</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="73"/>
@@ -13822,8 +13918,8 @@
       <c r="D19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="158" t="s">
-        <v>764</v>
+      <c r="E19" s="135" t="s">
+        <v>762</v>
       </c>
       <c r="F19" s="72"/>
       <c r="G19" s="73"/>
@@ -13865,8 +13961,8 @@
       <c r="D20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="158" t="s">
-        <v>762</v>
+      <c r="E20" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F20" s="72"/>
       <c r="G20" s="73"/>
@@ -14626,8 +14722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R134"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E85"/>
+    <sheetView topLeftCell="K135" workbookViewId="0">
+      <selection activeCell="N155" sqref="N155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14666,26 +14762,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="139" t="s">
+      <c r="D2" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -14698,11 +14794,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="146"/>
-      <c r="F4" s="147"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -14715,11 +14811,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="146"/>
-      <c r="F5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14731,29 +14827,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="150" t="s">
+      <c r="I7" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="151"/>
-      <c r="K7" s="152"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="154"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="153" t="s">
+      <c r="M7" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="155"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="157"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15342,10 +15438,10 @@
         <v>104</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="K21" s="55" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="L21" s="49"/>
       <c r="M21" s="48">
@@ -15385,10 +15481,10 @@
         <v>105</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="K22" s="63" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="L22" s="49"/>
       <c r="M22" s="48">
@@ -15781,8 +15877,8 @@
       <c r="D34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="158" t="s">
-        <v>763</v>
+      <c r="E34" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F34" s="72"/>
       <c r="G34" s="73"/>
@@ -15814,8 +15910,8 @@
       <c r="D35" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="158" t="s">
-        <v>761</v>
+      <c r="E35" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F35" s="72"/>
       <c r="G35" s="73"/>
@@ -15847,8 +15943,8 @@
       <c r="D36" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="158" t="s">
-        <v>764</v>
+      <c r="E36" s="135" t="s">
+        <v>762</v>
       </c>
       <c r="F36" s="72"/>
       <c r="G36" s="73"/>
@@ -15880,8 +15976,8 @@
       <c r="D37" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="158" t="s">
-        <v>762</v>
+      <c r="E37" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F37" s="72"/>
       <c r="G37" s="73"/>
@@ -15913,8 +16009,8 @@
       <c r="D38" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="158" t="s">
-        <v>762</v>
+      <c r="E38" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F38" s="72"/>
       <c r="G38" s="73"/>
@@ -15946,8 +16042,8 @@
       <c r="D39" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="158" t="s">
-        <v>763</v>
+      <c r="E39" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F39" s="72"/>
       <c r="G39" s="73"/>
@@ -15979,8 +16075,8 @@
       <c r="D40" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="158" t="s">
-        <v>762</v>
+      <c r="E40" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F40" s="72"/>
       <c r="G40" s="73"/>
@@ -16012,8 +16108,8 @@
       <c r="D41" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="158" t="s">
-        <v>763</v>
+      <c r="E41" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F41" s="72"/>
       <c r="G41" s="73"/>
@@ -16045,8 +16141,8 @@
       <c r="D42" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="158" t="s">
-        <v>764</v>
+      <c r="E42" s="135" t="s">
+        <v>762</v>
       </c>
       <c r="F42" s="72"/>
       <c r="G42" s="73"/>
@@ -16078,8 +16174,8 @@
       <c r="D43" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="158" t="s">
-        <v>763</v>
+      <c r="E43" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F43" s="72"/>
       <c r="G43" s="73"/>
@@ -16111,8 +16207,8 @@
       <c r="D44" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="158" t="s">
-        <v>763</v>
+      <c r="E44" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F44" s="72"/>
       <c r="G44" s="73"/>
@@ -16144,8 +16240,8 @@
       <c r="D45" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="158" t="s">
-        <v>763</v>
+      <c r="E45" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F45" s="72"/>
       <c r="G45" s="73"/>
@@ -16177,8 +16273,8 @@
       <c r="D46" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="158" t="s">
-        <v>766</v>
+      <c r="E46" s="135" t="s">
+        <v>764</v>
       </c>
       <c r="F46" s="72"/>
       <c r="G46" s="73"/>
@@ -16210,8 +16306,8 @@
       <c r="D47" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="158" t="s">
-        <v>763</v>
+      <c r="E47" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F47" s="72"/>
       <c r="G47" s="73"/>
@@ -16243,8 +16339,8 @@
       <c r="D48" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="158" t="s">
-        <v>762</v>
+      <c r="E48" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F48" s="72"/>
       <c r="G48" s="73"/>
@@ -16276,8 +16372,8 @@
       <c r="D49" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="158" t="s">
-        <v>763</v>
+      <c r="E49" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F49" s="72"/>
       <c r="G49" s="73"/>
@@ -16309,8 +16405,8 @@
       <c r="D50" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="158" t="s">
-        <v>763</v>
+      <c r="E50" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F50" s="72"/>
       <c r="G50" s="73"/>
@@ -16342,8 +16438,8 @@
       <c r="D51" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="158" t="s">
-        <v>761</v>
+      <c r="E51" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F51" s="72"/>
       <c r="G51" s="73"/>
@@ -16375,8 +16471,8 @@
       <c r="D52" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="158" t="s">
-        <v>762</v>
+      <c r="E52" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F52" s="72"/>
       <c r="G52" s="73"/>
@@ -16408,8 +16504,8 @@
       <c r="D53" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="158" t="s">
-        <v>767</v>
+      <c r="E53" s="135" t="s">
+        <v>765</v>
       </c>
       <c r="F53" s="72"/>
       <c r="G53" s="73"/>
@@ -16441,8 +16537,8 @@
       <c r="D54" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="158" t="s">
-        <v>763</v>
+      <c r="E54" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F54" s="72"/>
       <c r="G54" s="73"/>
@@ -16474,8 +16570,8 @@
       <c r="D55" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="158" t="s">
-        <v>762</v>
+      <c r="E55" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F55" s="72"/>
       <c r="G55" s="73"/>
@@ -16507,8 +16603,8 @@
       <c r="D56" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="158" t="s">
-        <v>761</v>
+      <c r="E56" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F56" s="72"/>
       <c r="G56" s="73"/>
@@ -16540,8 +16636,8 @@
       <c r="D57" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="158" t="s">
-        <v>761</v>
+      <c r="E57" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="73"/>
@@ -16573,8 +16669,8 @@
       <c r="D58" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="158" t="s">
-        <v>762</v>
+      <c r="E58" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F58" s="72"/>
       <c r="G58" s="73"/>
@@ -16583,7 +16679,7 @@
         <v>90</v>
       </c>
       <c r="N58" s="105" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O58" s="105" t="s">
         <v>181</v>
@@ -16608,8 +16704,8 @@
       <c r="D59" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="158" t="s">
-        <v>762</v>
+      <c r="E59" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F59" s="72"/>
       <c r="G59" s="73"/>
@@ -16618,7 +16714,7 @@
         <v>94</v>
       </c>
       <c r="N59" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O59" s="31" t="s">
         <v>443</v>
@@ -16641,8 +16737,8 @@
       <c r="D60" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="158" t="s">
-        <v>762</v>
+      <c r="E60" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F60" s="72"/>
       <c r="G60" s="73"/>
@@ -16651,7 +16747,7 @@
         <v>95</v>
       </c>
       <c r="N60" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O60" s="31" t="s">
         <v>444</v>
@@ -16674,8 +16770,8 @@
       <c r="D61" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="158" t="s">
-        <v>762</v>
+      <c r="E61" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F61" s="72"/>
       <c r="G61" s="73"/>
@@ -16684,7 +16780,7 @@
         <v>94</v>
       </c>
       <c r="N61" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O61" s="31" t="s">
         <v>445</v>
@@ -16707,8 +16803,8 @@
       <c r="D62" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="158" t="s">
-        <v>762</v>
+      <c r="E62" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F62" s="72"/>
       <c r="G62" s="73"/>
@@ -16717,7 +16813,7 @@
         <v>95</v>
       </c>
       <c r="N62" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O62" s="31" t="s">
         <v>446</v>
@@ -16740,8 +16836,8 @@
       <c r="D63" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="158" t="s">
-        <v>762</v>
+      <c r="E63" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F63" s="72"/>
       <c r="G63" s="73"/>
@@ -16750,7 +16846,7 @@
         <v>94</v>
       </c>
       <c r="N63" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O63" s="31" t="s">
         <v>447</v>
@@ -16773,8 +16869,8 @@
       <c r="D64" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E64" s="158" t="s">
-        <v>762</v>
+      <c r="E64" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F64" s="72"/>
       <c r="G64" s="73"/>
@@ -16783,7 +16879,7 @@
         <v>95</v>
       </c>
       <c r="N64" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O64" s="31" t="s">
         <v>448</v>
@@ -16806,8 +16902,8 @@
       <c r="D65" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="158" t="s">
-        <v>761</v>
+      <c r="E65" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F65" s="72"/>
       <c r="G65" s="73"/>
@@ -16816,7 +16912,7 @@
         <v>100</v>
       </c>
       <c r="N65" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O65" s="31" t="s">
         <v>449</v>
@@ -16839,8 +16935,8 @@
       <c r="D66" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="158" t="s">
-        <v>761</v>
+      <c r="E66" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F66" s="72"/>
       <c r="G66" s="73"/>
@@ -16849,7 +16945,7 @@
         <v>95</v>
       </c>
       <c r="N66" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O66" s="31" t="s">
         <v>450</v>
@@ -16872,8 +16968,8 @@
       <c r="D67" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="158" t="s">
-        <v>761</v>
+      <c r="E67" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F67" s="72"/>
       <c r="G67" s="73"/>
@@ -16882,7 +16978,7 @@
         <v>94</v>
       </c>
       <c r="N67" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O67" s="31" t="s">
         <v>451</v>
@@ -16905,8 +17001,8 @@
       <c r="D68" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E68" s="158" t="s">
-        <v>761</v>
+      <c r="E68" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F68" s="72"/>
       <c r="G68" s="73"/>
@@ -16915,7 +17011,7 @@
         <v>95</v>
       </c>
       <c r="N68" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O68" s="31" t="s">
         <v>452</v>
@@ -16938,8 +17034,8 @@
       <c r="D69" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E69" s="158" t="s">
-        <v>761</v>
+      <c r="E69" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F69" s="72"/>
       <c r="G69" s="73"/>
@@ -16948,7 +17044,7 @@
         <v>94</v>
       </c>
       <c r="N69" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O69" s="31" t="s">
         <v>453</v>
@@ -16971,8 +17067,8 @@
       <c r="D70" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="158" t="s">
-        <v>761</v>
+      <c r="E70" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F70" s="72"/>
       <c r="G70" s="73"/>
@@ -16981,7 +17077,7 @@
         <v>95</v>
       </c>
       <c r="N70" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O70" s="31" t="s">
         <v>454</v>
@@ -17004,8 +17100,8 @@
       <c r="D71" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="158" t="s">
-        <v>761</v>
+      <c r="E71" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F71" s="72"/>
       <c r="G71" s="73"/>
@@ -17014,7 +17110,7 @@
         <v>101</v>
       </c>
       <c r="N71" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O71" s="31" t="s">
         <v>455</v>
@@ -17037,8 +17133,8 @@
       <c r="D72" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="158" t="s">
-        <v>761</v>
+      <c r="E72" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F72" s="72"/>
       <c r="G72" s="73"/>
@@ -17047,7 +17143,7 @@
         <v>95</v>
       </c>
       <c r="N72" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O72" s="31" t="s">
         <v>456</v>
@@ -17070,8 +17166,8 @@
       <c r="D73" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="158" t="s">
-        <v>762</v>
+      <c r="E73" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F73" s="72"/>
       <c r="G73" s="73"/>
@@ -17080,7 +17176,7 @@
         <v>94</v>
       </c>
       <c r="N73" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O73" s="31" t="s">
         <v>457</v>
@@ -17103,8 +17199,8 @@
       <c r="D74" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="158" t="s">
-        <v>762</v>
+      <c r="E74" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F74" s="72"/>
       <c r="G74" s="73"/>
@@ -17113,7 +17209,7 @@
         <v>95</v>
       </c>
       <c r="N74" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O74" s="31" t="s">
         <v>458</v>
@@ -17136,8 +17232,8 @@
       <c r="D75" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="158" t="s">
-        <v>762</v>
+      <c r="E75" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F75" s="72"/>
       <c r="G75" s="73"/>
@@ -17146,7 +17242,7 @@
         <v>104</v>
       </c>
       <c r="N75" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O75" s="31" t="s">
         <v>459</v>
@@ -17169,8 +17265,8 @@
       <c r="D76" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E76" s="158" t="s">
-        <v>762</v>
+      <c r="E76" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F76" s="72"/>
       <c r="G76" s="73"/>
@@ -17179,7 +17275,7 @@
         <v>95</v>
       </c>
       <c r="N76" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O76" s="31" t="s">
         <v>460</v>
@@ -17202,8 +17298,8 @@
       <c r="D77" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="158" t="s">
-        <v>765</v>
+      <c r="E77" s="135" t="s">
+        <v>763</v>
       </c>
       <c r="F77" s="72"/>
       <c r="G77" s="73"/>
@@ -17212,7 +17308,7 @@
         <v>94</v>
       </c>
       <c r="N77" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O77" s="31" t="s">
         <v>461</v>
@@ -17235,8 +17331,8 @@
       <c r="D78" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="158" t="s">
-        <v>767</v>
+      <c r="E78" s="135" t="s">
+        <v>765</v>
       </c>
       <c r="F78" s="72"/>
       <c r="G78" s="73"/>
@@ -17245,7 +17341,7 @@
         <v>95</v>
       </c>
       <c r="N78" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O78" s="31" t="s">
         <v>462</v>
@@ -17268,8 +17364,8 @@
       <c r="D79" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E79" s="158" t="s">
-        <v>767</v>
+      <c r="E79" s="135" t="s">
+        <v>765</v>
       </c>
       <c r="F79" s="72"/>
       <c r="G79" s="73"/>
@@ -17278,7 +17374,7 @@
         <v>98</v>
       </c>
       <c r="N79" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O79" s="31" t="s">
         <v>463</v>
@@ -17301,8 +17397,8 @@
       <c r="D80" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="158" t="s">
-        <v>761</v>
+      <c r="E80" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F80" s="72"/>
       <c r="G80" s="73"/>
@@ -17311,7 +17407,7 @@
         <v>89</v>
       </c>
       <c r="N80" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O80" s="31" t="s">
         <v>464</v>
@@ -17334,8 +17430,8 @@
       <c r="D81" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E81" s="158" t="s">
-        <v>762</v>
+      <c r="E81" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F81" s="72"/>
       <c r="G81" s="73"/>
@@ -17344,7 +17440,7 @@
         <v>94</v>
       </c>
       <c r="N81" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O81" s="31" t="s">
         <v>465</v>
@@ -17367,8 +17463,8 @@
       <c r="D82" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="158" t="s">
-        <v>764</v>
+      <c r="E82" s="135" t="s">
+        <v>762</v>
       </c>
       <c r="F82" s="72"/>
       <c r="G82" s="73"/>
@@ -17377,7 +17473,7 @@
         <v>95</v>
       </c>
       <c r="N82" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O82" s="31" t="s">
         <v>466</v>
@@ -17400,8 +17496,8 @@
       <c r="D83" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="158" t="s">
-        <v>762</v>
+      <c r="E83" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F83" s="72"/>
       <c r="G83" s="73"/>
@@ -17410,7 +17506,7 @@
         <v>94</v>
       </c>
       <c r="N83" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O83" s="31" t="s">
         <v>467</v>
@@ -17433,8 +17529,8 @@
       <c r="D84" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="158" t="s">
-        <v>762</v>
+      <c r="E84" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F84" s="72"/>
       <c r="G84" s="73"/>
@@ -17443,7 +17539,7 @@
         <v>95</v>
       </c>
       <c r="N84" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O84" s="31" t="s">
         <v>322</v>
@@ -17466,8 +17562,8 @@
       <c r="D85" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="158" t="s">
-        <v>762</v>
+      <c r="E85" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F85" s="72"/>
       <c r="G85" s="73"/>
@@ -17476,7 +17572,7 @@
         <v>105</v>
       </c>
       <c r="N85" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O85" s="31" t="s">
         <v>468</v>
@@ -17509,7 +17605,7 @@
         <v>95</v>
       </c>
       <c r="N86" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O86" s="31" t="s">
         <v>469</v>
@@ -17542,7 +17638,7 @@
         <v>94</v>
       </c>
       <c r="N87" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O87" s="31" t="s">
         <v>470</v>
@@ -17575,7 +17671,7 @@
         <v>95</v>
       </c>
       <c r="N88" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O88" s="31" t="s">
         <v>471</v>
@@ -17608,7 +17704,7 @@
         <v>95</v>
       </c>
       <c r="N89" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O89" s="31" t="s">
         <v>472</v>
@@ -17641,7 +17737,7 @@
         <v>95</v>
       </c>
       <c r="N90" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O90" s="31" t="s">
         <v>473</v>
@@ -17674,7 +17770,7 @@
         <v>95</v>
       </c>
       <c r="N91" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O91" s="31" t="s">
         <v>474</v>
@@ -17707,7 +17803,7 @@
         <v>94</v>
       </c>
       <c r="N92" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O92" s="31" t="s">
         <v>475</v>
@@ -17740,7 +17836,7 @@
         <v>95</v>
       </c>
       <c r="N93" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O93" s="31" t="s">
         <v>476</v>
@@ -17773,7 +17869,7 @@
         <v>95</v>
       </c>
       <c r="N94" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O94" s="31" t="s">
         <v>477</v>
@@ -17806,7 +17902,7 @@
         <v>81</v>
       </c>
       <c r="N95" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O95" s="31" t="s">
         <v>478</v>
@@ -17839,7 +17935,7 @@
         <v>95</v>
       </c>
       <c r="N96" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O96" s="31" t="s">
         <v>479</v>
@@ -17872,7 +17968,7 @@
         <v>95</v>
       </c>
       <c r="N97" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O97" s="31" t="s">
         <v>480</v>
@@ -17891,7 +17987,7 @@
         <v>95</v>
       </c>
       <c r="N98" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O98" s="31" t="s">
         <v>481</v>
@@ -17910,7 +18006,7 @@
         <v>3</v>
       </c>
       <c r="N99" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O99" s="31" t="s">
         <v>482</v>
@@ -17929,7 +18025,7 @@
         <v>94</v>
       </c>
       <c r="N100" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O100" s="31" t="s">
         <v>483</v>
@@ -17948,7 +18044,7 @@
         <v>103</v>
       </c>
       <c r="N101" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O101" s="31" t="s">
         <v>85</v>
@@ -17967,7 +18063,7 @@
         <v>1</v>
       </c>
       <c r="N102" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O102" s="31" t="s">
         <v>223</v>
@@ -17986,7 +18082,7 @@
         <v>95</v>
       </c>
       <c r="N103" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O103" s="31" t="s">
         <v>485</v>
@@ -18005,7 +18101,7 @@
         <v>48</v>
       </c>
       <c r="N104" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O104" s="31" t="s">
         <v>486</v>
@@ -18024,7 +18120,7 @@
         <v>94</v>
       </c>
       <c r="N105" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O105" s="31" t="s">
         <v>487</v>
@@ -18043,7 +18139,7 @@
         <v>95</v>
       </c>
       <c r="N106" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O106" s="31" t="s">
         <v>488</v>
@@ -18062,7 +18158,7 @@
         <v>95</v>
       </c>
       <c r="N107" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O107" s="31" t="s">
         <v>489</v>
@@ -18081,7 +18177,7 @@
         <v>95</v>
       </c>
       <c r="N108" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O108" s="31" t="s">
         <v>490</v>
@@ -18100,7 +18196,7 @@
         <v>95</v>
       </c>
       <c r="N109" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O109" s="31" t="s">
         <v>491</v>
@@ -18119,7 +18215,7 @@
         <v>94</v>
       </c>
       <c r="N110" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O110" s="31" t="s">
         <v>492</v>
@@ -18138,7 +18234,7 @@
         <v>71</v>
       </c>
       <c r="N111" s="39" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O111" s="39" t="s">
         <v>493</v>
@@ -18607,10 +18703,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R45"/>
+  <dimension ref="B1:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18649,26 +18745,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="139" t="s">
-        <v>597</v>
-      </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
+      <c r="D2" s="141" t="s">
+        <v>595</v>
+      </c>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -18681,11 +18777,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="146"/>
-      <c r="F4" s="147"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -18698,11 +18794,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="146"/>
-      <c r="F5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -18714,29 +18810,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="150" t="s">
+      <c r="I7" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="151"/>
-      <c r="K7" s="152"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="154"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="153" t="s">
+      <c r="M7" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="155"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="157"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18810,7 +18906,7 @@
         <v>226</v>
       </c>
       <c r="K9" s="58" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L9" s="56"/>
       <c r="M9" s="36">
@@ -18855,7 +18951,7 @@
         <v>551</v>
       </c>
       <c r="K10" s="90" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L10" s="56"/>
       <c r="M10" s="101">
@@ -18895,10 +18991,10 @@
         <v>24</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K11" s="55" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L11" s="122"/>
       <c r="M11" s="106">
@@ -18973,8 +19069,8 @@
       <c r="D13" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="158" t="s">
-        <v>762</v>
+      <c r="E13" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="79"/>
@@ -19016,8 +19112,8 @@
       <c r="D14" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="158" t="s">
-        <v>763</v>
+      <c r="E14" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F14" s="72"/>
       <c r="G14" s="73"/>
@@ -19026,17 +19122,17 @@
         <v>27</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K14" s="66" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L14" s="83"/>
       <c r="M14" s="47">
         <v>22</v>
       </c>
       <c r="N14" s="105" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O14" s="105" t="s">
         <v>553</v>
@@ -19061,8 +19157,8 @@
       <c r="D15" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="158" t="s">
-        <v>768</v>
+      <c r="E15" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="73"/>
@@ -19074,14 +19170,14 @@
         <v>87</v>
       </c>
       <c r="K15" s="66" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L15" s="43"/>
       <c r="M15" s="48">
         <v>25</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>554</v>
@@ -19104,8 +19200,8 @@
       <c r="D16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="158" t="s">
-        <v>768</v>
+      <c r="E16" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="79"/>
@@ -19124,7 +19220,7 @@
         <v>24</v>
       </c>
       <c r="N16" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O16" s="31" t="s">
         <v>555</v>
@@ -19147,8 +19243,8 @@
       <c r="D17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="158" t="s">
-        <v>768</v>
+      <c r="E17" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="73"/>
@@ -19167,7 +19263,7 @@
         <v>27</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O17" s="31" t="s">
         <v>37</v>
@@ -19192,8 +19288,8 @@
       <c r="D18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="158" t="s">
-        <v>768</v>
+      <c r="E18" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="73"/>
@@ -19202,26 +19298,26 @@
         <v>32</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K18" s="66" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L18" s="43"/>
       <c r="M18" s="48">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N18" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q18" s="31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R18" s="37"/>
     </row>
@@ -19235,8 +19331,8 @@
       <c r="D19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="158" t="s">
-        <v>768</v>
+      <c r="E19" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F19" s="72"/>
       <c r="G19" s="73"/>
@@ -19245,28 +19341,28 @@
         <v>33</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K19" s="66" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L19" s="43"/>
       <c r="M19" s="48">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N19" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="37"/>
+      <c r="R19" s="90"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="48">
@@ -19278,8 +19374,8 @@
       <c r="D20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="158" t="s">
-        <v>768</v>
+      <c r="E20" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F20" s="72"/>
       <c r="G20" s="73"/>
@@ -19288,23 +19384,23 @@
         <v>34</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K20" s="66" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L20" s="43"/>
       <c r="M20" s="48">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N20" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P20" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="31" t="s">
         <v>20</v>
@@ -19321,8 +19417,8 @@
       <c r="D21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="158" t="s">
-        <v>768</v>
+      <c r="E21" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F21" s="72"/>
       <c r="G21" s="73"/>
@@ -19331,28 +19427,28 @@
         <v>35</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K21" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L21" s="43"/>
       <c r="M21" s="48">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>18</v>
+        <v>556</v>
       </c>
       <c r="P21" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="90"/>
+      <c r="R21" s="37"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="76">
@@ -19364,8 +19460,8 @@
       <c r="D22" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="158" t="s">
-        <v>768</v>
+      <c r="E22" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F22" s="72"/>
       <c r="G22" s="73"/>
@@ -19374,10 +19470,10 @@
         <v>25</v>
       </c>
       <c r="N22" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P22" s="31" t="s">
         <v>24</v>
@@ -19397,8 +19493,8 @@
       <c r="D23" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="158" t="s">
-        <v>768</v>
+      <c r="E23" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F23" s="72"/>
       <c r="G23" s="73"/>
@@ -19407,10 +19503,10 @@
         <v>25</v>
       </c>
       <c r="N23" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>557</v>
+        <v>771</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>24</v>
@@ -19430,23 +19526,23 @@
       <c r="D24" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="158" t="s">
-        <v>768</v>
+      <c r="E24" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F24" s="72"/>
       <c r="G24" s="73"/>
       <c r="L24" s="43"/>
       <c r="M24" s="48">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N24" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>558</v>
       </c>
       <c r="P24" s="31" t="s">
-        <v>24</v>
+        <v>559</v>
       </c>
       <c r="Q24" s="31" t="s">
         <v>20</v>
@@ -19463,28 +19559,28 @@
       <c r="D25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="158" t="s">
-        <v>768</v>
+      <c r="E25" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F25" s="72"/>
       <c r="G25" s="73"/>
       <c r="L25" s="43"/>
-      <c r="M25" s="48">
+      <c r="M25" s="59">
         <v>26</v>
       </c>
-      <c r="N25" s="31" t="s">
-        <v>581</v>
-      </c>
-      <c r="O25" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="P25" s="31" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q25" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R25" s="37"/>
+      <c r="N25" s="113" t="s">
+        <v>579</v>
+      </c>
+      <c r="O25" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="60"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="48">
@@ -19496,28 +19592,28 @@
       <c r="D26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="158" t="s">
-        <v>768</v>
+      <c r="E26" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F26" s="72"/>
       <c r="G26" s="73"/>
       <c r="L26" s="43"/>
-      <c r="M26" s="59">
+      <c r="M26" s="48">
         <v>26</v>
       </c>
-      <c r="N26" s="113" t="s">
-        <v>581</v>
-      </c>
-      <c r="O26" s="113" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="113" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="60"/>
+      <c r="N26" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="O26" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="P26" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="37"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="76">
@@ -19529,8 +19625,8 @@
       <c r="D27" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="158" t="s">
-        <v>762</v>
+      <c r="E27" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F27" s="72"/>
       <c r="G27" s="73"/>
@@ -19539,18 +19635,18 @@
         <v>26</v>
       </c>
       <c r="N27" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O27" s="31" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="P27" s="31" t="s">
-        <v>562</v>
+        <v>16</v>
       </c>
       <c r="Q27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R27" s="37"/>
+      <c r="R27" s="90"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="48">
@@ -19572,18 +19668,18 @@
         <v>26</v>
       </c>
       <c r="N28" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O28" s="31" t="s">
         <v>563</v>
       </c>
       <c r="P28" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R28" s="90"/>
+      <c r="R28" s="37"/>
     </row>
     <row r="29" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="53">
@@ -19605,10 +19701,10 @@
         <v>26</v>
       </c>
       <c r="N29" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O29" s="31" t="s">
-        <v>564</v>
+        <v>770</v>
       </c>
       <c r="P29" s="31" t="s">
         <v>24</v>
@@ -19624,18 +19720,18 @@
         <v>26</v>
       </c>
       <c r="N30" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P30" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R30" s="37"/>
+      <c r="R30" s="90"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L31" s="43"/>
@@ -19643,13 +19739,13 @@
         <v>26</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P31" s="31" t="s">
-        <v>16</v>
+        <v>561</v>
       </c>
       <c r="Q31" s="31" t="s">
         <v>20</v>
@@ -19659,35 +19755,35 @@
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L32" s="43"/>
       <c r="M32" s="48">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N32" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="P32" s="31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="90"/>
+      <c r="R32" s="37"/>
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L33" s="43"/>
       <c r="M33" s="48">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N33" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O33" s="31" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P33" s="31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q33" s="31" t="s">
         <v>20</v>
@@ -19697,16 +19793,16 @@
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L34" s="43"/>
       <c r="M34" s="48">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N34" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="P34" s="31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q34" s="31" t="s">
         <v>20</v>
@@ -19719,13 +19815,13 @@
         <v>26</v>
       </c>
       <c r="N35" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O35" s="31" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P35" s="31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q35" s="31" t="s">
         <v>20</v>
@@ -19738,13 +19834,13 @@
         <v>26</v>
       </c>
       <c r="N36" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O36" s="31" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="P36" s="31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q36" s="31" t="s">
         <v>20</v>
@@ -19754,16 +19850,16 @@
     <row r="37" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L37" s="43"/>
       <c r="M37" s="48">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N37" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O37" s="31" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P37" s="31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q37" s="31" t="s">
         <v>20</v>
@@ -19773,32 +19869,32 @@
     <row r="38" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L38" s="43"/>
       <c r="M38" s="48">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N38" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O38" s="31" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P38" s="31" t="s">
-        <v>562</v>
+        <v>16</v>
       </c>
       <c r="Q38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R38" s="37"/>
+      <c r="R38" s="90"/>
     </row>
     <row r="39" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L39" s="43"/>
       <c r="M39" s="48">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="N39" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O39" s="31" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P39" s="31" t="s">
         <v>16</v>
@@ -19806,18 +19902,18 @@
       <c r="Q39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="90"/>
+      <c r="R39" s="37"/>
     </row>
     <row r="40" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L40" s="43"/>
       <c r="M40" s="48">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N40" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O40" s="31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P40" s="31" t="s">
         <v>16</v>
@@ -19830,35 +19926,35 @@
     <row r="41" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L41" s="43"/>
       <c r="M41" s="48">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N41" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O41" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P41" s="31" t="s">
-        <v>16</v>
+        <v>561</v>
       </c>
       <c r="Q41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R41" s="37"/>
+      <c r="R41" s="90"/>
     </row>
     <row r="42" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L42" s="43"/>
       <c r="M42" s="48">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N42" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O42" s="31" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P42" s="31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q42" s="31" t="s">
         <v>20</v>
@@ -19871,56 +19967,37 @@
         <v>26</v>
       </c>
       <c r="N43" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O43" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="P43" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="37"/>
+    </row>
+    <row r="44" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="44"/>
+      <c r="M44" s="53">
+        <v>26</v>
+      </c>
+      <c r="N44" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="O44" s="39" t="s">
         <v>578</v>
       </c>
-      <c r="P43" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q43" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R43" s="90"/>
-    </row>
-    <row r="44" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L44" s="43"/>
-      <c r="M44" s="48">
-        <v>26</v>
-      </c>
-      <c r="N44" s="31" t="s">
-        <v>581</v>
-      </c>
-      <c r="O44" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="P44" s="31" t="s">
+      <c r="P44" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="Q44" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R44" s="37"/>
-    </row>
-    <row r="45" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L45" s="44"/>
-      <c r="M45" s="53">
-        <v>26</v>
-      </c>
-      <c r="N45" s="39" t="s">
-        <v>581</v>
-      </c>
-      <c r="O45" s="39" t="s">
-        <v>580</v>
-      </c>
-      <c r="P45" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q45" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R45" s="107"/>
+      <c r="Q44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19943,8 +20020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E21"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19983,26 +20060,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="139" t="s">
-        <v>615</v>
-      </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
+      <c r="D2" s="141" t="s">
+        <v>613</v>
+      </c>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -20015,11 +20092,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="146"/>
-      <c r="F4" s="147"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -20032,11 +20109,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="146"/>
-      <c r="F5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20048,29 +20125,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="150" t="s">
+      <c r="I7" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="151"/>
-      <c r="K7" s="152"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="154"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="156" t="s">
+      <c r="M7" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="155"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="157"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20126,7 +20203,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>41</v>
@@ -20144,7 +20221,7 @@
         <v>226</v>
       </c>
       <c r="K9" s="58" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L9" s="103"/>
       <c r="M9" s="36">
@@ -20171,7 +20248,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>41</v>
@@ -20189,7 +20266,7 @@
         <v>310</v>
       </c>
       <c r="K10" s="55" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L10" s="103"/>
       <c r="M10" s="101">
@@ -20214,7 +20291,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>41</v>
@@ -20229,10 +20306,10 @@
         <v>20</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="K11" s="55" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="L11" s="103"/>
       <c r="M11" s="101">
@@ -20257,7 +20334,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>41</v>
@@ -20272,10 +20349,10 @@
         <v>21</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="K12" s="63" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="L12" s="103"/>
       <c r="M12" s="48">
@@ -20300,7 +20377,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>41</v>
@@ -20334,7 +20411,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>41</v>
@@ -20368,7 +20445,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>41</v>
@@ -20402,13 +20479,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="158" t="s">
-        <v>762</v>
+      <c r="E16" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="88"/>
@@ -20419,13 +20496,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="158" t="s">
-        <v>763</v>
+      <c r="E17" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="89"/>
@@ -20436,13 +20513,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="158" t="s">
-        <v>763</v>
+      <c r="E18" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="89"/>
@@ -20453,13 +20530,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="158" t="s">
-        <v>763</v>
+      <c r="E19" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F19" s="72"/>
       <c r="G19" s="89"/>
@@ -20470,13 +20547,13 @@
         <v>12</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="158" t="s">
-        <v>763</v>
+      <c r="E20" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F20" s="72"/>
       <c r="G20" s="89"/>
@@ -20487,13 +20564,13 @@
         <v>13</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="158" t="s">
-        <v>762</v>
+      <c r="E21" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F21" s="72"/>
       <c r="G21" s="89"/>
@@ -20504,7 +20581,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>19</v>
@@ -20521,7 +20598,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>19</v>
@@ -20538,7 +20615,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>19</v>
@@ -20555,7 +20632,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D25" s="54" t="s">
         <v>19</v>
@@ -20588,8 +20665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R122"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20628,26 +20705,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="139" t="s">
-        <v>618</v>
-      </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
+      <c r="D2" s="141" t="s">
+        <v>616</v>
+      </c>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -20660,11 +20737,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="146"/>
-      <c r="F4" s="147"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -20677,11 +20754,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="146"/>
-      <c r="F5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20693,29 +20770,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="150" t="s">
+      <c r="I7" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="151"/>
-      <c r="K7" s="152"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="154"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="156" t="s">
+      <c r="M7" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="155"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="157"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20771,7 +20848,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>41</v>
@@ -20789,17 +20866,17 @@
         <v>226</v>
       </c>
       <c r="K9" s="128" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L9" s="68"/>
       <c r="M9" s="36">
         <v>115</v>
       </c>
       <c r="N9" s="105" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="O9" s="105" t="s">
-        <v>181</v>
+        <v>769</v>
       </c>
       <c r="P9" s="105" t="s">
         <v>16</v>
@@ -20814,7 +20891,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>41</v>
@@ -20829,7 +20906,7 @@
         <v>12</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>338</v>
@@ -20847,7 +20924,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>41</v>
@@ -20862,7 +20939,7 @@
         <v>64</v>
       </c>
       <c r="N11" s="39" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="O11" s="39" t="s">
         <v>342</v>
@@ -20880,7 +20957,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>41</v>
@@ -20896,7 +20973,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>41</v>
@@ -20912,7 +20989,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>41</v>
@@ -20928,7 +21005,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>41</v>
@@ -20944,7 +21021,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>41</v>
@@ -20960,7 +21037,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>41</v>
@@ -20976,7 +21053,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>41</v>
@@ -20992,7 +21069,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>41</v>
@@ -21008,7 +21085,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D20" s="38" t="s">
         <v>41</v>
@@ -21024,7 +21101,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>41</v>
@@ -21040,7 +21117,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>41</v>
@@ -21056,7 +21133,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>41</v>
@@ -21072,7 +21149,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>41</v>
@@ -21088,7 +21165,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>41</v>
@@ -21104,7 +21181,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>41</v>
@@ -21120,7 +21197,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>41</v>
@@ -21136,7 +21213,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D28" s="38" t="s">
         <v>41</v>
@@ -21152,7 +21229,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>41</v>
@@ -21168,7 +21245,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>41</v>
@@ -21184,13 +21261,13 @@
         <v>23</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="158" t="s">
-        <v>761</v>
+      <c r="E31" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F31" s="72"/>
       <c r="G31" s="73"/>
@@ -21200,13 +21277,13 @@
         <v>24</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="158" t="s">
-        <v>761</v>
+      <c r="E32" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F32" s="72"/>
       <c r="G32" s="73"/>
@@ -21216,13 +21293,13 @@
         <v>25</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="158" t="s">
-        <v>761</v>
+      <c r="E33" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F33" s="72"/>
       <c r="G33" s="73"/>
@@ -21232,13 +21309,13 @@
         <v>26</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="158" t="s">
-        <v>761</v>
+      <c r="E34" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F34" s="72"/>
       <c r="G34" s="73"/>
@@ -21248,13 +21325,13 @@
         <v>27</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="158" t="s">
-        <v>762</v>
+      <c r="E35" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F35" s="72"/>
       <c r="G35" s="73"/>
@@ -21264,13 +21341,13 @@
         <v>28</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="158" t="s">
-        <v>768</v>
+      <c r="E36" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F36" s="72"/>
       <c r="G36" s="73"/>
@@ -21280,13 +21357,13 @@
         <v>29</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="158" t="s">
-        <v>769</v>
+      <c r="E37" s="135" t="s">
+        <v>767</v>
       </c>
       <c r="F37" s="72"/>
       <c r="G37" s="73"/>
@@ -21296,13 +21373,13 @@
         <v>30</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D38" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="158" t="s">
-        <v>763</v>
+      <c r="E38" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F38" s="72"/>
       <c r="G38" s="73"/>
@@ -21312,13 +21389,13 @@
         <v>31</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D39" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="158" t="s">
-        <v>762</v>
+      <c r="E39" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F39" s="72"/>
       <c r="G39" s="73"/>
@@ -21328,13 +21405,13 @@
         <v>32</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="158" t="s">
-        <v>763</v>
+      <c r="E40" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F40" s="72"/>
       <c r="G40" s="73"/>
@@ -21344,13 +21421,13 @@
         <v>33</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D41" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="158" t="s">
-        <v>768</v>
+      <c r="E41" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F41" s="72"/>
       <c r="G41" s="73"/>
@@ -21360,13 +21437,13 @@
         <v>34</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="158" t="s">
-        <v>768</v>
+      <c r="E42" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F42" s="72"/>
       <c r="G42" s="73"/>
@@ -21376,13 +21453,13 @@
         <v>35</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="158" t="s">
-        <v>762</v>
+      <c r="E43" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F43" s="72"/>
       <c r="G43" s="73"/>
@@ -21392,13 +21469,13 @@
         <v>36</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="158" t="s">
-        <v>768</v>
+      <c r="E44" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F44" s="72"/>
       <c r="G44" s="73"/>
@@ -21408,13 +21485,13 @@
         <v>37</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="158" t="s">
-        <v>765</v>
+      <c r="E45" s="135" t="s">
+        <v>763</v>
       </c>
       <c r="F45" s="72"/>
       <c r="G45" s="73"/>
@@ -21424,13 +21501,13 @@
         <v>38</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D46" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="158" t="s">
-        <v>770</v>
+      <c r="E46" s="135" t="s">
+        <v>768</v>
       </c>
       <c r="F46" s="72"/>
       <c r="G46" s="73"/>
@@ -21440,13 +21517,13 @@
         <v>39</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D47" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="158" t="s">
-        <v>768</v>
+      <c r="E47" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F47" s="72"/>
       <c r="G47" s="73"/>
@@ -21456,13 +21533,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="158" t="s">
-        <v>763</v>
+      <c r="E48" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F48" s="72"/>
       <c r="G48" s="73"/>
@@ -21472,13 +21549,13 @@
         <v>41</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="158" t="s">
-        <v>768</v>
+      <c r="E49" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F49" s="72"/>
       <c r="G49" s="73"/>
@@ -21488,13 +21565,13 @@
         <v>42</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D50" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="158" t="s">
-        <v>768</v>
+      <c r="E50" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F50" s="72"/>
       <c r="G50" s="73"/>
@@ -21504,13 +21581,13 @@
         <v>43</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="158" t="s">
-        <v>763</v>
+      <c r="E51" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F51" s="72"/>
       <c r="G51" s="73"/>
@@ -21520,13 +21597,13 @@
         <v>44</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="158" t="s">
-        <v>768</v>
+      <c r="E52" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F52" s="72"/>
       <c r="G52" s="73"/>
@@ -21536,13 +21613,13 @@
         <v>45</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="158" t="s">
-        <v>762</v>
+      <c r="E53" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F53" s="72"/>
       <c r="G53" s="73"/>
@@ -21552,13 +21629,13 @@
         <v>46</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="158" t="s">
-        <v>769</v>
+      <c r="E54" s="135" t="s">
+        <v>767</v>
       </c>
       <c r="F54" s="72"/>
       <c r="G54" s="73"/>
@@ -21568,13 +21645,13 @@
         <v>47</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D55" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="158" t="s">
-        <v>768</v>
+      <c r="E55" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F55" s="72"/>
       <c r="G55" s="73"/>
@@ -21584,13 +21661,13 @@
         <v>48</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D56" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="158" t="s">
-        <v>768</v>
+      <c r="E56" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F56" s="72"/>
       <c r="G56" s="73"/>
@@ -21600,13 +21677,13 @@
         <v>49</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D57" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="158" t="s">
-        <v>768</v>
+      <c r="E57" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="73"/>
@@ -21616,13 +21693,13 @@
         <v>50</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="158" t="s">
-        <v>768</v>
+      <c r="E58" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F58" s="72"/>
       <c r="G58" s="73"/>
@@ -21632,13 +21709,13 @@
         <v>51</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D59" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="158" t="s">
-        <v>768</v>
+      <c r="E59" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F59" s="72"/>
       <c r="G59" s="73"/>
@@ -21648,13 +21725,13 @@
         <v>52</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D60" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="158" t="s">
-        <v>769</v>
+      <c r="E60" s="135" t="s">
+        <v>767</v>
       </c>
       <c r="F60" s="72"/>
       <c r="G60" s="73"/>
@@ -21664,13 +21741,13 @@
         <v>53</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D61" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="158" t="s">
-        <v>764</v>
+      <c r="E61" s="135" t="s">
+        <v>762</v>
       </c>
       <c r="F61" s="72"/>
       <c r="G61" s="73"/>
@@ -21680,13 +21757,13 @@
         <v>54</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="158" t="s">
-        <v>763</v>
+      <c r="E62" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F62" s="72"/>
       <c r="G62" s="73"/>
@@ -21696,13 +21773,13 @@
         <v>55</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D63" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="158" t="s">
-        <v>768</v>
+      <c r="E63" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F63" s="72"/>
       <c r="G63" s="73"/>
@@ -21712,13 +21789,13 @@
         <v>56</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D64" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E64" s="158" t="s">
-        <v>768</v>
+      <c r="E64" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F64" s="72"/>
       <c r="G64" s="73"/>
@@ -21728,13 +21805,13 @@
         <v>57</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D65" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="158" t="s">
-        <v>764</v>
+      <c r="E65" s="135" t="s">
+        <v>762</v>
       </c>
       <c r="F65" s="72"/>
       <c r="G65" s="73"/>
@@ -21744,13 +21821,13 @@
         <v>58</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D66" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="158" t="s">
-        <v>764</v>
+      <c r="E66" s="135" t="s">
+        <v>762</v>
       </c>
       <c r="F66" s="72"/>
       <c r="G66" s="73"/>
@@ -21760,13 +21837,13 @@
         <v>59</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D67" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="158" t="s">
-        <v>762</v>
+      <c r="E67" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F67" s="72"/>
       <c r="G67" s="73"/>
@@ -21776,13 +21853,13 @@
         <v>60</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D68" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E68" s="158" t="s">
-        <v>762</v>
+      <c r="E68" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F68" s="72"/>
       <c r="G68" s="73"/>
@@ -21792,13 +21869,13 @@
         <v>61</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D69" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E69" s="158" t="s">
-        <v>762</v>
+      <c r="E69" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F69" s="72"/>
       <c r="G69" s="73"/>
@@ -21808,13 +21885,13 @@
         <v>62</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D70" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="158" t="s">
-        <v>763</v>
+      <c r="E70" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F70" s="72"/>
       <c r="G70" s="73"/>
@@ -21824,13 +21901,13 @@
         <v>63</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D71" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="158" t="s">
-        <v>763</v>
+      <c r="E71" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F71" s="72"/>
       <c r="G71" s="73"/>
@@ -21840,13 +21917,13 @@
         <v>64</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D72" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="158" t="s">
-        <v>763</v>
+      <c r="E72" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F72" s="72"/>
       <c r="G72" s="73"/>
@@ -21856,13 +21933,13 @@
         <v>65</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D73" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="158" t="s">
-        <v>763</v>
+      <c r="E73" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F73" s="72"/>
       <c r="G73" s="73"/>
@@ -21872,13 +21949,13 @@
         <v>66</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D74" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="158" t="s">
-        <v>763</v>
+      <c r="E74" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F74" s="72"/>
       <c r="G74" s="73"/>
@@ -21888,13 +21965,13 @@
         <v>67</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D75" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="158" t="s">
-        <v>762</v>
+      <c r="E75" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F75" s="72"/>
       <c r="G75" s="73"/>
@@ -21904,13 +21981,13 @@
         <v>68</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D76" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E76" s="158" t="s">
-        <v>762</v>
+      <c r="E76" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F76" s="72"/>
       <c r="G76" s="73"/>
@@ -21920,13 +21997,13 @@
         <v>69</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D77" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="158" t="s">
-        <v>762</v>
+      <c r="E77" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F77" s="72"/>
       <c r="G77" s="73"/>
@@ -21936,13 +22013,13 @@
         <v>70</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D78" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="158" t="s">
-        <v>768</v>
+      <c r="E78" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F78" s="72"/>
       <c r="G78" s="73"/>
@@ -21952,13 +22029,13 @@
         <v>71</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D79" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E79" s="158" t="s">
-        <v>762</v>
+      <c r="E79" s="135" t="s">
+        <v>760</v>
       </c>
       <c r="F79" s="72"/>
       <c r="G79" s="73"/>
@@ -21968,13 +22045,13 @@
         <v>72</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D80" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="158" t="s">
-        <v>761</v>
+      <c r="E80" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F80" s="72"/>
       <c r="G80" s="73"/>
@@ -21984,13 +22061,13 @@
         <v>73</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D81" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E81" s="158" t="s">
-        <v>761</v>
+      <c r="E81" s="135" t="s">
+        <v>759</v>
       </c>
       <c r="F81" s="72"/>
       <c r="G81" s="73"/>
@@ -22000,13 +22077,13 @@
         <v>74</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D82" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="158" t="s">
-        <v>768</v>
+      <c r="E82" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F82" s="72"/>
       <c r="G82" s="73"/>
@@ -22016,13 +22093,13 @@
         <v>75</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D83" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="158" t="s">
-        <v>768</v>
+      <c r="E83" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F83" s="72"/>
       <c r="G83" s="73"/>
@@ -22032,13 +22109,13 @@
         <v>76</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D84" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="158" t="s">
-        <v>768</v>
+      <c r="E84" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F84" s="72"/>
       <c r="G84" s="73"/>
@@ -22048,13 +22125,13 @@
         <v>77</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D85" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="158" t="s">
-        <v>763</v>
+      <c r="E85" s="135" t="s">
+        <v>761</v>
       </c>
       <c r="F85" s="72"/>
       <c r="G85" s="73"/>
@@ -22064,13 +22141,13 @@
         <v>78</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D86" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E86" s="158" t="s">
-        <v>768</v>
+      <c r="E86" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F86" s="72"/>
       <c r="G86" s="73"/>
@@ -22080,13 +22157,13 @@
         <v>79</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D87" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E87" s="158" t="s">
-        <v>768</v>
+      <c r="E87" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F87" s="72"/>
       <c r="G87" s="73"/>
@@ -22096,13 +22173,13 @@
         <v>80</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D88" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E88" s="158" t="s">
-        <v>764</v>
+      <c r="E88" s="135" t="s">
+        <v>762</v>
       </c>
       <c r="F88" s="72"/>
       <c r="G88" s="73"/>
@@ -22112,13 +22189,13 @@
         <v>81</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D89" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E89" s="158" t="s">
-        <v>768</v>
+      <c r="E89" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F89" s="72"/>
       <c r="G89" s="73"/>
@@ -22128,13 +22205,13 @@
         <v>82</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D90" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="158" t="s">
-        <v>768</v>
+      <c r="E90" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F90" s="72"/>
       <c r="G90" s="73"/>
@@ -22144,13 +22221,13 @@
         <v>83</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D91" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="158" t="s">
-        <v>768</v>
+      <c r="E91" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F91" s="72"/>
       <c r="G91" s="73"/>
@@ -22160,13 +22237,13 @@
         <v>84</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D92" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="158" t="s">
-        <v>768</v>
+      <c r="E92" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F92" s="72"/>
       <c r="G92" s="73"/>
@@ -22176,13 +22253,13 @@
         <v>85</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D93" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E93" s="158" t="s">
-        <v>768</v>
+      <c r="E93" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F93" s="72"/>
       <c r="G93" s="73"/>
@@ -22192,13 +22269,13 @@
         <v>86</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D94" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E94" s="158" t="s">
-        <v>768</v>
+      <c r="E94" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F94" s="72"/>
       <c r="G94" s="73"/>
@@ -22208,13 +22285,13 @@
         <v>87</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D95" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E95" s="158" t="s">
-        <v>768</v>
+      <c r="E95" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F95" s="72"/>
       <c r="G95" s="73"/>
@@ -22224,13 +22301,13 @@
         <v>88</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D96" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E96" s="158" t="s">
-        <v>768</v>
+      <c r="E96" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F96" s="72"/>
       <c r="G96" s="73"/>
@@ -22240,13 +22317,13 @@
         <v>89</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D97" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E97" s="158" t="s">
-        <v>768</v>
+      <c r="E97" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F97" s="72"/>
       <c r="G97" s="73"/>
@@ -22256,13 +22333,13 @@
         <v>90</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D98" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E98" s="158" t="s">
-        <v>768</v>
+      <c r="E98" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F98" s="72"/>
       <c r="G98" s="73"/>
@@ -22272,13 +22349,13 @@
         <v>91</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D99" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E99" s="158" t="s">
-        <v>768</v>
+      <c r="E99" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F99" s="72"/>
       <c r="G99" s="73"/>
@@ -22288,13 +22365,13 @@
         <v>92</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D100" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="158" t="s">
-        <v>768</v>
+      <c r="E100" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F100" s="72"/>
       <c r="G100" s="73"/>
@@ -22304,13 +22381,13 @@
         <v>93</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D101" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E101" s="158" t="s">
-        <v>768</v>
+      <c r="E101" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F101" s="72"/>
       <c r="G101" s="73"/>
@@ -22320,13 +22397,13 @@
         <v>94</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D102" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E102" s="158" t="s">
-        <v>768</v>
+      <c r="E102" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F102" s="72"/>
       <c r="G102" s="73"/>
@@ -22336,13 +22413,13 @@
         <v>95</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D103" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E103" s="158" t="s">
-        <v>768</v>
+      <c r="E103" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F103" s="72"/>
       <c r="G103" s="73"/>
@@ -22352,13 +22429,13 @@
         <v>96</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D104" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E104" s="158" t="s">
-        <v>768</v>
+      <c r="E104" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F104" s="72"/>
       <c r="G104" s="73"/>
@@ -22368,13 +22445,13 @@
         <v>97</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D105" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E105" s="158" t="s">
-        <v>768</v>
+      <c r="E105" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F105" s="72"/>
       <c r="G105" s="73"/>
@@ -22384,13 +22461,13 @@
         <v>98</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D106" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E106" s="158" t="s">
-        <v>768</v>
+      <c r="E106" s="135" t="s">
+        <v>766</v>
       </c>
       <c r="F106" s="72"/>
       <c r="G106" s="73"/>
@@ -22400,7 +22477,7 @@
         <v>99</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D107" s="38" t="s">
         <v>19</v>
@@ -22416,7 +22493,7 @@
         <v>100</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D108" s="38" t="s">
         <v>19</v>
@@ -22432,7 +22509,7 @@
         <v>101</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D109" s="38" t="s">
         <v>19</v>
@@ -22448,7 +22525,7 @@
         <v>102</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D110" s="38" t="s">
         <v>19</v>
@@ -22464,7 +22541,7 @@
         <v>103</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D111" s="38" t="s">
         <v>19</v>
@@ -22480,7 +22557,7 @@
         <v>104</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D112" s="38" t="s">
         <v>19</v>
@@ -22496,7 +22573,7 @@
         <v>105</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D113" s="38" t="s">
         <v>19</v>
@@ -22512,7 +22589,7 @@
         <v>106</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D114" s="38" t="s">
         <v>19</v>
@@ -22528,7 +22605,7 @@
         <v>107</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D115" s="38" t="s">
         <v>19</v>
@@ -22544,7 +22621,7 @@
         <v>108</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D116" s="38" t="s">
         <v>19</v>
@@ -22560,7 +22637,7 @@
         <v>109</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D117" s="38" t="s">
         <v>19</v>
@@ -22576,7 +22653,7 @@
         <v>110</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D118" s="38" t="s">
         <v>19</v>
@@ -22592,7 +22669,7 @@
         <v>111</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D119" s="38" t="s">
         <v>19</v>
@@ -22608,7 +22685,7 @@
         <v>112</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D120" s="38" t="s">
         <v>19</v>
@@ -22640,7 +22717,7 @@
         <v>114</v>
       </c>
       <c r="C122" s="54" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D122" s="54" t="s">
         <v>19</v>
@@ -22672,8 +22749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22712,26 +22789,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="139" t="s">
-        <v>735</v>
-      </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
+      <c r="D2" s="141" t="s">
+        <v>733</v>
+      </c>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -22744,11 +22821,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="146"/>
-      <c r="F4" s="147"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -22761,11 +22838,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="146"/>
-      <c r="F5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -22777,29 +22854,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="150" t="s">
+      <c r="I7" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="151"/>
-      <c r="K7" s="152"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="154"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="156" t="s">
+      <c r="M7" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="155"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="157"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -22855,7 +22932,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>41</v>
@@ -22873,17 +22950,17 @@
         <v>226</v>
       </c>
       <c r="K9" s="64" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="L9" s="68"/>
       <c r="M9" s="95">
         <v>3</v>
       </c>
       <c r="N9" s="105" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="O9" s="105" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="P9" s="105" t="s">
         <v>499</v>
@@ -22900,7 +22977,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D10" s="54" t="s">
         <v>42</v>
@@ -22915,20 +22992,20 @@
         <v>4</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="K10" s="66" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="L10" s="68"/>
       <c r="M10" s="42">
         <v>4</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="P10" s="31" t="s">
         <v>24</v>
@@ -22956,10 +23033,10 @@
         <v>7</v>
       </c>
       <c r="N11" s="31" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>19</v>
@@ -22985,10 +23062,10 @@
         <v>6</v>
       </c>
       <c r="N12" s="31" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="O12" s="31" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="P12" s="31" t="s">
         <v>24</v>
@@ -23004,10 +23081,10 @@
         <v>6</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="O13" s="31" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="P13" s="31" t="s">
         <v>499</v>
@@ -23023,10 +23100,10 @@
         <v>7</v>
       </c>
       <c r="N14" s="31" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="O14" s="31" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="P14" s="31" t="s">
         <v>19</v>
@@ -23042,10 +23119,10 @@
         <v>6</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="O15" s="31" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="P15" s="31" t="s">
         <v>499</v>
@@ -23061,10 +23138,10 @@
         <v>7</v>
       </c>
       <c r="N16" s="31" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="O16" s="31" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="P16" s="31" t="s">
         <v>19</v>
@@ -23080,10 +23157,10 @@
         <v>6</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="O17" s="31" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>179</v>
@@ -23099,10 +23176,10 @@
         <v>6</v>
       </c>
       <c r="N18" s="31" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="P18" s="31" t="s">
         <v>16</v>
@@ -23118,10 +23195,10 @@
         <v>1</v>
       </c>
       <c r="N19" s="39" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="O19" s="39" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="P19" s="39" t="s">
         <v>179</v>

--- a/Cnl/Mapeos_INV_CNL_V1.xlsx
+++ b/Cnl/Mapeos_INV_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="T20TERCERO" sheetId="28" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="773">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3771,6 +3771,9 @@
   </si>
   <si>
     <t>ID_FMA_CMCN_PRFDA</t>
+  </si>
+  <si>
+    <t>FLG_REQ_TUT</t>
   </si>
 </sst>
 </file>
@@ -5676,7 +5679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5684,10 +5687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R207"/>
+  <dimension ref="B1:R208"/>
   <sheetViews>
-    <sheetView topLeftCell="K204" workbookViewId="0">
-      <selection activeCell="N218" sqref="N218"/>
+    <sheetView tabSelected="1" topLeftCell="K50" workbookViewId="0">
+      <selection activeCell="O134" sqref="O58:O134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8912,107 +8915,107 @@
         <v>314</v>
       </c>
       <c r="O132" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="P132" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q132" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R132" s="34"/>
+    </row>
+    <row r="133" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L133" s="43"/>
+      <c r="M133" s="33">
+        <v>45</v>
+      </c>
+      <c r="N133" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="O133" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="P132" s="31" t="s">
+      <c r="P133" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="Q132" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R132" s="34"/>
-    </row>
-    <row r="133" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L133" s="44"/>
-      <c r="M133" s="84">
+      <c r="Q133" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R133" s="34"/>
+    </row>
+    <row r="134" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L134" s="44"/>
+      <c r="M134" s="84">
         <v>45</v>
       </c>
-      <c r="N133" s="93" t="s">
+      <c r="N134" s="93" t="s">
         <v>314</v>
       </c>
-      <c r="O133" s="93" t="s">
+      <c r="O134" s="93" t="s">
         <v>306</v>
       </c>
-      <c r="P133" s="93" t="s">
+      <c r="P134" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="Q133" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="R133" s="85"/>
-    </row>
-    <row r="134" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L134" s="83"/>
-      <c r="M134" s="57">
+      <c r="Q134" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="85"/>
+    </row>
+    <row r="135" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L135" s="83"/>
+      <c r="M135" s="57">
         <v>40</v>
       </c>
-      <c r="N134" s="105" t="s">
+      <c r="N135" s="105" t="s">
         <v>386</v>
       </c>
-      <c r="O134" s="105" t="s">
+      <c r="O135" s="105" t="s">
         <v>769</v>
       </c>
-      <c r="P134" s="105" t="s">
+      <c r="P135" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q134" s="105" t="s">
+      <c r="Q135" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="R134" s="81" t="s">
+      <c r="R135" s="81" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="135" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L135" s="43"/>
-      <c r="M135" s="101">
-        <v>47</v>
-      </c>
-      <c r="N135" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="O135" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="P135" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q135" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R135" s="37"/>
     </row>
     <row r="136" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L136" s="43"/>
-      <c r="M136" s="33">
-        <v>37</v>
+      <c r="M136" s="101">
+        <v>47</v>
       </c>
       <c r="N136" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O136" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P136" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q136" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R136" s="34"/>
+      <c r="R136" s="37"/>
     </row>
     <row r="137" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L137" s="43"/>
       <c r="M137" s="33">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N137" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O137" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P137" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q137" s="31" t="s">
         <v>20</v>
@@ -9022,16 +9025,16 @@
     <row r="138" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L138" s="43"/>
       <c r="M138" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N138" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O138" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P138" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q138" s="31" t="s">
         <v>20</v>
@@ -9041,16 +9044,16 @@
     <row r="139" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L139" s="43"/>
       <c r="M139" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N139" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O139" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P139" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q139" s="31" t="s">
         <v>20</v>
@@ -9060,16 +9063,16 @@
     <row r="140" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L140" s="43"/>
       <c r="M140" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N140" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O140" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P140" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q140" s="31" t="s">
         <v>20</v>
@@ -9079,16 +9082,16 @@
     <row r="141" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L141" s="43"/>
       <c r="M141" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N141" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O141" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P141" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q141" s="31" t="s">
         <v>20</v>
@@ -9098,16 +9101,16 @@
     <row r="142" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L142" s="43"/>
       <c r="M142" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N142" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O142" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P142" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q142" s="31" t="s">
         <v>20</v>
@@ -9123,10 +9126,10 @@
         <v>386</v>
       </c>
       <c r="O143" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P143" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q143" s="31" t="s">
         <v>20</v>
@@ -9136,16 +9139,16 @@
     <row r="144" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L144" s="43"/>
       <c r="M144" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N144" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O144" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P144" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q144" s="31" t="s">
         <v>20</v>
@@ -9155,16 +9158,16 @@
     <row r="145" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L145" s="43"/>
       <c r="M145" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N145" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O145" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P145" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q145" s="31" t="s">
         <v>20</v>
@@ -9174,16 +9177,16 @@
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="43"/>
       <c r="M146" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N146" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O146" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P146" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q146" s="31" t="s">
         <v>20</v>
@@ -9193,16 +9196,16 @@
     <row r="147" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L147" s="43"/>
       <c r="M147" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N147" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O147" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P147" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q147" s="31" t="s">
         <v>20</v>
@@ -9212,16 +9215,16 @@
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L148" s="43"/>
       <c r="M148" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N148" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O148" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P148" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q148" s="31" t="s">
         <v>20</v>
@@ -9231,16 +9234,16 @@
     <row r="149" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L149" s="43"/>
       <c r="M149" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N149" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O149" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P149" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q149" s="31" t="s">
         <v>20</v>
@@ -9250,16 +9253,16 @@
     <row r="150" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L150" s="43"/>
       <c r="M150" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N150" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O150" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P150" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q150" s="31" t="s">
         <v>20</v>
@@ -9269,16 +9272,16 @@
     <row r="151" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L151" s="43"/>
       <c r="M151" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N151" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O151" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P151" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q151" s="31" t="s">
         <v>20</v>
@@ -9288,16 +9291,16 @@
     <row r="152" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L152" s="43"/>
       <c r="M152" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N152" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O152" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P152" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q152" s="31" t="s">
         <v>20</v>
@@ -9307,16 +9310,16 @@
     <row r="153" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L153" s="43"/>
       <c r="M153" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N153" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O153" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P153" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q153" s="31" t="s">
         <v>20</v>
@@ -9326,16 +9329,16 @@
     <row r="154" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L154" s="43"/>
       <c r="M154" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N154" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O154" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P154" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q154" s="31" t="s">
         <v>20</v>
@@ -9345,16 +9348,16 @@
     <row r="155" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L155" s="43"/>
       <c r="M155" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N155" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O155" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P155" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q155" s="31" t="s">
         <v>20</v>
@@ -9364,16 +9367,16 @@
     <row r="156" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L156" s="43"/>
       <c r="M156" s="33">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N156" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O156" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P156" s="31" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q156" s="31" t="s">
         <v>20</v>
@@ -9383,16 +9386,16 @@
     <row r="157" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L157" s="43"/>
       <c r="M157" s="33">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N157" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O157" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P157" s="31" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q157" s="31" t="s">
         <v>20</v>
@@ -9401,55 +9404,55 @@
     </row>
     <row r="158" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L158" s="43"/>
-      <c r="M158" s="99">
-        <v>48</v>
-      </c>
-      <c r="N158" s="98" t="s">
+      <c r="M158" s="33">
+        <v>45</v>
+      </c>
+      <c r="N158" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O158" s="98" t="s">
-        <v>338</v>
-      </c>
-      <c r="P158" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q158" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R158" s="100"/>
+      <c r="O158" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="P158" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q158" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R158" s="34"/>
     </row>
     <row r="159" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L159" s="43"/>
-      <c r="M159" s="33">
-        <v>44</v>
-      </c>
-      <c r="N159" s="31" t="s">
+      <c r="M159" s="99">
+        <v>48</v>
+      </c>
+      <c r="N159" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="O159" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="P159" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q159" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R159" s="34"/>
+      <c r="O159" s="98" t="s">
+        <v>338</v>
+      </c>
+      <c r="P159" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q159" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="R159" s="100"/>
     </row>
     <row r="160" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L160" s="43"/>
       <c r="M160" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N160" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O160" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P160" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q160" s="31" t="s">
         <v>20</v>
@@ -9465,7 +9468,7 @@
         <v>386</v>
       </c>
       <c r="O161" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P161" s="31" t="s">
         <v>19</v>
@@ -9477,114 +9480,114 @@
     </row>
     <row r="162" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L162" s="43"/>
-      <c r="M162" s="99">
-        <v>48</v>
-      </c>
-      <c r="N162" s="98" t="s">
+      <c r="M162" s="33">
+        <v>45</v>
+      </c>
+      <c r="N162" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O162" s="98" t="s">
-        <v>342</v>
-      </c>
-      <c r="P162" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q162" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R162" s="100"/>
+      <c r="O162" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="P162" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q162" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R162" s="34"/>
     </row>
     <row r="163" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L163" s="43"/>
-      <c r="M163" s="33">
-        <v>45</v>
-      </c>
-      <c r="N163" s="31" t="s">
+      <c r="M163" s="99">
+        <v>48</v>
+      </c>
+      <c r="N163" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="O163" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="P163" s="31" t="s">
+      <c r="O163" s="98" t="s">
+        <v>342</v>
+      </c>
+      <c r="P163" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Q163" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R163" s="34"/>
+      <c r="Q163" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="R163" s="100"/>
     </row>
     <row r="164" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L164" s="43"/>
-      <c r="M164" s="101">
-        <v>39</v>
+      <c r="M164" s="33">
+        <v>45</v>
       </c>
       <c r="N164" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O164" s="31" t="s">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="P164" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q164" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="R164" s="37" t="s">
-        <v>178</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="R164" s="34"/>
     </row>
     <row r="165" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L165" s="43"/>
-      <c r="M165" s="82">
-        <v>45</v>
-      </c>
-      <c r="N165" s="113" t="s">
+      <c r="M165" s="101">
+        <v>39</v>
+      </c>
+      <c r="N165" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O165" s="113" t="s">
-        <v>25</v>
-      </c>
-      <c r="P165" s="113" t="s">
+      <c r="O165" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P165" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q165" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="R165" s="60"/>
+      <c r="Q165" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="R165" s="37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="166" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L166" s="43"/>
-      <c r="M166" s="33">
+      <c r="M166" s="82">
         <v>45</v>
       </c>
-      <c r="N166" s="31" t="s">
+      <c r="N166" s="113" t="s">
         <v>386</v>
       </c>
-      <c r="O166" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="P166" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q166" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R166" s="34"/>
+      <c r="O166" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="P166" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q166" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="R166" s="60"/>
     </row>
     <row r="167" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L167" s="43"/>
       <c r="M167" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N167" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O167" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P167" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q167" s="31" t="s">
         <v>20</v>
@@ -9594,16 +9597,16 @@
     <row r="168" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L168" s="43"/>
       <c r="M168" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N168" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O168" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P168" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q168" s="31" t="s">
         <v>20</v>
@@ -9619,7 +9622,7 @@
         <v>386</v>
       </c>
       <c r="O169" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P169" s="31" t="s">
         <v>24</v>
@@ -9638,7 +9641,7 @@
         <v>386</v>
       </c>
       <c r="O170" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P170" s="31" t="s">
         <v>24</v>
@@ -9651,16 +9654,16 @@
     <row r="171" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L171" s="43"/>
       <c r="M171" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N171" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O171" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P171" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q171" s="31" t="s">
         <v>20</v>
@@ -9670,16 +9673,16 @@
     <row r="172" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L172" s="43"/>
       <c r="M172" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N172" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O172" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P172" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q172" s="31" t="s">
         <v>20</v>
@@ -9695,7 +9698,7 @@
         <v>386</v>
       </c>
       <c r="O173" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P173" s="31" t="s">
         <v>24</v>
@@ -9714,7 +9717,7 @@
         <v>386</v>
       </c>
       <c r="O174" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P174" s="31" t="s">
         <v>24</v>
@@ -9733,10 +9736,10 @@
         <v>386</v>
       </c>
       <c r="O175" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P175" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q175" s="31" t="s">
         <v>20</v>
@@ -9752,10 +9755,10 @@
         <v>386</v>
       </c>
       <c r="O176" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P176" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q176" s="31" t="s">
         <v>20</v>
@@ -9771,7 +9774,7 @@
         <v>386</v>
       </c>
       <c r="O177" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P177" s="31" t="s">
         <v>24</v>
@@ -9790,7 +9793,7 @@
         <v>386</v>
       </c>
       <c r="O178" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P178" s="31" t="s">
         <v>24</v>
@@ -9809,7 +9812,7 @@
         <v>386</v>
       </c>
       <c r="O179" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P179" s="31" t="s">
         <v>24</v>
@@ -9828,10 +9831,10 @@
         <v>386</v>
       </c>
       <c r="O180" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P180" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q180" s="31" t="s">
         <v>20</v>
@@ -9841,16 +9844,16 @@
     <row r="181" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L181" s="43"/>
       <c r="M181" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N181" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O181" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P181" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q181" s="31" t="s">
         <v>20</v>
@@ -9860,16 +9863,16 @@
     <row r="182" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L182" s="43"/>
       <c r="M182" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N182" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O182" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P182" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q182" s="31" t="s">
         <v>20</v>
@@ -9885,10 +9888,10 @@
         <v>386</v>
       </c>
       <c r="O183" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P183" s="31" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q183" s="31" t="s">
         <v>20</v>
@@ -9904,10 +9907,10 @@
         <v>386</v>
       </c>
       <c r="O184" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P184" s="31" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="Q184" s="31" t="s">
         <v>20</v>
@@ -9923,7 +9926,7 @@
         <v>386</v>
       </c>
       <c r="O185" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P185" s="31" t="s">
         <v>24</v>
@@ -9942,10 +9945,10 @@
         <v>386</v>
       </c>
       <c r="O186" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P186" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q186" s="31" t="s">
         <v>20</v>
@@ -9961,10 +9964,10 @@
         <v>386</v>
       </c>
       <c r="O187" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P187" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q187" s="31" t="s">
         <v>20</v>
@@ -9974,13 +9977,13 @@
     <row r="188" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L188" s="43"/>
       <c r="M188" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N188" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O188" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P188" s="31" t="s">
         <v>16</v>
@@ -9999,10 +10002,10 @@
         <v>386</v>
       </c>
       <c r="O189" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P189" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q189" s="31" t="s">
         <v>20</v>
@@ -10018,10 +10021,10 @@
         <v>386</v>
       </c>
       <c r="O190" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P190" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q190" s="31" t="s">
         <v>20</v>
@@ -10037,7 +10040,7 @@
         <v>386</v>
       </c>
       <c r="O191" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P191" s="31" t="s">
         <v>16</v>
@@ -10050,16 +10053,16 @@
     <row r="192" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L192" s="43"/>
       <c r="M192" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N192" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O192" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P192" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q192" s="31" t="s">
         <v>20</v>
@@ -10069,16 +10072,16 @@
     <row r="193" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L193" s="43"/>
       <c r="M193" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N193" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O193" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P193" s="31" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="Q193" s="31" t="s">
         <v>20</v>
@@ -10088,16 +10091,16 @@
     <row r="194" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L194" s="43"/>
       <c r="M194" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N194" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O194" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P194" s="31" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="Q194" s="31" t="s">
         <v>20</v>
@@ -10113,10 +10116,10 @@
         <v>386</v>
       </c>
       <c r="O195" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P195" s="31" t="s">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="Q195" s="31" t="s">
         <v>20</v>
@@ -10132,7 +10135,7 @@
         <v>386</v>
       </c>
       <c r="O196" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P196" s="31" t="s">
         <v>279</v>
@@ -10145,16 +10148,16 @@
     <row r="197" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L197" s="43"/>
       <c r="M197" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N197" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O197" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P197" s="31" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="Q197" s="31" t="s">
         <v>20</v>
@@ -10170,7 +10173,7 @@
         <v>386</v>
       </c>
       <c r="O198" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P198" s="31" t="s">
         <v>16</v>
@@ -10183,16 +10186,16 @@
     <row r="199" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L199" s="43"/>
       <c r="M199" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N199" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O199" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P199" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q199" s="31" t="s">
         <v>20</v>
@@ -10202,16 +10205,16 @@
     <row r="200" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L200" s="43"/>
       <c r="M200" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N200" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O200" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P200" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q200" s="31" t="s">
         <v>20</v>
@@ -10221,16 +10224,16 @@
     <row r="201" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L201" s="43"/>
       <c r="M201" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N201" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O201" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P201" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q201" s="31" t="s">
         <v>20</v>
@@ -10246,7 +10249,7 @@
         <v>386</v>
       </c>
       <c r="O202" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P202" s="31" t="s">
         <v>24</v>
@@ -10265,7 +10268,7 @@
         <v>386</v>
       </c>
       <c r="O203" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P203" s="31" t="s">
         <v>24</v>
@@ -10284,7 +10287,7 @@
         <v>386</v>
       </c>
       <c r="O204" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P204" s="31" t="s">
         <v>24</v>
@@ -10303,10 +10306,10 @@
         <v>386</v>
       </c>
       <c r="O205" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P205" s="31" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="Q205" s="31" t="s">
         <v>20</v>
@@ -10322,34 +10325,53 @@
         <v>386</v>
       </c>
       <c r="O206" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="P206" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q206" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R206" s="34"/>
+    </row>
+    <row r="207" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L207" s="43"/>
+      <c r="M207" s="33">
+        <v>45</v>
+      </c>
+      <c r="N207" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="O207" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="P206" s="31" t="s">
+      <c r="P207" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q206" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R206" s="34"/>
-    </row>
-    <row r="207" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L207" s="44"/>
-      <c r="M207" s="32">
+      <c r="Q207" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R207" s="34"/>
+    </row>
+    <row r="208" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L208" s="44"/>
+      <c r="M208" s="32">
         <v>45</v>
       </c>
-      <c r="N207" s="39" t="s">
+      <c r="N208" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="O207" s="39" t="s">
+      <c r="O208" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="P207" s="39" t="s">
+      <c r="P208" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Q207" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R207" s="35"/>
+      <c r="Q208" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R208" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -22749,7 +22771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+    <sheetView topLeftCell="K4" workbookViewId="0">
       <selection activeCell="O9" sqref="O9:Q19"/>
     </sheetView>
   </sheetViews>

--- a/Cnl/Mapeos_INV_CNL_V1.xlsx
+++ b/Cnl/Mapeos_INV_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583"/>
+    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T20TERCERO" sheetId="28" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="774">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3774,6 +3774,9 @@
   </si>
   <si>
     <t>FLG_REQ_TUT</t>
+  </si>
+  <si>
+    <t>FLG_OBJ_LIB</t>
   </si>
 </sst>
 </file>
@@ -5679,7 +5682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5687,10 +5690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R208"/>
+  <dimension ref="B1:R209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K50" workbookViewId="0">
-      <selection activeCell="O134" sqref="O58:O134"/>
+    <sheetView topLeftCell="I112" workbookViewId="0">
+      <selection activeCell="M134" sqref="M134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8934,107 +8937,107 @@
         <v>314</v>
       </c>
       <c r="O133" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="P133" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q133" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R133" s="34"/>
+    </row>
+    <row r="134" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L134" s="43"/>
+      <c r="M134" s="33">
+        <v>45</v>
+      </c>
+      <c r="N134" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="O134" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="P133" s="31" t="s">
+      <c r="P134" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="Q133" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R133" s="34"/>
-    </row>
-    <row r="134" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L134" s="44"/>
-      <c r="M134" s="84">
+      <c r="Q134" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="34"/>
+    </row>
+    <row r="135" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L135" s="44"/>
+      <c r="M135" s="84">
         <v>45</v>
       </c>
-      <c r="N134" s="93" t="s">
+      <c r="N135" s="93" t="s">
         <v>314</v>
       </c>
-      <c r="O134" s="93" t="s">
+      <c r="O135" s="93" t="s">
         <v>306</v>
       </c>
-      <c r="P134" s="93" t="s">
+      <c r="P135" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="Q134" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="R134" s="85"/>
-    </row>
-    <row r="135" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L135" s="83"/>
-      <c r="M135" s="57">
+      <c r="Q135" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="R135" s="85"/>
+    </row>
+    <row r="136" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L136" s="83"/>
+      <c r="M136" s="57">
         <v>40</v>
       </c>
-      <c r="N135" s="105" t="s">
+      <c r="N136" s="105" t="s">
         <v>386</v>
       </c>
-      <c r="O135" s="105" t="s">
+      <c r="O136" s="105" t="s">
         <v>769</v>
       </c>
-      <c r="P135" s="105" t="s">
+      <c r="P136" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q135" s="105" t="s">
+      <c r="Q136" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="R135" s="81" t="s">
+      <c r="R136" s="81" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="136" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L136" s="43"/>
-      <c r="M136" s="101">
-        <v>47</v>
-      </c>
-      <c r="N136" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="O136" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="P136" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q136" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R136" s="37"/>
     </row>
     <row r="137" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L137" s="43"/>
-      <c r="M137" s="33">
-        <v>37</v>
+      <c r="M137" s="101">
+        <v>47</v>
       </c>
       <c r="N137" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O137" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P137" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q137" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R137" s="34"/>
+      <c r="R137" s="37"/>
     </row>
     <row r="138" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L138" s="43"/>
       <c r="M138" s="33">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N138" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O138" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P138" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q138" s="31" t="s">
         <v>20</v>
@@ -9044,16 +9047,16 @@
     <row r="139" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L139" s="43"/>
       <c r="M139" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N139" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O139" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P139" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q139" s="31" t="s">
         <v>20</v>
@@ -9063,16 +9066,16 @@
     <row r="140" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L140" s="43"/>
       <c r="M140" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N140" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O140" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P140" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q140" s="31" t="s">
         <v>20</v>
@@ -9082,16 +9085,16 @@
     <row r="141" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L141" s="43"/>
       <c r="M141" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N141" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O141" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P141" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q141" s="31" t="s">
         <v>20</v>
@@ -9101,16 +9104,16 @@
     <row r="142" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L142" s="43"/>
       <c r="M142" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N142" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O142" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P142" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q142" s="31" t="s">
         <v>20</v>
@@ -9120,16 +9123,16 @@
     <row r="143" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L143" s="43"/>
       <c r="M143" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N143" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O143" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P143" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q143" s="31" t="s">
         <v>20</v>
@@ -9145,10 +9148,10 @@
         <v>386</v>
       </c>
       <c r="O144" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P144" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q144" s="31" t="s">
         <v>20</v>
@@ -9158,16 +9161,16 @@
     <row r="145" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L145" s="43"/>
       <c r="M145" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N145" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O145" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P145" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q145" s="31" t="s">
         <v>20</v>
@@ -9177,16 +9180,16 @@
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="43"/>
       <c r="M146" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N146" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O146" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P146" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q146" s="31" t="s">
         <v>20</v>
@@ -9196,16 +9199,16 @@
     <row r="147" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L147" s="43"/>
       <c r="M147" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N147" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O147" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P147" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q147" s="31" t="s">
         <v>20</v>
@@ -9215,16 +9218,16 @@
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L148" s="43"/>
       <c r="M148" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N148" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O148" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P148" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q148" s="31" t="s">
         <v>20</v>
@@ -9234,16 +9237,16 @@
     <row r="149" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L149" s="43"/>
       <c r="M149" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N149" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O149" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P149" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q149" s="31" t="s">
         <v>20</v>
@@ -9253,16 +9256,16 @@
     <row r="150" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L150" s="43"/>
       <c r="M150" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N150" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O150" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P150" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q150" s="31" t="s">
         <v>20</v>
@@ -9272,16 +9275,16 @@
     <row r="151" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L151" s="43"/>
       <c r="M151" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N151" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O151" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P151" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q151" s="31" t="s">
         <v>20</v>
@@ -9291,16 +9294,16 @@
     <row r="152" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L152" s="43"/>
       <c r="M152" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N152" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O152" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P152" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q152" s="31" t="s">
         <v>20</v>
@@ -9310,16 +9313,16 @@
     <row r="153" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L153" s="43"/>
       <c r="M153" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N153" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O153" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P153" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q153" s="31" t="s">
         <v>20</v>
@@ -9329,16 +9332,16 @@
     <row r="154" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L154" s="43"/>
       <c r="M154" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N154" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O154" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P154" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q154" s="31" t="s">
         <v>20</v>
@@ -9348,16 +9351,16 @@
     <row r="155" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L155" s="43"/>
       <c r="M155" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N155" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O155" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P155" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q155" s="31" t="s">
         <v>20</v>
@@ -9367,16 +9370,16 @@
     <row r="156" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L156" s="43"/>
       <c r="M156" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N156" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O156" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P156" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q156" s="31" t="s">
         <v>20</v>
@@ -9386,16 +9389,16 @@
     <row r="157" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L157" s="43"/>
       <c r="M157" s="33">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N157" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O157" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P157" s="31" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q157" s="31" t="s">
         <v>20</v>
@@ -9405,16 +9408,16 @@
     <row r="158" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L158" s="43"/>
       <c r="M158" s="33">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N158" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O158" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P158" s="31" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q158" s="31" t="s">
         <v>20</v>
@@ -9423,55 +9426,55 @@
     </row>
     <row r="159" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L159" s="43"/>
-      <c r="M159" s="99">
-        <v>48</v>
-      </c>
-      <c r="N159" s="98" t="s">
+      <c r="M159" s="33">
+        <v>45</v>
+      </c>
+      <c r="N159" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O159" s="98" t="s">
-        <v>338</v>
-      </c>
-      <c r="P159" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q159" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R159" s="100"/>
+      <c r="O159" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="P159" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q159" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R159" s="34"/>
     </row>
     <row r="160" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L160" s="43"/>
-      <c r="M160" s="33">
-        <v>44</v>
-      </c>
-      <c r="N160" s="31" t="s">
+      <c r="M160" s="99">
+        <v>48</v>
+      </c>
+      <c r="N160" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="O160" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="P160" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q160" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R160" s="34"/>
+      <c r="O160" s="98" t="s">
+        <v>338</v>
+      </c>
+      <c r="P160" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q160" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="R160" s="100"/>
     </row>
     <row r="161" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L161" s="43"/>
       <c r="M161" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N161" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O161" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P161" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q161" s="31" t="s">
         <v>20</v>
@@ -9487,7 +9490,7 @@
         <v>386</v>
       </c>
       <c r="O162" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P162" s="31" t="s">
         <v>19</v>
@@ -9499,114 +9502,114 @@
     </row>
     <row r="163" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L163" s="43"/>
-      <c r="M163" s="99">
-        <v>48</v>
-      </c>
-      <c r="N163" s="98" t="s">
+      <c r="M163" s="33">
+        <v>45</v>
+      </c>
+      <c r="N163" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O163" s="98" t="s">
-        <v>342</v>
-      </c>
-      <c r="P163" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q163" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R163" s="100"/>
+      <c r="O163" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="P163" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q163" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R163" s="34"/>
     </row>
     <row r="164" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L164" s="43"/>
-      <c r="M164" s="33">
-        <v>45</v>
-      </c>
-      <c r="N164" s="31" t="s">
+      <c r="M164" s="99">
+        <v>48</v>
+      </c>
+      <c r="N164" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="O164" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="P164" s="31" t="s">
+      <c r="O164" s="98" t="s">
+        <v>342</v>
+      </c>
+      <c r="P164" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Q164" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R164" s="34"/>
+      <c r="Q164" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="R164" s="100"/>
     </row>
     <row r="165" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L165" s="43"/>
-      <c r="M165" s="101">
-        <v>39</v>
+      <c r="M165" s="33">
+        <v>45</v>
       </c>
       <c r="N165" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O165" s="31" t="s">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="P165" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q165" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="R165" s="37" t="s">
-        <v>178</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="R165" s="34"/>
     </row>
     <row r="166" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L166" s="43"/>
-      <c r="M166" s="82">
-        <v>45</v>
-      </c>
-      <c r="N166" s="113" t="s">
+      <c r="M166" s="101">
+        <v>39</v>
+      </c>
+      <c r="N166" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O166" s="113" t="s">
-        <v>25</v>
-      </c>
-      <c r="P166" s="113" t="s">
+      <c r="O166" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P166" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q166" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="R166" s="60"/>
+      <c r="Q166" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="R166" s="37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="167" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L167" s="43"/>
-      <c r="M167" s="33">
+      <c r="M167" s="82">
         <v>45</v>
       </c>
-      <c r="N167" s="31" t="s">
+      <c r="N167" s="113" t="s">
         <v>386</v>
       </c>
-      <c r="O167" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="P167" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q167" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R167" s="34"/>
+      <c r="O167" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="P167" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q167" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="R167" s="60"/>
     </row>
     <row r="168" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L168" s="43"/>
       <c r="M168" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N168" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O168" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P168" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q168" s="31" t="s">
         <v>20</v>
@@ -9616,16 +9619,16 @@
     <row r="169" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L169" s="43"/>
       <c r="M169" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N169" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O169" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P169" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q169" s="31" t="s">
         <v>20</v>
@@ -9641,7 +9644,7 @@
         <v>386</v>
       </c>
       <c r="O170" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P170" s="31" t="s">
         <v>24</v>
@@ -9660,7 +9663,7 @@
         <v>386</v>
       </c>
       <c r="O171" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P171" s="31" t="s">
         <v>24</v>
@@ -9673,16 +9676,16 @@
     <row r="172" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L172" s="43"/>
       <c r="M172" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N172" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O172" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P172" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q172" s="31" t="s">
         <v>20</v>
@@ -9692,16 +9695,16 @@
     <row r="173" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L173" s="43"/>
       <c r="M173" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N173" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O173" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P173" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q173" s="31" t="s">
         <v>20</v>
@@ -9717,7 +9720,7 @@
         <v>386</v>
       </c>
       <c r="O174" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P174" s="31" t="s">
         <v>24</v>
@@ -9736,7 +9739,7 @@
         <v>386</v>
       </c>
       <c r="O175" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P175" s="31" t="s">
         <v>24</v>
@@ -9755,10 +9758,10 @@
         <v>386</v>
       </c>
       <c r="O176" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P176" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q176" s="31" t="s">
         <v>20</v>
@@ -9774,10 +9777,10 @@
         <v>386</v>
       </c>
       <c r="O177" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P177" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q177" s="31" t="s">
         <v>20</v>
@@ -9793,7 +9796,7 @@
         <v>386</v>
       </c>
       <c r="O178" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P178" s="31" t="s">
         <v>24</v>
@@ -9812,7 +9815,7 @@
         <v>386</v>
       </c>
       <c r="O179" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P179" s="31" t="s">
         <v>24</v>
@@ -9831,7 +9834,7 @@
         <v>386</v>
       </c>
       <c r="O180" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P180" s="31" t="s">
         <v>24</v>
@@ -9850,10 +9853,10 @@
         <v>386</v>
       </c>
       <c r="O181" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P181" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q181" s="31" t="s">
         <v>20</v>
@@ -9863,16 +9866,16 @@
     <row r="182" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L182" s="43"/>
       <c r="M182" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N182" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O182" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P182" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q182" s="31" t="s">
         <v>20</v>
@@ -9882,16 +9885,16 @@
     <row r="183" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L183" s="43"/>
       <c r="M183" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N183" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O183" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P183" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q183" s="31" t="s">
         <v>20</v>
@@ -9907,10 +9910,10 @@
         <v>386</v>
       </c>
       <c r="O184" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P184" s="31" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q184" s="31" t="s">
         <v>20</v>
@@ -9926,10 +9929,10 @@
         <v>386</v>
       </c>
       <c r="O185" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P185" s="31" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="Q185" s="31" t="s">
         <v>20</v>
@@ -9945,7 +9948,7 @@
         <v>386</v>
       </c>
       <c r="O186" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P186" s="31" t="s">
         <v>24</v>
@@ -9964,10 +9967,10 @@
         <v>386</v>
       </c>
       <c r="O187" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P187" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q187" s="31" t="s">
         <v>20</v>
@@ -9983,10 +9986,10 @@
         <v>386</v>
       </c>
       <c r="O188" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P188" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q188" s="31" t="s">
         <v>20</v>
@@ -9996,13 +9999,13 @@
     <row r="189" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L189" s="43"/>
       <c r="M189" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N189" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O189" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P189" s="31" t="s">
         <v>16</v>
@@ -10021,10 +10024,10 @@
         <v>386</v>
       </c>
       <c r="O190" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P190" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q190" s="31" t="s">
         <v>20</v>
@@ -10040,10 +10043,10 @@
         <v>386</v>
       </c>
       <c r="O191" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P191" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q191" s="31" t="s">
         <v>20</v>
@@ -10059,7 +10062,7 @@
         <v>386</v>
       </c>
       <c r="O192" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P192" s="31" t="s">
         <v>16</v>
@@ -10072,16 +10075,16 @@
     <row r="193" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L193" s="43"/>
       <c r="M193" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N193" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O193" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P193" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q193" s="31" t="s">
         <v>20</v>
@@ -10091,16 +10094,16 @@
     <row r="194" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L194" s="43"/>
       <c r="M194" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N194" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O194" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P194" s="31" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="Q194" s="31" t="s">
         <v>20</v>
@@ -10110,16 +10113,16 @@
     <row r="195" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L195" s="43"/>
       <c r="M195" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N195" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O195" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P195" s="31" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="Q195" s="31" t="s">
         <v>20</v>
@@ -10135,10 +10138,10 @@
         <v>386</v>
       </c>
       <c r="O196" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P196" s="31" t="s">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="Q196" s="31" t="s">
         <v>20</v>
@@ -10154,7 +10157,7 @@
         <v>386</v>
       </c>
       <c r="O197" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P197" s="31" t="s">
         <v>279</v>
@@ -10167,16 +10170,16 @@
     <row r="198" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L198" s="43"/>
       <c r="M198" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N198" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O198" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P198" s="31" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="Q198" s="31" t="s">
         <v>20</v>
@@ -10192,7 +10195,7 @@
         <v>386</v>
       </c>
       <c r="O199" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P199" s="31" t="s">
         <v>16</v>
@@ -10205,16 +10208,16 @@
     <row r="200" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L200" s="43"/>
       <c r="M200" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N200" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O200" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P200" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q200" s="31" t="s">
         <v>20</v>
@@ -10224,16 +10227,16 @@
     <row r="201" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L201" s="43"/>
       <c r="M201" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N201" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O201" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P201" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q201" s="31" t="s">
         <v>20</v>
@@ -10243,16 +10246,16 @@
     <row r="202" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L202" s="43"/>
       <c r="M202" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N202" s="31" t="s">
         <v>386</v>
       </c>
       <c r="O202" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P202" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q202" s="31" t="s">
         <v>20</v>
@@ -10268,7 +10271,7 @@
         <v>386</v>
       </c>
       <c r="O203" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P203" s="31" t="s">
         <v>24</v>
@@ -10287,7 +10290,7 @@
         <v>386</v>
       </c>
       <c r="O204" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P204" s="31" t="s">
         <v>24</v>
@@ -10306,7 +10309,7 @@
         <v>386</v>
       </c>
       <c r="O205" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P205" s="31" t="s">
         <v>24</v>
@@ -10325,10 +10328,10 @@
         <v>386</v>
       </c>
       <c r="O206" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P206" s="31" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="Q206" s="31" t="s">
         <v>20</v>
@@ -10344,34 +10347,53 @@
         <v>386</v>
       </c>
       <c r="O207" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="P207" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q207" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R207" s="34"/>
+    </row>
+    <row r="208" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L208" s="43"/>
+      <c r="M208" s="33">
+        <v>45</v>
+      </c>
+      <c r="N208" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="O208" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="P207" s="31" t="s">
+      <c r="P208" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q207" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R207" s="34"/>
-    </row>
-    <row r="208" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L208" s="44"/>
-      <c r="M208" s="32">
+      <c r="Q208" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R208" s="34"/>
+    </row>
+    <row r="209" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L209" s="44"/>
+      <c r="M209" s="32">
         <v>45</v>
       </c>
-      <c r="N208" s="39" t="s">
+      <c r="N209" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="O208" s="39" t="s">
+      <c r="O209" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="P208" s="39" t="s">
+      <c r="P209" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Q208" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R208" s="35"/>
+      <c r="Q209" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R209" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10392,10 +10414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R133"/>
+  <dimension ref="B1:R134"/>
   <sheetViews>
-    <sheetView topLeftCell="K158" workbookViewId="0">
-      <selection activeCell="N179" sqref="N179"/>
+    <sheetView tabSelected="1" topLeftCell="I104" workbookViewId="0">
+      <selection activeCell="N128" sqref="N128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13249,7 +13271,7 @@
         <v>314</v>
       </c>
       <c r="O131" s="31" t="s">
-        <v>304</v>
+        <v>773</v>
       </c>
       <c r="P131" s="31" t="s">
         <v>24</v>
@@ -13268,34 +13290,53 @@
         <v>314</v>
       </c>
       <c r="O132" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="P132" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q132" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R132" s="34"/>
+    </row>
+    <row r="133" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L133" s="43"/>
+      <c r="M133" s="33">
+        <v>25</v>
+      </c>
+      <c r="N133" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="O133" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="P132" s="31" t="s">
+      <c r="P133" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="Q132" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R132" s="34"/>
-    </row>
-    <row r="133" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L133" s="44"/>
-      <c r="M133" s="32">
+      <c r="Q133" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R133" s="34"/>
+    </row>
+    <row r="134" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L134" s="44"/>
+      <c r="M134" s="32">
         <v>25</v>
       </c>
-      <c r="N133" s="39" t="s">
+      <c r="N134" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="O133" s="39" t="s">
+      <c r="O134" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="P133" s="39" t="s">
+      <c r="P134" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="Q133" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R133" s="35"/>
+      <c r="Q134" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Cnl/Mapeos_INV_CNL_V1.xlsx
+++ b/Cnl/Mapeos_INV_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="T20TERCERO" sheetId="28" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="775">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3777,6 +3777,9 @@
   </si>
   <si>
     <t>FLG_OBJ_LIB</t>
+  </si>
+  <si>
+    <t>POR_GAS_FMLRS</t>
   </si>
 </sst>
 </file>
@@ -4873,7 +4876,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -5161,6 +5164,8 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="129">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -5682,7 +5687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10416,7 +10421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I104" workbookViewId="0">
+    <sheetView topLeftCell="I104" workbookViewId="0">
       <selection activeCell="N128" sqref="N128"/>
     </sheetView>
   </sheetViews>
@@ -18766,10 +18771,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R44"/>
+  <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="K25" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14:O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19147,23 +19152,23 @@
       <c r="K13" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="77"/>
-      <c r="M13" s="53">
+      <c r="L13" s="49"/>
+      <c r="M13" s="102">
         <v>7</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="93" t="s">
         <v>552</v>
       </c>
-      <c r="O13" s="39" t="s">
+      <c r="O13" s="93" t="s">
         <v>292</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="107"/>
+      <c r="Q13" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="80"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="48">
@@ -19191,7 +19196,7 @@
         <v>589</v>
       </c>
       <c r="L14" s="83"/>
-      <c r="M14" s="47">
+      <c r="M14" s="159">
         <v>22</v>
       </c>
       <c r="N14" s="105" t="s">
@@ -19236,7 +19241,7 @@
         <v>590</v>
       </c>
       <c r="L15" s="43"/>
-      <c r="M15" s="48">
+      <c r="M15" s="110">
         <v>25</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -19279,7 +19284,7 @@
         <v>36</v>
       </c>
       <c r="L16" s="43"/>
-      <c r="M16" s="48">
+      <c r="M16" s="110">
         <v>24</v>
       </c>
       <c r="N16" s="31" t="s">
@@ -19322,7 +19327,7 @@
         <v>35</v>
       </c>
       <c r="L17" s="43"/>
-      <c r="M17" s="48">
+      <c r="M17" s="110">
         <v>27</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -19367,7 +19372,7 @@
         <v>591</v>
       </c>
       <c r="L18" s="43"/>
-      <c r="M18" s="48">
+      <c r="M18" s="110">
         <v>28</v>
       </c>
       <c r="N18" s="31" t="s">
@@ -19410,7 +19415,7 @@
         <v>592</v>
       </c>
       <c r="L19" s="43"/>
-      <c r="M19" s="48">
+      <c r="M19" s="110">
         <v>30</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -19453,7 +19458,7 @@
         <v>593</v>
       </c>
       <c r="L20" s="43"/>
-      <c r="M20" s="48">
+      <c r="M20" s="110">
         <v>29</v>
       </c>
       <c r="N20" s="31" t="s">
@@ -19496,7 +19501,7 @@
         <v>594</v>
       </c>
       <c r="L21" s="43"/>
-      <c r="M21" s="48">
+      <c r="M21" s="110">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -19529,7 +19534,7 @@
       <c r="F22" s="72"/>
       <c r="G22" s="73"/>
       <c r="L22" s="43"/>
-      <c r="M22" s="48">
+      <c r="M22" s="110">
         <v>25</v>
       </c>
       <c r="N22" s="31" t="s">
@@ -19562,7 +19567,7 @@
       <c r="F23" s="72"/>
       <c r="G23" s="73"/>
       <c r="L23" s="43"/>
-      <c r="M23" s="48">
+      <c r="M23" s="110">
         <v>25</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -19595,7 +19600,7 @@
       <c r="F24" s="72"/>
       <c r="G24" s="73"/>
       <c r="L24" s="43"/>
-      <c r="M24" s="48">
+      <c r="M24" s="110">
         <v>26</v>
       </c>
       <c r="N24" s="31" t="s">
@@ -19628,7 +19633,7 @@
       <c r="F25" s="72"/>
       <c r="G25" s="73"/>
       <c r="L25" s="43"/>
-      <c r="M25" s="59">
+      <c r="M25" s="160">
         <v>26</v>
       </c>
       <c r="N25" s="113" t="s">
@@ -19661,7 +19666,7 @@
       <c r="F26" s="72"/>
       <c r="G26" s="73"/>
       <c r="L26" s="43"/>
-      <c r="M26" s="48">
+      <c r="M26" s="110">
         <v>26</v>
       </c>
       <c r="N26" s="31" t="s">
@@ -19694,7 +19699,7 @@
       <c r="F27" s="72"/>
       <c r="G27" s="73"/>
       <c r="L27" s="43"/>
-      <c r="M27" s="48">
+      <c r="M27" s="110">
         <v>26</v>
       </c>
       <c r="N27" s="31" t="s">
@@ -19727,7 +19732,7 @@
       <c r="F28" s="72"/>
       <c r="G28" s="73"/>
       <c r="L28" s="43"/>
-      <c r="M28" s="48">
+      <c r="M28" s="110">
         <v>26</v>
       </c>
       <c r="N28" s="31" t="s">
@@ -19760,7 +19765,7 @@
       <c r="F29" s="74"/>
       <c r="G29" s="75"/>
       <c r="L29" s="43"/>
-      <c r="M29" s="48">
+      <c r="M29" s="110">
         <v>26</v>
       </c>
       <c r="N29" s="31" t="s">
@@ -19779,7 +19784,7 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L30" s="43"/>
-      <c r="M30" s="48">
+      <c r="M30" s="110">
         <v>26</v>
       </c>
       <c r="N30" s="31" t="s">
@@ -19798,7 +19803,7 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L31" s="43"/>
-      <c r="M31" s="48">
+      <c r="M31" s="110">
         <v>26</v>
       </c>
       <c r="N31" s="31" t="s">
@@ -19817,7 +19822,7 @@
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L32" s="43"/>
-      <c r="M32" s="48">
+      <c r="M32" s="110">
         <v>32</v>
       </c>
       <c r="N32" s="31" t="s">
@@ -19836,7 +19841,7 @@
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L33" s="43"/>
-      <c r="M33" s="48">
+      <c r="M33" s="110">
         <v>33</v>
       </c>
       <c r="N33" s="31" t="s">
@@ -19855,7 +19860,7 @@
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L34" s="43"/>
-      <c r="M34" s="48">
+      <c r="M34" s="110">
         <v>26</v>
       </c>
       <c r="N34" s="31" t="s">
@@ -19874,7 +19879,7 @@
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L35" s="43"/>
-      <c r="M35" s="48">
+      <c r="M35" s="110">
         <v>26</v>
       </c>
       <c r="N35" s="31" t="s">
@@ -19893,7 +19898,7 @@
     </row>
     <row r="36" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L36" s="43"/>
-      <c r="M36" s="48">
+      <c r="M36" s="110">
         <v>26</v>
       </c>
       <c r="N36" s="31" t="s">
@@ -19912,7 +19917,7 @@
     </row>
     <row r="37" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L37" s="43"/>
-      <c r="M37" s="48">
+      <c r="M37" s="110">
         <v>34</v>
       </c>
       <c r="N37" s="31" t="s">
@@ -19931,7 +19936,7 @@
     </row>
     <row r="38" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L38" s="43"/>
-      <c r="M38" s="48">
+      <c r="M38" s="110">
         <v>35</v>
       </c>
       <c r="N38" s="31" t="s">
@@ -19950,7 +19955,7 @@
     </row>
     <row r="39" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L39" s="43"/>
-      <c r="M39" s="48">
+      <c r="M39" s="110">
         <v>12</v>
       </c>
       <c r="N39" s="31" t="s">
@@ -19969,7 +19974,7 @@
     </row>
     <row r="40" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L40" s="43"/>
-      <c r="M40" s="48">
+      <c r="M40" s="110">
         <v>17</v>
       </c>
       <c r="N40" s="31" t="s">
@@ -19988,7 +19993,7 @@
     </row>
     <row r="41" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L41" s="43"/>
-      <c r="M41" s="48">
+      <c r="M41" s="110">
         <v>18</v>
       </c>
       <c r="N41" s="31" t="s">
@@ -19998,7 +20003,7 @@
         <v>575</v>
       </c>
       <c r="P41" s="31" t="s">
-        <v>561</v>
+        <v>16</v>
       </c>
       <c r="Q41" s="31" t="s">
         <v>20</v>
@@ -20007,7 +20012,7 @@
     </row>
     <row r="42" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L42" s="43"/>
-      <c r="M42" s="48">
+      <c r="M42" s="110">
         <v>26</v>
       </c>
       <c r="N42" s="31" t="s">
@@ -20017,7 +20022,7 @@
         <v>576</v>
       </c>
       <c r="P42" s="31" t="s">
-        <v>561</v>
+        <v>16</v>
       </c>
       <c r="Q42" s="31" t="s">
         <v>20</v>
@@ -20026,7 +20031,7 @@
     </row>
     <row r="43" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L43" s="43"/>
-      <c r="M43" s="48">
+      <c r="M43" s="110">
         <v>26</v>
       </c>
       <c r="N43" s="31" t="s">
@@ -20036,31 +20041,50 @@
         <v>577</v>
       </c>
       <c r="P43" s="31" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="Q43" s="31" t="s">
         <v>20</v>
       </c>
       <c r="R43" s="37"/>
     </row>
-    <row r="44" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L44" s="44"/>
-      <c r="M44" s="53">
+    <row r="44" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L44" s="43"/>
+      <c r="M44" s="110">
         <v>26</v>
       </c>
-      <c r="N44" s="39" t="s">
+      <c r="N44" s="31" t="s">
         <v>579</v>
       </c>
-      <c r="O44" s="39" t="s">
+      <c r="O44" s="31" t="s">
         <v>578</v>
       </c>
-      <c r="P44" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q44" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R44" s="107"/>
+      <c r="P44" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="37"/>
+    </row>
+    <row r="45" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="44"/>
+      <c r="M45" s="96">
+        <v>26</v>
+      </c>
+      <c r="N45" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="O45" s="45" t="s">
+        <v>774</v>
+      </c>
+      <c r="P45" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Cnl/Mapeos_INV_CNL_V1.xlsx
+++ b/Cnl/Mapeos_INV_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583" activeTab="4"/>
+    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="T20TERCERO" sheetId="28" r:id="rId1"/>
@@ -180,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="0">
+    <comment ref="R8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1455,7 +1455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="776">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3780,6 +3780,9 @@
   </si>
   <si>
     <t>POR_GAS_FMLRS</t>
+  </si>
+  <si>
+    <t>Tabla Relacionada</t>
   </si>
 </sst>
 </file>
@@ -5095,6 +5098,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5164,8 +5169,6 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="129">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -5687,7 +5690,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5695,10 +5698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R209"/>
+  <dimension ref="B1:S209"/>
   <sheetViews>
-    <sheetView topLeftCell="I112" workbookViewId="0">
-      <selection activeCell="M134" sqref="M134"/>
+    <sheetView topLeftCell="L198" workbookViewId="0">
+      <selection activeCell="O164" sqref="O164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5716,15 +5719,16 @@
     <col min="11" max="11" width="75.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="2" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="19.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -5732,31 +5736,31 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="138" t="s">
+      <c r="H2" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="139"/>
-      <c r="J2" s="140"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I2" s="141"/>
+      <c r="J2" s="142"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -5764,16 +5768,16 @@
       </c>
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="149"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="151"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -5781,19 +5785,19 @@
       </c>
       <c r="J4" s="35"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="151"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -5801,32 +5805,33 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="150" t="s">
+    <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="152" t="s">
+      <c r="I7" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="153"/>
-      <c r="K7" s="154"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="136" t="s">
+      <c r="M7" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="137"/>
-    </row>
-    <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="139"/>
+    </row>
+    <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
@@ -5863,19 +5868,22 @@
         <v>13</v>
       </c>
       <c r="O8" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="P8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="Q8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="20" t="s">
+      <c r="R8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="20" t="s">
+      <c r="S8" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="47">
         <v>1</v>
       </c>
@@ -5907,20 +5915,21 @@
       <c r="N9" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="O9" s="105" t="s">
+      <c r="O9" s="105"/>
+      <c r="P9" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="105" t="s">
+      <c r="Q9" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="105" t="s">
+      <c r="R9" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="41" t="s">
+      <c r="S9" s="41" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="48">
         <v>2</v>
       </c>
@@ -5954,18 +5963,19 @@
       <c r="N10" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O10" s="31" t="s">
+      <c r="O10" s="31"/>
+      <c r="P10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="31" t="s">
+      <c r="Q10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="90"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="90"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="48">
         <v>3</v>
       </c>
@@ -5997,18 +6007,19 @@
       <c r="N11" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="31"/>
+      <c r="P11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="Q11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="37"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="37"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="48">
         <v>4</v>
       </c>
@@ -6040,18 +6051,19 @@
       <c r="N12" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="31"/>
+      <c r="P12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="31" t="s">
+      <c r="Q12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="37"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="37"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" s="76">
         <v>5</v>
       </c>
@@ -6083,18 +6095,19 @@
       <c r="N13" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="31"/>
+      <c r="P13" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="Q13" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="Q13" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="37"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="37"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="48">
         <v>6</v>
       </c>
@@ -6126,18 +6139,19 @@
       <c r="N14" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="31"/>
+      <c r="P14" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="P14" s="31" t="s">
+      <c r="Q14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="37"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="37"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" s="48">
         <v>7</v>
       </c>
@@ -6169,18 +6183,19 @@
       <c r="N15" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O15" s="31" t="s">
+      <c r="O15" s="31"/>
+      <c r="P15" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="Q15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="37"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="37"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="76">
         <v>8</v>
       </c>
@@ -6212,18 +6227,19 @@
       <c r="N16" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O16" s="31" t="s">
+      <c r="O16" s="31"/>
+      <c r="P16" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="P16" s="31" t="s">
+      <c r="Q16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q16" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="37"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="37"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="48">
         <v>9</v>
       </c>
@@ -6255,18 +6271,19 @@
       <c r="N17" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="31"/>
+      <c r="P17" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="P17" s="31" t="s">
+      <c r="Q17" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q17" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="90"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="90"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="48">
         <v>10</v>
       </c>
@@ -6299,17 +6316,20 @@
         <v>307</v>
       </c>
       <c r="O18" s="98" t="s">
+        <v>595</v>
+      </c>
+      <c r="P18" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="P18" s="98" t="s">
+      <c r="Q18" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="Q18" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="100"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R18" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="100"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="76">
         <v>11</v>
       </c>
@@ -6342,17 +6362,20 @@
         <v>307</v>
       </c>
       <c r="O19" s="98" t="s">
+        <v>595</v>
+      </c>
+      <c r="P19" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="P19" s="98" t="s">
+      <c r="Q19" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="Q19" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="100"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R19" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="100"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="48">
         <v>12</v>
       </c>
@@ -6384,18 +6407,19 @@
       <c r="N20" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O20" s="31" t="s">
+      <c r="O20" s="31"/>
+      <c r="P20" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="P20" s="31" t="s">
+      <c r="Q20" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q20" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="90"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="90"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="48">
         <v>13</v>
       </c>
@@ -6427,18 +6451,19 @@
       <c r="N21" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O21" s="31" t="s">
+      <c r="O21" s="31"/>
+      <c r="P21" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="P21" s="31" t="s">
+      <c r="Q21" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q21" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="90"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="90"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="76">
         <v>14</v>
       </c>
@@ -6470,18 +6495,19 @@
       <c r="N22" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O22" s="31" t="s">
+      <c r="O22" s="31"/>
+      <c r="P22" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="P22" s="31" t="s">
+      <c r="Q22" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q22" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" s="37"/>
-    </row>
-    <row r="23" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="37"/>
+    </row>
+    <row r="23" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="48">
         <v>15</v>
       </c>
@@ -6513,18 +6539,19 @@
       <c r="N23" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O23" s="31" t="s">
+      <c r="O23" s="31"/>
+      <c r="P23" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="P23" s="31" t="s">
+      <c r="Q23" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q23" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="37"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="37"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="48">
         <v>16</v>
       </c>
@@ -6546,18 +6573,19 @@
       <c r="N24" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O24" s="31" t="s">
+      <c r="O24" s="31"/>
+      <c r="P24" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="P24" s="31" t="s">
+      <c r="Q24" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q24" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="37"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="37"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="76">
         <v>17</v>
       </c>
@@ -6579,18 +6607,19 @@
       <c r="N25" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O25" s="31" t="s">
+      <c r="O25" s="31"/>
+      <c r="P25" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="P25" s="31" t="s">
+      <c r="Q25" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q25" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R25" s="37"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="37"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="48">
         <v>18</v>
       </c>
@@ -6612,18 +6641,19 @@
       <c r="N26" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="31"/>
+      <c r="P26" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="P26" s="31" t="s">
+      <c r="Q26" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q26" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="37"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="37"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="48">
         <v>19</v>
       </c>
@@ -6645,18 +6675,19 @@
       <c r="N27" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O27" s="31" t="s">
+      <c r="O27" s="31"/>
+      <c r="P27" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="P27" s="31" t="s">
+      <c r="Q27" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q27" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="37"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="37"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="76">
         <v>20</v>
       </c>
@@ -6678,18 +6709,19 @@
       <c r="N28" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O28" s="31" t="s">
+      <c r="O28" s="31"/>
+      <c r="P28" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="P28" s="31" t="s">
+      <c r="Q28" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q28" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="90"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="90"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="48">
         <v>21</v>
       </c>
@@ -6711,18 +6743,19 @@
       <c r="N29" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O29" s="31" t="s">
+      <c r="O29" s="31"/>
+      <c r="P29" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="P29" s="31" t="s">
+      <c r="Q29" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q29" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R29" s="37"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="37"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="48">
         <v>22</v>
       </c>
@@ -6744,18 +6777,19 @@
       <c r="N30" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O30" s="31" t="s">
+      <c r="O30" s="31"/>
+      <c r="P30" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="P30" s="31" t="s">
+      <c r="Q30" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q30" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" s="37"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="37"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="76">
         <v>23</v>
       </c>
@@ -6777,18 +6811,19 @@
       <c r="N31" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O31" s="31" t="s">
+      <c r="O31" s="31"/>
+      <c r="P31" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="P31" s="31" t="s">
+      <c r="Q31" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q31" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R31" s="90"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="90"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="48">
         <v>24</v>
       </c>
@@ -6810,18 +6845,19 @@
       <c r="N32" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O32" s="31" t="s">
+      <c r="O32" s="31"/>
+      <c r="P32" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="P32" s="31" t="s">
+      <c r="Q32" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q32" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" s="90"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" s="90"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="48">
         <v>25</v>
       </c>
@@ -6843,18 +6879,19 @@
       <c r="N33" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O33" s="31" t="s">
+      <c r="O33" s="31"/>
+      <c r="P33" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="P33" s="31" t="s">
+      <c r="Q33" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q33" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R33" s="37"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="37"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="76">
         <v>26</v>
       </c>
@@ -6876,18 +6913,19 @@
       <c r="N34" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O34" s="31" t="s">
+      <c r="O34" s="31"/>
+      <c r="P34" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="P34" s="31" t="s">
+      <c r="Q34" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q34" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R34" s="37"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="37"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="48">
         <v>27</v>
       </c>
@@ -6909,18 +6947,19 @@
       <c r="N35" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O35" s="31" t="s">
+      <c r="O35" s="31"/>
+      <c r="P35" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="P35" s="31" t="s">
+      <c r="Q35" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q35" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R35" s="37"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="37"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="48">
         <v>28</v>
       </c>
@@ -6942,18 +6981,19 @@
       <c r="N36" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O36" s="31" t="s">
+      <c r="O36" s="31"/>
+      <c r="P36" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="P36" s="31" t="s">
+      <c r="Q36" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q36" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36" s="37"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="37"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="76">
         <v>29</v>
       </c>
@@ -6975,18 +7015,19 @@
       <c r="N37" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O37" s="31" t="s">
+      <c r="O37" s="31"/>
+      <c r="P37" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="P37" s="31" t="s">
+      <c r="Q37" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q37" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R37" s="37"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="37"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="48">
         <v>30</v>
       </c>
@@ -7008,18 +7049,19 @@
       <c r="N38" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O38" s="31" t="s">
+      <c r="O38" s="31"/>
+      <c r="P38" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="P38" s="31" t="s">
+      <c r="Q38" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q38" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="37"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" s="37"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="48">
         <v>31</v>
       </c>
@@ -7041,18 +7083,19 @@
       <c r="N39" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O39" s="31" t="s">
+      <c r="O39" s="31"/>
+      <c r="P39" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="P39" s="31" t="s">
+      <c r="Q39" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q39" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R39" s="90"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="90"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="76">
         <v>32</v>
       </c>
@@ -7074,18 +7117,19 @@
       <c r="N40" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O40" s="31" t="s">
+      <c r="O40" s="31"/>
+      <c r="P40" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="P40" s="31" t="s">
+      <c r="Q40" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q40" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R40" s="37"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S40" s="37"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="48">
         <v>33</v>
       </c>
@@ -7107,18 +7151,19 @@
       <c r="N41" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O41" s="31" t="s">
+      <c r="O41" s="31"/>
+      <c r="P41" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="P41" s="31" t="s">
+      <c r="Q41" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q41" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R41" s="37"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="37"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="48">
         <v>34</v>
       </c>
@@ -7140,18 +7185,19 @@
       <c r="N42" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O42" s="31" t="s">
+      <c r="O42" s="31"/>
+      <c r="P42" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="P42" s="31" t="s">
+      <c r="Q42" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q42" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R42" s="90"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="90"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="76">
         <v>35</v>
       </c>
@@ -7173,18 +7219,19 @@
       <c r="N43" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O43" s="31" t="s">
+      <c r="O43" s="31"/>
+      <c r="P43" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="P43" s="31" t="s">
+      <c r="Q43" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q43" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R43" s="90"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S43" s="90"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="48">
         <v>36</v>
       </c>
@@ -7206,18 +7253,19 @@
       <c r="N44" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O44" s="31" t="s">
+      <c r="O44" s="31"/>
+      <c r="P44" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="P44" s="31" t="s">
+      <c r="Q44" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q44" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R44" s="37"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="37"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="48">
         <v>37</v>
       </c>
@@ -7239,18 +7287,19 @@
       <c r="N45" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O45" s="31" t="s">
+      <c r="O45" s="31"/>
+      <c r="P45" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="P45" s="31" t="s">
+      <c r="Q45" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q45" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R45" s="37"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="37"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="76">
         <v>38</v>
       </c>
@@ -7272,18 +7321,19 @@
       <c r="N46" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O46" s="31" t="s">
+      <c r="O46" s="31"/>
+      <c r="P46" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="P46" s="31" t="s">
+      <c r="Q46" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q46" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R46" s="37"/>
-    </row>
-    <row r="47" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" s="37"/>
+    </row>
+    <row r="47" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="46">
         <v>39</v>
       </c>
@@ -7305,18 +7355,19 @@
       <c r="N47" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O47" s="31" t="s">
+      <c r="O47" s="31"/>
+      <c r="P47" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="P47" s="31" t="s">
+      <c r="Q47" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q47" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R47" s="37"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="37"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L48" s="43"/>
       <c r="M48" s="109">
         <v>45</v>
@@ -7324,18 +7375,19 @@
       <c r="N48" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O48" s="31" t="s">
+      <c r="O48" s="31"/>
+      <c r="P48" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="P48" s="31" t="s">
+      <c r="Q48" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q48" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R48" s="37"/>
-    </row>
-    <row r="49" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="37"/>
+    </row>
+    <row r="49" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L49" s="43"/>
       <c r="M49" s="109">
         <v>45</v>
@@ -7343,18 +7395,19 @@
       <c r="N49" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O49" s="31" t="s">
+      <c r="O49" s="31"/>
+      <c r="P49" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="P49" s="31" t="s">
+      <c r="Q49" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q49" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" s="37"/>
-    </row>
-    <row r="50" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="37"/>
+    </row>
+    <row r="50" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L50" s="43"/>
       <c r="M50" s="109">
         <v>45</v>
@@ -7362,18 +7415,19 @@
       <c r="N50" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O50" s="31" t="s">
+      <c r="O50" s="31"/>
+      <c r="P50" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="P50" s="31" t="s">
+      <c r="Q50" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q50" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="90"/>
-    </row>
-    <row r="51" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" s="90"/>
+    </row>
+    <row r="51" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L51" s="43"/>
       <c r="M51" s="109">
         <v>36</v>
@@ -7381,18 +7435,19 @@
       <c r="N51" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O51" s="31" t="s">
+      <c r="O51" s="31"/>
+      <c r="P51" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="P51" s="31" t="s">
+      <c r="Q51" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q51" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="37"/>
-    </row>
-    <row r="52" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R51" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="37"/>
+    </row>
+    <row r="52" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L52" s="43"/>
       <c r="M52" s="112">
         <v>45</v>
@@ -7400,18 +7455,19 @@
       <c r="N52" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="O52" s="113" t="s">
+      <c r="O52" s="113"/>
+      <c r="P52" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="113" t="s">
+      <c r="Q52" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="Q52" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="60"/>
-    </row>
-    <row r="53" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R52" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="60"/>
+    </row>
+    <row r="53" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L53" s="43"/>
       <c r="M53" s="109">
         <v>45</v>
@@ -7419,18 +7475,19 @@
       <c r="N53" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O53" s="31" t="s">
+      <c r="O53" s="31"/>
+      <c r="P53" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="P53" s="31" t="s">
+      <c r="Q53" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q53" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R53" s="90"/>
-    </row>
-    <row r="54" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="90"/>
+    </row>
+    <row r="54" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L54" s="43"/>
       <c r="M54" s="109">
         <v>49</v>
@@ -7438,18 +7495,19 @@
       <c r="N54" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O54" s="31" t="s">
+      <c r="O54" s="31"/>
+      <c r="P54" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="P54" s="31" t="s">
+      <c r="Q54" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R54" s="90"/>
-    </row>
-    <row r="55" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="90"/>
+    </row>
+    <row r="55" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L55" s="43"/>
       <c r="M55" s="109">
         <v>2</v>
@@ -7457,18 +7515,19 @@
       <c r="N55" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O55" s="31" t="s">
+      <c r="O55" s="31"/>
+      <c r="P55" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="P55" s="31" t="s">
+      <c r="Q55" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q55" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R55" s="37"/>
-    </row>
-    <row r="56" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="37"/>
+    </row>
+    <row r="56" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L56" s="43"/>
       <c r="M56" s="109">
         <v>45</v>
@@ -7476,18 +7535,19 @@
       <c r="N56" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O56" s="31" t="s">
+      <c r="O56" s="31"/>
+      <c r="P56" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="P56" s="31" t="s">
+      <c r="Q56" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q56" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R56" s="37"/>
-    </row>
-    <row r="57" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="37"/>
+    </row>
+    <row r="57" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L57" s="44"/>
       <c r="M57" s="114">
         <v>45</v>
@@ -7495,18 +7555,19 @@
       <c r="N57" s="93" t="s">
         <v>307</v>
       </c>
-      <c r="O57" s="93" t="s">
+      <c r="O57" s="93"/>
+      <c r="P57" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="P57" s="93" t="s">
+      <c r="Q57" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="Q57" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="80"/>
-    </row>
-    <row r="58" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R57" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="80"/>
+    </row>
+    <row r="58" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L58" s="83"/>
       <c r="M58" s="57">
         <v>40</v>
@@ -7514,20 +7575,21 @@
       <c r="N58" s="105" t="s">
         <v>314</v>
       </c>
-      <c r="O58" s="105" t="s">
+      <c r="O58" s="105"/>
+      <c r="P58" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="P58" s="105" t="s">
+      <c r="Q58" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="105" t="s">
+      <c r="R58" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="R58" s="81" t="s">
+      <c r="S58" s="81" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L59" s="43"/>
       <c r="M59" s="33">
         <v>1</v>
@@ -7535,18 +7597,19 @@
       <c r="N59" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O59" s="31" t="s">
+      <c r="O59" s="31"/>
+      <c r="P59" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="P59" s="31" t="s">
+      <c r="Q59" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q59" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R59" s="34"/>
-    </row>
-    <row r="60" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R59" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="34"/>
+    </row>
+    <row r="60" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L60" s="43"/>
       <c r="M60" s="33">
         <v>44</v>
@@ -7554,18 +7617,19 @@
       <c r="N60" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O60" s="31" t="s">
+      <c r="O60" s="31"/>
+      <c r="P60" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="P60" s="31" t="s">
+      <c r="Q60" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R60" s="34"/>
-    </row>
-    <row r="61" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" s="34"/>
+    </row>
+    <row r="61" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L61" s="43"/>
       <c r="M61" s="33">
         <v>34</v>
@@ -7573,18 +7637,19 @@
       <c r="N61" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O61" s="31" t="s">
+      <c r="O61" s="31"/>
+      <c r="P61" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="P61" s="31" t="s">
+      <c r="Q61" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q61" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R61" s="34"/>
-    </row>
-    <row r="62" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="34"/>
+    </row>
+    <row r="62" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L62" s="43"/>
       <c r="M62" s="33">
         <v>35</v>
@@ -7592,18 +7657,19 @@
       <c r="N62" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O62" s="31" t="s">
+      <c r="O62" s="31"/>
+      <c r="P62" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="P62" s="31" t="s">
+      <c r="Q62" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R62" s="34"/>
-    </row>
-    <row r="63" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R62" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="34"/>
+    </row>
+    <row r="63" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L63" s="43"/>
       <c r="M63" s="33">
         <v>45</v>
@@ -7611,18 +7677,19 @@
       <c r="N63" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O63" s="31" t="s">
+      <c r="O63" s="31"/>
+      <c r="P63" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="P63" s="31" t="s">
+      <c r="Q63" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q63" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R63" s="34"/>
-    </row>
-    <row r="64" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R63" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="34"/>
+    </row>
+    <row r="64" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L64" s="43"/>
       <c r="M64" s="33">
         <v>44</v>
@@ -7630,18 +7697,19 @@
       <c r="N64" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O64" s="31" t="s">
+      <c r="O64" s="31"/>
+      <c r="P64" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="P64" s="31" t="s">
+      <c r="Q64" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q64" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R64" s="34"/>
-    </row>
-    <row r="65" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" s="34"/>
+    </row>
+    <row r="65" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L65" s="43"/>
       <c r="M65" s="33">
         <v>45</v>
@@ -7649,18 +7717,19 @@
       <c r="N65" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O65" s="31" t="s">
+      <c r="O65" s="31"/>
+      <c r="P65" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="P65" s="31" t="s">
+      <c r="Q65" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q65" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R65" s="34"/>
-    </row>
-    <row r="66" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S65" s="34"/>
+    </row>
+    <row r="66" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L66" s="43"/>
       <c r="M66" s="33">
         <v>51</v>
@@ -7668,18 +7737,19 @@
       <c r="N66" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O66" s="31" t="s">
+      <c r="O66" s="31"/>
+      <c r="P66" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="P66" s="31" t="s">
+      <c r="Q66" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q66" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R66" s="34"/>
-    </row>
-    <row r="67" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R66" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="34"/>
+    </row>
+    <row r="67" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L67" s="43"/>
       <c r="M67" s="33">
         <v>45</v>
@@ -7687,18 +7757,19 @@
       <c r="N67" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O67" s="31" t="s">
+      <c r="O67" s="31"/>
+      <c r="P67" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="P67" s="31" t="s">
+      <c r="Q67" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q67" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R67" s="34"/>
-    </row>
-    <row r="68" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S67" s="34"/>
+    </row>
+    <row r="68" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L68" s="43"/>
       <c r="M68" s="33">
         <v>44</v>
@@ -7706,18 +7777,19 @@
       <c r="N68" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O68" s="31" t="s">
+      <c r="O68" s="31"/>
+      <c r="P68" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="P68" s="31" t="s">
+      <c r="Q68" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q68" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R68" s="34"/>
-    </row>
-    <row r="69" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="34"/>
+    </row>
+    <row r="69" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L69" s="43"/>
       <c r="M69" s="33">
         <v>45</v>
@@ -7725,18 +7797,19 @@
       <c r="N69" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O69" s="31" t="s">
+      <c r="O69" s="31"/>
+      <c r="P69" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="P69" s="31" t="s">
+      <c r="Q69" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q69" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R69" s="34"/>
-    </row>
-    <row r="70" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S69" s="34"/>
+    </row>
+    <row r="70" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L70" s="43"/>
       <c r="M70" s="33">
         <v>44</v>
@@ -7744,18 +7817,19 @@
       <c r="N70" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O70" s="31" t="s">
+      <c r="O70" s="31"/>
+      <c r="P70" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="P70" s="31" t="s">
+      <c r="Q70" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q70" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R70" s="34"/>
-    </row>
-    <row r="71" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="34"/>
+    </row>
+    <row r="71" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L71" s="43"/>
       <c r="M71" s="33">
         <v>44</v>
@@ -7763,18 +7837,19 @@
       <c r="N71" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O71" s="31" t="s">
+      <c r="O71" s="31"/>
+      <c r="P71" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="P71" s="31" t="s">
+      <c r="Q71" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q71" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R71" s="34"/>
-    </row>
-    <row r="72" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R71" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S71" s="34"/>
+    </row>
+    <row r="72" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L72" s="43"/>
       <c r="M72" s="33">
         <v>45</v>
@@ -7782,18 +7857,19 @@
       <c r="N72" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O72" s="31" t="s">
+      <c r="O72" s="31"/>
+      <c r="P72" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="P72" s="31" t="s">
+      <c r="Q72" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q72" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R72" s="34"/>
-    </row>
-    <row r="73" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="34"/>
+    </row>
+    <row r="73" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L73" s="43"/>
       <c r="M73" s="33">
         <v>44</v>
@@ -7801,18 +7877,19 @@
       <c r="N73" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O73" s="31" t="s">
+      <c r="O73" s="31"/>
+      <c r="P73" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="P73" s="31" t="s">
+      <c r="Q73" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q73" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R73" s="34"/>
-    </row>
-    <row r="74" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="34"/>
+    </row>
+    <row r="74" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L74" s="43"/>
       <c r="M74" s="33">
         <v>45</v>
@@ -7820,18 +7897,19 @@
       <c r="N74" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O74" s="31" t="s">
+      <c r="O74" s="31"/>
+      <c r="P74" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="P74" s="31" t="s">
+      <c r="Q74" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q74" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R74" s="34"/>
-    </row>
-    <row r="75" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S74" s="34"/>
+    </row>
+    <row r="75" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L75" s="43"/>
       <c r="M75" s="33">
         <v>44</v>
@@ -7839,18 +7917,19 @@
       <c r="N75" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O75" s="31" t="s">
+      <c r="O75" s="31"/>
+      <c r="P75" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="P75" s="31" t="s">
+      <c r="Q75" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q75" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R75" s="34"/>
-    </row>
-    <row r="76" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R75" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S75" s="34"/>
+    </row>
+    <row r="76" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L76" s="43"/>
       <c r="M76" s="33">
         <v>45</v>
@@ -7858,18 +7937,19 @@
       <c r="N76" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O76" s="31" t="s">
+      <c r="O76" s="31"/>
+      <c r="P76" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="P76" s="31" t="s">
+      <c r="Q76" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q76" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R76" s="34"/>
-    </row>
-    <row r="77" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R76" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="34"/>
+    </row>
+    <row r="77" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L77" s="43"/>
       <c r="M77" s="33">
         <v>44</v>
@@ -7877,18 +7957,19 @@
       <c r="N77" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O77" s="31" t="s">
+      <c r="O77" s="31"/>
+      <c r="P77" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="P77" s="31" t="s">
+      <c r="Q77" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q77" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R77" s="34"/>
-    </row>
-    <row r="78" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R77" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S77" s="34"/>
+    </row>
+    <row r="78" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L78" s="43"/>
       <c r="M78" s="33">
         <v>45</v>
@@ -7896,18 +7977,19 @@
       <c r="N78" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O78" s="31" t="s">
+      <c r="O78" s="31"/>
+      <c r="P78" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="P78" s="31" t="s">
+      <c r="Q78" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q78" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R78" s="34"/>
-    </row>
-    <row r="79" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R78" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S78" s="34"/>
+    </row>
+    <row r="79" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L79" s="43"/>
       <c r="M79" s="33">
         <v>44</v>
@@ -7915,18 +7997,19 @@
       <c r="N79" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O79" s="31" t="s">
+      <c r="O79" s="31"/>
+      <c r="P79" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="P79" s="31" t="s">
+      <c r="Q79" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q79" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R79" s="34"/>
-    </row>
-    <row r="80" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R79" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S79" s="34"/>
+    </row>
+    <row r="80" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L80" s="43"/>
       <c r="M80" s="33">
         <v>45</v>
@@ -7934,18 +8017,19 @@
       <c r="N80" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O80" s="31" t="s">
+      <c r="O80" s="31"/>
+      <c r="P80" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="P80" s="31" t="s">
+      <c r="Q80" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q80" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R80" s="34"/>
-    </row>
-    <row r="81" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R80" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S80" s="34"/>
+    </row>
+    <row r="81" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L81" s="43"/>
       <c r="M81" s="33">
         <v>52</v>
@@ -7953,18 +8037,19 @@
       <c r="N81" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O81" s="31" t="s">
+      <c r="O81" s="31"/>
+      <c r="P81" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="P81" s="31" t="s">
+      <c r="Q81" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q81" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R81" s="34"/>
-    </row>
-    <row r="82" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R81" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S81" s="34"/>
+    </row>
+    <row r="82" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L82" s="43"/>
       <c r="M82" s="99">
         <v>48</v>
@@ -7973,17 +8058,20 @@
         <v>314</v>
       </c>
       <c r="O82" s="98" t="s">
+        <v>613</v>
+      </c>
+      <c r="P82" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="P82" s="98" t="s">
+      <c r="Q82" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="Q82" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R82" s="100"/>
-    </row>
-    <row r="83" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R82" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="S82" s="100"/>
+    </row>
+    <row r="83" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L83" s="43"/>
       <c r="M83" s="33">
         <v>44</v>
@@ -7991,18 +8079,19 @@
       <c r="N83" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O83" s="31" t="s">
+      <c r="O83" s="31"/>
+      <c r="P83" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="P83" s="31" t="s">
+      <c r="Q83" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q83" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R83" s="34"/>
-    </row>
-    <row r="84" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S83" s="34"/>
+    </row>
+    <row r="84" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L84" s="43"/>
       <c r="M84" s="33">
         <v>45</v>
@@ -8010,18 +8099,19 @@
       <c r="N84" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O84" s="31" t="s">
+      <c r="O84" s="31"/>
+      <c r="P84" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="P84" s="31" t="s">
+      <c r="Q84" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q84" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R84" s="34"/>
-    </row>
-    <row r="85" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R84" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S84" s="34"/>
+    </row>
+    <row r="85" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L85" s="43"/>
       <c r="M85" s="99">
         <v>48</v>
@@ -8030,17 +8120,20 @@
         <v>314</v>
       </c>
       <c r="O85" s="98" t="s">
+        <v>613</v>
+      </c>
+      <c r="P85" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="P85" s="98" t="s">
+      <c r="Q85" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="Q85" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R85" s="100"/>
-    </row>
-    <row r="86" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R85" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="S85" s="100"/>
+    </row>
+    <row r="86" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L86" s="43"/>
       <c r="M86" s="33">
         <v>45</v>
@@ -8048,18 +8141,19 @@
       <c r="N86" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O86" s="31" t="s">
+      <c r="O86" s="31"/>
+      <c r="P86" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="P86" s="31" t="s">
+      <c r="Q86" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q86" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R86" s="34"/>
-    </row>
-    <row r="87" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R86" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S86" s="34"/>
+    </row>
+    <row r="87" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L87" s="43"/>
       <c r="M87" s="99">
         <v>48</v>
@@ -8068,17 +8162,20 @@
         <v>314</v>
       </c>
       <c r="O87" s="98" t="s">
+        <v>613</v>
+      </c>
+      <c r="P87" s="98" t="s">
         <v>259</v>
       </c>
-      <c r="P87" s="98" t="s">
+      <c r="Q87" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="Q87" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R87" s="100"/>
-    </row>
-    <row r="88" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R87" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="S87" s="100"/>
+    </row>
+    <row r="88" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L88" s="43"/>
       <c r="M88" s="99">
         <v>48</v>
@@ -8087,17 +8184,20 @@
         <v>314</v>
       </c>
       <c r="O88" s="98" t="s">
+        <v>613</v>
+      </c>
+      <c r="P88" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="P88" s="98" t="s">
+      <c r="Q88" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="Q88" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R88" s="100"/>
-    </row>
-    <row r="89" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R88" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="S88" s="100"/>
+    </row>
+    <row r="89" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L89" s="43"/>
       <c r="M89" s="33">
         <v>44</v>
@@ -8105,18 +8205,19 @@
       <c r="N89" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O89" s="31" t="s">
+      <c r="O89" s="31"/>
+      <c r="P89" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="P89" s="31" t="s">
+      <c r="Q89" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q89" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R89" s="34"/>
-    </row>
-    <row r="90" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R89" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S89" s="34"/>
+    </row>
+    <row r="90" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L90" s="43"/>
       <c r="M90" s="33">
         <v>45</v>
@@ -8124,18 +8225,19 @@
       <c r="N90" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O90" s="31" t="s">
+      <c r="O90" s="31"/>
+      <c r="P90" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="P90" s="31" t="s">
+      <c r="Q90" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q90" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R90" s="34"/>
-    </row>
-    <row r="91" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R90" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S90" s="34"/>
+    </row>
+    <row r="91" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L91" s="43"/>
       <c r="M91" s="33">
         <v>44</v>
@@ -8143,18 +8245,19 @@
       <c r="N91" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O91" s="31" t="s">
+      <c r="O91" s="31"/>
+      <c r="P91" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="P91" s="31" t="s">
+      <c r="Q91" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q91" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R91" s="34"/>
-    </row>
-    <row r="92" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S91" s="34"/>
+    </row>
+    <row r="92" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L92" s="43"/>
       <c r="M92" s="33">
         <v>45</v>
@@ -8162,18 +8265,19 @@
       <c r="N92" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O92" s="31" t="s">
+      <c r="O92" s="31"/>
+      <c r="P92" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="P92" s="31" t="s">
+      <c r="Q92" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q92" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R92" s="34"/>
-    </row>
-    <row r="93" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R92" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S92" s="34"/>
+    </row>
+    <row r="93" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L93" s="43"/>
       <c r="M93" s="33">
         <v>45</v>
@@ -8181,18 +8285,19 @@
       <c r="N93" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O93" s="31" t="s">
+      <c r="O93" s="31"/>
+      <c r="P93" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="P93" s="31" t="s">
+      <c r="Q93" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q93" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R93" s="34"/>
-    </row>
-    <row r="94" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R93" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S93" s="34"/>
+    </row>
+    <row r="94" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L94" s="43"/>
       <c r="M94" s="33">
         <v>44</v>
@@ -8200,18 +8305,19 @@
       <c r="N94" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O94" s="31" t="s">
+      <c r="O94" s="31"/>
+      <c r="P94" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="P94" s="31" t="s">
+      <c r="Q94" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q94" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R94" s="34"/>
-    </row>
-    <row r="95" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S94" s="34"/>
+    </row>
+    <row r="95" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L95" s="43"/>
       <c r="M95" s="33">
         <v>45</v>
@@ -8219,18 +8325,19 @@
       <c r="N95" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O95" s="31" t="s">
+      <c r="O95" s="31"/>
+      <c r="P95" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="P95" s="31" t="s">
+      <c r="Q95" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q95" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R95" s="34"/>
-    </row>
-    <row r="96" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R95" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S95" s="34"/>
+    </row>
+    <row r="96" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L96" s="43"/>
       <c r="M96" s="33">
         <v>45</v>
@@ -8238,18 +8345,19 @@
       <c r="N96" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O96" s="31" t="s">
+      <c r="O96" s="31"/>
+      <c r="P96" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="P96" s="31" t="s">
+      <c r="Q96" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q96" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R96" s="34"/>
-    </row>
-    <row r="97" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R96" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S96" s="34"/>
+    </row>
+    <row r="97" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L97" s="43"/>
       <c r="M97" s="33">
         <v>45</v>
@@ -8257,18 +8365,19 @@
       <c r="N97" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O97" s="31" t="s">
+      <c r="O97" s="31"/>
+      <c r="P97" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="P97" s="31" t="s">
+      <c r="Q97" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q97" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R97" s="34"/>
-    </row>
-    <row r="98" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R97" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S97" s="34"/>
+    </row>
+    <row r="98" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L98" s="43"/>
       <c r="M98" s="33">
         <v>54</v>
@@ -8276,18 +8385,19 @@
       <c r="N98" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O98" s="31" t="s">
+      <c r="O98" s="31"/>
+      <c r="P98" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="P98" s="31" t="s">
+      <c r="Q98" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q98" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R98" s="34"/>
-    </row>
-    <row r="99" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R98" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S98" s="34"/>
+    </row>
+    <row r="99" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L99" s="43"/>
       <c r="M99" s="33">
         <v>2</v>
@@ -8295,18 +8405,19 @@
       <c r="N99" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O99" s="31" t="s">
+      <c r="O99" s="31"/>
+      <c r="P99" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="P99" s="31" t="s">
+      <c r="Q99" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="Q99" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R99" s="34"/>
-    </row>
-    <row r="100" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R99" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S99" s="34"/>
+    </row>
+    <row r="100" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L100" s="43"/>
       <c r="M100" s="33">
         <v>38</v>
@@ -8314,18 +8425,19 @@
       <c r="N100" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O100" s="31" t="s">
+      <c r="O100" s="31"/>
+      <c r="P100" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="P100" s="31" t="s">
+      <c r="Q100" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q100" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R100" s="34"/>
-    </row>
-    <row r="101" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R100" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S100" s="34"/>
+    </row>
+    <row r="101" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L101" s="43"/>
       <c r="M101" s="33">
         <v>45</v>
@@ -8333,18 +8445,19 @@
       <c r="N101" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O101" s="31" t="s">
+      <c r="O101" s="31"/>
+      <c r="P101" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="P101" s="31" t="s">
+      <c r="Q101" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="Q101" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R101" s="34"/>
-    </row>
-    <row r="102" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R101" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S101" s="34"/>
+    </row>
+    <row r="102" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L102" s="43"/>
       <c r="M102" s="33">
         <v>45</v>
@@ -8352,18 +8465,19 @@
       <c r="N102" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O102" s="31" t="s">
+      <c r="O102" s="31"/>
+      <c r="P102" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="P102" s="31" t="s">
+      <c r="Q102" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="Q102" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R102" s="34"/>
-    </row>
-    <row r="103" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R102" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S102" s="34"/>
+    </row>
+    <row r="103" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L103" s="43"/>
       <c r="M103" s="33">
         <v>4</v>
@@ -8371,18 +8485,19 @@
       <c r="N103" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O103" s="31" t="s">
+      <c r="O103" s="31"/>
+      <c r="P103" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="P103" s="31" t="s">
+      <c r="Q103" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="Q103" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R103" s="34"/>
-    </row>
-    <row r="104" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R103" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S103" s="34"/>
+    </row>
+    <row r="104" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L104" s="43"/>
       <c r="M104" s="33">
         <v>45</v>
@@ -8390,18 +8505,19 @@
       <c r="N104" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O104" s="31" t="s">
+      <c r="O104" s="31"/>
+      <c r="P104" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="P104" s="31" t="s">
+      <c r="Q104" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="Q104" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R104" s="34"/>
-    </row>
-    <row r="105" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R104" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S104" s="34"/>
+    </row>
+    <row r="105" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L105" s="43"/>
       <c r="M105" s="33">
         <v>5</v>
@@ -8409,18 +8525,19 @@
       <c r="N105" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O105" s="31" t="s">
+      <c r="O105" s="31"/>
+      <c r="P105" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="P105" s="31" t="s">
+      <c r="Q105" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="Q105" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R105" s="34"/>
-    </row>
-    <row r="106" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R105" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S105" s="34"/>
+    </row>
+    <row r="106" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L106" s="43"/>
       <c r="M106" s="33">
         <v>6</v>
@@ -8428,18 +8545,19 @@
       <c r="N106" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O106" s="31" t="s">
+      <c r="O106" s="31"/>
+      <c r="P106" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="P106" s="31" t="s">
+      <c r="Q106" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="Q106" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R106" s="34"/>
-    </row>
-    <row r="107" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R106" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S106" s="34"/>
+    </row>
+    <row r="107" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L107" s="43"/>
       <c r="M107" s="33">
         <v>45</v>
@@ -8447,18 +8565,19 @@
       <c r="N107" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O107" s="31" t="s">
+      <c r="O107" s="31"/>
+      <c r="P107" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="P107" s="31" t="s">
+      <c r="Q107" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Q107" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R107" s="34"/>
-    </row>
-    <row r="108" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R107" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S107" s="34"/>
+    </row>
+    <row r="108" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L108" s="43"/>
       <c r="M108" s="33">
         <v>45</v>
@@ -8466,18 +8585,19 @@
       <c r="N108" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O108" s="31" t="s">
+      <c r="O108" s="31"/>
+      <c r="P108" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="P108" s="31" t="s">
+      <c r="Q108" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="Q108" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R108" s="34"/>
-    </row>
-    <row r="109" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R108" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S108" s="34"/>
+    </row>
+    <row r="109" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L109" s="43"/>
       <c r="M109" s="33">
         <v>45</v>
@@ -8485,18 +8605,19 @@
       <c r="N109" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O109" s="31" t="s">
+      <c r="O109" s="31"/>
+      <c r="P109" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="P109" s="31" t="s">
+      <c r="Q109" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="Q109" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R109" s="34"/>
-    </row>
-    <row r="110" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R109" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S109" s="34"/>
+    </row>
+    <row r="110" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L110" s="43"/>
       <c r="M110" s="33">
         <v>45</v>
@@ -8504,18 +8625,19 @@
       <c r="N110" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O110" s="31" t="s">
+      <c r="O110" s="31"/>
+      <c r="P110" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="P110" s="31" t="s">
+      <c r="Q110" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="Q110" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R110" s="34"/>
-    </row>
-    <row r="111" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R110" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S110" s="34"/>
+    </row>
+    <row r="111" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L111" s="43"/>
       <c r="M111" s="33">
         <v>45</v>
@@ -8523,18 +8645,19 @@
       <c r="N111" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O111" s="31" t="s">
+      <c r="O111" s="31"/>
+      <c r="P111" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="P111" s="31" t="s">
+      <c r="Q111" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="Q111" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R111" s="34"/>
-    </row>
-    <row r="112" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R111" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S111" s="34"/>
+    </row>
+    <row r="112" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L112" s="43"/>
       <c r="M112" s="33">
         <v>45</v>
@@ -8542,18 +8665,19 @@
       <c r="N112" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O112" s="31" t="s">
+      <c r="O112" s="31"/>
+      <c r="P112" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="P112" s="31" t="s">
+      <c r="Q112" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="Q112" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R112" s="34"/>
-    </row>
-    <row r="113" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R112" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S112" s="34"/>
+    </row>
+    <row r="113" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L113" s="43"/>
       <c r="M113" s="33">
         <v>45</v>
@@ -8561,18 +8685,19 @@
       <c r="N113" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O113" s="31" t="s">
+      <c r="O113" s="31"/>
+      <c r="P113" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="P113" s="31" t="s">
+      <c r="Q113" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="Q113" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R113" s="34"/>
-    </row>
-    <row r="114" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R113" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S113" s="34"/>
+    </row>
+    <row r="114" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L114" s="43"/>
       <c r="M114" s="33">
         <v>45</v>
@@ -8580,18 +8705,19 @@
       <c r="N114" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O114" s="31" t="s">
+      <c r="O114" s="31"/>
+      <c r="P114" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="P114" s="31" t="s">
+      <c r="Q114" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q114" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R114" s="34"/>
-    </row>
-    <row r="115" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R114" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S114" s="34"/>
+    </row>
+    <row r="115" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L115" s="43"/>
       <c r="M115" s="33">
         <v>55</v>
@@ -8599,18 +8725,19 @@
       <c r="N115" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O115" s="31" t="s">
+      <c r="O115" s="31"/>
+      <c r="P115" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="P115" s="31" t="s">
+      <c r="Q115" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q115" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R115" s="34"/>
-    </row>
-    <row r="116" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R115" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S115" s="34"/>
+    </row>
+    <row r="116" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L116" s="43"/>
       <c r="M116" s="33">
         <v>45</v>
@@ -8618,18 +8745,19 @@
       <c r="N116" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O116" s="31" t="s">
+      <c r="O116" s="31"/>
+      <c r="P116" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="P116" s="31" t="s">
+      <c r="Q116" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q116" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R116" s="34"/>
-    </row>
-    <row r="117" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R116" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S116" s="34"/>
+    </row>
+    <row r="117" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L117" s="43"/>
       <c r="M117" s="99">
         <v>48</v>
@@ -8638,17 +8766,20 @@
         <v>314</v>
       </c>
       <c r="O117" s="98" t="s">
+        <v>613</v>
+      </c>
+      <c r="P117" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="P117" s="98" t="s">
+      <c r="Q117" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Q117" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R117" s="100"/>
-    </row>
-    <row r="118" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R117" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="S117" s="100"/>
+    </row>
+    <row r="118" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L118" s="43"/>
       <c r="M118" s="99">
         <v>48</v>
@@ -8657,17 +8788,20 @@
         <v>314</v>
       </c>
       <c r="O118" s="98" t="s">
+        <v>613</v>
+      </c>
+      <c r="P118" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="P118" s="98" t="s">
+      <c r="Q118" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="Q118" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R118" s="100"/>
-    </row>
-    <row r="119" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R118" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="S118" s="100"/>
+    </row>
+    <row r="119" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L119" s="43"/>
       <c r="M119" s="99">
         <v>48</v>
@@ -8676,17 +8810,20 @@
         <v>314</v>
       </c>
       <c r="O119" s="98" t="s">
+        <v>595</v>
+      </c>
+      <c r="P119" s="98" t="s">
         <v>292</v>
       </c>
-      <c r="P119" s="98" t="s">
+      <c r="Q119" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Q119" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R119" s="100"/>
-    </row>
-    <row r="120" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R119" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="S119" s="100"/>
+    </row>
+    <row r="120" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L120" s="43"/>
       <c r="M120" s="33">
         <v>44</v>
@@ -8694,18 +8831,19 @@
       <c r="N120" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O120" s="31" t="s">
+      <c r="O120" s="31"/>
+      <c r="P120" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="P120" s="31" t="s">
+      <c r="Q120" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q120" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R120" s="34"/>
-    </row>
-    <row r="121" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R120" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S120" s="34"/>
+    </row>
+    <row r="121" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L121" s="43"/>
       <c r="M121" s="33">
         <v>45</v>
@@ -8713,18 +8851,19 @@
       <c r="N121" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O121" s="31" t="s">
+      <c r="O121" s="31"/>
+      <c r="P121" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="P121" s="31" t="s">
+      <c r="Q121" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q121" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R121" s="34"/>
-    </row>
-    <row r="122" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R121" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S121" s="34"/>
+    </row>
+    <row r="122" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L122" s="43"/>
       <c r="M122" s="33">
         <v>17</v>
@@ -8732,18 +8871,19 @@
       <c r="N122" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O122" s="31" t="s">
+      <c r="O122" s="31"/>
+      <c r="P122" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="P122" s="31" t="s">
+      <c r="Q122" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q122" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R122" s="34"/>
-    </row>
-    <row r="123" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R122" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S122" s="34"/>
+    </row>
+    <row r="123" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L123" s="43"/>
       <c r="M123" s="33">
         <v>44</v>
@@ -8751,18 +8891,19 @@
       <c r="N123" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O123" s="31" t="s">
+      <c r="O123" s="31"/>
+      <c r="P123" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="P123" s="31" t="s">
+      <c r="Q123" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q123" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R123" s="34"/>
-    </row>
-    <row r="124" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R123" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S123" s="34"/>
+    </row>
+    <row r="124" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L124" s="43"/>
       <c r="M124" s="33">
         <v>56</v>
@@ -8770,18 +8911,19 @@
       <c r="N124" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O124" s="31" t="s">
+      <c r="O124" s="31"/>
+      <c r="P124" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="P124" s="31" t="s">
+      <c r="Q124" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q124" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R124" s="34"/>
-    </row>
-    <row r="125" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R124" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S124" s="34"/>
+    </row>
+    <row r="125" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L125" s="43"/>
       <c r="M125" s="33">
         <v>44</v>
@@ -8789,18 +8931,19 @@
       <c r="N125" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O125" s="31" t="s">
+      <c r="O125" s="31"/>
+      <c r="P125" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="P125" s="31" t="s">
+      <c r="Q125" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q125" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R125" s="34"/>
-    </row>
-    <row r="126" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R125" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S125" s="34"/>
+    </row>
+    <row r="126" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L126" s="43"/>
       <c r="M126" s="33">
         <v>44</v>
@@ -8808,18 +8951,19 @@
       <c r="N126" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O126" s="31" t="s">
+      <c r="O126" s="31"/>
+      <c r="P126" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="P126" s="31" t="s">
+      <c r="Q126" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q126" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R126" s="34"/>
-    </row>
-    <row r="127" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R126" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S126" s="34"/>
+    </row>
+    <row r="127" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L127" s="43"/>
       <c r="M127" s="33">
         <v>45</v>
@@ -8827,18 +8971,19 @@
       <c r="N127" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O127" s="31" t="s">
+      <c r="O127" s="31"/>
+      <c r="P127" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="P127" s="31" t="s">
+      <c r="Q127" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q127" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R127" s="34"/>
-    </row>
-    <row r="128" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R127" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S127" s="34"/>
+    </row>
+    <row r="128" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L128" s="43"/>
       <c r="M128" s="33">
         <v>44</v>
@@ -8846,18 +8991,19 @@
       <c r="N128" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O128" s="31" t="s">
+      <c r="O128" s="31"/>
+      <c r="P128" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="P128" s="31" t="s">
+      <c r="Q128" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q128" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R128" s="34"/>
-    </row>
-    <row r="129" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R128" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S128" s="34"/>
+    </row>
+    <row r="129" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L129" s="43"/>
       <c r="M129" s="33">
         <v>45</v>
@@ -8865,18 +9011,19 @@
       <c r="N129" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O129" s="31" t="s">
+      <c r="O129" s="31"/>
+      <c r="P129" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="P129" s="31" t="s">
+      <c r="Q129" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q129" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R129" s="34"/>
-    </row>
-    <row r="130" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R129" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S129" s="34"/>
+    </row>
+    <row r="130" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L130" s="43"/>
       <c r="M130" s="33">
         <v>45</v>
@@ -8884,18 +9031,19 @@
       <c r="N130" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O130" s="31" t="s">
+      <c r="O130" s="31"/>
+      <c r="P130" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="P130" s="31" t="s">
+      <c r="Q130" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q130" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R130" s="34"/>
-    </row>
-    <row r="131" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R130" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S130" s="34"/>
+    </row>
+    <row r="131" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L131" s="43"/>
       <c r="M131" s="33">
         <v>45</v>
@@ -8903,18 +9051,19 @@
       <c r="N131" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O131" s="31" t="s">
+      <c r="O131" s="31"/>
+      <c r="P131" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="P131" s="31" t="s">
+      <c r="Q131" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q131" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R131" s="34"/>
-    </row>
-    <row r="132" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R131" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S131" s="34"/>
+    </row>
+    <row r="132" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L132" s="43"/>
       <c r="M132" s="33">
         <v>45</v>
@@ -8922,18 +9071,19 @@
       <c r="N132" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O132" s="31" t="s">
+      <c r="O132" s="31"/>
+      <c r="P132" s="31" t="s">
         <v>772</v>
       </c>
-      <c r="P132" s="31" t="s">
+      <c r="Q132" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q132" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R132" s="34"/>
-    </row>
-    <row r="133" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R132" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S132" s="34"/>
+    </row>
+    <row r="133" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L133" s="43"/>
       <c r="M133" s="33">
         <v>45</v>
@@ -8941,18 +9091,19 @@
       <c r="N133" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O133" s="31" t="s">
+      <c r="O133" s="31"/>
+      <c r="P133" s="31" t="s">
         <v>773</v>
       </c>
-      <c r="P133" s="31" t="s">
+      <c r="Q133" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q133" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R133" s="34"/>
-    </row>
-    <row r="134" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R133" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S133" s="34"/>
+    </row>
+    <row r="134" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L134" s="43"/>
       <c r="M134" s="33">
         <v>45</v>
@@ -8960,18 +9111,19 @@
       <c r="N134" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="O134" s="31" t="s">
+      <c r="O134" s="31"/>
+      <c r="P134" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="P134" s="31" t="s">
+      <c r="Q134" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="Q134" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R134" s="34"/>
-    </row>
-    <row r="135" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R134" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S134" s="34"/>
+    </row>
+    <row r="135" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L135" s="44"/>
       <c r="M135" s="84">
         <v>45</v>
@@ -8979,18 +9131,19 @@
       <c r="N135" s="93" t="s">
         <v>314</v>
       </c>
-      <c r="O135" s="93" t="s">
+      <c r="O135" s="93"/>
+      <c r="P135" s="93" t="s">
         <v>306</v>
       </c>
-      <c r="P135" s="93" t="s">
+      <c r="Q135" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="Q135" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="R135" s="85"/>
-    </row>
-    <row r="136" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R135" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="S135" s="85"/>
+    </row>
+    <row r="136" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L136" s="83"/>
       <c r="M136" s="57">
         <v>40</v>
@@ -8998,20 +9151,21 @@
       <c r="N136" s="105" t="s">
         <v>386</v>
       </c>
-      <c r="O136" s="105" t="s">
+      <c r="O136" s="105"/>
+      <c r="P136" s="105" t="s">
         <v>769</v>
       </c>
-      <c r="P136" s="105" t="s">
+      <c r="Q136" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Q136" s="105" t="s">
+      <c r="R136" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="R136" s="81" t="s">
+      <c r="S136" s="81" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L137" s="43"/>
       <c r="M137" s="101">
         <v>47</v>
@@ -9019,18 +9173,19 @@
       <c r="N137" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O137" s="31" t="s">
+      <c r="O137" s="31"/>
+      <c r="P137" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="P137" s="31" t="s">
+      <c r="Q137" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q137" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R137" s="37"/>
-    </row>
-    <row r="138" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R137" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S137" s="37"/>
+    </row>
+    <row r="138" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L138" s="43"/>
       <c r="M138" s="33">
         <v>37</v>
@@ -9038,18 +9193,19 @@
       <c r="N138" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O138" s="31" t="s">
+      <c r="O138" s="31"/>
+      <c r="P138" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="P138" s="31" t="s">
+      <c r="Q138" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q138" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R138" s="34"/>
-    </row>
-    <row r="139" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R138" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S138" s="34"/>
+    </row>
+    <row r="139" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L139" s="43"/>
       <c r="M139" s="33">
         <v>44</v>
@@ -9057,18 +9213,19 @@
       <c r="N139" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O139" s="31" t="s">
+      <c r="O139" s="31"/>
+      <c r="P139" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="P139" s="31" t="s">
+      <c r="Q139" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q139" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R139" s="34"/>
-    </row>
-    <row r="140" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R139" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S139" s="34"/>
+    </row>
+    <row r="140" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L140" s="43"/>
       <c r="M140" s="33">
         <v>45</v>
@@ -9076,18 +9233,19 @@
       <c r="N140" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O140" s="31" t="s">
+      <c r="O140" s="31"/>
+      <c r="P140" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="P140" s="31" t="s">
+      <c r="Q140" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q140" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R140" s="34"/>
-    </row>
-    <row r="141" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R140" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S140" s="34"/>
+    </row>
+    <row r="141" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L141" s="43"/>
       <c r="M141" s="33">
         <v>44</v>
@@ -9095,18 +9253,19 @@
       <c r="N141" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O141" s="31" t="s">
+      <c r="O141" s="31"/>
+      <c r="P141" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="P141" s="31" t="s">
+      <c r="Q141" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q141" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R141" s="34"/>
-    </row>
-    <row r="142" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R141" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S141" s="34"/>
+    </row>
+    <row r="142" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L142" s="43"/>
       <c r="M142" s="33">
         <v>45</v>
@@ -9114,18 +9273,19 @@
       <c r="N142" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O142" s="31" t="s">
+      <c r="O142" s="31"/>
+      <c r="P142" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="P142" s="31" t="s">
+      <c r="Q142" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q142" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R142" s="34"/>
-    </row>
-    <row r="143" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R142" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S142" s="34"/>
+    </row>
+    <row r="143" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L143" s="43"/>
       <c r="M143" s="33">
         <v>44</v>
@@ -9133,18 +9293,19 @@
       <c r="N143" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O143" s="31" t="s">
+      <c r="O143" s="31"/>
+      <c r="P143" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="P143" s="31" t="s">
+      <c r="Q143" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q143" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R143" s="34"/>
-    </row>
-    <row r="144" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R143" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S143" s="34"/>
+    </row>
+    <row r="144" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L144" s="43"/>
       <c r="M144" s="33">
         <v>45</v>
@@ -9152,18 +9313,19 @@
       <c r="N144" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O144" s="31" t="s">
+      <c r="O144" s="31"/>
+      <c r="P144" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="P144" s="31" t="s">
+      <c r="Q144" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q144" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R144" s="34"/>
-    </row>
-    <row r="145" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R144" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S144" s="34"/>
+    </row>
+    <row r="145" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L145" s="43"/>
       <c r="M145" s="33">
         <v>45</v>
@@ -9171,18 +9333,19 @@
       <c r="N145" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O145" s="31" t="s">
+      <c r="O145" s="31"/>
+      <c r="P145" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="P145" s="31" t="s">
+      <c r="Q145" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q145" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R145" s="34"/>
-    </row>
-    <row r="146" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R145" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S145" s="34"/>
+    </row>
+    <row r="146" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L146" s="43"/>
       <c r="M146" s="33">
         <v>44</v>
@@ -9190,18 +9353,19 @@
       <c r="N146" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O146" s="31" t="s">
+      <c r="O146" s="31"/>
+      <c r="P146" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="P146" s="31" t="s">
+      <c r="Q146" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q146" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R146" s="34"/>
-    </row>
-    <row r="147" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R146" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S146" s="34"/>
+    </row>
+    <row r="147" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L147" s="43"/>
       <c r="M147" s="33">
         <v>45</v>
@@ -9209,18 +9373,19 @@
       <c r="N147" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O147" s="31" t="s">
+      <c r="O147" s="31"/>
+      <c r="P147" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="P147" s="31" t="s">
+      <c r="Q147" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q147" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R147" s="34"/>
-    </row>
-    <row r="148" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R147" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S147" s="34"/>
+    </row>
+    <row r="148" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L148" s="43"/>
       <c r="M148" s="33">
         <v>44</v>
@@ -9228,18 +9393,19 @@
       <c r="N148" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O148" s="31" t="s">
+      <c r="O148" s="31"/>
+      <c r="P148" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="P148" s="31" t="s">
+      <c r="Q148" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q148" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R148" s="34"/>
-    </row>
-    <row r="149" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R148" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S148" s="34"/>
+    </row>
+    <row r="149" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L149" s="43"/>
       <c r="M149" s="33">
         <v>45</v>
@@ -9247,18 +9413,19 @@
       <c r="N149" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O149" s="31" t="s">
+      <c r="O149" s="31"/>
+      <c r="P149" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="P149" s="31" t="s">
+      <c r="Q149" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q149" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R149" s="34"/>
-    </row>
-    <row r="150" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R149" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S149" s="34"/>
+    </row>
+    <row r="150" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L150" s="43"/>
       <c r="M150" s="33">
         <v>44</v>
@@ -9266,18 +9433,19 @@
       <c r="N150" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O150" s="31" t="s">
+      <c r="O150" s="31"/>
+      <c r="P150" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="P150" s="31" t="s">
+      <c r="Q150" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q150" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R150" s="34"/>
-    </row>
-    <row r="151" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R150" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S150" s="34"/>
+    </row>
+    <row r="151" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L151" s="43"/>
       <c r="M151" s="33">
         <v>45</v>
@@ -9285,18 +9453,19 @@
       <c r="N151" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O151" s="31" t="s">
+      <c r="O151" s="31"/>
+      <c r="P151" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="P151" s="31" t="s">
+      <c r="Q151" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q151" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R151" s="34"/>
-    </row>
-    <row r="152" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R151" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S151" s="34"/>
+    </row>
+    <row r="152" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L152" s="43"/>
       <c r="M152" s="33">
         <v>44</v>
@@ -9304,18 +9473,19 @@
       <c r="N152" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O152" s="31" t="s">
+      <c r="O152" s="31"/>
+      <c r="P152" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="P152" s="31" t="s">
+      <c r="Q152" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q152" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R152" s="34"/>
-    </row>
-    <row r="153" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R152" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S152" s="34"/>
+    </row>
+    <row r="153" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L153" s="43"/>
       <c r="M153" s="33">
         <v>45</v>
@@ -9323,18 +9493,19 @@
       <c r="N153" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O153" s="31" t="s">
+      <c r="O153" s="31"/>
+      <c r="P153" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="P153" s="31" t="s">
+      <c r="Q153" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q153" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R153" s="34"/>
-    </row>
-    <row r="154" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R153" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S153" s="34"/>
+    </row>
+    <row r="154" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L154" s="43"/>
       <c r="M154" s="33">
         <v>44</v>
@@ -9342,18 +9513,19 @@
       <c r="N154" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O154" s="31" t="s">
+      <c r="O154" s="31"/>
+      <c r="P154" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="P154" s="31" t="s">
+      <c r="Q154" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q154" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R154" s="34"/>
-    </row>
-    <row r="155" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R154" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S154" s="34"/>
+    </row>
+    <row r="155" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L155" s="43"/>
       <c r="M155" s="33">
         <v>45</v>
@@ -9361,18 +9533,19 @@
       <c r="N155" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O155" s="31" t="s">
+      <c r="O155" s="31"/>
+      <c r="P155" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="P155" s="31" t="s">
+      <c r="Q155" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q155" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R155" s="34"/>
-    </row>
-    <row r="156" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R155" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S155" s="34"/>
+    </row>
+    <row r="156" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L156" s="43"/>
       <c r="M156" s="33">
         <v>44</v>
@@ -9380,18 +9553,19 @@
       <c r="N156" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O156" s="31" t="s">
+      <c r="O156" s="31"/>
+      <c r="P156" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="P156" s="31" t="s">
+      <c r="Q156" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q156" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R156" s="34"/>
-    </row>
-    <row r="157" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R156" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S156" s="34"/>
+    </row>
+    <row r="157" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L157" s="43"/>
       <c r="M157" s="33">
         <v>45</v>
@@ -9399,18 +9573,19 @@
       <c r="N157" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O157" s="31" t="s">
+      <c r="O157" s="31"/>
+      <c r="P157" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="P157" s="31" t="s">
+      <c r="Q157" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q157" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R157" s="34"/>
-    </row>
-    <row r="158" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R157" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S157" s="34"/>
+    </row>
+    <row r="158" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L158" s="43"/>
       <c r="M158" s="33">
         <v>21</v>
@@ -9418,18 +9593,19 @@
       <c r="N158" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O158" s="31" t="s">
+      <c r="O158" s="31"/>
+      <c r="P158" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="P158" s="31" t="s">
+      <c r="Q158" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Q158" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R158" s="34"/>
-    </row>
-    <row r="159" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R158" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S158" s="34"/>
+    </row>
+    <row r="159" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L159" s="43"/>
       <c r="M159" s="33">
         <v>45</v>
@@ -9437,18 +9613,19 @@
       <c r="N159" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O159" s="31" t="s">
+      <c r="O159" s="31"/>
+      <c r="P159" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="P159" s="31" t="s">
+      <c r="Q159" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q159" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R159" s="34"/>
-    </row>
-    <row r="160" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R159" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S159" s="34"/>
+    </row>
+    <row r="160" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L160" s="43"/>
       <c r="M160" s="99">
         <v>48</v>
@@ -9457,17 +9634,20 @@
         <v>386</v>
       </c>
       <c r="O160" s="98" t="s">
+        <v>616</v>
+      </c>
+      <c r="P160" s="98" t="s">
         <v>338</v>
       </c>
-      <c r="P160" s="98" t="s">
+      <c r="Q160" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Q160" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R160" s="100"/>
-    </row>
-    <row r="161" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R160" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="S160" s="100"/>
+    </row>
+    <row r="161" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L161" s="43"/>
       <c r="M161" s="33">
         <v>44</v>
@@ -9475,18 +9655,19 @@
       <c r="N161" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O161" s="31" t="s">
+      <c r="O161" s="31"/>
+      <c r="P161" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="P161" s="31" t="s">
+      <c r="Q161" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q161" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R161" s="34"/>
-    </row>
-    <row r="162" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R161" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S161" s="34"/>
+    </row>
+    <row r="162" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L162" s="43"/>
       <c r="M162" s="33">
         <v>45</v>
@@ -9494,18 +9675,19 @@
       <c r="N162" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O162" s="31" t="s">
+      <c r="O162" s="31"/>
+      <c r="P162" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="P162" s="31" t="s">
+      <c r="Q162" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q162" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R162" s="34"/>
-    </row>
-    <row r="163" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R162" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S162" s="34"/>
+    </row>
+    <row r="163" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L163" s="43"/>
       <c r="M163" s="33">
         <v>45</v>
@@ -9513,18 +9695,19 @@
       <c r="N163" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O163" s="31" t="s">
+      <c r="O163" s="31"/>
+      <c r="P163" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="P163" s="31" t="s">
+      <c r="Q163" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q163" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R163" s="34"/>
-    </row>
-    <row r="164" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R163" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S163" s="34"/>
+    </row>
+    <row r="164" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L164" s="43"/>
       <c r="M164" s="99">
         <v>48</v>
@@ -9533,17 +9716,20 @@
         <v>386</v>
       </c>
       <c r="O164" s="98" t="s">
+        <v>616</v>
+      </c>
+      <c r="P164" s="98" t="s">
         <v>342</v>
       </c>
-      <c r="P164" s="98" t="s">
+      <c r="Q164" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Q164" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R164" s="100"/>
-    </row>
-    <row r="165" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R164" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="S164" s="100"/>
+    </row>
+    <row r="165" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L165" s="43"/>
       <c r="M165" s="33">
         <v>45</v>
@@ -9551,18 +9737,19 @@
       <c r="N165" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O165" s="31" t="s">
+      <c r="O165" s="31"/>
+      <c r="P165" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="P165" s="31" t="s">
+      <c r="Q165" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q165" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R165" s="34"/>
-    </row>
-    <row r="166" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R165" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S165" s="34"/>
+    </row>
+    <row r="166" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L166" s="43"/>
       <c r="M166" s="101">
         <v>39</v>
@@ -9570,20 +9757,21 @@
       <c r="N166" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O166" s="31" t="s">
+      <c r="O166" s="31"/>
+      <c r="P166" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="P166" s="31" t="s">
+      <c r="Q166" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q166" s="31" t="s">
+      <c r="R166" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="R166" s="37" t="s">
+      <c r="S166" s="37" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="167" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L167" s="43"/>
       <c r="M167" s="82">
         <v>45</v>
@@ -9591,18 +9779,19 @@
       <c r="N167" s="113" t="s">
         <v>386</v>
       </c>
-      <c r="O167" s="113" t="s">
+      <c r="O167" s="113"/>
+      <c r="P167" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="P167" s="113" t="s">
+      <c r="Q167" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="Q167" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="R167" s="60"/>
-    </row>
-    <row r="168" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R167" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="S167" s="60"/>
+    </row>
+    <row r="168" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L168" s="43"/>
       <c r="M168" s="33">
         <v>45</v>
@@ -9610,18 +9799,19 @@
       <c r="N168" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O168" s="31" t="s">
+      <c r="O168" s="31"/>
+      <c r="P168" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="P168" s="31" t="s">
+      <c r="Q168" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q168" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R168" s="34"/>
-    </row>
-    <row r="169" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R168" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S168" s="34"/>
+    </row>
+    <row r="169" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L169" s="43"/>
       <c r="M169" s="33">
         <v>44</v>
@@ -9629,18 +9819,19 @@
       <c r="N169" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O169" s="31" t="s">
+      <c r="O169" s="31"/>
+      <c r="P169" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="P169" s="31" t="s">
+      <c r="Q169" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q169" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R169" s="34"/>
-    </row>
-    <row r="170" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R169" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S169" s="34"/>
+    </row>
+    <row r="170" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L170" s="43"/>
       <c r="M170" s="33">
         <v>45</v>
@@ -9648,18 +9839,19 @@
       <c r="N170" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O170" s="31" t="s">
+      <c r="O170" s="31"/>
+      <c r="P170" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="P170" s="31" t="s">
+      <c r="Q170" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q170" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R170" s="34"/>
-    </row>
-    <row r="171" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R170" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S170" s="34"/>
+    </row>
+    <row r="171" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L171" s="43"/>
       <c r="M171" s="33">
         <v>45</v>
@@ -9667,18 +9859,19 @@
       <c r="N171" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O171" s="31" t="s">
+      <c r="O171" s="31"/>
+      <c r="P171" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="P171" s="31" t="s">
+      <c r="Q171" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q171" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R171" s="34"/>
-    </row>
-    <row r="172" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R171" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S171" s="34"/>
+    </row>
+    <row r="172" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L172" s="43"/>
       <c r="M172" s="33">
         <v>45</v>
@@ -9686,18 +9879,19 @@
       <c r="N172" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O172" s="31" t="s">
+      <c r="O172" s="31"/>
+      <c r="P172" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="P172" s="31" t="s">
+      <c r="Q172" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q172" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R172" s="34"/>
-    </row>
-    <row r="173" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R172" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S172" s="34"/>
+    </row>
+    <row r="173" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L173" s="43"/>
       <c r="M173" s="33">
         <v>44</v>
@@ -9705,18 +9899,19 @@
       <c r="N173" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O173" s="31" t="s">
+      <c r="O173" s="31"/>
+      <c r="P173" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="P173" s="31" t="s">
+      <c r="Q173" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q173" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R173" s="34"/>
-    </row>
-    <row r="174" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R173" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S173" s="34"/>
+    </row>
+    <row r="174" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L174" s="43"/>
       <c r="M174" s="33">
         <v>45</v>
@@ -9724,18 +9919,19 @@
       <c r="N174" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O174" s="31" t="s">
+      <c r="O174" s="31"/>
+      <c r="P174" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="P174" s="31" t="s">
+      <c r="Q174" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q174" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R174" s="34"/>
-    </row>
-    <row r="175" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R174" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S174" s="34"/>
+    </row>
+    <row r="175" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L175" s="43"/>
       <c r="M175" s="33">
         <v>45</v>
@@ -9743,18 +9939,19 @@
       <c r="N175" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O175" s="31" t="s">
+      <c r="O175" s="31"/>
+      <c r="P175" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="P175" s="31" t="s">
+      <c r="Q175" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q175" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R175" s="34"/>
-    </row>
-    <row r="176" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R175" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S175" s="34"/>
+    </row>
+    <row r="176" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L176" s="43"/>
       <c r="M176" s="33">
         <v>45</v>
@@ -9762,18 +9959,19 @@
       <c r="N176" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O176" s="31" t="s">
+      <c r="O176" s="31"/>
+      <c r="P176" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="P176" s="31" t="s">
+      <c r="Q176" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q176" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R176" s="34"/>
-    </row>
-    <row r="177" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R176" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S176" s="34"/>
+    </row>
+    <row r="177" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L177" s="43"/>
       <c r="M177" s="33">
         <v>45</v>
@@ -9781,18 +9979,19 @@
       <c r="N177" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O177" s="31" t="s">
+      <c r="O177" s="31"/>
+      <c r="P177" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="P177" s="31" t="s">
+      <c r="Q177" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q177" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R177" s="34"/>
-    </row>
-    <row r="178" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R177" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S177" s="34"/>
+    </row>
+    <row r="178" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L178" s="43"/>
       <c r="M178" s="33">
         <v>45</v>
@@ -9800,18 +9999,19 @@
       <c r="N178" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O178" s="31" t="s">
+      <c r="O178" s="31"/>
+      <c r="P178" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="P178" s="31" t="s">
+      <c r="Q178" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q178" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R178" s="34"/>
-    </row>
-    <row r="179" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R178" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S178" s="34"/>
+    </row>
+    <row r="179" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L179" s="43"/>
       <c r="M179" s="33">
         <v>45</v>
@@ -9819,18 +10019,19 @@
       <c r="N179" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O179" s="31" t="s">
+      <c r="O179" s="31"/>
+      <c r="P179" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="P179" s="31" t="s">
+      <c r="Q179" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q179" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R179" s="34"/>
-    </row>
-    <row r="180" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R179" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S179" s="34"/>
+    </row>
+    <row r="180" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L180" s="43"/>
       <c r="M180" s="33">
         <v>45</v>
@@ -9838,18 +10039,19 @@
       <c r="N180" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O180" s="31" t="s">
+      <c r="O180" s="31"/>
+      <c r="P180" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="P180" s="31" t="s">
+      <c r="Q180" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q180" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R180" s="34"/>
-    </row>
-    <row r="181" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R180" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S180" s="34"/>
+    </row>
+    <row r="181" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L181" s="43"/>
       <c r="M181" s="33">
         <v>45</v>
@@ -9857,18 +10059,19 @@
       <c r="N181" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O181" s="31" t="s">
+      <c r="O181" s="31"/>
+      <c r="P181" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="P181" s="31" t="s">
+      <c r="Q181" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q181" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R181" s="34"/>
-    </row>
-    <row r="182" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R181" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S181" s="34"/>
+    </row>
+    <row r="182" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L182" s="43"/>
       <c r="M182" s="33">
         <v>45</v>
@@ -9876,18 +10079,19 @@
       <c r="N182" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O182" s="31" t="s">
+      <c r="O182" s="31"/>
+      <c r="P182" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="P182" s="31" t="s">
+      <c r="Q182" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q182" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R182" s="34"/>
-    </row>
-    <row r="183" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R182" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S182" s="34"/>
+    </row>
+    <row r="183" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L183" s="43"/>
       <c r="M183" s="33">
         <v>44</v>
@@ -9895,18 +10099,19 @@
       <c r="N183" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O183" s="31" t="s">
+      <c r="O183" s="31"/>
+      <c r="P183" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="P183" s="31" t="s">
+      <c r="Q183" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q183" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R183" s="34"/>
-    </row>
-    <row r="184" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R183" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S183" s="34"/>
+    </row>
+    <row r="184" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L184" s="43"/>
       <c r="M184" s="33">
         <v>45</v>
@@ -9914,18 +10119,19 @@
       <c r="N184" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O184" s="31" t="s">
+      <c r="O184" s="31"/>
+      <c r="P184" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="P184" s="31" t="s">
+      <c r="Q184" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q184" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R184" s="34"/>
-    </row>
-    <row r="185" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R184" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S184" s="34"/>
+    </row>
+    <row r="185" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L185" s="43"/>
       <c r="M185" s="33">
         <v>45</v>
@@ -9933,18 +10139,19 @@
       <c r="N185" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O185" s="31" t="s">
+      <c r="O185" s="31"/>
+      <c r="P185" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="P185" s="31" t="s">
+      <c r="Q185" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Q185" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R185" s="34"/>
-    </row>
-    <row r="186" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R185" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S185" s="34"/>
+    </row>
+    <row r="186" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L186" s="43"/>
       <c r="M186" s="33">
         <v>45</v>
@@ -9952,18 +10159,19 @@
       <c r="N186" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O186" s="31" t="s">
+      <c r="O186" s="31"/>
+      <c r="P186" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="P186" s="31" t="s">
+      <c r="Q186" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q186" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R186" s="34"/>
-    </row>
-    <row r="187" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R186" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S186" s="34"/>
+    </row>
+    <row r="187" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L187" s="43"/>
       <c r="M187" s="33">
         <v>45</v>
@@ -9971,18 +10179,19 @@
       <c r="N187" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O187" s="31" t="s">
+      <c r="O187" s="31"/>
+      <c r="P187" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="P187" s="31" t="s">
+      <c r="Q187" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q187" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R187" s="34"/>
-    </row>
-    <row r="188" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R187" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S187" s="34"/>
+    </row>
+    <row r="188" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L188" s="43"/>
       <c r="M188" s="33">
         <v>45</v>
@@ -9990,18 +10199,19 @@
       <c r="N188" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O188" s="31" t="s">
+      <c r="O188" s="31"/>
+      <c r="P188" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="P188" s="31" t="s">
+      <c r="Q188" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q188" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R188" s="34"/>
-    </row>
-    <row r="189" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R188" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S188" s="34"/>
+    </row>
+    <row r="189" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L189" s="43"/>
       <c r="M189" s="33">
         <v>45</v>
@@ -10009,18 +10219,19 @@
       <c r="N189" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O189" s="31" t="s">
+      <c r="O189" s="31"/>
+      <c r="P189" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="P189" s="31" t="s">
+      <c r="Q189" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q189" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R189" s="34"/>
-    </row>
-    <row r="190" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R189" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S189" s="34"/>
+    </row>
+    <row r="190" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L190" s="43"/>
       <c r="M190" s="33">
         <v>44</v>
@@ -10028,18 +10239,19 @@
       <c r="N190" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O190" s="31" t="s">
+      <c r="O190" s="31"/>
+      <c r="P190" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="P190" s="31" t="s">
+      <c r="Q190" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q190" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R190" s="34"/>
-    </row>
-    <row r="191" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R190" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S190" s="34"/>
+    </row>
+    <row r="191" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L191" s="43"/>
       <c r="M191" s="33">
         <v>44</v>
@@ -10047,18 +10259,19 @@
       <c r="N191" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O191" s="31" t="s">
+      <c r="O191" s="31"/>
+      <c r="P191" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="P191" s="31" t="s">
+      <c r="Q191" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q191" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R191" s="34"/>
-    </row>
-    <row r="192" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R191" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S191" s="34"/>
+    </row>
+    <row r="192" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L192" s="43"/>
       <c r="M192" s="33">
         <v>44</v>
@@ -10066,18 +10279,19 @@
       <c r="N192" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O192" s="31" t="s">
+      <c r="O192" s="31"/>
+      <c r="P192" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="P192" s="31" t="s">
+      <c r="Q192" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q192" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R192" s="34"/>
-    </row>
-    <row r="193" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R192" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S192" s="34"/>
+    </row>
+    <row r="193" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L193" s="43"/>
       <c r="M193" s="33">
         <v>44</v>
@@ -10085,18 +10299,19 @@
       <c r="N193" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O193" s="31" t="s">
+      <c r="O193" s="31"/>
+      <c r="P193" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="P193" s="31" t="s">
+      <c r="Q193" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q193" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R193" s="34"/>
-    </row>
-    <row r="194" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R193" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S193" s="34"/>
+    </row>
+    <row r="194" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L194" s="43"/>
       <c r="M194" s="33">
         <v>45</v>
@@ -10104,18 +10319,19 @@
       <c r="N194" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O194" s="31" t="s">
+      <c r="O194" s="31"/>
+      <c r="P194" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="P194" s="31" t="s">
+      <c r="Q194" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q194" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R194" s="34"/>
-    </row>
-    <row r="195" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R194" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S194" s="34"/>
+    </row>
+    <row r="195" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L195" s="43"/>
       <c r="M195" s="33">
         <v>44</v>
@@ -10123,18 +10339,19 @@
       <c r="N195" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O195" s="31" t="s">
+      <c r="O195" s="31"/>
+      <c r="P195" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="P195" s="31" t="s">
+      <c r="Q195" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q195" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R195" s="34"/>
-    </row>
-    <row r="196" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R195" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S195" s="34"/>
+    </row>
+    <row r="196" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L196" s="43"/>
       <c r="M196" s="33">
         <v>45</v>
@@ -10142,18 +10359,19 @@
       <c r="N196" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O196" s="31" t="s">
+      <c r="O196" s="31"/>
+      <c r="P196" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="P196" s="31" t="s">
+      <c r="Q196" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q196" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R196" s="34"/>
-    </row>
-    <row r="197" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R196" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S196" s="34"/>
+    </row>
+    <row r="197" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L197" s="43"/>
       <c r="M197" s="33">
         <v>45</v>
@@ -10161,18 +10379,19 @@
       <c r="N197" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O197" s="31" t="s">
+      <c r="O197" s="31"/>
+      <c r="P197" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="P197" s="31" t="s">
+      <c r="Q197" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="Q197" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R197" s="34"/>
-    </row>
-    <row r="198" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R197" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S197" s="34"/>
+    </row>
+    <row r="198" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L198" s="43"/>
       <c r="M198" s="33">
         <v>45</v>
@@ -10180,18 +10399,19 @@
       <c r="N198" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O198" s="31" t="s">
+      <c r="O198" s="31"/>
+      <c r="P198" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="P198" s="31" t="s">
+      <c r="Q198" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="Q198" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R198" s="34"/>
-    </row>
-    <row r="199" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R198" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S198" s="34"/>
+    </row>
+    <row r="199" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L199" s="43"/>
       <c r="M199" s="33">
         <v>44</v>
@@ -10199,18 +10419,19 @@
       <c r="N199" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O199" s="31" t="s">
+      <c r="O199" s="31"/>
+      <c r="P199" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="P199" s="31" t="s">
+      <c r="Q199" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q199" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R199" s="34"/>
-    </row>
-    <row r="200" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R199" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S199" s="34"/>
+    </row>
+    <row r="200" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L200" s="43"/>
       <c r="M200" s="33">
         <v>44</v>
@@ -10218,18 +10439,19 @@
       <c r="N200" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O200" s="31" t="s">
+      <c r="O200" s="31"/>
+      <c r="P200" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="P200" s="31" t="s">
+      <c r="Q200" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q200" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R200" s="34"/>
-    </row>
-    <row r="201" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R200" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S200" s="34"/>
+    </row>
+    <row r="201" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L201" s="43"/>
       <c r="M201" s="33">
         <v>45</v>
@@ -10237,18 +10459,19 @@
       <c r="N201" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O201" s="31" t="s">
+      <c r="O201" s="31"/>
+      <c r="P201" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="P201" s="31" t="s">
+      <c r="Q201" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q201" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R201" s="34"/>
-    </row>
-    <row r="202" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R201" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S201" s="34"/>
+    </row>
+    <row r="202" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L202" s="43"/>
       <c r="M202" s="33">
         <v>44</v>
@@ -10256,18 +10479,19 @@
       <c r="N202" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O202" s="31" t="s">
+      <c r="O202" s="31"/>
+      <c r="P202" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="P202" s="31" t="s">
+      <c r="Q202" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q202" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R202" s="34"/>
-    </row>
-    <row r="203" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R202" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S202" s="34"/>
+    </row>
+    <row r="203" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L203" s="43"/>
       <c r="M203" s="33">
         <v>45</v>
@@ -10275,18 +10499,19 @@
       <c r="N203" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O203" s="31" t="s">
+      <c r="O203" s="31"/>
+      <c r="P203" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="P203" s="31" t="s">
+      <c r="Q203" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q203" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R203" s="34"/>
-    </row>
-    <row r="204" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R203" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S203" s="34"/>
+    </row>
+    <row r="204" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L204" s="43"/>
       <c r="M204" s="33">
         <v>45</v>
@@ -10294,18 +10519,19 @@
       <c r="N204" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O204" s="31" t="s">
+      <c r="O204" s="31"/>
+      <c r="P204" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="P204" s="31" t="s">
+      <c r="Q204" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q204" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R204" s="34"/>
-    </row>
-    <row r="205" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R204" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S204" s="34"/>
+    </row>
+    <row r="205" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L205" s="43"/>
       <c r="M205" s="33">
         <v>45</v>
@@ -10313,18 +10539,19 @@
       <c r="N205" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O205" s="31" t="s">
+      <c r="O205" s="31"/>
+      <c r="P205" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="P205" s="31" t="s">
+      <c r="Q205" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q205" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R205" s="34"/>
-    </row>
-    <row r="206" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R205" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S205" s="34"/>
+    </row>
+    <row r="206" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L206" s="43"/>
       <c r="M206" s="33">
         <v>45</v>
@@ -10332,18 +10559,19 @@
       <c r="N206" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O206" s="31" t="s">
+      <c r="O206" s="31"/>
+      <c r="P206" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="P206" s="31" t="s">
+      <c r="Q206" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q206" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R206" s="34"/>
-    </row>
-    <row r="207" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R206" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S206" s="34"/>
+    </row>
+    <row r="207" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L207" s="43"/>
       <c r="M207" s="33">
         <v>45</v>
@@ -10351,18 +10579,19 @@
       <c r="N207" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O207" s="31" t="s">
+      <c r="O207" s="31"/>
+      <c r="P207" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="P207" s="31" t="s">
+      <c r="Q207" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="Q207" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R207" s="34"/>
-    </row>
-    <row r="208" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R207" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S207" s="34"/>
+    </row>
+    <row r="208" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L208" s="43"/>
       <c r="M208" s="33">
         <v>45</v>
@@ -10370,18 +10599,19 @@
       <c r="N208" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="O208" s="31" t="s">
+      <c r="O208" s="31"/>
+      <c r="P208" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="P208" s="31" t="s">
+      <c r="Q208" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q208" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R208" s="34"/>
-    </row>
-    <row r="209" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R208" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S208" s="34"/>
+    </row>
+    <row r="209" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L209" s="44"/>
       <c r="M209" s="32">
         <v>45</v>
@@ -10389,20 +10619,21 @@
       <c r="N209" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="O209" s="39" t="s">
+      <c r="O209" s="39"/>
+      <c r="P209" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="P209" s="39" t="s">
+      <c r="Q209" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Q209" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R209" s="35"/>
+      <c r="R209" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S209" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="M7:S7"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
@@ -10421,7 +10652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R134"/>
   <sheetViews>
-    <sheetView topLeftCell="I104" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="N128" sqref="N128"/>
     </sheetView>
   </sheetViews>
@@ -10461,26 +10692,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="143" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="138" t="s">
+      <c r="H2" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="139"/>
-      <c r="J2" s="140"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -10493,11 +10724,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="149"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="151"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -10510,11 +10741,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="151"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10526,29 +10757,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="152" t="s">
+      <c r="I7" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="153"/>
-      <c r="K7" s="154"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="136" t="s">
+      <c r="M7" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="137"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13364,7 +13595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R57"/>
   <sheetViews>
-    <sheetView topLeftCell="K7" workbookViewId="0">
+    <sheetView topLeftCell="K34" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -13404,26 +13635,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="143" t="s">
         <v>442</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="138" t="s">
+      <c r="H2" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="139"/>
-      <c r="J2" s="140"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -13436,11 +13667,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="149"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="151"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -13453,11 +13684,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="151"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13469,29 +13700,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="152" t="s">
+      <c r="I7" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="153"/>
-      <c r="K7" s="154"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="136" t="s">
+      <c r="M7" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="137"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14790,7 +15021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R134"/>
   <sheetViews>
-    <sheetView topLeftCell="K135" workbookViewId="0">
+    <sheetView topLeftCell="K46" workbookViewId="0">
       <selection activeCell="N155" sqref="N155"/>
     </sheetView>
   </sheetViews>
@@ -14830,26 +15061,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="138" t="s">
+      <c r="H2" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="139"/>
-      <c r="J2" s="140"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -14862,11 +15093,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="149"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="151"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -14879,11 +15110,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="151"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14895,29 +15126,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="152" t="s">
+      <c r="I7" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="153"/>
-      <c r="K7" s="154"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="155" t="s">
+      <c r="M7" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="157"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="158"/>
+      <c r="R7" s="159"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18773,7 +19004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K25" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="O14" sqref="O14:O45"/>
     </sheetView>
   </sheetViews>
@@ -18813,26 +19044,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="143" t="s">
         <v>595</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="138" t="s">
+      <c r="H2" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="139"/>
-      <c r="J2" s="140"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -18845,11 +19076,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="149"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="151"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -18862,11 +19093,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="151"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -18878,29 +19109,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="152" t="s">
+      <c r="I7" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="153"/>
-      <c r="K7" s="154"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="155" t="s">
+      <c r="M7" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="157"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="158"/>
+      <c r="R7" s="159"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -19196,7 +19427,7 @@
         <v>589</v>
       </c>
       <c r="L14" s="83"/>
-      <c r="M14" s="159">
+      <c r="M14" s="136">
         <v>22</v>
       </c>
       <c r="N14" s="105" t="s">
@@ -19633,7 +19864,7 @@
       <c r="F25" s="72"/>
       <c r="G25" s="73"/>
       <c r="L25" s="43"/>
-      <c r="M25" s="160">
+      <c r="M25" s="137">
         <v>26</v>
       </c>
       <c r="N25" s="113" t="s">
@@ -20108,7 +20339,7 @@
   <dimension ref="B1:R25"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20147,26 +20378,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="143" t="s">
         <v>613</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="138" t="s">
+      <c r="H2" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="139"/>
-      <c r="J2" s="140"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -20179,11 +20410,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="149"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="151"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -20196,11 +20427,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="151"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20212,29 +20443,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="152" t="s">
+      <c r="I7" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="153"/>
-      <c r="K7" s="154"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="158" t="s">
+      <c r="M7" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="157"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="158"/>
+      <c r="R7" s="159"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20792,26 +21023,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="143" t="s">
         <v>616</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="138" t="s">
+      <c r="H2" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="139"/>
-      <c r="J2" s="140"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -20824,11 +21055,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="149"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="151"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -20841,11 +21072,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="151"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20857,29 +21088,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="152" t="s">
+      <c r="I7" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="153"/>
-      <c r="K7" s="154"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="158" t="s">
+      <c r="M7" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="157"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="158"/>
+      <c r="R7" s="159"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -22836,8 +23067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:Q19"/>
+    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22876,26 +23107,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="143" t="s">
         <v>733</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="138" t="s">
+      <c r="H2" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="139"/>
-      <c r="J2" s="140"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
@@ -22908,11 +23139,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="149"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="151"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="45" t="s">
@@ -22925,11 +23156,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="151"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -22941,29 +23172,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="152" t="s">
+      <c r="I7" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="153"/>
-      <c r="K7" s="154"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="158" t="s">
+      <c r="M7" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="157"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="158"/>
+      <c r="R7" s="159"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">

--- a/Cnl/Mapeos_INV_CNL_V1.xlsx
+++ b/Cnl/Mapeos_INV_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="T20TERCERO" sheetId="28" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="780">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3783,6 +3783,18 @@
   </si>
   <si>
     <t>Tabla Relacionada</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -4879,7 +4891,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -4987,7 +4999,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5013,7 +5024,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5041,7 +5051,6 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5059,7 +5068,6 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5090,8 +5098,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5169,6 +5175,7 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="129">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -5690,7 +5697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5700,8 +5707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S209"/>
   <sheetViews>
-    <sheetView topLeftCell="L198" workbookViewId="0">
-      <selection activeCell="O164" sqref="O164"/>
+    <sheetView tabSelected="1" topLeftCell="I176" workbookViewId="0">
+      <selection activeCell="M167" sqref="M167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5741,28 +5748,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="69"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
         <v>44</v>
       </c>
@@ -5773,13 +5780,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="150"/>
-      <c r="F4" s="151"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="45" t="s">
         <v>45</v>
       </c>
@@ -5790,11 +5797,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="151"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5806,30 +5813,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="154" t="s">
+      <c r="I7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="138" t="s">
+      <c r="M7" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5897,32 +5904,32 @@
         <v>1</v>
       </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="43"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="57">
         <v>40</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="K9" s="64" t="s">
+      <c r="K9" s="58" t="s">
         <v>388</v>
       </c>
-      <c r="L9" s="68"/>
-      <c r="M9" s="108">
+      <c r="L9" s="56"/>
+      <c r="M9" s="105">
         <v>40</v>
       </c>
-      <c r="N9" s="105" t="s">
+      <c r="N9" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105" t="s">
+      <c r="O9" s="102"/>
+      <c r="P9" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="Q9" s="105" t="s">
+      <c r="Q9" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="105" t="s">
+      <c r="R9" s="102" t="s">
         <v>17</v>
       </c>
       <c r="S9" s="41" t="s">
@@ -5943,21 +5950,21 @@
         <v>20</v>
       </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="43"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="33">
         <v>41</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="68"/>
-      <c r="M10" s="109">
+      <c r="L10" s="56"/>
+      <c r="M10" s="106">
         <v>41</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -5973,7 +5980,7 @@
       <c r="R10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="90"/>
+      <c r="S10" s="88"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="48">
@@ -5989,19 +5996,19 @@
         <v>30</v>
       </c>
       <c r="F11" s="61"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="43"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="84"/>
       <c r="I11" s="33">
         <v>42</v>
       </c>
       <c r="J11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="65" t="s">
+      <c r="K11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="68"/>
-      <c r="M11" s="109">
+      <c r="L11" s="56"/>
+      <c r="M11" s="106">
         <v>42</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -6033,19 +6040,19 @@
         <v>40</v>
       </c>
       <c r="F12" s="61"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="43"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="84"/>
       <c r="I12" s="33">
         <v>43</v>
       </c>
       <c r="J12" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="115" t="s">
+      <c r="K12" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="L12" s="68"/>
-      <c r="M12" s="110">
+      <c r="L12" s="56"/>
+      <c r="M12" s="107">
         <v>43</v>
       </c>
       <c r="N12" s="31" t="s">
@@ -6064,7 +6071,7 @@
       <c r="S12" s="37"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="76">
+      <c r="B13" s="75">
         <v>5</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -6076,20 +6083,20 @@
       <c r="E13" s="38">
         <v>20</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="43"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="84"/>
       <c r="I13" s="33">
         <v>44</v>
       </c>
       <c r="J13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="66" t="s">
+      <c r="K13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="110">
+      <c r="L13" s="49"/>
+      <c r="M13" s="107">
         <v>2</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -6120,20 +6127,20 @@
       <c r="E14" s="38">
         <v>20</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="43"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="84"/>
       <c r="I14" s="33">
         <v>45</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="110">
+      <c r="L14" s="49"/>
+      <c r="M14" s="107">
         <v>46</v>
       </c>
       <c r="N14" s="31" t="s">
@@ -6164,20 +6171,20 @@
       <c r="E15" s="38">
         <v>13</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="43"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="84"/>
       <c r="I15" s="33">
         <v>46</v>
       </c>
-      <c r="J15" s="115" t="s">
+      <c r="J15" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="K15" s="65" t="s">
+      <c r="K15" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="110">
+      <c r="L15" s="49"/>
+      <c r="M15" s="107">
         <v>44</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -6196,7 +6203,7 @@
       <c r="S15" s="37"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="76">
+      <c r="B16" s="75">
         <v>8</v>
       </c>
       <c r="C16" s="38" t="s">
@@ -6208,20 +6215,20 @@
       <c r="E16" s="38">
         <v>20</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="101">
+      <c r="F16" s="71"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="98">
         <v>47</v>
       </c>
       <c r="J16" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="K16" s="132" t="s">
+      <c r="K16" s="88" t="s">
         <v>391</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="110">
+      <c r="L16" s="49"/>
+      <c r="M16" s="107">
         <v>47</v>
       </c>
       <c r="N16" s="31" t="s">
@@ -6252,20 +6259,20 @@
       <c r="E17" s="38">
         <v>80</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="43"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="84"/>
       <c r="I17" s="33">
         <v>48</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="K17" s="65" t="s">
+      <c r="K17" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="110">
+      <c r="L17" s="49"/>
+      <c r="M17" s="107">
         <v>37</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -6281,7 +6288,7 @@
       <c r="R17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="90"/>
+      <c r="S17" s="88"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="48">
@@ -6296,41 +6303,41 @@
       <c r="E18" s="38">
         <v>10</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="43"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="84"/>
       <c r="I18" s="33">
         <v>49</v>
       </c>
       <c r="J18" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="K18" s="66" t="s">
+      <c r="K18" s="55" t="s">
         <v>392</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="111">
+      <c r="L18" s="49"/>
+      <c r="M18" s="108">
         <v>48</v>
       </c>
-      <c r="N18" s="98" t="s">
+      <c r="N18" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="O18" s="98" t="s">
+      <c r="O18" s="95" t="s">
         <v>595</v>
       </c>
-      <c r="P18" s="98" t="s">
+      <c r="P18" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="Q18" s="98" t="s">
+      <c r="Q18" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="R18" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="100"/>
+      <c r="R18" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="97"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="76">
+      <c r="B19" s="75">
         <v>11</v>
       </c>
       <c r="C19" s="38" t="s">
@@ -6342,38 +6349,38 @@
       <c r="E19" s="38">
         <v>20</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="43"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="84"/>
       <c r="I19" s="33">
         <v>51</v>
       </c>
       <c r="J19" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="K19" s="66" t="s">
+      <c r="K19" s="55" t="s">
         <v>393</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="111">
+      <c r="L19" s="49"/>
+      <c r="M19" s="108">
         <v>48</v>
       </c>
-      <c r="N19" s="98" t="s">
+      <c r="N19" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="O19" s="98" t="s">
+      <c r="O19" s="95" t="s">
         <v>595</v>
       </c>
-      <c r="P19" s="98" t="s">
+      <c r="P19" s="95" t="s">
         <v>189</v>
       </c>
-      <c r="Q19" s="98" t="s">
+      <c r="Q19" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="R19" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" s="100"/>
+      <c r="R19" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="97"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="48">
@@ -6388,20 +6395,20 @@
       <c r="E20" s="38">
         <v>20</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="43"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="84"/>
       <c r="I20" s="33">
         <v>52</v>
       </c>
       <c r="J20" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="K20" s="66" t="s">
+      <c r="K20" s="55" t="s">
         <v>394</v>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="109">
+      <c r="L20" s="49"/>
+      <c r="M20" s="106">
         <v>44</v>
       </c>
       <c r="N20" s="31" t="s">
@@ -6417,7 +6424,7 @@
       <c r="R20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="90"/>
+      <c r="S20" s="88"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="48">
@@ -6432,20 +6439,20 @@
       <c r="E21" s="38">
         <v>50</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="43"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="84"/>
       <c r="I21" s="33">
         <v>54</v>
       </c>
       <c r="J21" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="K21" s="66" t="s">
+      <c r="K21" s="55" t="s">
         <v>395</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="109">
+      <c r="L21" s="49"/>
+      <c r="M21" s="106">
         <v>45</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -6461,10 +6468,10 @@
       <c r="R21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="90"/>
+      <c r="S21" s="88"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="76">
+      <c r="B22" s="75">
         <v>14</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -6476,20 +6483,20 @@
       <c r="E22" s="38">
         <v>20</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="43"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="84"/>
       <c r="I22" s="33">
         <v>55</v>
       </c>
       <c r="J22" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="K22" s="66" t="s">
+      <c r="K22" s="55" t="s">
         <v>396</v>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="109">
+      <c r="L22" s="49"/>
+      <c r="M22" s="106">
         <v>44</v>
       </c>
       <c r="N22" s="31" t="s">
@@ -6507,7 +6514,7 @@
       </c>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="48">
         <v>15</v>
       </c>
@@ -6520,20 +6527,20 @@
       <c r="E23" s="38">
         <v>15</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="32">
+      <c r="F23" s="71"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="33">
         <v>56</v>
       </c>
-      <c r="J23" s="97" t="s">
+      <c r="J23" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="K23" s="67" t="s">
+      <c r="K23" s="55" t="s">
         <v>397</v>
       </c>
-      <c r="L23" s="43"/>
-      <c r="M23" s="110">
+      <c r="L23" s="49"/>
+      <c r="M23" s="107">
         <v>45</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -6561,13 +6568,23 @@
       <c r="D24" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="134" t="s">
+      <c r="E24" s="128" t="s">
         <v>759</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="109">
+      <c r="F24" s="71"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="33">
+        <v>57</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>776</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>777</v>
+      </c>
+      <c r="L24" s="49"/>
+      <c r="M24" s="106">
         <v>44</v>
       </c>
       <c r="N24" s="31" t="s">
@@ -6585,8 +6602,8 @@
       </c>
       <c r="S24" s="37"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="76">
+    <row r="25" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="75">
         <v>17</v>
       </c>
       <c r="C25" s="38" t="s">
@@ -6595,13 +6612,23 @@
       <c r="D25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="135" t="s">
+      <c r="E25" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="109">
+      <c r="F25" s="71"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="32">
+        <v>58</v>
+      </c>
+      <c r="J25" s="92" t="s">
+        <v>778</v>
+      </c>
+      <c r="K25" s="63" t="s">
+        <v>779</v>
+      </c>
+      <c r="L25" s="49"/>
+      <c r="M25" s="106">
         <v>45</v>
       </c>
       <c r="N25" s="31" t="s">
@@ -6629,13 +6656,13 @@
       <c r="D26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="135" t="s">
+      <c r="E26" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
       <c r="L26" s="43"/>
-      <c r="M26" s="109">
+      <c r="M26" s="106">
         <v>44</v>
       </c>
       <c r="N26" s="31" t="s">
@@ -6663,13 +6690,13 @@
       <c r="D27" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="135" t="s">
+      <c r="E27" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
       <c r="L27" s="43"/>
-      <c r="M27" s="109">
+      <c r="M27" s="106">
         <v>45</v>
       </c>
       <c r="N27" s="31" t="s">
@@ -6688,7 +6715,7 @@
       <c r="S27" s="37"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="76">
+      <c r="B28" s="75">
         <v>20</v>
       </c>
       <c r="C28" s="38" t="s">
@@ -6697,13 +6724,13 @@
       <c r="D28" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="135" t="s">
+      <c r="E28" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
       <c r="L28" s="43"/>
-      <c r="M28" s="109">
+      <c r="M28" s="106">
         <v>44</v>
       </c>
       <c r="N28" s="31" t="s">
@@ -6719,7 +6746,7 @@
       <c r="R28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="90"/>
+      <c r="S28" s="88"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="48">
@@ -6731,13 +6758,13 @@
       <c r="D29" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="135" t="s">
+      <c r="E29" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
       <c r="L29" s="43"/>
-      <c r="M29" s="109">
+      <c r="M29" s="106">
         <v>45</v>
       </c>
       <c r="N29" s="31" t="s">
@@ -6765,13 +6792,13 @@
       <c r="D30" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="135" t="s">
+      <c r="E30" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72"/>
       <c r="L30" s="43"/>
-      <c r="M30" s="109">
+      <c r="M30" s="106">
         <v>44</v>
       </c>
       <c r="N30" s="31" t="s">
@@ -6790,7 +6817,7 @@
       <c r="S30" s="37"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="76">
+      <c r="B31" s="75">
         <v>23</v>
       </c>
       <c r="C31" s="38" t="s">
@@ -6799,13 +6826,13 @@
       <c r="D31" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="135" t="s">
+      <c r="E31" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="73"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
       <c r="L31" s="43"/>
-      <c r="M31" s="109">
+      <c r="M31" s="106">
         <v>45</v>
       </c>
       <c r="N31" s="31" t="s">
@@ -6821,7 +6848,7 @@
       <c r="R31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="90"/>
+      <c r="S31" s="88"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="48">
@@ -6833,13 +6860,13 @@
       <c r="D32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="135" t="s">
+      <c r="E32" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="72"/>
       <c r="L32" s="43"/>
-      <c r="M32" s="109">
+      <c r="M32" s="106">
         <v>44</v>
       </c>
       <c r="N32" s="31" t="s">
@@ -6855,7 +6882,7 @@
       <c r="R32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="90"/>
+      <c r="S32" s="88"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="48">
@@ -6867,13 +6894,13 @@
       <c r="D33" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="135" t="s">
+      <c r="E33" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72"/>
       <c r="L33" s="43"/>
-      <c r="M33" s="109">
+      <c r="M33" s="106">
         <v>45</v>
       </c>
       <c r="N33" s="31" t="s">
@@ -6892,7 +6919,7 @@
       <c r="S33" s="37"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B34" s="76">
+      <c r="B34" s="75">
         <v>26</v>
       </c>
       <c r="C34" s="38" t="s">
@@ -6901,13 +6928,13 @@
       <c r="D34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="135" t="s">
+      <c r="E34" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="73"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="72"/>
       <c r="L34" s="43"/>
-      <c r="M34" s="109">
+      <c r="M34" s="106">
         <v>4</v>
       </c>
       <c r="N34" s="31" t="s">
@@ -6935,13 +6962,13 @@
       <c r="D35" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="135" t="s">
+      <c r="E35" s="129" t="s">
         <v>762</v>
       </c>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
       <c r="L35" s="43"/>
-      <c r="M35" s="109">
+      <c r="M35" s="106">
         <v>45</v>
       </c>
       <c r="N35" s="31" t="s">
@@ -6969,13 +6996,13 @@
       <c r="D36" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="135" t="s">
+      <c r="E36" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="73"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="72"/>
       <c r="L36" s="43"/>
-      <c r="M36" s="109">
+      <c r="M36" s="106">
         <v>45</v>
       </c>
       <c r="N36" s="31" t="s">
@@ -6994,7 +7021,7 @@
       <c r="S36" s="37"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B37" s="76">
+      <c r="B37" s="75">
         <v>29</v>
       </c>
       <c r="C37" s="38" t="s">
@@ -7003,13 +7030,13 @@
       <c r="D37" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="135" t="s">
+      <c r="E37" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F37" s="72"/>
-      <c r="G37" s="73"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="72"/>
       <c r="L37" s="43"/>
-      <c r="M37" s="109">
+      <c r="M37" s="106">
         <v>45</v>
       </c>
       <c r="N37" s="31" t="s">
@@ -7037,13 +7064,13 @@
       <c r="D38" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="135" t="s">
+      <c r="E38" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F38" s="72"/>
-      <c r="G38" s="73"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72"/>
       <c r="L38" s="43"/>
-      <c r="M38" s="109">
+      <c r="M38" s="106">
         <v>27</v>
       </c>
       <c r="N38" s="31" t="s">
@@ -7071,13 +7098,13 @@
       <c r="D39" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="135" t="s">
+      <c r="E39" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
       <c r="L39" s="43"/>
-      <c r="M39" s="109">
+      <c r="M39" s="106">
         <v>45</v>
       </c>
       <c r="N39" s="31" t="s">
@@ -7093,10 +7120,10 @@
       <c r="R39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S39" s="90"/>
+      <c r="S39" s="88"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B40" s="76">
+      <c r="B40" s="75">
         <v>32</v>
       </c>
       <c r="C40" s="38" t="s">
@@ -7108,10 +7135,10 @@
       <c r="E40" s="38">
         <v>7</v>
       </c>
-      <c r="F40" s="72"/>
-      <c r="G40" s="73"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="72"/>
       <c r="L40" s="43"/>
-      <c r="M40" s="109">
+      <c r="M40" s="106">
         <v>45</v>
       </c>
       <c r="N40" s="31" t="s">
@@ -7142,10 +7169,10 @@
       <c r="E41" s="38">
         <v>7</v>
       </c>
-      <c r="F41" s="72"/>
-      <c r="G41" s="73"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="72"/>
       <c r="L41" s="43"/>
-      <c r="M41" s="109">
+      <c r="M41" s="106">
         <v>44</v>
       </c>
       <c r="N41" s="31" t="s">
@@ -7176,10 +7203,10 @@
       <c r="E42" s="38">
         <v>7</v>
       </c>
-      <c r="F42" s="72"/>
-      <c r="G42" s="73"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="72"/>
       <c r="L42" s="43"/>
-      <c r="M42" s="109">
+      <c r="M42" s="106">
         <v>45</v>
       </c>
       <c r="N42" s="31" t="s">
@@ -7195,10 +7222,10 @@
       <c r="R42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="90"/>
+      <c r="S42" s="88"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B43" s="76">
+      <c r="B43" s="75">
         <v>35</v>
       </c>
       <c r="C43" s="38" t="s">
@@ -7210,10 +7237,10 @@
       <c r="E43" s="38">
         <v>7</v>
       </c>
-      <c r="F43" s="72"/>
-      <c r="G43" s="73"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="72"/>
       <c r="L43" s="43"/>
-      <c r="M43" s="109">
+      <c r="M43" s="106">
         <v>45</v>
       </c>
       <c r="N43" s="31" t="s">
@@ -7229,7 +7256,7 @@
       <c r="R43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S43" s="90"/>
+      <c r="S43" s="88"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="48">
@@ -7244,10 +7271,10 @@
       <c r="E44" s="38">
         <v>7</v>
       </c>
-      <c r="F44" s="72"/>
-      <c r="G44" s="73"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="72"/>
       <c r="L44" s="43"/>
-      <c r="M44" s="109">
+      <c r="M44" s="106">
         <v>45</v>
       </c>
       <c r="N44" s="31" t="s">
@@ -7278,10 +7305,10 @@
       <c r="E45" s="38">
         <v>7</v>
       </c>
-      <c r="F45" s="72"/>
-      <c r="G45" s="73"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="72"/>
       <c r="L45" s="43"/>
-      <c r="M45" s="109">
+      <c r="M45" s="106">
         <v>45</v>
       </c>
       <c r="N45" s="31" t="s">
@@ -7300,7 +7327,7 @@
       <c r="S45" s="37"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B46" s="76">
+      <c r="B46" s="75">
         <v>38</v>
       </c>
       <c r="C46" s="38" t="s">
@@ -7312,10 +7339,10 @@
       <c r="E46" s="38">
         <v>7</v>
       </c>
-      <c r="F46" s="72"/>
-      <c r="G46" s="73"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="72"/>
       <c r="L46" s="43"/>
-      <c r="M46" s="109">
+      <c r="M46" s="106">
         <v>45</v>
       </c>
       <c r="N46" s="31" t="s">
@@ -7340,16 +7367,16 @@
       <c r="C47" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="D47" s="94" t="s">
+      <c r="D47" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="94">
+      <c r="E47" s="92">
         <v>7</v>
       </c>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="74"/>
       <c r="L47" s="43"/>
-      <c r="M47" s="109">
+      <c r="M47" s="106">
         <v>45</v>
       </c>
       <c r="N47" s="31" t="s">
@@ -7369,7 +7396,7 @@
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L48" s="43"/>
-      <c r="M48" s="109">
+      <c r="M48" s="106">
         <v>45</v>
       </c>
       <c r="N48" s="31" t="s">
@@ -7389,7 +7416,7 @@
     </row>
     <row r="49" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L49" s="43"/>
-      <c r="M49" s="109">
+      <c r="M49" s="106">
         <v>45</v>
       </c>
       <c r="N49" s="31" t="s">
@@ -7409,7 +7436,7 @@
     </row>
     <row r="50" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L50" s="43"/>
-      <c r="M50" s="109">
+      <c r="M50" s="106">
         <v>45</v>
       </c>
       <c r="N50" s="31" t="s">
@@ -7425,11 +7452,11 @@
       <c r="R50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S50" s="90"/>
+      <c r="S50" s="88"/>
     </row>
     <row r="51" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L51" s="43"/>
-      <c r="M51" s="109">
+      <c r="M51" s="106">
         <v>36</v>
       </c>
       <c r="N51" s="31" t="s">
@@ -7449,27 +7476,27 @@
     </row>
     <row r="52" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L52" s="43"/>
-      <c r="M52" s="112">
-        <v>45</v>
-      </c>
-      <c r="N52" s="113" t="s">
+      <c r="M52" s="109">
+        <v>58</v>
+      </c>
+      <c r="N52" s="110" t="s">
         <v>307</v>
       </c>
-      <c r="O52" s="113"/>
-      <c r="P52" s="113" t="s">
+      <c r="O52" s="110"/>
+      <c r="P52" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="Q52" s="113" t="s">
+      <c r="Q52" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="R52" s="113" t="s">
+      <c r="R52" s="110" t="s">
         <v>20</v>
       </c>
       <c r="S52" s="60"/>
     </row>
     <row r="53" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L53" s="43"/>
-      <c r="M53" s="109">
+      <c r="M53" s="106">
         <v>45</v>
       </c>
       <c r="N53" s="31" t="s">
@@ -7485,11 +7512,11 @@
       <c r="R53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S53" s="90"/>
+      <c r="S53" s="88"/>
     </row>
     <row r="54" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L54" s="43"/>
-      <c r="M54" s="109">
+      <c r="M54" s="106">
         <v>49</v>
       </c>
       <c r="N54" s="31" t="s">
@@ -7505,11 +7532,11 @@
       <c r="R54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S54" s="90"/>
+      <c r="S54" s="88"/>
     </row>
     <row r="55" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L55" s="43"/>
-      <c r="M55" s="109">
+      <c r="M55" s="106">
         <v>2</v>
       </c>
       <c r="N55" s="31" t="s">
@@ -7529,7 +7556,7 @@
     </row>
     <row r="56" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L56" s="43"/>
-      <c r="M56" s="109">
+      <c r="M56" s="106">
         <v>45</v>
       </c>
       <c r="N56" s="31" t="s">
@@ -7549,43 +7576,43 @@
     </row>
     <row r="57" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L57" s="44"/>
-      <c r="M57" s="114">
+      <c r="M57" s="111">
         <v>45</v>
       </c>
-      <c r="N57" s="93" t="s">
+      <c r="N57" s="91" t="s">
         <v>307</v>
       </c>
-      <c r="O57" s="93"/>
-      <c r="P57" s="93" t="s">
+      <c r="O57" s="91"/>
+      <c r="P57" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="Q57" s="93" t="s">
+      <c r="Q57" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="R57" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="S57" s="80"/>
+      <c r="R57" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="78"/>
     </row>
     <row r="58" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L58" s="83"/>
+      <c r="L58" s="81"/>
       <c r="M58" s="57">
         <v>40</v>
       </c>
-      <c r="N58" s="105" t="s">
+      <c r="N58" s="102" t="s">
         <v>314</v>
       </c>
-      <c r="O58" s="105"/>
-      <c r="P58" s="105" t="s">
+      <c r="O58" s="102"/>
+      <c r="P58" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="Q58" s="105" t="s">
+      <c r="Q58" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="R58" s="105" t="s">
+      <c r="R58" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="S58" s="81" t="s">
+      <c r="S58" s="79" t="s">
         <v>178</v>
       </c>
     </row>
@@ -8051,25 +8078,25 @@
     </row>
     <row r="82" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L82" s="43"/>
-      <c r="M82" s="99">
+      <c r="M82" s="96">
         <v>48</v>
       </c>
-      <c r="N82" s="98" t="s">
+      <c r="N82" s="95" t="s">
         <v>314</v>
       </c>
-      <c r="O82" s="98" t="s">
+      <c r="O82" s="95" t="s">
         <v>613</v>
       </c>
-      <c r="P82" s="98" t="s">
+      <c r="P82" s="95" t="s">
         <v>254</v>
       </c>
-      <c r="Q82" s="98" t="s">
+      <c r="Q82" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="R82" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S82" s="100"/>
+      <c r="R82" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="S82" s="97"/>
     </row>
     <row r="83" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L83" s="43"/>
@@ -8113,25 +8140,25 @@
     </row>
     <row r="85" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L85" s="43"/>
-      <c r="M85" s="99">
+      <c r="M85" s="96">
         <v>48</v>
       </c>
-      <c r="N85" s="98" t="s">
+      <c r="N85" s="95" t="s">
         <v>314</v>
       </c>
-      <c r="O85" s="98" t="s">
+      <c r="O85" s="95" t="s">
         <v>613</v>
       </c>
-      <c r="P85" s="98" t="s">
+      <c r="P85" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="Q85" s="98" t="s">
+      <c r="Q85" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="R85" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S85" s="100"/>
+      <c r="R85" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="S85" s="97"/>
     </row>
     <row r="86" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L86" s="43"/>
@@ -8155,47 +8182,47 @@
     </row>
     <row r="87" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L87" s="43"/>
-      <c r="M87" s="99">
+      <c r="M87" s="96">
         <v>48</v>
       </c>
-      <c r="N87" s="98" t="s">
+      <c r="N87" s="95" t="s">
         <v>314</v>
       </c>
-      <c r="O87" s="98" t="s">
+      <c r="O87" s="95" t="s">
         <v>613</v>
       </c>
-      <c r="P87" s="98" t="s">
+      <c r="P87" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="Q87" s="98" t="s">
+      <c r="Q87" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="R87" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S87" s="100"/>
+      <c r="R87" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="S87" s="97"/>
     </row>
     <row r="88" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L88" s="43"/>
-      <c r="M88" s="99">
+      <c r="M88" s="96">
         <v>48</v>
       </c>
-      <c r="N88" s="98" t="s">
+      <c r="N88" s="95" t="s">
         <v>314</v>
       </c>
-      <c r="O88" s="98" t="s">
+      <c r="O88" s="95" t="s">
         <v>613</v>
       </c>
-      <c r="P88" s="98" t="s">
+      <c r="P88" s="95" t="s">
         <v>260</v>
       </c>
-      <c r="Q88" s="98" t="s">
+      <c r="Q88" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="R88" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S88" s="100"/>
+      <c r="R88" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="S88" s="97"/>
     </row>
     <row r="89" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L89" s="43"/>
@@ -8759,69 +8786,69 @@
     </row>
     <row r="117" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L117" s="43"/>
-      <c r="M117" s="99">
+      <c r="M117" s="96">
         <v>48</v>
       </c>
-      <c r="N117" s="98" t="s">
+      <c r="N117" s="95" t="s">
         <v>314</v>
       </c>
-      <c r="O117" s="98" t="s">
+      <c r="O117" s="95" t="s">
         <v>613</v>
       </c>
-      <c r="P117" s="98" t="s">
+      <c r="P117" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="Q117" s="98" t="s">
+      <c r="Q117" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="R117" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S117" s="100"/>
+      <c r="R117" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="S117" s="97"/>
     </row>
     <row r="118" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L118" s="43"/>
-      <c r="M118" s="99">
+      <c r="M118" s="96">
         <v>48</v>
       </c>
-      <c r="N118" s="98" t="s">
+      <c r="N118" s="95" t="s">
         <v>314</v>
       </c>
-      <c r="O118" s="98" t="s">
+      <c r="O118" s="95" t="s">
         <v>613</v>
       </c>
-      <c r="P118" s="98" t="s">
+      <c r="P118" s="95" t="s">
         <v>291</v>
       </c>
-      <c r="Q118" s="98" t="s">
+      <c r="Q118" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="R118" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S118" s="100"/>
+      <c r="R118" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="S118" s="97"/>
     </row>
     <row r="119" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L119" s="43"/>
-      <c r="M119" s="99">
+      <c r="M119" s="96">
         <v>48</v>
       </c>
-      <c r="N119" s="98" t="s">
+      <c r="N119" s="95" t="s">
         <v>314</v>
       </c>
-      <c r="O119" s="98" t="s">
+      <c r="O119" s="95" t="s">
         <v>595</v>
       </c>
-      <c r="P119" s="98" t="s">
+      <c r="P119" s="95" t="s">
         <v>292</v>
       </c>
-      <c r="Q119" s="98" t="s">
+      <c r="Q119" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="R119" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S119" s="100"/>
+      <c r="R119" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="S119" s="97"/>
     </row>
     <row r="120" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L120" s="43"/>
@@ -9125,49 +9152,49 @@
     </row>
     <row r="135" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L135" s="44"/>
-      <c r="M135" s="84">
+      <c r="M135" s="82">
         <v>45</v>
       </c>
-      <c r="N135" s="93" t="s">
+      <c r="N135" s="91" t="s">
         <v>314</v>
       </c>
-      <c r="O135" s="93"/>
-      <c r="P135" s="93" t="s">
+      <c r="O135" s="91"/>
+      <c r="P135" s="91" t="s">
         <v>306</v>
       </c>
-      <c r="Q135" s="93" t="s">
+      <c r="Q135" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="R135" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="S135" s="85"/>
+      <c r="R135" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="S135" s="83"/>
     </row>
     <row r="136" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L136" s="83"/>
+      <c r="L136" s="81"/>
       <c r="M136" s="57">
         <v>40</v>
       </c>
-      <c r="N136" s="105" t="s">
+      <c r="N136" s="102" t="s">
         <v>386</v>
       </c>
-      <c r="O136" s="105"/>
-      <c r="P136" s="105" t="s">
+      <c r="O136" s="102"/>
+      <c r="P136" s="102" t="s">
         <v>769</v>
       </c>
-      <c r="Q136" s="105" t="s">
+      <c r="Q136" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="R136" s="105" t="s">
+      <c r="R136" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="S136" s="81" t="s">
+      <c r="S136" s="79" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="137" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L137" s="43"/>
-      <c r="M137" s="101">
+      <c r="M137" s="98">
         <v>47</v>
       </c>
       <c r="N137" s="31" t="s">
@@ -9627,25 +9654,25 @@
     </row>
     <row r="160" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L160" s="43"/>
-      <c r="M160" s="99">
+      <c r="M160" s="96">
         <v>48</v>
       </c>
-      <c r="N160" s="98" t="s">
+      <c r="N160" s="95" t="s">
         <v>386</v>
       </c>
-      <c r="O160" s="98" t="s">
+      <c r="O160" s="95" t="s">
         <v>616</v>
       </c>
-      <c r="P160" s="98" t="s">
+      <c r="P160" s="95" t="s">
         <v>338</v>
       </c>
-      <c r="Q160" s="98" t="s">
+      <c r="Q160" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="R160" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S160" s="100"/>
+      <c r="R160" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="S160" s="97"/>
     </row>
     <row r="161" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L161" s="43"/>
@@ -9709,25 +9736,25 @@
     </row>
     <row r="164" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L164" s="43"/>
-      <c r="M164" s="99">
+      <c r="M164" s="96">
         <v>48</v>
       </c>
-      <c r="N164" s="98" t="s">
+      <c r="N164" s="95" t="s">
         <v>386</v>
       </c>
-      <c r="O164" s="98" t="s">
+      <c r="O164" s="95" t="s">
         <v>616</v>
       </c>
-      <c r="P164" s="98" t="s">
+      <c r="P164" s="95" t="s">
         <v>342</v>
       </c>
-      <c r="Q164" s="98" t="s">
+      <c r="Q164" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="R164" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S164" s="100"/>
+      <c r="R164" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="S164" s="97"/>
     </row>
     <row r="165" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L165" s="43"/>
@@ -9751,7 +9778,7 @@
     </row>
     <row r="166" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L166" s="43"/>
-      <c r="M166" s="101">
+      <c r="M166" s="98">
         <v>39</v>
       </c>
       <c r="N166" s="31" t="s">
@@ -9773,20 +9800,20 @@
     </row>
     <row r="167" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L167" s="43"/>
-      <c r="M167" s="82">
-        <v>45</v>
-      </c>
-      <c r="N167" s="113" t="s">
+      <c r="M167" s="80">
+        <v>58</v>
+      </c>
+      <c r="N167" s="110" t="s">
         <v>386</v>
       </c>
-      <c r="O167" s="113"/>
-      <c r="P167" s="113" t="s">
+      <c r="O167" s="110"/>
+      <c r="P167" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="Q167" s="113" t="s">
+      <c r="Q167" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="R167" s="113" t="s">
+      <c r="R167" s="110" t="s">
         <v>20</v>
       </c>
       <c r="S167" s="60"/>
@@ -10652,8 +10679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R134"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N128" sqref="N128"/>
+    <sheetView topLeftCell="G127" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10692,28 +10719,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="137" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="69"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
         <v>44</v>
       </c>
@@ -10724,13 +10751,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="150"/>
-      <c r="F4" s="151"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="45" t="s">
         <v>45</v>
       </c>
@@ -10741,11 +10768,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="151"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10757,29 +10784,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="154" t="s">
+      <c r="I7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="138" t="s">
+      <c r="M7" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10844,31 +10871,31 @@
         <v>20</v>
       </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="57">
+      <c r="G9" s="62"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="93">
         <v>20</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="K9" s="64" t="s">
+      <c r="K9" s="58" t="s">
         <v>430</v>
       </c>
-      <c r="L9" s="68"/>
-      <c r="M9" s="108">
-        <v>20</v>
-      </c>
-      <c r="N9" s="105" t="s">
+      <c r="L9" s="56"/>
+      <c r="M9" s="105">
+        <v>20</v>
+      </c>
+      <c r="N9" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="O9" s="105" t="s">
+      <c r="O9" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="105" t="s">
+      <c r="P9" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="105" t="s">
+      <c r="Q9" s="102" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="41" t="s">
@@ -10889,19 +10916,19 @@
         <v>255</v>
       </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="33">
+      <c r="G10" s="70"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="42">
         <v>21</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="68"/>
-      <c r="M10" s="109">
+      <c r="L10" s="56"/>
+      <c r="M10" s="106">
         <v>21</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -10916,7 +10943,7 @@
       <c r="Q10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="90"/>
+      <c r="R10" s="88"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="48">
@@ -10932,19 +10959,19 @@
         <v>15</v>
       </c>
       <c r="F11" s="61"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="33">
+      <c r="G11" s="70"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="42">
         <v>22</v>
       </c>
       <c r="J11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="65" t="s">
+      <c r="K11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="68"/>
-      <c r="M11" s="109">
+      <c r="L11" s="56"/>
+      <c r="M11" s="106">
         <v>22</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -10975,19 +11002,19 @@
         <v>255</v>
       </c>
       <c r="F12" s="61"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="33">
+      <c r="G12" s="70"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="42">
         <v>23</v>
       </c>
       <c r="J12" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="66" t="s">
+      <c r="K12" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="L12" s="68"/>
-      <c r="M12" s="110">
+      <c r="L12" s="56"/>
+      <c r="M12" s="107">
         <v>23</v>
       </c>
       <c r="N12" s="31" t="s">
@@ -11005,7 +11032,7 @@
       <c r="R12" s="37"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="76">
+      <c r="B13" s="75">
         <v>5</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -11017,20 +11044,20 @@
       <c r="E13" s="38">
         <v>20</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="33">
+      <c r="F13" s="76"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="42">
         <v>24</v>
       </c>
       <c r="J13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="66" t="s">
+      <c r="K13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="110">
+      <c r="L13" s="49"/>
+      <c r="M13" s="107">
         <v>3</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -11060,20 +11087,20 @@
       <c r="E14" s="38">
         <v>20</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="33">
+      <c r="F14" s="71"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="42">
         <v>25</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="110">
+      <c r="L14" s="49"/>
+      <c r="M14" s="107">
         <v>27</v>
       </c>
       <c r="N14" s="31" t="s">
@@ -11103,20 +11130,20 @@
       <c r="E15" s="38">
         <v>50</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="33">
+      <c r="F15" s="71"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="42">
         <v>27</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="K15" s="66" t="s">
+      <c r="K15" s="55" t="s">
         <v>432</v>
       </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="110">
+      <c r="L15" s="49"/>
+      <c r="M15" s="107">
         <v>24</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -11133,7 +11160,7 @@
       </c>
       <c r="R15" s="37"/>
     </row>
-    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="48">
         <v>8</v>
       </c>
@@ -11146,20 +11173,20 @@
       <c r="E16" s="38">
         <v>100</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="87"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="106">
         <v>28</v>
       </c>
-      <c r="J16" s="54" t="s">
+      <c r="J16" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="K16" s="133" t="s">
+      <c r="K16" s="88" t="s">
         <v>433</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="110">
+      <c r="L16" s="49"/>
+      <c r="M16" s="107">
         <v>28</v>
       </c>
       <c r="N16" s="31" t="s">
@@ -11177,7 +11204,7 @@
       <c r="R16" s="37"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="76">
+      <c r="B17" s="75">
         <v>9</v>
       </c>
       <c r="C17" s="38" t="s">
@@ -11189,10 +11216,20 @@
       <c r="E17" s="38">
         <v>30</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="110">
+      <c r="F17" s="71"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="42">
+        <v>29</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>776</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>777</v>
+      </c>
+      <c r="L17" s="49"/>
+      <c r="M17" s="107">
         <v>16</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -11207,9 +11244,9 @@
       <c r="Q17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="90"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R17" s="88"/>
+    </row>
+    <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48">
         <v>10</v>
       </c>
@@ -11219,13 +11256,23 @@
       <c r="D18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="110">
+      <c r="F18" s="71"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="94">
+        <v>30</v>
+      </c>
+      <c r="J18" s="92" t="s">
+        <v>778</v>
+      </c>
+      <c r="K18" s="63" t="s">
+        <v>779</v>
+      </c>
+      <c r="L18" s="49"/>
+      <c r="M18" s="107">
         <v>24</v>
       </c>
       <c r="N18" s="31" t="s">
@@ -11252,13 +11299,13 @@
       <c r="D19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="135" t="s">
+      <c r="E19" s="129" t="s">
         <v>762</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
       <c r="L19" s="43"/>
-      <c r="M19" s="110">
+      <c r="M19" s="107">
         <v>25</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -11285,13 +11332,13 @@
       <c r="D20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="135" t="s">
+      <c r="E20" s="129" t="s">
         <v>762</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
       <c r="L20" s="43"/>
-      <c r="M20" s="109">
+      <c r="M20" s="106">
         <v>24</v>
       </c>
       <c r="N20" s="31" t="s">
@@ -11306,10 +11353,10 @@
       <c r="Q20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="90"/>
+      <c r="R20" s="88"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="76">
+      <c r="B21" s="75">
         <v>13</v>
       </c>
       <c r="C21" s="38" t="s">
@@ -11318,13 +11365,13 @@
       <c r="D21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="135" t="s">
+      <c r="E21" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
       <c r="L21" s="43"/>
-      <c r="M21" s="109">
+      <c r="M21" s="106">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -11339,7 +11386,7 @@
       <c r="Q21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="90"/>
+      <c r="R21" s="88"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="48">
@@ -11351,13 +11398,13 @@
       <c r="D22" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="135" t="s">
+      <c r="E22" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
       <c r="L22" s="43"/>
-      <c r="M22" s="109">
+      <c r="M22" s="106">
         <v>24</v>
       </c>
       <c r="N22" s="31" t="s">
@@ -11384,13 +11431,13 @@
       <c r="D23" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="135" t="s">
+      <c r="E23" s="129" t="s">
         <v>762</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
       <c r="L23" s="43"/>
-      <c r="M23" s="110">
+      <c r="M23" s="107">
         <v>25</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -11420,10 +11467,10 @@
       <c r="E24" s="38">
         <v>7</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
       <c r="L24" s="43"/>
-      <c r="M24" s="109">
+      <c r="M24" s="106">
         <v>24</v>
       </c>
       <c r="N24" s="31" t="s">
@@ -11441,7 +11488,7 @@
       <c r="R24" s="37"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="76">
+      <c r="B25" s="75">
         <v>17</v>
       </c>
       <c r="C25" s="38" t="s">
@@ -11453,10 +11500,10 @@
       <c r="E25" s="38">
         <v>7</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
       <c r="L25" s="43"/>
-      <c r="M25" s="109">
+      <c r="M25" s="106">
         <v>25</v>
       </c>
       <c r="N25" s="31" t="s">
@@ -11486,10 +11533,10 @@
       <c r="E26" s="38">
         <v>7</v>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
       <c r="L26" s="43"/>
-      <c r="M26" s="109">
+      <c r="M26" s="106">
         <v>24</v>
       </c>
       <c r="N26" s="31" t="s">
@@ -11519,10 +11566,10 @@
       <c r="E27" s="54">
         <v>7</v>
       </c>
-      <c r="F27" s="74"/>
-      <c r="G27" s="75"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
       <c r="L27" s="43"/>
-      <c r="M27" s="109">
+      <c r="M27" s="106">
         <v>25</v>
       </c>
       <c r="N27" s="31" t="s">
@@ -11541,7 +11588,7 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L28" s="43"/>
-      <c r="M28" s="109">
+      <c r="M28" s="106">
         <v>24</v>
       </c>
       <c r="N28" s="31" t="s">
@@ -11556,11 +11603,11 @@
       <c r="Q28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R28" s="90"/>
+      <c r="R28" s="88"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L29" s="43"/>
-      <c r="M29" s="109">
+      <c r="M29" s="106">
         <v>25</v>
       </c>
       <c r="N29" s="31" t="s">
@@ -11579,7 +11626,7 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L30" s="43"/>
-      <c r="M30" s="109">
+      <c r="M30" s="106">
         <v>24</v>
       </c>
       <c r="N30" s="31" t="s">
@@ -11598,7 +11645,7 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L31" s="43"/>
-      <c r="M31" s="109">
+      <c r="M31" s="106">
         <v>25</v>
       </c>
       <c r="N31" s="31" t="s">
@@ -11613,11 +11660,11 @@
       <c r="Q31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="90"/>
+      <c r="R31" s="88"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L32" s="43"/>
-      <c r="M32" s="109">
+      <c r="M32" s="106">
         <v>24</v>
       </c>
       <c r="N32" s="31" t="s">
@@ -11632,11 +11679,11 @@
       <c r="Q32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="90"/>
+      <c r="R32" s="88"/>
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L33" s="43"/>
-      <c r="M33" s="109">
+      <c r="M33" s="106">
         <v>25</v>
       </c>
       <c r="N33" s="31" t="s">
@@ -11655,7 +11702,7 @@
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L34" s="43"/>
-      <c r="M34" s="110">
+      <c r="M34" s="107">
         <v>1</v>
       </c>
       <c r="N34" s="31" t="s">
@@ -11674,7 +11721,7 @@
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L35" s="43"/>
-      <c r="M35" s="109">
+      <c r="M35" s="106">
         <v>25</v>
       </c>
       <c r="N35" s="31" t="s">
@@ -11693,7 +11740,7 @@
     </row>
     <row r="36" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L36" s="43"/>
-      <c r="M36" s="109">
+      <c r="M36" s="106">
         <v>25</v>
       </c>
       <c r="N36" s="31" t="s">
@@ -11712,7 +11759,7 @@
     </row>
     <row r="37" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L37" s="43"/>
-      <c r="M37" s="109">
+      <c r="M37" s="106">
         <v>25</v>
       </c>
       <c r="N37" s="31" t="s">
@@ -11731,7 +11778,7 @@
     </row>
     <row r="38" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L38" s="43"/>
-      <c r="M38" s="109">
+      <c r="M38" s="106">
         <v>25</v>
       </c>
       <c r="N38" s="31" t="s">
@@ -11750,7 +11797,7 @@
     </row>
     <row r="39" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L39" s="43"/>
-      <c r="M39" s="109">
+      <c r="M39" s="106">
         <v>25</v>
       </c>
       <c r="N39" s="31" t="s">
@@ -11765,11 +11812,11 @@
       <c r="Q39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="90"/>
+      <c r="R39" s="88"/>
     </row>
     <row r="40" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L40" s="43"/>
-      <c r="M40" s="109">
+      <c r="M40" s="106">
         <v>25</v>
       </c>
       <c r="N40" s="31" t="s">
@@ -11788,7 +11835,7 @@
     </row>
     <row r="41" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L41" s="43"/>
-      <c r="M41" s="109">
+      <c r="M41" s="106">
         <v>24</v>
       </c>
       <c r="N41" s="31" t="s">
@@ -11807,7 +11854,7 @@
     </row>
     <row r="42" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L42" s="43"/>
-      <c r="M42" s="109">
+      <c r="M42" s="106">
         <v>25</v>
       </c>
       <c r="N42" s="31" t="s">
@@ -11822,11 +11869,11 @@
       <c r="Q42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="90"/>
+      <c r="R42" s="88"/>
     </row>
     <row r="43" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L43" s="43"/>
-      <c r="M43" s="109">
+      <c r="M43" s="106">
         <v>25</v>
       </c>
       <c r="N43" s="31" t="s">
@@ -11841,11 +11888,11 @@
       <c r="Q43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="90"/>
+      <c r="R43" s="88"/>
     </row>
     <row r="44" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L44" s="43"/>
-      <c r="M44" s="109">
+      <c r="M44" s="106">
         <v>25</v>
       </c>
       <c r="N44" s="31" t="s">
@@ -11864,7 +11911,7 @@
     </row>
     <row r="45" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L45" s="43"/>
-      <c r="M45" s="109">
+      <c r="M45" s="106">
         <v>25</v>
       </c>
       <c r="N45" s="31" t="s">
@@ -11883,7 +11930,7 @@
     </row>
     <row r="46" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L46" s="43"/>
-      <c r="M46" s="109">
+      <c r="M46" s="106">
         <v>25</v>
       </c>
       <c r="N46" s="31" t="s">
@@ -11902,7 +11949,7 @@
     </row>
     <row r="47" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L47" s="43"/>
-      <c r="M47" s="109">
+      <c r="M47" s="106">
         <v>25</v>
       </c>
       <c r="N47" s="31" t="s">
@@ -11921,7 +11968,7 @@
     </row>
     <row r="48" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L48" s="43"/>
-      <c r="M48" s="109">
+      <c r="M48" s="106">
         <v>25</v>
       </c>
       <c r="N48" s="31" t="s">
@@ -11940,7 +11987,7 @@
     </row>
     <row r="49" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L49" s="43"/>
-      <c r="M49" s="109">
+      <c r="M49" s="106">
         <v>25</v>
       </c>
       <c r="N49" s="31" t="s">
@@ -11959,7 +12006,7 @@
     </row>
     <row r="50" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L50" s="43"/>
-      <c r="M50" s="109">
+      <c r="M50" s="106">
         <v>25</v>
       </c>
       <c r="N50" s="31" t="s">
@@ -11974,12 +12021,12 @@
       <c r="Q50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="90"/>
+      <c r="R50" s="88"/>
     </row>
     <row r="51" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L51" s="43"/>
-      <c r="M51" s="110">
-        <v>19</v>
+      <c r="M51" s="107">
+        <v>29</v>
       </c>
       <c r="N51" s="31" t="s">
         <v>307</v>
@@ -11997,26 +12044,26 @@
     </row>
     <row r="52" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L52" s="43"/>
-      <c r="M52" s="112">
+      <c r="M52" s="109">
+        <v>30</v>
+      </c>
+      <c r="N52" s="110" t="s">
+        <v>307</v>
+      </c>
+      <c r="O52" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="N52" s="113" t="s">
-        <v>307</v>
-      </c>
-      <c r="O52" s="113" t="s">
-        <v>25</v>
-      </c>
-      <c r="P52" s="113" t="s">
+      <c r="P52" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="Q52" s="113" t="s">
+      <c r="Q52" s="110" t="s">
         <v>20</v>
       </c>
       <c r="R52" s="60"/>
     </row>
     <row r="53" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L53" s="43"/>
-      <c r="M53" s="109">
+      <c r="M53" s="106">
         <v>25</v>
       </c>
       <c r="N53" s="31" t="s">
@@ -12031,11 +12078,11 @@
       <c r="Q53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="90"/>
+      <c r="R53" s="88"/>
     </row>
     <row r="54" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L54" s="43"/>
-      <c r="M54" s="109">
+      <c r="M54" s="106">
         <v>24</v>
       </c>
       <c r="N54" s="31" t="s">
@@ -12050,11 +12097,11 @@
       <c r="Q54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R54" s="90"/>
+      <c r="R54" s="88"/>
     </row>
     <row r="55" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L55" s="43"/>
-      <c r="M55" s="109">
+      <c r="M55" s="106">
         <v>5</v>
       </c>
       <c r="N55" s="31" t="s">
@@ -12073,7 +12120,7 @@
     </row>
     <row r="56" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L56" s="43"/>
-      <c r="M56" s="109">
+      <c r="M56" s="106">
         <v>25</v>
       </c>
       <c r="N56" s="31" t="s">
@@ -12092,41 +12139,41 @@
     </row>
     <row r="57" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L57" s="44"/>
-      <c r="M57" s="114">
+      <c r="M57" s="111">
         <v>25</v>
       </c>
-      <c r="N57" s="93" t="s">
+      <c r="N57" s="91" t="s">
         <v>307</v>
       </c>
-      <c r="O57" s="93" t="s">
+      <c r="O57" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="P57" s="93" t="s">
+      <c r="P57" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="Q57" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="80"/>
+      <c r="Q57" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="78"/>
     </row>
     <row r="58" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L58" s="83"/>
+      <c r="L58" s="81"/>
       <c r="M58" s="57">
         <v>20</v>
       </c>
-      <c r="N58" s="105" t="s">
+      <c r="N58" s="102" t="s">
         <v>314</v>
       </c>
-      <c r="O58" s="105" t="s">
+      <c r="O58" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="P58" s="105" t="s">
+      <c r="P58" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="105" t="s">
+      <c r="Q58" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="R58" s="81" t="s">
+      <c r="R58" s="79" t="s">
         <v>178</v>
       </c>
     </row>
@@ -12892,7 +12939,7 @@
     </row>
     <row r="99" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L99" s="43"/>
-      <c r="M99" s="76">
+      <c r="M99" s="75">
         <v>5</v>
       </c>
       <c r="N99" s="31" t="s">
@@ -13595,8 +13642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R57"/>
   <sheetViews>
-    <sheetView topLeftCell="K34" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="H46" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13635,28 +13682,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="137" t="s">
         <v>442</v>
       </c>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="69"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
         <v>44</v>
       </c>
@@ -13667,13 +13714,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="150"/>
-      <c r="F4" s="151"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="45" t="s">
         <v>45</v>
       </c>
@@ -13684,11 +13731,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="151"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13700,29 +13747,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="154" t="s">
+      <c r="I7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="138" t="s">
+      <c r="M7" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13787,9 +13834,9 @@
         <v>200</v>
       </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="95">
+      <c r="G9" s="62"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="93">
         <v>14</v>
       </c>
       <c r="J9" s="23" t="s">
@@ -13798,20 +13845,20 @@
       <c r="K9" s="58" t="s">
         <v>435</v>
       </c>
-      <c r="L9" s="103"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="36">
         <v>14</v>
       </c>
-      <c r="N9" s="105" t="s">
+      <c r="N9" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="O9" s="105" t="s">
+      <c r="O9" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="105" t="s">
+      <c r="P9" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="105" t="s">
+      <c r="Q9" s="102" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="41" t="s">
@@ -13832,8 +13879,8 @@
         <v>15</v>
       </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="49"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="42">
         <v>15</v>
       </c>
@@ -13843,8 +13890,8 @@
       <c r="K10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="103"/>
-      <c r="M10" s="101">
+      <c r="L10" s="100"/>
+      <c r="M10" s="98">
         <v>15</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -13859,7 +13906,7 @@
       <c r="Q10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="90"/>
+      <c r="R10" s="88"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="48">
@@ -13875,8 +13922,8 @@
         <v>15</v>
       </c>
       <c r="F11" s="61"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="49"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="42">
         <v>16</v>
       </c>
@@ -13886,8 +13933,8 @@
       <c r="K11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="103"/>
-      <c r="M11" s="101">
+      <c r="L11" s="100"/>
+      <c r="M11" s="98">
         <v>16</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -13918,8 +13965,8 @@
         <v>1</v>
       </c>
       <c r="F12" s="61"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="49"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="42">
         <v>17</v>
       </c>
@@ -13929,7 +13976,7 @@
       <c r="K12" s="55" t="s">
         <v>436</v>
       </c>
-      <c r="L12" s="103"/>
+      <c r="L12" s="100"/>
       <c r="M12" s="48">
         <v>17</v>
       </c>
@@ -13948,7 +13995,7 @@
       <c r="R12" s="37"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="76">
+      <c r="B13" s="75">
         <v>5</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -13960,9 +14007,9 @@
       <c r="E13" s="38">
         <v>20</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="49"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="42">
         <v>18</v>
       </c>
@@ -13972,7 +14019,7 @@
       <c r="K13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="104"/>
+      <c r="L13" s="101"/>
       <c r="M13" s="48">
         <v>8</v>
       </c>
@@ -14003,9 +14050,9 @@
       <c r="E14" s="38">
         <v>5</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="49"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="42">
         <v>19</v>
       </c>
@@ -14015,7 +14062,7 @@
       <c r="K14" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="104"/>
+      <c r="L14" s="101"/>
       <c r="M14" s="48">
         <v>21</v>
       </c>
@@ -14046,9 +14093,9 @@
       <c r="E15" s="38">
         <v>3</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="49"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="42">
         <v>20</v>
       </c>
@@ -14058,7 +14105,7 @@
       <c r="K15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="104"/>
+      <c r="L15" s="101"/>
       <c r="M15" s="48">
         <v>18</v>
       </c>
@@ -14086,14 +14133,14 @@
       <c r="D16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="135" t="s">
+      <c r="E16" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="79" t="s">
+      <c r="F16" s="71"/>
+      <c r="G16" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="H16" s="49"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="42">
         <v>21</v>
       </c>
@@ -14103,7 +14150,7 @@
       <c r="K16" s="55" t="s">
         <v>437</v>
       </c>
-      <c r="L16" s="104"/>
+      <c r="L16" s="101"/>
       <c r="M16" s="48">
         <v>22</v>
       </c>
@@ -14122,7 +14169,7 @@
       <c r="R16" s="37"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="76">
+      <c r="B17" s="75">
         <v>9</v>
       </c>
       <c r="C17" s="38" t="s">
@@ -14131,12 +14178,12 @@
       <c r="D17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="135" t="s">
+      <c r="E17" s="129" t="s">
         <v>763</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="49"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="42">
         <v>22</v>
       </c>
@@ -14146,7 +14193,7 @@
       <c r="K17" s="55" t="s">
         <v>438</v>
       </c>
-      <c r="L17" s="104"/>
+      <c r="L17" s="101"/>
       <c r="M17" s="48">
         <v>23</v>
       </c>
@@ -14162,7 +14209,7 @@
       <c r="Q17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="90"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="48">
@@ -14174,12 +14221,12 @@
       <c r="D18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="129" t="s">
         <v>762</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="49"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="42">
         <v>23</v>
       </c>
@@ -14189,7 +14236,7 @@
       <c r="K18" s="55" t="s">
         <v>439</v>
       </c>
-      <c r="L18" s="104"/>
+      <c r="L18" s="101"/>
       <c r="M18" s="48">
         <v>18</v>
       </c>
@@ -14207,7 +14254,7 @@
       </c>
       <c r="R18" s="37"/>
     </row>
-    <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="48">
         <v>11</v>
       </c>
@@ -14217,22 +14264,22 @@
       <c r="D19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="135" t="s">
+      <c r="E19" s="129" t="s">
         <v>762</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="96">
+      <c r="F19" s="71"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="42">
         <v>24</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="K19" s="63" t="s">
+      <c r="K19" s="55" t="s">
         <v>440</v>
       </c>
-      <c r="L19" s="104"/>
+      <c r="L19" s="101"/>
       <c r="M19" s="48">
         <v>19</v>
       </c>
@@ -14260,12 +14307,22 @@
       <c r="D20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="135" t="s">
+      <c r="E20" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
-      <c r="L20" s="86"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="42">
+        <v>25</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>776</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>777</v>
+      </c>
+      <c r="L20" s="101"/>
       <c r="M20" s="48">
         <v>18</v>
       </c>
@@ -14281,7 +14338,7 @@
       <c r="Q20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="90"/>
+      <c r="R20" s="88"/>
     </row>
     <row r="21" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="46">
@@ -14296,9 +14353,19 @@
       <c r="E21" s="54">
         <v>7</v>
       </c>
-      <c r="F21" s="74"/>
-      <c r="G21" s="75"/>
-      <c r="L21" s="86"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="94">
+        <v>26</v>
+      </c>
+      <c r="J21" s="92" t="s">
+        <v>778</v>
+      </c>
+      <c r="K21" s="63" t="s">
+        <v>779</v>
+      </c>
+      <c r="L21" s="101"/>
       <c r="M21" s="48">
         <v>19</v>
       </c>
@@ -14314,10 +14381,10 @@
       <c r="Q21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="90"/>
+      <c r="R21" s="88"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L22" s="86"/>
+      <c r="L22" s="84"/>
       <c r="M22" s="48">
         <v>18</v>
       </c>
@@ -14336,7 +14403,7 @@
       <c r="R22" s="37"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L23" s="86"/>
+      <c r="L23" s="84"/>
       <c r="M23" s="48">
         <v>19</v>
       </c>
@@ -14355,7 +14422,7 @@
       <c r="R23" s="37"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L24" s="86"/>
+      <c r="L24" s="84"/>
       <c r="M24" s="48">
         <v>18</v>
       </c>
@@ -14374,7 +14441,7 @@
       <c r="R24" s="37"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L25" s="86"/>
+      <c r="L25" s="84"/>
       <c r="M25" s="48">
         <v>19</v>
       </c>
@@ -14393,7 +14460,7 @@
       <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L26" s="86"/>
+      <c r="L26" s="84"/>
       <c r="M26" s="48">
         <v>18</v>
       </c>
@@ -14412,7 +14479,7 @@
       <c r="R26" s="37"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L27" s="86"/>
+      <c r="L27" s="84"/>
       <c r="M27" s="48">
         <v>19</v>
       </c>
@@ -14431,7 +14498,7 @@
       <c r="R27" s="37"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L28" s="86"/>
+      <c r="L28" s="84"/>
       <c r="M28" s="48">
         <v>18</v>
       </c>
@@ -14447,10 +14514,10 @@
       <c r="Q28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R28" s="90"/>
+      <c r="R28" s="88"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L29" s="86"/>
+      <c r="L29" s="84"/>
       <c r="M29" s="48">
         <v>19</v>
       </c>
@@ -14469,7 +14536,7 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L30" s="86"/>
+      <c r="L30" s="84"/>
       <c r="M30" s="48">
         <v>18</v>
       </c>
@@ -14488,7 +14555,7 @@
       <c r="R30" s="37"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L31" s="86"/>
+      <c r="L31" s="84"/>
       <c r="M31" s="48">
         <v>19</v>
       </c>
@@ -14504,10 +14571,10 @@
       <c r="Q31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="90"/>
+      <c r="R31" s="88"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L32" s="86"/>
+      <c r="L32" s="84"/>
       <c r="M32" s="48">
         <v>18</v>
       </c>
@@ -14523,10 +14590,10 @@
       <c r="Q32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="90"/>
+      <c r="R32" s="88"/>
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L33" s="86"/>
+      <c r="L33" s="84"/>
       <c r="M33" s="48">
         <v>19</v>
       </c>
@@ -14545,7 +14612,7 @@
       <c r="R33" s="37"/>
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L34" s="86"/>
+      <c r="L34" s="84"/>
       <c r="M34" s="48">
         <v>1</v>
       </c>
@@ -14564,7 +14631,7 @@
       <c r="R34" s="37"/>
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L35" s="86"/>
+      <c r="L35" s="84"/>
       <c r="M35" s="48">
         <v>19</v>
       </c>
@@ -14583,7 +14650,7 @@
       <c r="R35" s="37"/>
     </row>
     <row r="36" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L36" s="86"/>
+      <c r="L36" s="84"/>
       <c r="M36" s="48">
         <v>19</v>
       </c>
@@ -14602,7 +14669,7 @@
       <c r="R36" s="37"/>
     </row>
     <row r="37" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L37" s="86"/>
+      <c r="L37" s="84"/>
       <c r="M37" s="48">
         <v>19</v>
       </c>
@@ -14621,7 +14688,7 @@
       <c r="R37" s="37"/>
     </row>
     <row r="38" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L38" s="86"/>
+      <c r="L38" s="84"/>
       <c r="M38" s="48">
         <v>19</v>
       </c>
@@ -14640,7 +14707,7 @@
       <c r="R38" s="37"/>
     </row>
     <row r="39" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L39" s="86"/>
+      <c r="L39" s="84"/>
       <c r="M39" s="48">
         <v>19</v>
       </c>
@@ -14656,10 +14723,10 @@
       <c r="Q39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="90"/>
+      <c r="R39" s="88"/>
     </row>
     <row r="40" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L40" s="86"/>
+      <c r="L40" s="84"/>
       <c r="M40" s="48">
         <v>19</v>
       </c>
@@ -14678,7 +14745,7 @@
       <c r="R40" s="37"/>
     </row>
     <row r="41" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L41" s="86"/>
+      <c r="L41" s="84"/>
       <c r="M41" s="48">
         <v>18</v>
       </c>
@@ -14697,7 +14764,7 @@
       <c r="R41" s="37"/>
     </row>
     <row r="42" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L42" s="86"/>
+      <c r="L42" s="84"/>
       <c r="M42" s="48">
         <v>19</v>
       </c>
@@ -14713,10 +14780,10 @@
       <c r="Q42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="90"/>
+      <c r="R42" s="88"/>
     </row>
     <row r="43" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L43" s="86"/>
+      <c r="L43" s="84"/>
       <c r="M43" s="48">
         <v>19</v>
       </c>
@@ -14732,10 +14799,10 @@
       <c r="Q43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="90"/>
+      <c r="R43" s="88"/>
     </row>
     <row r="44" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L44" s="86"/>
+      <c r="L44" s="84"/>
       <c r="M44" s="48">
         <v>19</v>
       </c>
@@ -14754,7 +14821,7 @@
       <c r="R44" s="37"/>
     </row>
     <row r="45" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L45" s="86"/>
+      <c r="L45" s="84"/>
       <c r="M45" s="48">
         <v>19</v>
       </c>
@@ -14773,7 +14840,7 @@
       <c r="R45" s="37"/>
     </row>
     <row r="46" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L46" s="86"/>
+      <c r="L46" s="84"/>
       <c r="M46" s="48">
         <v>19</v>
       </c>
@@ -14792,7 +14859,7 @@
       <c r="R46" s="37"/>
     </row>
     <row r="47" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L47" s="86"/>
+      <c r="L47" s="84"/>
       <c r="M47" s="48">
         <v>19</v>
       </c>
@@ -14811,7 +14878,7 @@
       <c r="R47" s="37"/>
     </row>
     <row r="48" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L48" s="86"/>
+      <c r="L48" s="84"/>
       <c r="M48" s="48">
         <v>19</v>
       </c>
@@ -14830,7 +14897,7 @@
       <c r="R48" s="37"/>
     </row>
     <row r="49" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L49" s="86"/>
+      <c r="L49" s="84"/>
       <c r="M49" s="48">
         <v>19</v>
       </c>
@@ -14849,7 +14916,7 @@
       <c r="R49" s="37"/>
     </row>
     <row r="50" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L50" s="86"/>
+      <c r="L50" s="84"/>
       <c r="M50" s="48">
         <v>19</v>
       </c>
@@ -14865,10 +14932,10 @@
       <c r="Q50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="90"/>
+      <c r="R50" s="88"/>
     </row>
     <row r="51" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L51" s="86"/>
+      <c r="L51" s="84"/>
       <c r="M51" s="48">
         <v>13</v>
       </c>
@@ -14887,26 +14954,26 @@
       <c r="R51" s="37"/>
     </row>
     <row r="52" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L52" s="86"/>
-      <c r="M52" s="82">
-        <v>19</v>
-      </c>
-      <c r="N52" s="113" t="s">
+      <c r="L52" s="84"/>
+      <c r="M52" s="80">
+        <v>26</v>
+      </c>
+      <c r="N52" s="110" t="s">
         <v>307</v>
       </c>
-      <c r="O52" s="113" t="s">
+      <c r="O52" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="113" t="s">
+      <c r="P52" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="Q52" s="113" t="s">
+      <c r="Q52" s="110" t="s">
         <v>20</v>
       </c>
       <c r="R52" s="60"/>
     </row>
     <row r="53" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L53" s="86"/>
+      <c r="L53" s="84"/>
       <c r="M53" s="48">
         <v>19</v>
       </c>
@@ -14922,11 +14989,11 @@
       <c r="Q53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="90"/>
+      <c r="R53" s="88"/>
     </row>
     <row r="54" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L54" s="86"/>
-      <c r="M54" s="101">
+      <c r="L54" s="84"/>
+      <c r="M54" s="98">
         <v>24</v>
       </c>
       <c r="N54" s="31" t="s">
@@ -14941,11 +15008,11 @@
       <c r="Q54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R54" s="90"/>
+      <c r="R54" s="88"/>
     </row>
     <row r="55" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L55" s="86"/>
-      <c r="M55" s="101">
+      <c r="L55" s="84"/>
+      <c r="M55" s="98">
         <v>5</v>
       </c>
       <c r="N55" s="31" t="s">
@@ -14963,7 +15030,7 @@
       <c r="R55" s="37"/>
     </row>
     <row r="56" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L56" s="86"/>
+      <c r="L56" s="84"/>
       <c r="M56" s="48">
         <v>19</v>
       </c>
@@ -14982,7 +15049,7 @@
       <c r="R56" s="37"/>
     </row>
     <row r="57" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L57" s="87"/>
+      <c r="L57" s="85"/>
       <c r="M57" s="53">
         <v>19</v>
       </c>
@@ -14998,7 +15065,7 @@
       <c r="Q57" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R57" s="107"/>
+      <c r="R57" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15021,8 +15088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R134"/>
   <sheetViews>
-    <sheetView topLeftCell="K46" workbookViewId="0">
-      <selection activeCell="N155" sqref="N155"/>
+    <sheetView topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15061,28 +15128,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="69"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
         <v>44</v>
       </c>
@@ -15093,13 +15160,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="150"/>
-      <c r="F4" s="151"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="45" t="s">
         <v>45</v>
       </c>
@@ -15110,11 +15177,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="151"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15126,29 +15193,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="154" t="s">
+      <c r="I7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="157" t="s">
+      <c r="M7" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="158"/>
-      <c r="R7" s="159"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="153"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15180,22 +15247,22 @@
         <v>11</v>
       </c>
       <c r="L8" s="12"/>
-      <c r="M8" s="116" t="s">
+      <c r="M8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="117" t="s">
+      <c r="N8" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="117" t="s">
+      <c r="O8" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="P8" s="117" t="s">
+      <c r="P8" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="117" t="s">
+      <c r="Q8" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="118" t="s">
+      <c r="R8" s="114" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15214,8 +15281,8 @@
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="62"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="57">
+      <c r="H9" s="43"/>
+      <c r="I9" s="93">
         <v>90</v>
       </c>
       <c r="J9" s="23" t="s">
@@ -15228,16 +15295,16 @@
       <c r="M9" s="36">
         <v>90</v>
       </c>
-      <c r="N9" s="105" t="s">
+      <c r="N9" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="O9" s="105" t="s">
+      <c r="O9" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="105" t="s">
+      <c r="P9" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="105" t="s">
+      <c r="Q9" s="102" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="41" t="s">
@@ -15258,9 +15325,9 @@
         <v>80</v>
       </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="33">
+      <c r="G10" s="70"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="42">
         <v>91</v>
       </c>
       <c r="J10" s="38" t="s">
@@ -15270,7 +15337,7 @@
         <v>36</v>
       </c>
       <c r="L10" s="56"/>
-      <c r="M10" s="101">
+      <c r="M10" s="98">
         <v>91</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -15285,7 +15352,7 @@
       <c r="Q10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="90"/>
+      <c r="R10" s="88"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="48">
@@ -15301,9 +15368,9 @@
         <v>25</v>
       </c>
       <c r="F11" s="61"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="33">
+      <c r="G11" s="70"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="42">
         <v>92</v>
       </c>
       <c r="J11" s="24" t="s">
@@ -15313,7 +15380,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="56"/>
-      <c r="M11" s="101">
+      <c r="M11" s="98">
         <v>92</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -15344,9 +15411,9 @@
         <v>20</v>
       </c>
       <c r="F12" s="61"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="33">
+      <c r="G12" s="70"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="42">
         <v>93</v>
       </c>
       <c r="J12" s="38" t="s">
@@ -15374,7 +15441,7 @@
       <c r="R12" s="37"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="76">
+      <c r="B13" s="75">
         <v>5</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -15386,10 +15453,10 @@
       <c r="E13" s="38">
         <v>50</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="33">
+      <c r="F13" s="76"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="42">
         <v>94</v>
       </c>
       <c r="J13" s="28" t="s">
@@ -15429,10 +15496,10 @@
       <c r="E14" s="38">
         <v>50</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="33">
+      <c r="F14" s="71"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="42">
         <v>95</v>
       </c>
       <c r="J14" s="24" t="s">
@@ -15472,10 +15539,10 @@
       <c r="E15" s="38">
         <v>80</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="33">
+      <c r="F15" s="71"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="42">
         <v>96</v>
       </c>
       <c r="J15" s="24" t="s">
@@ -15515,10 +15582,10 @@
       <c r="E16" s="38">
         <v>20</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="33">
+      <c r="F16" s="71"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="42">
         <v>97</v>
       </c>
       <c r="J16" s="40" t="s">
@@ -15546,7 +15613,7 @@
       <c r="R16" s="37"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="76">
+      <c r="B17" s="75">
         <v>9</v>
       </c>
       <c r="C17" s="38" t="s">
@@ -15558,16 +15625,16 @@
       <c r="E17" s="38">
         <v>20</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="101">
+      <c r="F17" s="71"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="106">
         <v>98</v>
       </c>
       <c r="J17" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="K17" s="90" t="s">
+      <c r="K17" s="88" t="s">
         <v>525</v>
       </c>
       <c r="L17" s="49"/>
@@ -15586,7 +15653,7 @@
       <c r="Q17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="90"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="48">
@@ -15601,10 +15668,10 @@
       <c r="E18" s="38">
         <v>20</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="33">
+      <c r="F18" s="71"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="42">
         <v>100</v>
       </c>
       <c r="J18" s="24" t="s">
@@ -15644,10 +15711,10 @@
       <c r="E19" s="38">
         <v>50</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="33">
+      <c r="F19" s="71"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="42">
         <v>101</v>
       </c>
       <c r="J19" s="24" t="s">
@@ -15687,10 +15754,10 @@
       <c r="E20" s="38">
         <v>10</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="33">
+      <c r="F20" s="71"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="42">
         <v>103</v>
       </c>
       <c r="J20" s="24" t="s">
@@ -15715,10 +15782,10 @@
       <c r="Q20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="90"/>
+      <c r="R20" s="88"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="76">
+      <c r="B21" s="75">
         <v>13</v>
       </c>
       <c r="C21" s="38" t="s">
@@ -15730,10 +15797,10 @@
       <c r="E21" s="38">
         <v>6</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="33">
+      <c r="F21" s="71"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="42">
         <v>104</v>
       </c>
       <c r="J21" s="24" t="s">
@@ -15758,9 +15825,9 @@
       <c r="Q21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="90"/>
-    </row>
-    <row r="22" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="88"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="48">
         <v>14</v>
       </c>
@@ -15773,16 +15840,16 @@
       <c r="E22" s="38">
         <v>20</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="32">
+      <c r="F22" s="71"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="42">
         <v>105</v>
       </c>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="24" t="s">
         <v>751</v>
       </c>
-      <c r="K22" s="63" t="s">
+      <c r="K22" s="55" t="s">
         <v>752</v>
       </c>
       <c r="L22" s="49"/>
@@ -15816,9 +15883,19 @@
       <c r="E23" s="38">
         <v>10</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
-      <c r="L23" s="43"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="42">
+        <v>106</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>776</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>777</v>
+      </c>
+      <c r="L23" s="49"/>
       <c r="M23" s="48">
         <v>95</v>
       </c>
@@ -15836,7 +15913,7 @@
       </c>
       <c r="R23" s="37"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="48">
         <v>16</v>
       </c>
@@ -15849,9 +15926,19 @@
       <c r="E24" s="38">
         <v>10</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
-      <c r="L24" s="43"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="94">
+        <v>107</v>
+      </c>
+      <c r="J24" s="92" t="s">
+        <v>778</v>
+      </c>
+      <c r="K24" s="63" t="s">
+        <v>779</v>
+      </c>
+      <c r="L24" s="49"/>
       <c r="M24" s="48">
         <v>94</v>
       </c>
@@ -15870,7 +15957,7 @@
       <c r="R24" s="37"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="76">
+      <c r="B25" s="75">
         <v>17</v>
       </c>
       <c r="C25" s="38" t="s">
@@ -15882,8 +15969,8 @@
       <c r="E25" s="38">
         <v>15</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
       <c r="L25" s="43"/>
       <c r="M25" s="48">
         <v>95</v>
@@ -15915,8 +16002,8 @@
       <c r="E26" s="38">
         <v>15</v>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
       <c r="L26" s="43"/>
       <c r="M26" s="48">
         <v>94</v>
@@ -15948,8 +16035,8 @@
       <c r="E27" s="38">
         <v>20</v>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
       <c r="L27" s="43"/>
       <c r="M27" s="48">
         <v>95</v>
@@ -15981,8 +16068,8 @@
       <c r="E28" s="38">
         <v>50</v>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
       <c r="L28" s="43"/>
       <c r="M28" s="48">
         <v>94</v>
@@ -15999,10 +16086,10 @@
       <c r="Q28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R28" s="90"/>
+      <c r="R28" s="88"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="76">
+      <c r="B29" s="75">
         <v>21</v>
       </c>
       <c r="C29" s="38" t="s">
@@ -16014,8 +16101,8 @@
       <c r="E29" s="38">
         <v>50</v>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
       <c r="L29" s="43"/>
       <c r="M29" s="48">
         <v>95</v>
@@ -16047,8 +16134,8 @@
       <c r="E30" s="38">
         <v>5</v>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72"/>
       <c r="L30" s="43"/>
       <c r="M30" s="48">
         <v>94</v>
@@ -16080,8 +16167,8 @@
       <c r="E31" s="38">
         <v>200</v>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="73"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
       <c r="L31" s="43"/>
       <c r="M31" s="48">
         <v>95</v>
@@ -16098,7 +16185,7 @@
       <c r="Q31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="90"/>
+      <c r="R31" s="88"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="48">
@@ -16113,8 +16200,8 @@
       <c r="E32" s="38">
         <v>200</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="72"/>
       <c r="L32" s="43"/>
       <c r="M32" s="48">
         <v>94</v>
@@ -16131,10 +16218,10 @@
       <c r="Q32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="90"/>
+      <c r="R32" s="88"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="76">
+      <c r="B33" s="75">
         <v>25</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -16146,8 +16233,8 @@
       <c r="E33" s="38">
         <v>20</v>
       </c>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72"/>
       <c r="L33" s="43"/>
       <c r="M33" s="48">
         <v>95</v>
@@ -16176,11 +16263,11 @@
       <c r="D34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="135" t="s">
+      <c r="E34" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="73"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="72"/>
       <c r="L34" s="43"/>
       <c r="M34" s="48">
         <v>2</v>
@@ -16209,11 +16296,11 @@
       <c r="D35" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="135" t="s">
+      <c r="E35" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
       <c r="L35" s="43"/>
       <c r="M35" s="48">
         <v>95</v>
@@ -16242,11 +16329,11 @@
       <c r="D36" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="135" t="s">
+      <c r="E36" s="129" t="s">
         <v>762</v>
       </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="73"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="72"/>
       <c r="L36" s="43"/>
       <c r="M36" s="48">
         <v>95</v>
@@ -16266,7 +16353,7 @@
       <c r="R36" s="37"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="76">
+      <c r="B37" s="75">
         <v>29</v>
       </c>
       <c r="C37" s="38" t="s">
@@ -16275,11 +16362,11 @@
       <c r="D37" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="135" t="s">
+      <c r="E37" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F37" s="72"/>
-      <c r="G37" s="73"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="72"/>
       <c r="L37" s="43"/>
       <c r="M37" s="48">
         <v>95</v>
@@ -16308,11 +16395,11 @@
       <c r="D38" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="135" t="s">
+      <c r="E38" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F38" s="72"/>
-      <c r="G38" s="73"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72"/>
       <c r="L38" s="43"/>
       <c r="M38" s="48">
         <v>95</v>
@@ -16341,11 +16428,11 @@
       <c r="D39" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="135" t="s">
+      <c r="E39" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
       <c r="L39" s="43"/>
       <c r="M39" s="48">
         <v>95</v>
@@ -16362,7 +16449,7 @@
       <c r="Q39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="90"/>
+      <c r="R39" s="88"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="48">
@@ -16374,11 +16461,11 @@
       <c r="D40" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="135" t="s">
+      <c r="E40" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F40" s="72"/>
-      <c r="G40" s="73"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="72"/>
       <c r="L40" s="43"/>
       <c r="M40" s="48">
         <v>95</v>
@@ -16398,7 +16485,7 @@
       <c r="R40" s="37"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="76">
+      <c r="B41" s="75">
         <v>33</v>
       </c>
       <c r="C41" s="38" t="s">
@@ -16407,11 +16494,11 @@
       <c r="D41" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="135" t="s">
+      <c r="E41" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F41" s="72"/>
-      <c r="G41" s="73"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="72"/>
       <c r="L41" s="43"/>
       <c r="M41" s="48">
         <v>94</v>
@@ -16440,11 +16527,11 @@
       <c r="D42" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="135" t="s">
+      <c r="E42" s="129" t="s">
         <v>762</v>
       </c>
-      <c r="F42" s="72"/>
-      <c r="G42" s="73"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="72"/>
       <c r="L42" s="43"/>
       <c r="M42" s="48">
         <v>95</v>
@@ -16461,7 +16548,7 @@
       <c r="Q42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="90"/>
+      <c r="R42" s="88"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B43" s="48">
@@ -16473,11 +16560,11 @@
       <c r="D43" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="135" t="s">
+      <c r="E43" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F43" s="72"/>
-      <c r="G43" s="73"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="72"/>
       <c r="L43" s="43"/>
       <c r="M43" s="48">
         <v>95</v>
@@ -16494,7 +16581,7 @@
       <c r="Q43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="90"/>
+      <c r="R43" s="88"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B44" s="48">
@@ -16506,11 +16593,11 @@
       <c r="D44" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="135" t="s">
+      <c r="E44" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F44" s="72"/>
-      <c r="G44" s="73"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="72"/>
       <c r="L44" s="43"/>
       <c r="M44" s="48">
         <v>95</v>
@@ -16530,7 +16617,7 @@
       <c r="R44" s="37"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="76">
+      <c r="B45" s="75">
         <v>37</v>
       </c>
       <c r="C45" s="38" t="s">
@@ -16539,11 +16626,11 @@
       <c r="D45" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="135" t="s">
+      <c r="E45" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F45" s="72"/>
-      <c r="G45" s="73"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="72"/>
       <c r="L45" s="43"/>
       <c r="M45" s="48">
         <v>95</v>
@@ -16572,11 +16659,11 @@
       <c r="D46" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="135" t="s">
+      <c r="E46" s="129" t="s">
         <v>764</v>
       </c>
-      <c r="F46" s="72"/>
-      <c r="G46" s="73"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="72"/>
       <c r="L46" s="43"/>
       <c r="M46" s="48">
         <v>95</v>
@@ -16605,11 +16692,11 @@
       <c r="D47" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="135" t="s">
+      <c r="E47" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F47" s="72"/>
-      <c r="G47" s="73"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72"/>
       <c r="L47" s="43"/>
       <c r="M47" s="48">
         <v>95</v>
@@ -16638,11 +16725,11 @@
       <c r="D48" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="135" t="s">
+      <c r="E48" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F48" s="72"/>
-      <c r="G48" s="73"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="72"/>
       <c r="L48" s="43"/>
       <c r="M48" s="48">
         <v>95</v>
@@ -16662,7 +16749,7 @@
       <c r="R48" s="37"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="76">
+      <c r="B49" s="75">
         <v>41</v>
       </c>
       <c r="C49" s="38" t="s">
@@ -16671,11 +16758,11 @@
       <c r="D49" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="135" t="s">
+      <c r="E49" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F49" s="72"/>
-      <c r="G49" s="73"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72"/>
       <c r="L49" s="43"/>
       <c r="M49" s="48">
         <v>95</v>
@@ -16704,11 +16791,11 @@
       <c r="D50" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="135" t="s">
+      <c r="E50" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F50" s="72"/>
-      <c r="G50" s="73"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="72"/>
       <c r="L50" s="43"/>
       <c r="M50" s="48">
         <v>95</v>
@@ -16725,7 +16812,7 @@
       <c r="Q50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="90"/>
+      <c r="R50" s="88"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="48">
@@ -16737,11 +16824,11 @@
       <c r="D51" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="135" t="s">
+      <c r="E51" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F51" s="72"/>
-      <c r="G51" s="73"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="72"/>
       <c r="L51" s="43"/>
       <c r="M51" s="48">
         <v>87</v>
@@ -16770,31 +16857,31 @@
       <c r="D52" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="135" t="s">
+      <c r="E52" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F52" s="72"/>
-      <c r="G52" s="73"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="72"/>
       <c r="L52" s="43"/>
       <c r="M52" s="59">
-        <v>95</v>
-      </c>
-      <c r="N52" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="N52" s="110" t="s">
         <v>307</v>
       </c>
-      <c r="O52" s="113" t="s">
+      <c r="O52" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="113" t="s">
+      <c r="P52" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="Q52" s="113" t="s">
+      <c r="Q52" s="110" t="s">
         <v>20</v>
       </c>
       <c r="R52" s="60"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="76">
+      <c r="B53" s="75">
         <v>45</v>
       </c>
       <c r="C53" s="38" t="s">
@@ -16803,11 +16890,11 @@
       <c r="D53" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="135" t="s">
+      <c r="E53" s="129" t="s">
         <v>765</v>
       </c>
-      <c r="F53" s="72"/>
-      <c r="G53" s="73"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="72"/>
       <c r="L53" s="43"/>
       <c r="M53" s="48">
         <v>95</v>
@@ -16824,7 +16911,7 @@
       <c r="Q53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="90"/>
+      <c r="R53" s="88"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="48">
@@ -16836,11 +16923,11 @@
       <c r="D54" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="135" t="s">
+      <c r="E54" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F54" s="72"/>
-      <c r="G54" s="73"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="72"/>
       <c r="L54" s="43"/>
       <c r="M54" s="48">
         <v>94</v>
@@ -16857,7 +16944,7 @@
       <c r="Q54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R54" s="90"/>
+      <c r="R54" s="88"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B55" s="48">
@@ -16869,13 +16956,13 @@
       <c r="D55" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="135" t="s">
+      <c r="E55" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F55" s="72"/>
-      <c r="G55" s="73"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="72"/>
       <c r="L55" s="43"/>
-      <c r="M55" s="101">
+      <c r="M55" s="98">
         <v>14</v>
       </c>
       <c r="N55" s="31" t="s">
@@ -16902,11 +16989,11 @@
       <c r="D56" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="135" t="s">
+      <c r="E56" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F56" s="72"/>
-      <c r="G56" s="73"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72"/>
       <c r="L56" s="43"/>
       <c r="M56" s="48">
         <v>95</v>
@@ -16926,7 +17013,7 @@
       <c r="R56" s="37"/>
     </row>
     <row r="57" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="76">
+      <c r="B57" s="75">
         <v>49</v>
       </c>
       <c r="C57" s="38" t="s">
@@ -16935,28 +17022,28 @@
       <c r="D57" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="135" t="s">
+      <c r="E57" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F57" s="72"/>
-      <c r="G57" s="73"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="72"/>
       <c r="L57" s="44"/>
-      <c r="M57" s="102">
+      <c r="M57" s="99">
         <v>95</v>
       </c>
-      <c r="N57" s="93" t="s">
+      <c r="N57" s="91" t="s">
         <v>307</v>
       </c>
-      <c r="O57" s="93" t="s">
+      <c r="O57" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="P57" s="93" t="s">
+      <c r="P57" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="Q57" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="80"/>
+      <c r="Q57" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="78"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" s="48">
@@ -16968,28 +17055,28 @@
       <c r="D58" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="135" t="s">
+      <c r="E58" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F58" s="72"/>
-      <c r="G58" s="73"/>
-      <c r="L58" s="92"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="72"/>
+      <c r="L58" s="90"/>
       <c r="M58" s="57">
         <v>90</v>
       </c>
-      <c r="N58" s="105" t="s">
+      <c r="N58" s="102" t="s">
         <v>731</v>
       </c>
-      <c r="O58" s="105" t="s">
+      <c r="O58" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="P58" s="105" t="s">
+      <c r="P58" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="105" t="s">
+      <c r="Q58" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="R58" s="91" t="s">
+      <c r="R58" s="89" t="s">
         <v>178</v>
       </c>
     </row>
@@ -17003,12 +17090,12 @@
       <c r="D59" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="135" t="s">
+      <c r="E59" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F59" s="72"/>
-      <c r="G59" s="73"/>
-      <c r="L59" s="86"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="72"/>
+      <c r="L59" s="84"/>
       <c r="M59" s="33">
         <v>94</v>
       </c>
@@ -17036,12 +17123,12 @@
       <c r="D60" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="135" t="s">
+      <c r="E60" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F60" s="72"/>
-      <c r="G60" s="73"/>
-      <c r="L60" s="86"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="72"/>
+      <c r="L60" s="84"/>
       <c r="M60" s="33">
         <v>95</v>
       </c>
@@ -17060,7 +17147,7 @@
       <c r="R60" s="34"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="76">
+      <c r="B61" s="75">
         <v>53</v>
       </c>
       <c r="C61" s="38" t="s">
@@ -17069,12 +17156,12 @@
       <c r="D61" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="135" t="s">
+      <c r="E61" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F61" s="72"/>
-      <c r="G61" s="73"/>
-      <c r="L61" s="86"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="72"/>
+      <c r="L61" s="84"/>
       <c r="M61" s="33">
         <v>94</v>
       </c>
@@ -17102,12 +17189,12 @@
       <c r="D62" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="135" t="s">
+      <c r="E62" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F62" s="72"/>
-      <c r="G62" s="73"/>
-      <c r="L62" s="86"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="72"/>
+      <c r="L62" s="84"/>
       <c r="M62" s="33">
         <v>95</v>
       </c>
@@ -17135,12 +17222,12 @@
       <c r="D63" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="135" t="s">
+      <c r="E63" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F63" s="72"/>
-      <c r="G63" s="73"/>
-      <c r="L63" s="86"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="72"/>
+      <c r="L63" s="84"/>
       <c r="M63" s="33">
         <v>94</v>
       </c>
@@ -17168,12 +17255,12 @@
       <c r="D64" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E64" s="135" t="s">
+      <c r="E64" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F64" s="72"/>
-      <c r="G64" s="73"/>
-      <c r="L64" s="86"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="72"/>
+      <c r="L64" s="84"/>
       <c r="M64" s="33">
         <v>95</v>
       </c>
@@ -17192,7 +17279,7 @@
       <c r="R64" s="34"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="76">
+      <c r="B65" s="75">
         <v>57</v>
       </c>
       <c r="C65" s="38" t="s">
@@ -17201,12 +17288,12 @@
       <c r="D65" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="135" t="s">
+      <c r="E65" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F65" s="72"/>
-      <c r="G65" s="73"/>
-      <c r="L65" s="86"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="72"/>
+      <c r="L65" s="84"/>
       <c r="M65" s="33">
         <v>100</v>
       </c>
@@ -17234,12 +17321,12 @@
       <c r="D66" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="135" t="s">
+      <c r="E66" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F66" s="72"/>
-      <c r="G66" s="73"/>
-      <c r="L66" s="86"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="72"/>
+      <c r="L66" s="84"/>
       <c r="M66" s="33">
         <v>95</v>
       </c>
@@ -17267,12 +17354,12 @@
       <c r="D67" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="135" t="s">
+      <c r="E67" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F67" s="72"/>
-      <c r="G67" s="73"/>
-      <c r="L67" s="86"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="72"/>
+      <c r="L67" s="84"/>
       <c r="M67" s="33">
         <v>94</v>
       </c>
@@ -17300,12 +17387,12 @@
       <c r="D68" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E68" s="135" t="s">
+      <c r="E68" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
-      <c r="L68" s="86"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="72"/>
+      <c r="L68" s="84"/>
       <c r="M68" s="33">
         <v>95</v>
       </c>
@@ -17324,7 +17411,7 @@
       <c r="R68" s="34"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="76">
+      <c r="B69" s="75">
         <v>61</v>
       </c>
       <c r="C69" s="38" t="s">
@@ -17333,12 +17420,12 @@
       <c r="D69" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E69" s="135" t="s">
+      <c r="E69" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F69" s="72"/>
-      <c r="G69" s="73"/>
-      <c r="L69" s="86"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="72"/>
+      <c r="L69" s="84"/>
       <c r="M69" s="33">
         <v>94</v>
       </c>
@@ -17366,12 +17453,12 @@
       <c r="D70" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="135" t="s">
+      <c r="E70" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F70" s="72"/>
-      <c r="G70" s="73"/>
-      <c r="L70" s="86"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="72"/>
+      <c r="L70" s="84"/>
       <c r="M70" s="33">
         <v>95</v>
       </c>
@@ -17399,12 +17486,12 @@
       <c r="D71" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="135" t="s">
+      <c r="E71" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F71" s="72"/>
-      <c r="G71" s="73"/>
-      <c r="L71" s="86"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="72"/>
+      <c r="L71" s="84"/>
       <c r="M71" s="33">
         <v>101</v>
       </c>
@@ -17432,12 +17519,12 @@
       <c r="D72" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="135" t="s">
+      <c r="E72" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F72" s="72"/>
-      <c r="G72" s="73"/>
-      <c r="L72" s="86"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="72"/>
+      <c r="L72" s="84"/>
       <c r="M72" s="33">
         <v>95</v>
       </c>
@@ -17456,7 +17543,7 @@
       <c r="R72" s="34"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="76">
+      <c r="B73" s="75">
         <v>65</v>
       </c>
       <c r="C73" s="38" t="s">
@@ -17465,12 +17552,12 @@
       <c r="D73" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="135" t="s">
+      <c r="E73" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F73" s="72"/>
-      <c r="G73" s="73"/>
-      <c r="L73" s="86"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="72"/>
+      <c r="L73" s="84"/>
       <c r="M73" s="33">
         <v>94</v>
       </c>
@@ -17498,12 +17585,12 @@
       <c r="D74" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="135" t="s">
+      <c r="E74" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F74" s="72"/>
-      <c r="G74" s="73"/>
-      <c r="L74" s="86"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="72"/>
+      <c r="L74" s="84"/>
       <c r="M74" s="33">
         <v>95</v>
       </c>
@@ -17531,13 +17618,13 @@
       <c r="D75" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="135" t="s">
+      <c r="E75" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F75" s="72"/>
-      <c r="G75" s="73"/>
-      <c r="L75" s="86"/>
-      <c r="M75" s="101">
+      <c r="F75" s="71"/>
+      <c r="G75" s="72"/>
+      <c r="L75" s="84"/>
+      <c r="M75" s="98">
         <v>104</v>
       </c>
       <c r="N75" s="31" t="s">
@@ -17564,12 +17651,12 @@
       <c r="D76" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E76" s="135" t="s">
+      <c r="E76" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F76" s="72"/>
-      <c r="G76" s="73"/>
-      <c r="L76" s="86"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="72"/>
+      <c r="L76" s="84"/>
       <c r="M76" s="33">
         <v>95</v>
       </c>
@@ -17588,7 +17675,7 @@
       <c r="R76" s="34"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="76">
+      <c r="B77" s="75">
         <v>69</v>
       </c>
       <c r="C77" s="38" t="s">
@@ -17597,12 +17684,12 @@
       <c r="D77" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="135" t="s">
+      <c r="E77" s="129" t="s">
         <v>763</v>
       </c>
-      <c r="F77" s="72"/>
-      <c r="G77" s="73"/>
-      <c r="L77" s="86"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="72"/>
+      <c r="L77" s="84"/>
       <c r="M77" s="33">
         <v>94</v>
       </c>
@@ -17630,12 +17717,12 @@
       <c r="D78" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="135" t="s">
+      <c r="E78" s="129" t="s">
         <v>765</v>
       </c>
-      <c r="F78" s="72"/>
-      <c r="G78" s="73"/>
-      <c r="L78" s="86"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="72"/>
+      <c r="L78" s="84"/>
       <c r="M78" s="33">
         <v>95</v>
       </c>
@@ -17663,13 +17750,13 @@
       <c r="D79" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E79" s="135" t="s">
+      <c r="E79" s="129" t="s">
         <v>765</v>
       </c>
-      <c r="F79" s="72"/>
-      <c r="G79" s="73"/>
-      <c r="L79" s="86"/>
-      <c r="M79" s="101">
+      <c r="F79" s="71"/>
+      <c r="G79" s="72"/>
+      <c r="L79" s="84"/>
+      <c r="M79" s="98">
         <v>98</v>
       </c>
       <c r="N79" s="31" t="s">
@@ -17696,12 +17783,12 @@
       <c r="D80" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="135" t="s">
+      <c r="E80" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F80" s="72"/>
-      <c r="G80" s="73"/>
-      <c r="L80" s="86"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="72"/>
+      <c r="L80" s="84"/>
       <c r="M80" s="33">
         <v>89</v>
       </c>
@@ -17720,7 +17807,7 @@
       <c r="R80" s="34"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B81" s="76">
+      <c r="B81" s="75">
         <v>73</v>
       </c>
       <c r="C81" s="38" t="s">
@@ -17729,12 +17816,12 @@
       <c r="D81" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E81" s="135" t="s">
+      <c r="E81" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F81" s="72"/>
-      <c r="G81" s="73"/>
-      <c r="L81" s="86"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="72"/>
+      <c r="L81" s="84"/>
       <c r="M81" s="33">
         <v>94</v>
       </c>
@@ -17762,12 +17849,12 @@
       <c r="D82" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="135" t="s">
+      <c r="E82" s="129" t="s">
         <v>762</v>
       </c>
-      <c r="F82" s="72"/>
-      <c r="G82" s="73"/>
-      <c r="L82" s="86"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="72"/>
+      <c r="L82" s="84"/>
       <c r="M82" s="33">
         <v>95</v>
       </c>
@@ -17795,12 +17882,12 @@
       <c r="D83" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="135" t="s">
+      <c r="E83" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F83" s="72"/>
-      <c r="G83" s="73"/>
-      <c r="L83" s="86"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="72"/>
+      <c r="L83" s="84"/>
       <c r="M83" s="33">
         <v>94</v>
       </c>
@@ -17828,12 +17915,12 @@
       <c r="D84" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="135" t="s">
+      <c r="E84" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F84" s="72"/>
-      <c r="G84" s="73"/>
-      <c r="L84" s="86"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="72"/>
+      <c r="L84" s="84"/>
       <c r="M84" s="33">
         <v>95</v>
       </c>
@@ -17852,7 +17939,7 @@
       <c r="R84" s="34"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="76">
+      <c r="B85" s="75">
         <v>77</v>
       </c>
       <c r="C85" s="38" t="s">
@@ -17861,12 +17948,12 @@
       <c r="D85" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="135" t="s">
+      <c r="E85" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F85" s="72"/>
-      <c r="G85" s="73"/>
-      <c r="L85" s="86"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="72"/>
+      <c r="L85" s="84"/>
       <c r="M85" s="48">
         <v>105</v>
       </c>
@@ -17897,9 +17984,9 @@
       <c r="E86" s="38">
         <v>7</v>
       </c>
-      <c r="F86" s="72"/>
-      <c r="G86" s="73"/>
-      <c r="L86" s="86"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="72"/>
+      <c r="L86" s="84"/>
       <c r="M86" s="33">
         <v>95</v>
       </c>
@@ -17930,9 +18017,9 @@
       <c r="E87" s="38">
         <v>7</v>
       </c>
-      <c r="F87" s="72"/>
-      <c r="G87" s="73"/>
-      <c r="L87" s="86"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="72"/>
+      <c r="L87" s="84"/>
       <c r="M87" s="33">
         <v>94</v>
       </c>
@@ -17963,9 +18050,9 @@
       <c r="E88" s="38">
         <v>7</v>
       </c>
-      <c r="F88" s="72"/>
-      <c r="G88" s="73"/>
-      <c r="L88" s="86"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="72"/>
+      <c r="L88" s="84"/>
       <c r="M88" s="33">
         <v>95</v>
       </c>
@@ -17984,7 +18071,7 @@
       <c r="R88" s="34"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="76">
+      <c r="B89" s="75">
         <v>81</v>
       </c>
       <c r="C89" s="38" t="s">
@@ -17996,9 +18083,9 @@
       <c r="E89" s="38">
         <v>7</v>
       </c>
-      <c r="F89" s="72"/>
-      <c r="G89" s="73"/>
-      <c r="L89" s="86"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="72"/>
+      <c r="L89" s="84"/>
       <c r="M89" s="33">
         <v>95</v>
       </c>
@@ -18029,9 +18116,9 @@
       <c r="E90" s="38">
         <v>7</v>
       </c>
-      <c r="F90" s="72"/>
-      <c r="G90" s="73"/>
-      <c r="L90" s="86"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="72"/>
+      <c r="L90" s="84"/>
       <c r="M90" s="33">
         <v>95</v>
       </c>
@@ -18062,9 +18149,9 @@
       <c r="E91" s="38">
         <v>7</v>
       </c>
-      <c r="F91" s="72"/>
-      <c r="G91" s="73"/>
-      <c r="L91" s="86"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="72"/>
+      <c r="L91" s="84"/>
       <c r="M91" s="33">
         <v>95</v>
       </c>
@@ -18095,9 +18182,9 @@
       <c r="E92" s="38">
         <v>7</v>
       </c>
-      <c r="F92" s="72"/>
-      <c r="G92" s="73"/>
-      <c r="L92" s="86"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="72"/>
+      <c r="L92" s="84"/>
       <c r="M92" s="33">
         <v>94</v>
       </c>
@@ -18116,7 +18203,7 @@
       <c r="R92" s="34"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="76">
+      <c r="B93" s="75">
         <v>85</v>
       </c>
       <c r="C93" s="38" t="s">
@@ -18128,9 +18215,9 @@
       <c r="E93" s="38">
         <v>7</v>
       </c>
-      <c r="F93" s="72"/>
-      <c r="G93" s="73"/>
-      <c r="L93" s="86"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="72"/>
+      <c r="L93" s="84"/>
       <c r="M93" s="33">
         <v>95</v>
       </c>
@@ -18161,9 +18248,9 @@
       <c r="E94" s="38">
         <v>7</v>
       </c>
-      <c r="F94" s="72"/>
-      <c r="G94" s="73"/>
-      <c r="L94" s="86"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="72"/>
+      <c r="L94" s="84"/>
       <c r="M94" s="33">
         <v>95</v>
       </c>
@@ -18194,10 +18281,10 @@
       <c r="E95" s="38">
         <v>7</v>
       </c>
-      <c r="F95" s="72"/>
-      <c r="G95" s="73"/>
-      <c r="L95" s="86"/>
-      <c r="M95" s="76">
+      <c r="F95" s="71"/>
+      <c r="G95" s="72"/>
+      <c r="L95" s="84"/>
+      <c r="M95" s="75">
         <v>81</v>
       </c>
       <c r="N95" s="31" t="s">
@@ -18227,9 +18314,9 @@
       <c r="E96" s="38">
         <v>7</v>
       </c>
-      <c r="F96" s="72"/>
-      <c r="G96" s="73"/>
-      <c r="L96" s="86"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="72"/>
+      <c r="L96" s="84"/>
       <c r="M96" s="33">
         <v>95</v>
       </c>
@@ -18260,9 +18347,9 @@
       <c r="E97" s="54">
         <v>7</v>
       </c>
-      <c r="F97" s="74"/>
-      <c r="G97" s="75"/>
-      <c r="L97" s="86"/>
+      <c r="F97" s="73"/>
+      <c r="G97" s="74"/>
+      <c r="L97" s="84"/>
       <c r="M97" s="33">
         <v>95</v>
       </c>
@@ -18281,7 +18368,7 @@
       <c r="R97" s="34"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L98" s="86"/>
+      <c r="L98" s="84"/>
       <c r="M98" s="33">
         <v>95</v>
       </c>
@@ -18300,7 +18387,7 @@
       <c r="R98" s="34"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L99" s="86"/>
+      <c r="L99" s="84"/>
       <c r="M99" s="33">
         <v>3</v>
       </c>
@@ -18319,7 +18406,7 @@
       <c r="R99" s="34"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L100" s="86"/>
+      <c r="L100" s="84"/>
       <c r="M100" s="33">
         <v>94</v>
       </c>
@@ -18338,7 +18425,7 @@
       <c r="R100" s="34"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L101" s="86"/>
+      <c r="L101" s="84"/>
       <c r="M101" s="33">
         <v>103</v>
       </c>
@@ -18357,7 +18444,7 @@
       <c r="R101" s="34"/>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L102" s="86"/>
+      <c r="L102" s="84"/>
       <c r="M102" s="33">
         <v>1</v>
       </c>
@@ -18376,7 +18463,7 @@
       <c r="R102" s="34"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L103" s="86"/>
+      <c r="L103" s="84"/>
       <c r="M103" s="33">
         <v>95</v>
       </c>
@@ -18395,7 +18482,7 @@
       <c r="R103" s="34"/>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L104" s="86"/>
+      <c r="L104" s="84"/>
       <c r="M104" s="33">
         <v>48</v>
       </c>
@@ -18414,7 +18501,7 @@
       <c r="R104" s="34"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L105" s="86"/>
+      <c r="L105" s="84"/>
       <c r="M105" s="33">
         <v>94</v>
       </c>
@@ -18433,7 +18520,7 @@
       <c r="R105" s="34"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L106" s="86"/>
+      <c r="L106" s="84"/>
       <c r="M106" s="33">
         <v>95</v>
       </c>
@@ -18452,7 +18539,7 @@
       <c r="R106" s="34"/>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L107" s="86"/>
+      <c r="L107" s="84"/>
       <c r="M107" s="33">
         <v>95</v>
       </c>
@@ -18471,7 +18558,7 @@
       <c r="R107" s="34"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L108" s="86"/>
+      <c r="L108" s="84"/>
       <c r="M108" s="33">
         <v>95</v>
       </c>
@@ -18490,7 +18577,7 @@
       <c r="R108" s="34"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L109" s="86"/>
+      <c r="L109" s="84"/>
       <c r="M109" s="33">
         <v>95</v>
       </c>
@@ -18509,7 +18596,7 @@
       <c r="R109" s="34"/>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L110" s="86"/>
+      <c r="L110" s="84"/>
       <c r="M110" s="33">
         <v>94</v>
       </c>
@@ -18528,7 +18615,7 @@
       <c r="R110" s="34"/>
     </row>
     <row r="111" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L111" s="87"/>
+      <c r="L111" s="85"/>
       <c r="M111" s="32">
         <v>71</v>
       </c>
@@ -18538,32 +18625,32 @@
       <c r="O111" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="P111" s="119" t="s">
+      <c r="P111" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="Q111" s="119" t="s">
+      <c r="Q111" s="115" t="s">
         <v>20</v>
       </c>
       <c r="R111" s="35"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L112" s="83"/>
-      <c r="M112" s="129">
+      <c r="L112" s="81"/>
+      <c r="M112" s="125">
         <v>90</v>
       </c>
-      <c r="N112" s="120" t="s">
+      <c r="N112" s="116" t="s">
         <v>521</v>
       </c>
-      <c r="O112" s="120" t="s">
+      <c r="O112" s="116" t="s">
         <v>497</v>
       </c>
-      <c r="P112" s="120" t="s">
+      <c r="P112" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="Q112" s="120" t="s">
+      <c r="Q112" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="R112" s="130"/>
+      <c r="R112" s="126"/>
     </row>
     <row r="113" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L113" s="43"/>
@@ -18624,7 +18711,7 @@
     </row>
     <row r="116" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L116" s="43"/>
-      <c r="M116" s="101">
+      <c r="M116" s="98">
         <v>98</v>
       </c>
       <c r="N116" s="31" t="s">
@@ -19004,8 +19091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14:O45"/>
+    <sheetView topLeftCell="G14" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19044,28 +19131,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="137" t="s">
         <v>595</v>
       </c>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="69"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
         <v>44</v>
       </c>
@@ -19076,13 +19163,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="150"/>
-      <c r="F4" s="151"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="45" t="s">
         <v>45</v>
       </c>
@@ -19093,11 +19180,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="151"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -19109,29 +19196,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="154" t="s">
+      <c r="I7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="157" t="s">
+      <c r="M7" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="158"/>
-      <c r="R7" s="159"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="153"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -19163,22 +19250,22 @@
         <v>11</v>
       </c>
       <c r="L8" s="12"/>
-      <c r="M8" s="116" t="s">
+      <c r="M8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="117" t="s">
+      <c r="N8" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="117" t="s">
+      <c r="O8" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="P8" s="117" t="s">
+      <c r="P8" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="117" t="s">
+      <c r="Q8" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="118" t="s">
+      <c r="R8" s="114" t="s">
         <v>28</v>
       </c>
     </row>
@@ -19196,9 +19283,9 @@
         <v>15</v>
       </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="57">
+      <c r="G9" s="62"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="93">
         <v>22</v>
       </c>
       <c r="J9" s="23" t="s">
@@ -19211,16 +19298,16 @@
       <c r="M9" s="36">
         <v>22</v>
       </c>
-      <c r="N9" s="105" t="s">
+      <c r="N9" s="102" t="s">
         <v>550</v>
       </c>
-      <c r="O9" s="105" t="s">
+      <c r="O9" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="105" t="s">
+      <c r="P9" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="105" t="s">
+      <c r="Q9" s="102" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="41" t="s">
@@ -19241,19 +19328,19 @@
         <v>15</v>
       </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="101">
+      <c r="G10" s="70"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="106">
         <v>23</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="K10" s="90" t="s">
+      <c r="K10" s="88" t="s">
         <v>588</v>
       </c>
       <c r="L10" s="56"/>
-      <c r="M10" s="101">
+      <c r="M10" s="98">
         <v>23</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -19268,7 +19355,7 @@
       <c r="Q10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="90"/>
+      <c r="R10" s="88"/>
     </row>
     <row r="11" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="48">
@@ -19284,9 +19371,9 @@
         <v>20</v>
       </c>
       <c r="F11" s="61"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="33">
+      <c r="G11" s="70"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="42">
         <v>24</v>
       </c>
       <c r="J11" s="24" t="s">
@@ -19295,8 +19382,8 @@
       <c r="K11" s="55" t="s">
         <v>581</v>
       </c>
-      <c r="L11" s="122"/>
-      <c r="M11" s="106">
+      <c r="L11" s="118"/>
+      <c r="M11" s="103">
         <v>21</v>
       </c>
       <c r="N11" s="39" t="s">
@@ -19311,7 +19398,7 @@
       <c r="Q11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="107"/>
+      <c r="R11" s="104"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="48">
@@ -19327,9 +19414,9 @@
         <v>20</v>
       </c>
       <c r="F12" s="61"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="33">
+      <c r="G12" s="70"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="42">
         <v>25</v>
       </c>
       <c r="J12" s="28" t="s">
@@ -19338,20 +19425,20 @@
       <c r="K12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="123"/>
+      <c r="L12" s="119"/>
       <c r="M12" s="47">
         <v>22</v>
       </c>
-      <c r="N12" s="105" t="s">
+      <c r="N12" s="102" t="s">
         <v>552</v>
       </c>
-      <c r="O12" s="105" t="s">
+      <c r="O12" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="P12" s="105" t="s">
+      <c r="P12" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="105" t="s">
+      <c r="Q12" s="102" t="s">
         <v>17</v>
       </c>
       <c r="R12" s="41" t="s">
@@ -19359,7 +19446,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="76">
+      <c r="B13" s="75">
         <v>5</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -19368,13 +19455,13 @@
       <c r="D13" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="135" t="s">
+      <c r="E13" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="33">
+      <c r="F13" s="76"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="42">
         <v>26</v>
       </c>
       <c r="J13" s="24" t="s">
@@ -19384,22 +19471,22 @@
         <v>39</v>
       </c>
       <c r="L13" s="49"/>
-      <c r="M13" s="102">
+      <c r="M13" s="99">
         <v>7</v>
       </c>
-      <c r="N13" s="93" t="s">
+      <c r="N13" s="91" t="s">
         <v>552</v>
       </c>
-      <c r="O13" s="93" t="s">
+      <c r="O13" s="91" t="s">
         <v>292</v>
       </c>
-      <c r="P13" s="93" t="s">
+      <c r="P13" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="80"/>
+      <c r="Q13" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="78"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="48">
@@ -19411,35 +19498,35 @@
       <c r="D14" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="135" t="s">
+      <c r="E14" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="33">
+      <c r="F14" s="71"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="42">
         <v>27</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="55" t="s">
         <v>589</v>
       </c>
-      <c r="L14" s="83"/>
-      <c r="M14" s="136">
+      <c r="L14" s="155"/>
+      <c r="M14" s="130">
         <v>22</v>
       </c>
-      <c r="N14" s="105" t="s">
+      <c r="N14" s="102" t="s">
         <v>579</v>
       </c>
-      <c r="O14" s="105" t="s">
+      <c r="O14" s="102" t="s">
         <v>553</v>
       </c>
-      <c r="P14" s="105" t="s">
+      <c r="P14" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="105" t="s">
+      <c r="Q14" s="102" t="s">
         <v>17</v>
       </c>
       <c r="R14" s="41" t="s">
@@ -19456,23 +19543,23 @@
       <c r="D15" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="135" t="s">
+      <c r="E15" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="33">
+      <c r="F15" s="71"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="42">
         <v>28</v>
       </c>
       <c r="J15" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="66" t="s">
+      <c r="K15" s="55" t="s">
         <v>590</v>
       </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="110">
+      <c r="L15" s="49"/>
+      <c r="M15" s="107">
         <v>25</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -19499,23 +19586,23 @@
       <c r="D16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="135" t="s">
+      <c r="E16" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="33">
+      <c r="F16" s="71"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="42">
         <v>29</v>
       </c>
       <c r="J16" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="65" t="s">
+      <c r="K16" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="110">
+      <c r="L16" s="49"/>
+      <c r="M16" s="107">
         <v>24</v>
       </c>
       <c r="N16" s="31" t="s">
@@ -19533,7 +19620,7 @@
       <c r="R16" s="37"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="76">
+      <c r="B17" s="75">
         <v>9</v>
       </c>
       <c r="C17" s="38" t="s">
@@ -19542,23 +19629,23 @@
       <c r="D17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="135" t="s">
+      <c r="E17" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="33">
+      <c r="F17" s="71"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="42">
         <v>30</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="65" t="s">
+      <c r="K17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="110">
+      <c r="L17" s="49"/>
+      <c r="M17" s="107">
         <v>27</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -19573,7 +19660,7 @@
       <c r="Q17" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="R17" s="90" t="s">
+      <c r="R17" s="88" t="s">
         <v>178</v>
       </c>
     </row>
@@ -19587,23 +19674,23 @@
       <c r="D18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="33">
+      <c r="F18" s="71"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="42">
         <v>32</v>
       </c>
       <c r="J18" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="K18" s="66" t="s">
+      <c r="K18" s="55" t="s">
         <v>591</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="110">
+      <c r="L18" s="49"/>
+      <c r="M18" s="107">
         <v>28</v>
       </c>
       <c r="N18" s="31" t="s">
@@ -19630,23 +19717,23 @@
       <c r="D19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="135" t="s">
+      <c r="E19" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="33">
+      <c r="F19" s="71"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="42">
         <v>33</v>
       </c>
       <c r="J19" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="K19" s="66" t="s">
+      <c r="K19" s="55" t="s">
         <v>592</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="110">
+      <c r="L19" s="49"/>
+      <c r="M19" s="107">
         <v>30</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -19661,7 +19748,7 @@
       <c r="Q19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="90"/>
+      <c r="R19" s="88"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="48">
@@ -19673,23 +19760,23 @@
       <c r="D20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="135" t="s">
+      <c r="E20" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="33">
+      <c r="F20" s="71"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="42">
         <v>34</v>
       </c>
       <c r="J20" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="K20" s="66" t="s">
+      <c r="K20" s="55" t="s">
         <v>593</v>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="110">
+      <c r="L20" s="49"/>
+      <c r="M20" s="107">
         <v>29</v>
       </c>
       <c r="N20" s="31" t="s">
@@ -19704,9 +19791,9 @@
       <c r="Q20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="90"/>
-    </row>
-    <row r="21" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="88"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="48">
         <v>13</v>
       </c>
@@ -19716,23 +19803,23 @@
       <c r="D21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="135" t="s">
+      <c r="E21" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="32">
+      <c r="F21" s="71"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="42">
         <v>35</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="K21" s="67" t="s">
+      <c r="K21" s="55" t="s">
         <v>594</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="110">
+      <c r="L21" s="49"/>
+      <c r="M21" s="107">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -19750,7 +19837,7 @@
       <c r="R21" s="37"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="76">
+      <c r="B22" s="75">
         <v>14</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -19759,13 +19846,23 @@
       <c r="D22" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="135" t="s">
+      <c r="E22" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="110">
+      <c r="F22" s="71"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="42">
+        <v>36</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>776</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>777</v>
+      </c>
+      <c r="L22" s="49"/>
+      <c r="M22" s="107">
         <v>25</v>
       </c>
       <c r="N22" s="31" t="s">
@@ -19782,7 +19879,7 @@
       </c>
       <c r="R22" s="37"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="48">
         <v>15</v>
       </c>
@@ -19792,13 +19889,23 @@
       <c r="D23" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="135" t="s">
+      <c r="E23" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="110">
+      <c r="F23" s="71"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="94">
+        <v>37</v>
+      </c>
+      <c r="J23" s="92" t="s">
+        <v>778</v>
+      </c>
+      <c r="K23" s="63" t="s">
+        <v>779</v>
+      </c>
+      <c r="L23" s="49"/>
+      <c r="M23" s="107">
         <v>25</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -19825,13 +19932,13 @@
       <c r="D24" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="135" t="s">
+      <c r="E24" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
       <c r="L24" s="43"/>
-      <c r="M24" s="110">
+      <c r="M24" s="107">
         <v>26</v>
       </c>
       <c r="N24" s="31" t="s">
@@ -19858,25 +19965,25 @@
       <c r="D25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="135" t="s">
+      <c r="E25" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
       <c r="L25" s="43"/>
-      <c r="M25" s="137">
-        <v>26</v>
-      </c>
-      <c r="N25" s="113" t="s">
+      <c r="M25" s="131">
+        <v>37</v>
+      </c>
+      <c r="N25" s="110" t="s">
         <v>579</v>
       </c>
-      <c r="O25" s="113" t="s">
+      <c r="O25" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="113" t="s">
+      <c r="P25" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="113" t="s">
+      <c r="Q25" s="110" t="s">
         <v>20</v>
       </c>
       <c r="R25" s="60"/>
@@ -19891,13 +19998,13 @@
       <c r="D26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="135" t="s">
+      <c r="E26" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
       <c r="L26" s="43"/>
-      <c r="M26" s="110">
+      <c r="M26" s="107">
         <v>26</v>
       </c>
       <c r="N26" s="31" t="s">
@@ -19915,7 +20022,7 @@
       <c r="R26" s="37"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="76">
+      <c r="B27" s="75">
         <v>19</v>
       </c>
       <c r="C27" s="38" t="s">
@@ -19924,13 +20031,13 @@
       <c r="D27" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="135" t="s">
+      <c r="E27" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
       <c r="L27" s="43"/>
-      <c r="M27" s="110">
+      <c r="M27" s="107">
         <v>26</v>
       </c>
       <c r="N27" s="31" t="s">
@@ -19945,7 +20052,7 @@
       <c r="Q27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R27" s="90"/>
+      <c r="R27" s="88"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="48">
@@ -19960,10 +20067,10 @@
       <c r="E28" s="38">
         <v>7</v>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
       <c r="L28" s="43"/>
-      <c r="M28" s="110">
+      <c r="M28" s="107">
         <v>26</v>
       </c>
       <c r="N28" s="31" t="s">
@@ -19993,10 +20100,10 @@
       <c r="E29" s="54">
         <v>7</v>
       </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="75"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
       <c r="L29" s="43"/>
-      <c r="M29" s="110">
+      <c r="M29" s="107">
         <v>26</v>
       </c>
       <c r="N29" s="31" t="s">
@@ -20015,7 +20122,7 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L30" s="43"/>
-      <c r="M30" s="110">
+      <c r="M30" s="107">
         <v>26</v>
       </c>
       <c r="N30" s="31" t="s">
@@ -20030,11 +20137,11 @@
       <c r="Q30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R30" s="90"/>
+      <c r="R30" s="88"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L31" s="43"/>
-      <c r="M31" s="110">
+      <c r="M31" s="107">
         <v>26</v>
       </c>
       <c r="N31" s="31" t="s">
@@ -20049,11 +20156,11 @@
       <c r="Q31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="90"/>
+      <c r="R31" s="88"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L32" s="43"/>
-      <c r="M32" s="110">
+      <c r="M32" s="107">
         <v>32</v>
       </c>
       <c r="N32" s="31" t="s">
@@ -20072,7 +20179,7 @@
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L33" s="43"/>
-      <c r="M33" s="110">
+      <c r="M33" s="107">
         <v>33</v>
       </c>
       <c r="N33" s="31" t="s">
@@ -20091,7 +20198,7 @@
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L34" s="43"/>
-      <c r="M34" s="110">
+      <c r="M34" s="107">
         <v>26</v>
       </c>
       <c r="N34" s="31" t="s">
@@ -20110,7 +20217,7 @@
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L35" s="43"/>
-      <c r="M35" s="110">
+      <c r="M35" s="107">
         <v>26</v>
       </c>
       <c r="N35" s="31" t="s">
@@ -20129,7 +20236,7 @@
     </row>
     <row r="36" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L36" s="43"/>
-      <c r="M36" s="110">
+      <c r="M36" s="107">
         <v>26</v>
       </c>
       <c r="N36" s="31" t="s">
@@ -20148,7 +20255,7 @@
     </row>
     <row r="37" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L37" s="43"/>
-      <c r="M37" s="110">
+      <c r="M37" s="107">
         <v>34</v>
       </c>
       <c r="N37" s="31" t="s">
@@ -20167,7 +20274,7 @@
     </row>
     <row r="38" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L38" s="43"/>
-      <c r="M38" s="110">
+      <c r="M38" s="107">
         <v>35</v>
       </c>
       <c r="N38" s="31" t="s">
@@ -20182,11 +20289,11 @@
       <c r="Q38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R38" s="90"/>
+      <c r="R38" s="88"/>
     </row>
     <row r="39" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L39" s="43"/>
-      <c r="M39" s="110">
+      <c r="M39" s="107">
         <v>12</v>
       </c>
       <c r="N39" s="31" t="s">
@@ -20205,7 +20312,7 @@
     </row>
     <row r="40" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L40" s="43"/>
-      <c r="M40" s="110">
+      <c r="M40" s="107">
         <v>17</v>
       </c>
       <c r="N40" s="31" t="s">
@@ -20224,7 +20331,7 @@
     </row>
     <row r="41" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L41" s="43"/>
-      <c r="M41" s="110">
+      <c r="M41" s="107">
         <v>18</v>
       </c>
       <c r="N41" s="31" t="s">
@@ -20239,11 +20346,11 @@
       <c r="Q41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R41" s="90"/>
+      <c r="R41" s="88"/>
     </row>
     <row r="42" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L42" s="43"/>
-      <c r="M42" s="110">
+      <c r="M42" s="107">
         <v>26</v>
       </c>
       <c r="N42" s="31" t="s">
@@ -20258,11 +20365,11 @@
       <c r="Q42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="90"/>
+      <c r="R42" s="88"/>
     </row>
     <row r="43" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L43" s="43"/>
-      <c r="M43" s="110">
+      <c r="M43" s="107">
         <v>26</v>
       </c>
       <c r="N43" s="31" t="s">
@@ -20281,7 +20388,7 @@
     </row>
     <row r="44" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L44" s="43"/>
-      <c r="M44" s="110">
+      <c r="M44" s="107">
         <v>26</v>
       </c>
       <c r="N44" s="31" t="s">
@@ -20300,7 +20407,7 @@
     </row>
     <row r="45" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L45" s="44"/>
-      <c r="M45" s="96">
+      <c r="M45" s="94">
         <v>26</v>
       </c>
       <c r="N45" s="39" t="s">
@@ -20378,28 +20485,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="137" t="s">
         <v>613</v>
       </c>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="69"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
         <v>44</v>
       </c>
@@ -20410,13 +20517,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="150"/>
-      <c r="F4" s="151"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="45" t="s">
         <v>45</v>
       </c>
@@ -20427,11 +20534,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="151"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20443,29 +20550,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="154" t="s">
+      <c r="I7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="160" t="s">
+      <c r="M7" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="158"/>
-      <c r="R7" s="159"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="153"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20512,7 +20619,7 @@
       <c r="Q8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="124" t="s">
+      <c r="R8" s="120" t="s">
         <v>28</v>
       </c>
     </row>
@@ -20531,7 +20638,7 @@
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="62"/>
-      <c r="H9" s="86"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="57">
         <v>18</v>
       </c>
@@ -20541,20 +20648,20 @@
       <c r="K9" s="58" t="s">
         <v>614</v>
       </c>
-      <c r="L9" s="103"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="36">
         <v>18</v>
       </c>
-      <c r="N9" s="105" t="s">
+      <c r="N9" s="102" t="s">
         <v>552</v>
       </c>
-      <c r="O9" s="105" t="s">
+      <c r="O9" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="105" t="s">
+      <c r="P9" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="105" t="s">
+      <c r="Q9" s="102" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="41" t="s">
@@ -20575,8 +20682,8 @@
         <v>20</v>
       </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="86"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="33">
         <v>19</v>
       </c>
@@ -20586,8 +20693,8 @@
       <c r="K10" s="55" t="s">
         <v>615</v>
       </c>
-      <c r="L10" s="103"/>
-      <c r="M10" s="101">
+      <c r="L10" s="100"/>
+      <c r="M10" s="98">
         <v>15</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -20602,7 +20709,7 @@
       <c r="Q10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="90"/>
+      <c r="R10" s="88"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="48">
@@ -20618,8 +20725,8 @@
         <v>30</v>
       </c>
       <c r="F11" s="61"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="86"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="84"/>
       <c r="I11" s="33">
         <v>20</v>
       </c>
@@ -20629,8 +20736,8 @@
       <c r="K11" s="55" t="s">
         <v>754</v>
       </c>
-      <c r="L11" s="103"/>
-      <c r="M11" s="101">
+      <c r="L11" s="100"/>
+      <c r="M11" s="98">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -20661,8 +20768,8 @@
         <v>20</v>
       </c>
       <c r="F12" s="61"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="86"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="84"/>
       <c r="I12" s="32">
         <v>21</v>
       </c>
@@ -20672,7 +20779,7 @@
       <c r="K12" s="63" t="s">
         <v>756</v>
       </c>
-      <c r="L12" s="103"/>
+      <c r="L12" s="100"/>
       <c r="M12" s="48">
         <v>19</v>
       </c>
@@ -20691,7 +20798,7 @@
       <c r="R12" s="37"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="76">
+      <c r="B13" s="75">
         <v>5</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -20703,10 +20810,10 @@
       <c r="E13" s="38">
         <v>15</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="88"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="43"/>
-      <c r="L13" s="86"/>
+      <c r="L13" s="84"/>
       <c r="M13" s="48">
         <v>16</v>
       </c>
@@ -20737,10 +20844,10 @@
       <c r="E14" s="38">
         <v>15</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="89"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="87"/>
       <c r="H14" s="43"/>
-      <c r="L14" s="86"/>
+      <c r="L14" s="84"/>
       <c r="M14" s="48">
         <v>21</v>
       </c>
@@ -20771,10 +20878,10 @@
       <c r="E15" s="38">
         <v>20</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="89"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="43"/>
-      <c r="L15" s="87"/>
+      <c r="L15" s="85"/>
       <c r="M15" s="53">
         <v>16</v>
       </c>
@@ -20790,7 +20897,7 @@
       <c r="Q15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R15" s="107"/>
+      <c r="R15" s="104"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="48">
@@ -20802,15 +20909,15 @@
       <c r="D16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="135" t="s">
+      <c r="E16" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="88"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="86"/>
       <c r="H16" s="43"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="76">
+      <c r="B17" s="75">
         <v>9</v>
       </c>
       <c r="C17" s="38" t="s">
@@ -20819,11 +20926,11 @@
       <c r="D17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="135" t="s">
+      <c r="E17" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="89"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="87"/>
       <c r="H17" s="43"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
@@ -20836,11 +20943,11 @@
       <c r="D18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="89"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="87"/>
       <c r="H18" s="43"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
@@ -20853,11 +20960,11 @@
       <c r="D19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="135" t="s">
+      <c r="E19" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="89"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="43"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
@@ -20870,11 +20977,11 @@
       <c r="D20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="135" t="s">
+      <c r="E20" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="89"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="87"/>
       <c r="H20" s="43"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -20887,15 +20994,15 @@
       <c r="D21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="135" t="s">
+      <c r="E21" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="89"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="87"/>
       <c r="H21" s="43"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="76">
+      <c r="B22" s="75">
         <v>14</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -20907,8 +21014,8 @@
       <c r="E22" s="38">
         <v>7</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="89"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="87"/>
       <c r="H22" s="43"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
@@ -20924,8 +21031,8 @@
       <c r="E23" s="38">
         <v>7</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="89"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="87"/>
       <c r="H23" s="43"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
@@ -20941,8 +21048,8 @@
       <c r="E24" s="38">
         <v>7</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="89"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="87"/>
       <c r="H24" s="43"/>
     </row>
     <row r="25" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20958,8 +21065,8 @@
       <c r="E25" s="54">
         <v>7</v>
       </c>
-      <c r="F25" s="74"/>
-      <c r="G25" s="125"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="121"/>
       <c r="H25" s="44"/>
     </row>
   </sheetData>
@@ -21023,28 +21130,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="137" t="s">
         <v>616</v>
       </c>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="69"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
         <v>44</v>
       </c>
@@ -21055,13 +21162,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="150"/>
-      <c r="F4" s="151"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="45" t="s">
         <v>45</v>
       </c>
@@ -21072,11 +21179,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="151"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -21088,29 +21195,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="154" t="s">
+      <c r="I7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="160" t="s">
+      <c r="M7" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="158"/>
-      <c r="R7" s="159"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="153"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -21157,7 +21264,7 @@
       <c r="Q8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="124" t="s">
+      <c r="R8" s="120" t="s">
         <v>28</v>
       </c>
     </row>
@@ -21177,29 +21284,29 @@
       <c r="F9" s="50"/>
       <c r="G9" s="51"/>
       <c r="H9" s="44"/>
-      <c r="I9" s="126">
+      <c r="I9" s="122">
         <v>115</v>
       </c>
-      <c r="J9" s="127" t="s">
+      <c r="J9" s="123" t="s">
         <v>226</v>
       </c>
-      <c r="K9" s="128" t="s">
+      <c r="K9" s="124" t="s">
         <v>730</v>
       </c>
-      <c r="L9" s="68"/>
+      <c r="L9" s="67"/>
       <c r="M9" s="36">
         <v>115</v>
       </c>
-      <c r="N9" s="105" t="s">
+      <c r="N9" s="102" t="s">
         <v>732</v>
       </c>
-      <c r="O9" s="105" t="s">
+      <c r="O9" s="102" t="s">
         <v>769</v>
       </c>
-      <c r="P9" s="105" t="s">
+      <c r="P9" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="105" t="s">
+      <c r="Q9" s="102" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="41"/>
@@ -21219,8 +21326,8 @@
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="52"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="101">
+      <c r="L10" s="67"/>
+      <c r="M10" s="98">
         <v>12</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -21235,7 +21342,7 @@
       <c r="Q10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="90"/>
+      <c r="R10" s="88"/>
     </row>
     <row r="11" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="48">
@@ -21252,8 +21359,8 @@
       </c>
       <c r="F11" s="61"/>
       <c r="G11" s="52"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="106">
+      <c r="L11" s="117"/>
+      <c r="M11" s="103">
         <v>64</v>
       </c>
       <c r="N11" s="39" t="s">
@@ -21268,7 +21375,7 @@
       <c r="Q11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="107"/>
+      <c r="R11" s="104"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="48">
@@ -21299,8 +21406,8 @@
       <c r="E13" s="38">
         <v>1</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="48">
@@ -21315,8 +21422,8 @@
       <c r="E14" s="38">
         <v>3</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="48">
@@ -21331,8 +21438,8 @@
       <c r="E15" s="38">
         <v>20</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="48">
@@ -21347,8 +21454,8 @@
       <c r="E16" s="38">
         <v>20</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="79"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="77"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="48">
@@ -21363,8 +21470,8 @@
       <c r="E17" s="38">
         <v>1</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="48">
@@ -21379,8 +21486,8 @@
       <c r="E18" s="38">
         <v>20</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="48">
@@ -21395,8 +21502,8 @@
       <c r="E19" s="38">
         <v>20</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="48">
@@ -21411,8 +21518,8 @@
       <c r="E20" s="38">
         <v>20</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="48">
@@ -21427,8 +21534,8 @@
       <c r="E21" s="38">
         <v>8</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="48">
@@ -21443,8 +21550,8 @@
       <c r="E22" s="38">
         <v>20</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="48">
@@ -21459,8 +21566,8 @@
       <c r="E23" s="38">
         <v>20</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="48">
@@ -21475,8 +21582,8 @@
       <c r="E24" s="38">
         <v>13</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="48">
@@ -21491,8 +21598,8 @@
       <c r="E25" s="38">
         <v>3</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="48">
@@ -21507,8 +21614,8 @@
       <c r="E26" s="38">
         <v>20</v>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="48">
@@ -21523,8 +21630,8 @@
       <c r="E27" s="38">
         <v>10</v>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="48">
@@ -21539,8 +21646,8 @@
       <c r="E28" s="38">
         <v>10</v>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="48">
@@ -21555,8 +21662,8 @@
       <c r="E29" s="38">
         <v>10</v>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="48">
@@ -21571,8 +21678,8 @@
       <c r="E30" s="38">
         <v>10</v>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="48">
@@ -21584,11 +21691,11 @@
       <c r="D31" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="135" t="s">
+      <c r="E31" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="73"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="48">
@@ -21600,11 +21707,11 @@
       <c r="D32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="135" t="s">
+      <c r="E32" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="72"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="48">
@@ -21616,11 +21723,11 @@
       <c r="D33" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="135" t="s">
+      <c r="E33" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="48">
@@ -21632,11 +21739,11 @@
       <c r="D34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="135" t="s">
+      <c r="E34" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="73"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="72"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="48">
@@ -21648,11 +21755,11 @@
       <c r="D35" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="135" t="s">
+      <c r="E35" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="48">
@@ -21664,11 +21771,11 @@
       <c r="D36" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="135" t="s">
+      <c r="E36" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="73"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="72"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="48">
@@ -21680,11 +21787,11 @@
       <c r="D37" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="135" t="s">
+      <c r="E37" s="129" t="s">
         <v>767</v>
       </c>
-      <c r="F37" s="72"/>
-      <c r="G37" s="73"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="72"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="48">
@@ -21696,11 +21803,11 @@
       <c r="D38" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="135" t="s">
+      <c r="E38" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F38" s="72"/>
-      <c r="G38" s="73"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="48">
@@ -21712,11 +21819,11 @@
       <c r="D39" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="135" t="s">
+      <c r="E39" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="48">
@@ -21728,11 +21835,11 @@
       <c r="D40" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="135" t="s">
+      <c r="E40" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F40" s="72"/>
-      <c r="G40" s="73"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="72"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="48">
@@ -21744,11 +21851,11 @@
       <c r="D41" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="135" t="s">
+      <c r="E41" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F41" s="72"/>
-      <c r="G41" s="73"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="72"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="48">
@@ -21760,11 +21867,11 @@
       <c r="D42" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="135" t="s">
+      <c r="E42" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F42" s="72"/>
-      <c r="G42" s="73"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="72"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="48">
@@ -21776,11 +21883,11 @@
       <c r="D43" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="135" t="s">
+      <c r="E43" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F43" s="72"/>
-      <c r="G43" s="73"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="72"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="48">
@@ -21792,11 +21899,11 @@
       <c r="D44" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="135" t="s">
+      <c r="E44" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F44" s="72"/>
-      <c r="G44" s="73"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="72"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="48">
@@ -21808,11 +21915,11 @@
       <c r="D45" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="135" t="s">
+      <c r="E45" s="129" t="s">
         <v>763</v>
       </c>
-      <c r="F45" s="72"/>
-      <c r="G45" s="73"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="72"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="48">
@@ -21824,11 +21931,11 @@
       <c r="D46" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="135" t="s">
+      <c r="E46" s="129" t="s">
         <v>768</v>
       </c>
-      <c r="F46" s="72"/>
-      <c r="G46" s="73"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="72"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="48">
@@ -21840,11 +21947,11 @@
       <c r="D47" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="135" t="s">
+      <c r="E47" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F47" s="72"/>
-      <c r="G47" s="73"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="48">
@@ -21856,11 +21963,11 @@
       <c r="D48" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="135" t="s">
+      <c r="E48" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F48" s="72"/>
-      <c r="G48" s="73"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="72"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="48">
@@ -21872,11 +21979,11 @@
       <c r="D49" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="135" t="s">
+      <c r="E49" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F49" s="72"/>
-      <c r="G49" s="73"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="48">
@@ -21888,11 +21995,11 @@
       <c r="D50" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="135" t="s">
+      <c r="E50" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F50" s="72"/>
-      <c r="G50" s="73"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="72"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="48">
@@ -21904,11 +22011,11 @@
       <c r="D51" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="135" t="s">
+      <c r="E51" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F51" s="72"/>
-      <c r="G51" s="73"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="72"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="48">
@@ -21920,11 +22027,11 @@
       <c r="D52" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="135" t="s">
+      <c r="E52" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F52" s="72"/>
-      <c r="G52" s="73"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="72"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="48">
@@ -21936,11 +22043,11 @@
       <c r="D53" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="135" t="s">
+      <c r="E53" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F53" s="72"/>
-      <c r="G53" s="73"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="72"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="48">
@@ -21952,11 +22059,11 @@
       <c r="D54" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="135" t="s">
+      <c r="E54" s="129" t="s">
         <v>767</v>
       </c>
-      <c r="F54" s="72"/>
-      <c r="G54" s="73"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="72"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="48">
@@ -21968,11 +22075,11 @@
       <c r="D55" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="135" t="s">
+      <c r="E55" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F55" s="72"/>
-      <c r="G55" s="73"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="72"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="48">
@@ -21984,11 +22091,11 @@
       <c r="D56" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="135" t="s">
+      <c r="E56" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F56" s="72"/>
-      <c r="G56" s="73"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="48">
@@ -22000,11 +22107,11 @@
       <c r="D57" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="135" t="s">
+      <c r="E57" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F57" s="72"/>
-      <c r="G57" s="73"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="72"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="48">
@@ -22016,11 +22123,11 @@
       <c r="D58" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="135" t="s">
+      <c r="E58" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F58" s="72"/>
-      <c r="G58" s="73"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="72"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="48">
@@ -22032,11 +22139,11 @@
       <c r="D59" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="135" t="s">
+      <c r="E59" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F59" s="72"/>
-      <c r="G59" s="73"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="72"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="48">
@@ -22048,11 +22155,11 @@
       <c r="D60" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="135" t="s">
+      <c r="E60" s="129" t="s">
         <v>767</v>
       </c>
-      <c r="F60" s="72"/>
-      <c r="G60" s="73"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="72"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="48">
@@ -22064,11 +22171,11 @@
       <c r="D61" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="135" t="s">
+      <c r="E61" s="129" t="s">
         <v>762</v>
       </c>
-      <c r="F61" s="72"/>
-      <c r="G61" s="73"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="72"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="48">
@@ -22080,11 +22187,11 @@
       <c r="D62" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="135" t="s">
+      <c r="E62" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F62" s="72"/>
-      <c r="G62" s="73"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="72"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="48">
@@ -22096,11 +22203,11 @@
       <c r="D63" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="135" t="s">
+      <c r="E63" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F63" s="72"/>
-      <c r="G63" s="73"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="72"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="48">
@@ -22112,11 +22219,11 @@
       <c r="D64" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E64" s="135" t="s">
+      <c r="E64" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F64" s="72"/>
-      <c r="G64" s="73"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="72"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="48">
@@ -22128,11 +22235,11 @@
       <c r="D65" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="135" t="s">
+      <c r="E65" s="129" t="s">
         <v>762</v>
       </c>
-      <c r="F65" s="72"/>
-      <c r="G65" s="73"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="72"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="48">
@@ -22144,11 +22251,11 @@
       <c r="D66" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="135" t="s">
+      <c r="E66" s="129" t="s">
         <v>762</v>
       </c>
-      <c r="F66" s="72"/>
-      <c r="G66" s="73"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="72"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="48">
@@ -22160,11 +22267,11 @@
       <c r="D67" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="135" t="s">
+      <c r="E67" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F67" s="72"/>
-      <c r="G67" s="73"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="72"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="48">
@@ -22176,11 +22283,11 @@
       <c r="D68" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E68" s="135" t="s">
+      <c r="E68" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="72"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="48">
@@ -22192,11 +22299,11 @@
       <c r="D69" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E69" s="135" t="s">
+      <c r="E69" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F69" s="72"/>
-      <c r="G69" s="73"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="72"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="48">
@@ -22208,11 +22315,11 @@
       <c r="D70" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="135" t="s">
+      <c r="E70" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F70" s="72"/>
-      <c r="G70" s="73"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="72"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="48">
@@ -22224,11 +22331,11 @@
       <c r="D71" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="135" t="s">
+      <c r="E71" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F71" s="72"/>
-      <c r="G71" s="73"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="72"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="48">
@@ -22240,11 +22347,11 @@
       <c r="D72" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="135" t="s">
+      <c r="E72" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F72" s="72"/>
-      <c r="G72" s="73"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="72"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="48">
@@ -22256,11 +22363,11 @@
       <c r="D73" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="135" t="s">
+      <c r="E73" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F73" s="72"/>
-      <c r="G73" s="73"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="72"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="48">
@@ -22272,11 +22379,11 @@
       <c r="D74" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="135" t="s">
+      <c r="E74" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F74" s="72"/>
-      <c r="G74" s="73"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="72"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="48">
@@ -22288,11 +22395,11 @@
       <c r="D75" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="135" t="s">
+      <c r="E75" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F75" s="72"/>
-      <c r="G75" s="73"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="72"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="48">
@@ -22304,11 +22411,11 @@
       <c r="D76" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E76" s="135" t="s">
+      <c r="E76" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F76" s="72"/>
-      <c r="G76" s="73"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="72"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="48">
@@ -22320,11 +22427,11 @@
       <c r="D77" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="135" t="s">
+      <c r="E77" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F77" s="72"/>
-      <c r="G77" s="73"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="72"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="48">
@@ -22336,11 +22443,11 @@
       <c r="D78" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="135" t="s">
+      <c r="E78" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F78" s="72"/>
-      <c r="G78" s="73"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="72"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="48">
@@ -22352,11 +22459,11 @@
       <c r="D79" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E79" s="135" t="s">
+      <c r="E79" s="129" t="s">
         <v>760</v>
       </c>
-      <c r="F79" s="72"/>
-      <c r="G79" s="73"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="72"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="48">
@@ -22368,11 +22475,11 @@
       <c r="D80" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="135" t="s">
+      <c r="E80" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F80" s="72"/>
-      <c r="G80" s="73"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="72"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="48">
@@ -22384,11 +22491,11 @@
       <c r="D81" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E81" s="135" t="s">
+      <c r="E81" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="F81" s="72"/>
-      <c r="G81" s="73"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="72"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="48">
@@ -22400,11 +22507,11 @@
       <c r="D82" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="135" t="s">
+      <c r="E82" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F82" s="72"/>
-      <c r="G82" s="73"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="72"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="48">
@@ -22416,11 +22523,11 @@
       <c r="D83" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="135" t="s">
+      <c r="E83" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F83" s="72"/>
-      <c r="G83" s="73"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="72"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="48">
@@ -22432,11 +22539,11 @@
       <c r="D84" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="135" t="s">
+      <c r="E84" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F84" s="72"/>
-      <c r="G84" s="73"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="72"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="48">
@@ -22448,11 +22555,11 @@
       <c r="D85" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="135" t="s">
+      <c r="E85" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="F85" s="72"/>
-      <c r="G85" s="73"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="72"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="48">
@@ -22464,11 +22571,11 @@
       <c r="D86" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E86" s="135" t="s">
+      <c r="E86" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F86" s="72"/>
-      <c r="G86" s="73"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="72"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="48">
@@ -22480,11 +22587,11 @@
       <c r="D87" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E87" s="135" t="s">
+      <c r="E87" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F87" s="72"/>
-      <c r="G87" s="73"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="72"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="48">
@@ -22496,11 +22603,11 @@
       <c r="D88" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E88" s="135" t="s">
+      <c r="E88" s="129" t="s">
         <v>762</v>
       </c>
-      <c r="F88" s="72"/>
-      <c r="G88" s="73"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="72"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="48">
@@ -22512,11 +22619,11 @@
       <c r="D89" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E89" s="135" t="s">
+      <c r="E89" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F89" s="72"/>
-      <c r="G89" s="73"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="72"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="48">
@@ -22528,11 +22635,11 @@
       <c r="D90" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="135" t="s">
+      <c r="E90" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F90" s="72"/>
-      <c r="G90" s="73"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="72"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="48">
@@ -22544,11 +22651,11 @@
       <c r="D91" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="135" t="s">
+      <c r="E91" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F91" s="72"/>
-      <c r="G91" s="73"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="72"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="48">
@@ -22560,11 +22667,11 @@
       <c r="D92" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="135" t="s">
+      <c r="E92" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F92" s="72"/>
-      <c r="G92" s="73"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="72"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="48">
@@ -22576,11 +22683,11 @@
       <c r="D93" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E93" s="135" t="s">
+      <c r="E93" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F93" s="72"/>
-      <c r="G93" s="73"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="72"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="48">
@@ -22592,11 +22699,11 @@
       <c r="D94" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E94" s="135" t="s">
+      <c r="E94" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F94" s="72"/>
-      <c r="G94" s="73"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="72"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="48">
@@ -22608,11 +22715,11 @@
       <c r="D95" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E95" s="135" t="s">
+      <c r="E95" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F95" s="72"/>
-      <c r="G95" s="73"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="72"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="48">
@@ -22624,11 +22731,11 @@
       <c r="D96" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E96" s="135" t="s">
+      <c r="E96" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F96" s="72"/>
-      <c r="G96" s="73"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="72"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="48">
@@ -22640,11 +22747,11 @@
       <c r="D97" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E97" s="135" t="s">
+      <c r="E97" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F97" s="72"/>
-      <c r="G97" s="73"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="72"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="48">
@@ -22656,11 +22763,11 @@
       <c r="D98" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E98" s="135" t="s">
+      <c r="E98" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F98" s="72"/>
-      <c r="G98" s="73"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="72"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="48">
@@ -22672,11 +22779,11 @@
       <c r="D99" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E99" s="135" t="s">
+      <c r="E99" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F99" s="72"/>
-      <c r="G99" s="73"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="72"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="48">
@@ -22688,11 +22795,11 @@
       <c r="D100" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="135" t="s">
+      <c r="E100" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F100" s="72"/>
-      <c r="G100" s="73"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="72"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="48">
@@ -22704,11 +22811,11 @@
       <c r="D101" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E101" s="135" t="s">
+      <c r="E101" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F101" s="72"/>
-      <c r="G101" s="73"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="72"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="48">
@@ -22720,11 +22827,11 @@
       <c r="D102" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E102" s="135" t="s">
+      <c r="E102" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F102" s="72"/>
-      <c r="G102" s="73"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="72"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="48">
@@ -22736,11 +22843,11 @@
       <c r="D103" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E103" s="135" t="s">
+      <c r="E103" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F103" s="72"/>
-      <c r="G103" s="73"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="72"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="48">
@@ -22752,11 +22859,11 @@
       <c r="D104" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E104" s="135" t="s">
+      <c r="E104" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F104" s="72"/>
-      <c r="G104" s="73"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="72"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="48">
@@ -22768,11 +22875,11 @@
       <c r="D105" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E105" s="135" t="s">
+      <c r="E105" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F105" s="72"/>
-      <c r="G105" s="73"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="72"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="48">
@@ -22784,11 +22891,11 @@
       <c r="D106" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E106" s="135" t="s">
+      <c r="E106" s="129" t="s">
         <v>766</v>
       </c>
-      <c r="F106" s="72"/>
-      <c r="G106" s="73"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="72"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="48">
@@ -22803,8 +22910,8 @@
       <c r="E107" s="38">
         <v>7</v>
       </c>
-      <c r="F107" s="72"/>
-      <c r="G107" s="73"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="72"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="48">
@@ -22819,8 +22926,8 @@
       <c r="E108" s="38">
         <v>7</v>
       </c>
-      <c r="F108" s="72"/>
-      <c r="G108" s="73"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="72"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="48">
@@ -22835,8 +22942,8 @@
       <c r="E109" s="38">
         <v>7</v>
       </c>
-      <c r="F109" s="72"/>
-      <c r="G109" s="73"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="72"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="48">
@@ -22851,8 +22958,8 @@
       <c r="E110" s="38">
         <v>7</v>
       </c>
-      <c r="F110" s="72"/>
-      <c r="G110" s="73"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="72"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="48">
@@ -22867,8 +22974,8 @@
       <c r="E111" s="38">
         <v>7</v>
       </c>
-      <c r="F111" s="72"/>
-      <c r="G111" s="73"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="72"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="48">
@@ -22883,8 +22990,8 @@
       <c r="E112" s="38">
         <v>7</v>
       </c>
-      <c r="F112" s="72"/>
-      <c r="G112" s="73"/>
+      <c r="F112" s="71"/>
+      <c r="G112" s="72"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="48">
@@ -22899,8 +23006,8 @@
       <c r="E113" s="38">
         <v>7</v>
       </c>
-      <c r="F113" s="72"/>
-      <c r="G113" s="73"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="72"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" s="48">
@@ -22915,8 +23022,8 @@
       <c r="E114" s="38">
         <v>7</v>
       </c>
-      <c r="F114" s="72"/>
-      <c r="G114" s="73"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="72"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" s="48">
@@ -22931,8 +23038,8 @@
       <c r="E115" s="38">
         <v>7</v>
       </c>
-      <c r="F115" s="72"/>
-      <c r="G115" s="73"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="72"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" s="48">
@@ -22947,8 +23054,8 @@
       <c r="E116" s="38">
         <v>7</v>
       </c>
-      <c r="F116" s="72"/>
-      <c r="G116" s="73"/>
+      <c r="F116" s="71"/>
+      <c r="G116" s="72"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="48">
@@ -22963,8 +23070,8 @@
       <c r="E117" s="38">
         <v>7</v>
       </c>
-      <c r="F117" s="72"/>
-      <c r="G117" s="73"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="72"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="48">
@@ -22979,8 +23086,8 @@
       <c r="E118" s="38">
         <v>7</v>
       </c>
-      <c r="F118" s="72"/>
-      <c r="G118" s="73"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="72"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="48">
@@ -22995,8 +23102,8 @@
       <c r="E119" s="38">
         <v>7</v>
       </c>
-      <c r="F119" s="72"/>
-      <c r="G119" s="73"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="72"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="48">
@@ -23011,8 +23118,8 @@
       <c r="E120" s="38">
         <v>7</v>
       </c>
-      <c r="F120" s="72"/>
-      <c r="G120" s="73"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="72"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="48">
@@ -23027,8 +23134,8 @@
       <c r="E121" s="38">
         <v>7</v>
       </c>
-      <c r="F121" s="72"/>
-      <c r="G121" s="73"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="72"/>
     </row>
     <row r="122" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B122" s="53">
@@ -23043,8 +23150,8 @@
       <c r="E122" s="54">
         <v>7</v>
       </c>
-      <c r="F122" s="74"/>
-      <c r="G122" s="75"/>
+      <c r="F122" s="73"/>
+      <c r="G122" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -23067,7 +23174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+    <sheetView topLeftCell="G4" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -23107,28 +23214,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="137" t="s">
         <v>733</v>
       </c>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="69"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
         <v>44</v>
       </c>
@@ -23139,13 +23246,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="150"/>
-      <c r="F4" s="151"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="45" t="s">
         <v>45</v>
       </c>
@@ -23156,11 +23263,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="151"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -23172,29 +23279,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="154" t="s">
+      <c r="I7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="160" t="s">
+      <c r="M7" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="158"/>
-      <c r="R7" s="159"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="153"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -23241,7 +23348,7 @@
       <c r="Q8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="124" t="s">
+      <c r="R8" s="120" t="s">
         <v>28</v>
       </c>
     </row>
@@ -23261,7 +23368,7 @@
       <c r="F9" s="50"/>
       <c r="G9" s="62"/>
       <c r="H9" s="43"/>
-      <c r="I9" s="95">
+      <c r="I9" s="93">
         <v>3</v>
       </c>
       <c r="J9" s="23" t="s">
@@ -23270,23 +23377,23 @@
       <c r="K9" s="64" t="s">
         <v>757</v>
       </c>
-      <c r="L9" s="68"/>
-      <c r="M9" s="95">
+      <c r="L9" s="67"/>
+      <c r="M9" s="93">
         <v>3</v>
       </c>
-      <c r="N9" s="105" t="s">
+      <c r="N9" s="102" t="s">
         <v>748</v>
       </c>
-      <c r="O9" s="105" t="s">
+      <c r="O9" s="102" t="s">
         <v>736</v>
       </c>
-      <c r="P9" s="105" t="s">
+      <c r="P9" s="102" t="s">
         <v>499</v>
       </c>
-      <c r="Q9" s="105" t="s">
+      <c r="Q9" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="91" t="s">
+      <c r="R9" s="89" t="s">
         <v>178</v>
       </c>
     </row>
@@ -23304,7 +23411,7 @@
         <v>22.6</v>
       </c>
       <c r="F10" s="54"/>
-      <c r="G10" s="131"/>
+      <c r="G10" s="127"/>
       <c r="H10" s="43"/>
       <c r="I10" s="42">
         <v>4</v>
@@ -23312,10 +23419,10 @@
       <c r="J10" s="24" t="s">
         <v>747</v>
       </c>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="65" t="s">
         <v>758</v>
       </c>
-      <c r="L10" s="68"/>
+      <c r="L10" s="67"/>
       <c r="M10" s="42">
         <v>4</v>
       </c>
@@ -23343,10 +23450,10 @@
       <c r="J11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="66" t="s">
+      <c r="K11" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="68"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="42">
         <v>7</v>
       </c>
@@ -23366,13 +23473,13 @@
     </row>
     <row r="12" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H12" s="44"/>
-      <c r="I12" s="96">
+      <c r="I12" s="94">
         <v>7</v>
       </c>
       <c r="J12" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="67" t="s">
+      <c r="K12" s="66" t="s">
         <v>39</v>
       </c>
       <c r="L12" s="43"/>
@@ -23509,7 +23616,7 @@
     </row>
     <row r="19" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L19" s="44"/>
-      <c r="M19" s="96">
+      <c r="M19" s="94">
         <v>1</v>
       </c>
       <c r="N19" s="39" t="s">

--- a/Cnl/Mapeos_INV_CNL_V1.xlsx
+++ b/Cnl/Mapeos_INV_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T20TERCERO" sheetId="28" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="782">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3798,6 +3798,9 @@
   </si>
   <si>
     <t>Fecha de inicio del registro</t>
+  </si>
+  <si>
+    <t>COD_PRTF</t>
   </si>
 </sst>
 </file>
@@ -5113,6 +5116,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5182,17 +5196,6 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="129">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -5714,7 +5717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5722,10 +5725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S209"/>
+  <dimension ref="B1:S210"/>
   <sheetViews>
-    <sheetView topLeftCell="L205" workbookViewId="0">
-      <selection activeCell="M166" sqref="M166:S166"/>
+    <sheetView topLeftCell="L46" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5765,26 +5768,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
@@ -5797,13 +5800,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="154"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="155"/>
+      <c r="H4" s="132"/>
       <c r="I4" s="24" t="s">
         <v>779</v>
       </c>
@@ -5814,13 +5817,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="154"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="156"/>
+      <c r="H5" s="133"/>
       <c r="I5" s="28" t="s">
         <v>780</v>
       </c>
@@ -5835,30 +5838,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="159"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="132" t="s">
+      <c r="M7" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -7478,23 +7481,23 @@
     </row>
     <row r="51" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L51" s="43"/>
-      <c r="M51" s="162">
+      <c r="M51" s="139">
         <v>36</v>
       </c>
-      <c r="N51" s="158" t="s">
+      <c r="N51" s="135" t="s">
         <v>306</v>
       </c>
-      <c r="O51" s="158"/>
-      <c r="P51" s="158" t="s">
+      <c r="O51" s="135"/>
+      <c r="P51" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="Q51" s="158" t="s">
+      <c r="Q51" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="R51" s="158" t="s">
-        <v>20</v>
-      </c>
-      <c r="S51" s="161"/>
+      <c r="R51" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="138"/>
     </row>
     <row r="52" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L52" s="43"/>
@@ -7596,8 +7599,8 @@
       </c>
       <c r="S56" s="37"/>
     </row>
-    <row r="57" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L57" s="44"/>
+    <row r="57" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L57" s="43"/>
       <c r="M57" s="110">
         <v>45</v>
       </c>
@@ -7606,7 +7609,7 @@
       </c>
       <c r="O57" s="90"/>
       <c r="P57" s="90" t="s">
-        <v>224</v>
+        <v>781</v>
       </c>
       <c r="Q57" s="90" t="s">
         <v>186</v>
@@ -7616,59 +7619,59 @@
       </c>
       <c r="S57" s="77"/>
     </row>
-    <row r="58" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L58" s="80"/>
-      <c r="M58" s="57">
+    <row r="58" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L58" s="44"/>
+      <c r="M58" s="110">
+        <v>45</v>
+      </c>
+      <c r="N58" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="O58" s="90"/>
+      <c r="P58" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q58" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="R58" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" s="77"/>
+    </row>
+    <row r="59" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L59" s="80"/>
+      <c r="M59" s="57">
         <v>40</v>
       </c>
-      <c r="N58" s="101" t="s">
+      <c r="N59" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="O58" s="101"/>
-      <c r="P58" s="101" t="s">
+      <c r="O59" s="101"/>
+      <c r="P59" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="Q58" s="101" t="s">
+      <c r="Q59" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="R58" s="101" t="s">
+      <c r="R59" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="S58" s="78" t="s">
+      <c r="S59" s="78" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="59" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L59" s="43"/>
-      <c r="M59" s="33">
-        <v>1</v>
-      </c>
-      <c r="N59" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q59" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="R59" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S59" s="34"/>
     </row>
     <row r="60" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L60" s="43"/>
       <c r="M60" s="33">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="N60" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O60" s="31"/>
       <c r="P60" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q60" s="31" t="s">
         <v>24</v>
@@ -7681,17 +7684,17 @@
     <row r="61" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L61" s="43"/>
       <c r="M61" s="33">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N61" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O61" s="31"/>
       <c r="P61" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q61" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R61" s="31" t="s">
         <v>20</v>
@@ -7701,14 +7704,14 @@
     <row r="62" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L62" s="43"/>
       <c r="M62" s="33">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N62" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O62" s="31"/>
       <c r="P62" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q62" s="31" t="s">
         <v>19</v>
@@ -7721,14 +7724,14 @@
     <row r="63" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L63" s="43"/>
       <c r="M63" s="33">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N63" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O63" s="31"/>
       <c r="P63" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q63" s="31" t="s">
         <v>19</v>
@@ -7741,17 +7744,17 @@
     <row r="64" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L64" s="43"/>
       <c r="M64" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N64" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O64" s="31"/>
       <c r="P64" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q64" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R64" s="31" t="s">
         <v>20</v>
@@ -7761,17 +7764,17 @@
     <row r="65" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L65" s="43"/>
       <c r="M65" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N65" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O65" s="31"/>
       <c r="P65" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q65" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R65" s="31" t="s">
         <v>20</v>
@@ -7781,17 +7784,17 @@
     <row r="66" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L66" s="43"/>
       <c r="M66" s="33">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N66" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O66" s="31"/>
       <c r="P66" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q66" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R66" s="31" t="s">
         <v>20</v>
@@ -7801,17 +7804,17 @@
     <row r="67" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L67" s="43"/>
       <c r="M67" s="33">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N67" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O67" s="31"/>
       <c r="P67" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q67" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R67" s="31" t="s">
         <v>20</v>
@@ -7821,17 +7824,17 @@
     <row r="68" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L68" s="43"/>
       <c r="M68" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N68" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O68" s="31"/>
       <c r="P68" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q68" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R68" s="31" t="s">
         <v>20</v>
@@ -7841,17 +7844,17 @@
     <row r="69" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L69" s="43"/>
       <c r="M69" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N69" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O69" s="31"/>
       <c r="P69" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q69" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R69" s="31" t="s">
         <v>20</v>
@@ -7861,17 +7864,17 @@
     <row r="70" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L70" s="43"/>
       <c r="M70" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N70" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O70" s="31"/>
       <c r="P70" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q70" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R70" s="31" t="s">
         <v>20</v>
@@ -7888,7 +7891,7 @@
       </c>
       <c r="O71" s="31"/>
       <c r="P71" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q71" s="31" t="s">
         <v>24</v>
@@ -7901,17 +7904,17 @@
     <row r="72" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L72" s="43"/>
       <c r="M72" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N72" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O72" s="31"/>
       <c r="P72" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q72" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R72" s="31" t="s">
         <v>20</v>
@@ -7921,17 +7924,17 @@
     <row r="73" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L73" s="43"/>
       <c r="M73" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N73" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O73" s="31"/>
       <c r="P73" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q73" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R73" s="31" t="s">
         <v>20</v>
@@ -7941,17 +7944,17 @@
     <row r="74" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L74" s="43"/>
       <c r="M74" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N74" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O74" s="31"/>
       <c r="P74" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q74" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R74" s="31" t="s">
         <v>20</v>
@@ -7961,17 +7964,17 @@
     <row r="75" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L75" s="43"/>
       <c r="M75" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N75" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O75" s="31"/>
       <c r="P75" s="31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q75" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R75" s="31" t="s">
         <v>20</v>
@@ -7981,17 +7984,17 @@
     <row r="76" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L76" s="43"/>
       <c r="M76" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N76" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O76" s="31"/>
       <c r="P76" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q76" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R76" s="31" t="s">
         <v>20</v>
@@ -8001,17 +8004,17 @@
     <row r="77" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L77" s="43"/>
       <c r="M77" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N77" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O77" s="31"/>
       <c r="P77" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q77" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R77" s="31" t="s">
         <v>20</v>
@@ -8021,17 +8024,17 @@
     <row r="78" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L78" s="43"/>
       <c r="M78" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N78" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O78" s="31"/>
       <c r="P78" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q78" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R78" s="31" t="s">
         <v>20</v>
@@ -8041,17 +8044,17 @@
     <row r="79" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L79" s="43"/>
       <c r="M79" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N79" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O79" s="31"/>
       <c r="P79" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q79" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R79" s="31" t="s">
         <v>20</v>
@@ -8061,17 +8064,17 @@
     <row r="80" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L80" s="43"/>
       <c r="M80" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N80" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O80" s="31"/>
       <c r="P80" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q80" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R80" s="31" t="s">
         <v>20</v>
@@ -8081,17 +8084,17 @@
     <row r="81" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L81" s="43"/>
       <c r="M81" s="33">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N81" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O81" s="31"/>
       <c r="P81" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q81" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R81" s="31" t="s">
         <v>20</v>
@@ -8100,60 +8103,60 @@
     </row>
     <row r="82" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L82" s="43"/>
-      <c r="M82" s="95">
-        <v>48</v>
-      </c>
-      <c r="N82" s="94" t="s">
+      <c r="M82" s="33">
+        <v>52</v>
+      </c>
+      <c r="N82" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="O82" s="94" t="s">
-        <v>612</v>
-      </c>
-      <c r="P82" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q82" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="R82" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="S82" s="96"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q82" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R82" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S82" s="34"/>
     </row>
     <row r="83" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L83" s="43"/>
-      <c r="M83" s="33">
-        <v>44</v>
-      </c>
-      <c r="N83" s="31" t="s">
+      <c r="M83" s="95">
+        <v>48</v>
+      </c>
+      <c r="N83" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="O83" s="31"/>
-      <c r="P83" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q83" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="R83" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S83" s="34"/>
+      <c r="O83" s="94" t="s">
+        <v>612</v>
+      </c>
+      <c r="P83" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q83" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="R83" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="S83" s="96"/>
     </row>
     <row r="84" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L84" s="43"/>
       <c r="M84" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N84" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O84" s="31"/>
       <c r="P84" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q84" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R84" s="31" t="s">
         <v>20</v>
@@ -8162,67 +8165,65 @@
     </row>
     <row r="85" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L85" s="43"/>
-      <c r="M85" s="95">
-        <v>48</v>
-      </c>
-      <c r="N85" s="94" t="s">
+      <c r="M85" s="33">
+        <v>45</v>
+      </c>
+      <c r="N85" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="O85" s="94" t="s">
-        <v>612</v>
-      </c>
-      <c r="P85" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q85" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="R85" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="S85" s="96"/>
+      <c r="O85" s="31"/>
+      <c r="P85" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q85" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R85" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S85" s="34"/>
     </row>
     <row r="86" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L86" s="43"/>
-      <c r="M86" s="33">
-        <v>45</v>
-      </c>
-      <c r="N86" s="31" t="s">
+      <c r="M86" s="95">
+        <v>48</v>
+      </c>
+      <c r="N86" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="O86" s="31"/>
-      <c r="P86" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q86" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="R86" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S86" s="34"/>
+      <c r="O86" s="94" t="s">
+        <v>612</v>
+      </c>
+      <c r="P86" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q86" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="R86" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="S86" s="96"/>
     </row>
     <row r="87" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L87" s="43"/>
-      <c r="M87" s="95">
-        <v>48</v>
-      </c>
-      <c r="N87" s="94" t="s">
+      <c r="M87" s="33">
+        <v>45</v>
+      </c>
+      <c r="N87" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="O87" s="94" t="s">
-        <v>612</v>
-      </c>
-      <c r="P87" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q87" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="R87" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="S87" s="96"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q87" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R87" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S87" s="34"/>
     </row>
     <row r="88" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L88" s="43"/>
@@ -8236,10 +8237,10 @@
         <v>612</v>
       </c>
       <c r="P88" s="94" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q88" s="94" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R88" s="94" t="s">
         <v>20</v>
@@ -8248,38 +8249,40 @@
     </row>
     <row r="89" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L89" s="43"/>
-      <c r="M89" s="33">
-        <v>44</v>
-      </c>
-      <c r="N89" s="31" t="s">
+      <c r="M89" s="95">
+        <v>48</v>
+      </c>
+      <c r="N89" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="O89" s="31"/>
-      <c r="P89" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q89" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="R89" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S89" s="34"/>
+      <c r="O89" s="94" t="s">
+        <v>612</v>
+      </c>
+      <c r="P89" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q89" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="R89" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="S89" s="96"/>
     </row>
     <row r="90" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L90" s="43"/>
       <c r="M90" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N90" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O90" s="31"/>
       <c r="P90" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q90" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R90" s="31" t="s">
         <v>20</v>
@@ -8289,17 +8292,17 @@
     <row r="91" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L91" s="43"/>
       <c r="M91" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N91" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O91" s="31"/>
       <c r="P91" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q91" s="31" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="R91" s="31" t="s">
         <v>20</v>
@@ -8309,17 +8312,17 @@
     <row r="92" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L92" s="43"/>
       <c r="M92" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N92" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O92" s="31"/>
       <c r="P92" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q92" s="31" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="R92" s="31" t="s">
         <v>20</v>
@@ -8336,7 +8339,7 @@
       </c>
       <c r="O93" s="31"/>
       <c r="P93" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q93" s="31" t="s">
         <v>19</v>
@@ -8349,17 +8352,17 @@
     <row r="94" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L94" s="43"/>
       <c r="M94" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N94" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O94" s="31"/>
       <c r="P94" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q94" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R94" s="31" t="s">
         <v>20</v>
@@ -8369,17 +8372,17 @@
     <row r="95" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L95" s="43"/>
       <c r="M95" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N95" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O95" s="31"/>
       <c r="P95" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q95" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R95" s="31" t="s">
         <v>20</v>
@@ -8396,10 +8399,10 @@
       </c>
       <c r="O96" s="31"/>
       <c r="P96" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q96" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R96" s="31" t="s">
         <v>20</v>
@@ -8416,7 +8419,7 @@
       </c>
       <c r="O97" s="31"/>
       <c r="P97" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q97" s="31" t="s">
         <v>19</v>
@@ -8429,17 +8432,17 @@
     <row r="98" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L98" s="43"/>
       <c r="M98" s="33">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N98" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O98" s="31"/>
       <c r="P98" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q98" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R98" s="31" t="s">
         <v>20</v>
@@ -8449,17 +8452,17 @@
     <row r="99" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L99" s="43"/>
       <c r="M99" s="33">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="N99" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O99" s="31"/>
       <c r="P99" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q99" s="31" t="s">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="R99" s="31" t="s">
         <v>20</v>
@@ -8469,17 +8472,17 @@
     <row r="100" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L100" s="43"/>
       <c r="M100" s="33">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="N100" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O100" s="31"/>
       <c r="P100" s="31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q100" s="31" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="R100" s="31" t="s">
         <v>20</v>
@@ -8489,17 +8492,17 @@
     <row r="101" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L101" s="43"/>
       <c r="M101" s="33">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N101" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O101" s="31"/>
       <c r="P101" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q101" s="31" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="R101" s="31" t="s">
         <v>20</v>
@@ -8516,7 +8519,7 @@
       </c>
       <c r="O102" s="31"/>
       <c r="P102" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q102" s="31" t="s">
         <v>179</v>
@@ -8529,17 +8532,17 @@
     <row r="103" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L103" s="43"/>
       <c r="M103" s="33">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N103" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O103" s="31"/>
       <c r="P103" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q103" s="31" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="R103" s="31" t="s">
         <v>20</v>
@@ -8549,14 +8552,14 @@
     <row r="104" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L104" s="43"/>
       <c r="M104" s="33">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N104" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O104" s="31"/>
       <c r="P104" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q104" s="31" t="s">
         <v>85</v>
@@ -8569,17 +8572,17 @@
     <row r="105" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L105" s="43"/>
       <c r="M105" s="33">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N105" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O105" s="31"/>
       <c r="P105" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q105" s="31" t="s">
-        <v>278</v>
+        <v>85</v>
       </c>
       <c r="R105" s="31" t="s">
         <v>20</v>
@@ -8589,14 +8592,14 @@
     <row r="106" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L106" s="43"/>
       <c r="M106" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N106" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O106" s="31"/>
       <c r="P106" s="31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q106" s="31" t="s">
         <v>278</v>
@@ -8609,17 +8612,17 @@
     <row r="107" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L107" s="43"/>
       <c r="M107" s="33">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="N107" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O107" s="31"/>
       <c r="P107" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q107" s="31" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="R107" s="31" t="s">
         <v>20</v>
@@ -8636,10 +8639,10 @@
       </c>
       <c r="O108" s="31"/>
       <c r="P108" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q108" s="31" t="s">
-        <v>271</v>
+        <v>38</v>
       </c>
       <c r="R108" s="31" t="s">
         <v>20</v>
@@ -8656,7 +8659,7 @@
       </c>
       <c r="O109" s="31"/>
       <c r="P109" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q109" s="31" t="s">
         <v>271</v>
@@ -8676,7 +8679,7 @@
       </c>
       <c r="O110" s="31"/>
       <c r="P110" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q110" s="31" t="s">
         <v>271</v>
@@ -8696,7 +8699,7 @@
       </c>
       <c r="O111" s="31"/>
       <c r="P111" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q111" s="31" t="s">
         <v>271</v>
@@ -8716,7 +8719,7 @@
       </c>
       <c r="O112" s="31"/>
       <c r="P112" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q112" s="31" t="s">
         <v>271</v>
@@ -8736,7 +8739,7 @@
       </c>
       <c r="O113" s="31"/>
       <c r="P113" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q113" s="31" t="s">
         <v>271</v>
@@ -8756,10 +8759,10 @@
       </c>
       <c r="O114" s="31"/>
       <c r="P114" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q114" s="31" t="s">
-        <v>24</v>
+        <v>271</v>
       </c>
       <c r="R114" s="31" t="s">
         <v>20</v>
@@ -8769,17 +8772,17 @@
     <row r="115" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L115" s="43"/>
       <c r="M115" s="33">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N115" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O115" s="31"/>
       <c r="P115" s="31" t="s">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="Q115" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R115" s="31" t="s">
         <v>20</v>
@@ -8789,14 +8792,14 @@
     <row r="116" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L116" s="43"/>
       <c r="M116" s="33">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N116" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O116" s="31"/>
       <c r="P116" s="31" t="s">
-        <v>288</v>
+        <v>84</v>
       </c>
       <c r="Q116" s="31" t="s">
         <v>16</v>
@@ -8808,25 +8811,23 @@
     </row>
     <row r="117" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L117" s="43"/>
-      <c r="M117" s="95">
-        <v>48</v>
-      </c>
-      <c r="N117" s="94" t="s">
+      <c r="M117" s="33">
+        <v>45</v>
+      </c>
+      <c r="N117" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="O117" s="94" t="s">
-        <v>612</v>
-      </c>
-      <c r="P117" s="94" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q117" s="94" t="s">
+      <c r="O117" s="31"/>
+      <c r="P117" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q117" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="R117" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="S117" s="96"/>
+      <c r="R117" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S117" s="34"/>
     </row>
     <row r="118" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L118" s="43"/>
@@ -8840,10 +8841,10 @@
         <v>612</v>
       </c>
       <c r="P118" s="94" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q118" s="94" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R118" s="94" t="s">
         <v>20</v>
@@ -8859,13 +8860,13 @@
         <v>313</v>
       </c>
       <c r="O119" s="94" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="P119" s="94" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q119" s="94" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R119" s="94" t="s">
         <v>20</v>
@@ -8874,38 +8875,40 @@
     </row>
     <row r="120" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L120" s="43"/>
-      <c r="M120" s="33">
-        <v>44</v>
-      </c>
-      <c r="N120" s="31" t="s">
+      <c r="M120" s="95">
+        <v>48</v>
+      </c>
+      <c r="N120" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="O120" s="31"/>
-      <c r="P120" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q120" s="31" t="s">
+      <c r="O120" s="94" t="s">
+        <v>594</v>
+      </c>
+      <c r="P120" s="94" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q120" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="R120" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S120" s="34"/>
+      <c r="R120" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="S120" s="96"/>
     </row>
     <row r="121" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L121" s="43"/>
       <c r="M121" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N121" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O121" s="31"/>
       <c r="P121" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q121" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R121" s="31" t="s">
         <v>20</v>
@@ -8915,17 +8918,17 @@
     <row r="122" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L122" s="43"/>
       <c r="M122" s="33">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N122" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O122" s="31"/>
       <c r="P122" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q122" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R122" s="31" t="s">
         <v>20</v>
@@ -8935,14 +8938,14 @@
     <row r="123" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L123" s="43"/>
       <c r="M123" s="33">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="N123" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O123" s="31"/>
       <c r="P123" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q123" s="31" t="s">
         <v>16</v>
@@ -8955,14 +8958,14 @@
     <row r="124" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L124" s="43"/>
       <c r="M124" s="33">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N124" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O124" s="31"/>
       <c r="P124" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q124" s="31" t="s">
         <v>16</v>
@@ -8975,14 +8978,14 @@
     <row r="125" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L125" s="43"/>
       <c r="M125" s="33">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N125" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O125" s="31"/>
       <c r="P125" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q125" s="31" t="s">
         <v>16</v>
@@ -9002,7 +9005,7 @@
       </c>
       <c r="O126" s="31"/>
       <c r="P126" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q126" s="31" t="s">
         <v>16</v>
@@ -9015,17 +9018,17 @@
     <row r="127" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L127" s="43"/>
       <c r="M127" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N127" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O127" s="31"/>
       <c r="P127" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q127" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R127" s="31" t="s">
         <v>20</v>
@@ -9035,17 +9038,17 @@
     <row r="128" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L128" s="43"/>
       <c r="M128" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N128" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O128" s="31"/>
       <c r="P128" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q128" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R128" s="31" t="s">
         <v>20</v>
@@ -9055,14 +9058,14 @@
     <row r="129" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L129" s="43"/>
       <c r="M129" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N129" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O129" s="31"/>
       <c r="P129" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q129" s="31" t="s">
         <v>16</v>
@@ -9082,7 +9085,7 @@
       </c>
       <c r="O130" s="31"/>
       <c r="P130" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q130" s="31" t="s">
         <v>16</v>
@@ -9102,10 +9105,10 @@
       </c>
       <c r="O131" s="31"/>
       <c r="P131" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q131" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R131" s="31" t="s">
         <v>20</v>
@@ -9122,7 +9125,7 @@
       </c>
       <c r="O132" s="31"/>
       <c r="P132" s="31" t="s">
-        <v>771</v>
+        <v>303</v>
       </c>
       <c r="Q132" s="31" t="s">
         <v>24</v>
@@ -9142,7 +9145,7 @@
       </c>
       <c r="O133" s="31"/>
       <c r="P133" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="Q133" s="31" t="s">
         <v>24</v>
@@ -9162,112 +9165,112 @@
       </c>
       <c r="O134" s="31"/>
       <c r="P134" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q134" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R134" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S134" s="34"/>
+    </row>
+    <row r="135" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L135" s="43"/>
+      <c r="M135" s="33">
+        <v>45</v>
+      </c>
+      <c r="N135" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="O135" s="31"/>
+      <c r="P135" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="Q134" s="31" t="s">
+      <c r="Q135" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="R134" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S134" s="34"/>
-    </row>
-    <row r="135" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L135" s="44"/>
-      <c r="M135" s="81">
+      <c r="R135" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S135" s="34"/>
+    </row>
+    <row r="136" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L136" s="44"/>
+      <c r="M136" s="81">
         <v>45</v>
       </c>
-      <c r="N135" s="90" t="s">
+      <c r="N136" s="90" t="s">
         <v>313</v>
       </c>
-      <c r="O135" s="90"/>
-      <c r="P135" s="90" t="s">
+      <c r="O136" s="90"/>
+      <c r="P136" s="90" t="s">
         <v>305</v>
       </c>
-      <c r="Q135" s="90" t="s">
+      <c r="Q136" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R135" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S135" s="82"/>
-    </row>
-    <row r="136" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L136" s="80"/>
-      <c r="M136" s="57">
+      <c r="R136" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S136" s="82"/>
+    </row>
+    <row r="137" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L137" s="80"/>
+      <c r="M137" s="57">
         <v>40</v>
       </c>
-      <c r="N136" s="101" t="s">
+      <c r="N137" s="101" t="s">
         <v>385</v>
       </c>
-      <c r="O136" s="101"/>
-      <c r="P136" s="101" t="s">
+      <c r="O137" s="101"/>
+      <c r="P137" s="101" t="s">
         <v>768</v>
       </c>
-      <c r="Q136" s="101" t="s">
+      <c r="Q137" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="R136" s="101" t="s">
+      <c r="R137" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="S136" s="78" t="s">
+      <c r="S137" s="78" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="137" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L137" s="43"/>
-      <c r="M137" s="97">
-        <v>47</v>
-      </c>
-      <c r="N137" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="O137" s="31"/>
-      <c r="P137" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q137" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="R137" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S137" s="37"/>
     </row>
     <row r="138" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L138" s="43"/>
-      <c r="M138" s="33">
-        <v>37</v>
+      <c r="M138" s="97">
+        <v>47</v>
       </c>
       <c r="N138" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O138" s="31"/>
       <c r="P138" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q138" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R138" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S138" s="34"/>
+      <c r="S138" s="37"/>
     </row>
     <row r="139" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L139" s="43"/>
       <c r="M139" s="33">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N139" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O139" s="31"/>
       <c r="P139" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q139" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R139" s="31" t="s">
         <v>20</v>
@@ -9277,17 +9280,17 @@
     <row r="140" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L140" s="43"/>
       <c r="M140" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N140" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O140" s="31"/>
       <c r="P140" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q140" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R140" s="31" t="s">
         <v>20</v>
@@ -9297,17 +9300,17 @@
     <row r="141" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L141" s="43"/>
       <c r="M141" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N141" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O141" s="31"/>
       <c r="P141" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q141" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R141" s="31" t="s">
         <v>20</v>
@@ -9317,17 +9320,17 @@
     <row r="142" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L142" s="43"/>
       <c r="M142" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N142" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O142" s="31"/>
       <c r="P142" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q142" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R142" s="31" t="s">
         <v>20</v>
@@ -9337,17 +9340,17 @@
     <row r="143" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L143" s="43"/>
       <c r="M143" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N143" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O143" s="31"/>
       <c r="P143" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q143" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R143" s="31" t="s">
         <v>20</v>
@@ -9357,17 +9360,17 @@
     <row r="144" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L144" s="43"/>
       <c r="M144" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N144" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O144" s="31"/>
       <c r="P144" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q144" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R144" s="31" t="s">
         <v>20</v>
@@ -9384,10 +9387,10 @@
       </c>
       <c r="O145" s="31"/>
       <c r="P145" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q145" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R145" s="31" t="s">
         <v>20</v>
@@ -9397,17 +9400,17 @@
     <row r="146" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L146" s="43"/>
       <c r="M146" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N146" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O146" s="31"/>
       <c r="P146" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q146" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R146" s="31" t="s">
         <v>20</v>
@@ -9417,17 +9420,17 @@
     <row r="147" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L147" s="43"/>
       <c r="M147" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N147" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O147" s="31"/>
       <c r="P147" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q147" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R147" s="31" t="s">
         <v>20</v>
@@ -9437,17 +9440,17 @@
     <row r="148" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L148" s="43"/>
       <c r="M148" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N148" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O148" s="31"/>
       <c r="P148" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q148" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R148" s="31" t="s">
         <v>20</v>
@@ -9457,17 +9460,17 @@
     <row r="149" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L149" s="43"/>
       <c r="M149" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N149" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O149" s="31"/>
       <c r="P149" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q149" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R149" s="31" t="s">
         <v>20</v>
@@ -9477,17 +9480,17 @@
     <row r="150" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L150" s="43"/>
       <c r="M150" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N150" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O150" s="31"/>
       <c r="P150" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q150" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R150" s="31" t="s">
         <v>20</v>
@@ -9497,17 +9500,17 @@
     <row r="151" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L151" s="43"/>
       <c r="M151" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N151" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O151" s="31"/>
       <c r="P151" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q151" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R151" s="31" t="s">
         <v>20</v>
@@ -9517,17 +9520,17 @@
     <row r="152" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L152" s="43"/>
       <c r="M152" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N152" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O152" s="31"/>
       <c r="P152" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q152" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R152" s="31" t="s">
         <v>20</v>
@@ -9537,17 +9540,17 @@
     <row r="153" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L153" s="43"/>
       <c r="M153" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N153" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O153" s="31"/>
       <c r="P153" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q153" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R153" s="31" t="s">
         <v>20</v>
@@ -9557,17 +9560,17 @@
     <row r="154" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L154" s="43"/>
       <c r="M154" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N154" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O154" s="31"/>
       <c r="P154" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q154" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R154" s="31" t="s">
         <v>20</v>
@@ -9577,17 +9580,17 @@
     <row r="155" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L155" s="43"/>
       <c r="M155" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N155" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O155" s="31"/>
       <c r="P155" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q155" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R155" s="31" t="s">
         <v>20</v>
@@ -9597,17 +9600,17 @@
     <row r="156" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L156" s="43"/>
       <c r="M156" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N156" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O156" s="31"/>
       <c r="P156" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q156" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R156" s="31" t="s">
         <v>20</v>
@@ -9617,17 +9620,17 @@
     <row r="157" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L157" s="43"/>
       <c r="M157" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N157" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O157" s="31"/>
       <c r="P157" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q157" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R157" s="31" t="s">
         <v>20</v>
@@ -9637,17 +9640,17 @@
     <row r="158" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L158" s="43"/>
       <c r="M158" s="33">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N158" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O158" s="31"/>
       <c r="P158" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q158" s="31" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="R158" s="31" t="s">
         <v>20</v>
@@ -9657,17 +9660,17 @@
     <row r="159" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L159" s="43"/>
       <c r="M159" s="33">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N159" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O159" s="31"/>
       <c r="P159" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q159" s="31" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="R159" s="31" t="s">
         <v>20</v>
@@ -9676,60 +9679,60 @@
     </row>
     <row r="160" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L160" s="43"/>
-      <c r="M160" s="95">
-        <v>48</v>
-      </c>
-      <c r="N160" s="94" t="s">
+      <c r="M160" s="33">
+        <v>45</v>
+      </c>
+      <c r="N160" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="O160" s="94" t="s">
-        <v>615</v>
-      </c>
-      <c r="P160" s="94" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q160" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="R160" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="S160" s="96"/>
+      <c r="O160" s="31"/>
+      <c r="P160" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q160" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R160" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S160" s="34"/>
     </row>
     <row r="161" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L161" s="43"/>
-      <c r="M161" s="33">
-        <v>44</v>
-      </c>
-      <c r="N161" s="31" t="s">
+      <c r="M161" s="95">
+        <v>48</v>
+      </c>
+      <c r="N161" s="94" t="s">
         <v>385</v>
       </c>
-      <c r="O161" s="31"/>
-      <c r="P161" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q161" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="R161" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S161" s="34"/>
+      <c r="O161" s="94" t="s">
+        <v>615</v>
+      </c>
+      <c r="P161" s="94" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q161" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="R161" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="S161" s="96"/>
     </row>
     <row r="162" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L162" s="43"/>
       <c r="M162" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N162" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O162" s="31"/>
       <c r="P162" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q162" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R162" s="31" t="s">
         <v>20</v>
@@ -9746,7 +9749,7 @@
       </c>
       <c r="O163" s="31"/>
       <c r="P163" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q163" s="31" t="s">
         <v>19</v>
@@ -9758,122 +9761,122 @@
     </row>
     <row r="164" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L164" s="43"/>
-      <c r="M164" s="95">
-        <v>48</v>
-      </c>
-      <c r="N164" s="94" t="s">
+      <c r="M164" s="33">
+        <v>45</v>
+      </c>
+      <c r="N164" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="O164" s="94" t="s">
-        <v>615</v>
-      </c>
-      <c r="P164" s="94" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q164" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="R164" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="S164" s="96"/>
+      <c r="O164" s="31"/>
+      <c r="P164" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q164" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R164" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S164" s="34"/>
     </row>
     <row r="165" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L165" s="43"/>
-      <c r="M165" s="33">
-        <v>45</v>
-      </c>
-      <c r="N165" s="31" t="s">
+      <c r="M165" s="95">
+        <v>48</v>
+      </c>
+      <c r="N165" s="94" t="s">
         <v>385</v>
       </c>
-      <c r="O165" s="31"/>
-      <c r="P165" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q165" s="31" t="s">
+      <c r="O165" s="94" t="s">
+        <v>615</v>
+      </c>
+      <c r="P165" s="94" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q165" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="R165" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S165" s="34"/>
+      <c r="R165" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="S165" s="96"/>
     </row>
     <row r="166" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L166" s="43"/>
-      <c r="M166" s="163">
-        <v>39</v>
-      </c>
-      <c r="N166" s="158" t="s">
+      <c r="M166" s="33">
+        <v>45</v>
+      </c>
+      <c r="N166" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="O166" s="158"/>
-      <c r="P166" s="158" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q166" s="158" t="s">
-        <v>19</v>
-      </c>
-      <c r="R166" s="158" t="s">
-        <v>17</v>
-      </c>
-      <c r="S166" s="161" t="s">
-        <v>177</v>
-      </c>
+      <c r="O166" s="31"/>
+      <c r="P166" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q166" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="R166" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S166" s="34"/>
     </row>
     <row r="167" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L167" s="43"/>
-      <c r="M167" s="79">
-        <v>58</v>
-      </c>
-      <c r="N167" s="109" t="s">
+      <c r="M167" s="140">
+        <v>39</v>
+      </c>
+      <c r="N167" s="135" t="s">
         <v>385</v>
       </c>
-      <c r="O167" s="109"/>
-      <c r="P167" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q167" s="109" t="s">
+      <c r="O167" s="135"/>
+      <c r="P167" s="135" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q167" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="R167" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="S167" s="60"/>
+      <c r="R167" s="135" t="s">
+        <v>17</v>
+      </c>
+      <c r="S167" s="138" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="168" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L168" s="43"/>
-      <c r="M168" s="33">
-        <v>45</v>
-      </c>
-      <c r="N168" s="31" t="s">
+      <c r="M168" s="79">
+        <v>58</v>
+      </c>
+      <c r="N168" s="109" t="s">
         <v>385</v>
       </c>
-      <c r="O168" s="31"/>
-      <c r="P168" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q168" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="R168" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S168" s="34"/>
+      <c r="O168" s="109"/>
+      <c r="P168" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q168" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="R168" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="S168" s="60"/>
     </row>
     <row r="169" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L169" s="43"/>
       <c r="M169" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N169" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O169" s="31"/>
       <c r="P169" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q169" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R169" s="31" t="s">
         <v>20</v>
@@ -9883,17 +9886,17 @@
     <row r="170" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L170" s="43"/>
       <c r="M170" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N170" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O170" s="31"/>
       <c r="P170" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q170" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R170" s="31" t="s">
         <v>20</v>
@@ -9910,7 +9913,7 @@
       </c>
       <c r="O171" s="31"/>
       <c r="P171" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q171" s="31" t="s">
         <v>24</v>
@@ -9930,7 +9933,7 @@
       </c>
       <c r="O172" s="31"/>
       <c r="P172" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q172" s="31" t="s">
         <v>24</v>
@@ -9943,17 +9946,17 @@
     <row r="173" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L173" s="43"/>
       <c r="M173" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N173" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O173" s="31"/>
       <c r="P173" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q173" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R173" s="31" t="s">
         <v>20</v>
@@ -9963,17 +9966,17 @@
     <row r="174" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L174" s="43"/>
       <c r="M174" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N174" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O174" s="31"/>
       <c r="P174" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q174" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R174" s="31" t="s">
         <v>20</v>
@@ -9990,7 +9993,7 @@
       </c>
       <c r="O175" s="31"/>
       <c r="P175" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q175" s="31" t="s">
         <v>24</v>
@@ -10010,7 +10013,7 @@
       </c>
       <c r="O176" s="31"/>
       <c r="P176" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q176" s="31" t="s">
         <v>24</v>
@@ -10030,10 +10033,10 @@
       </c>
       <c r="O177" s="31"/>
       <c r="P177" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q177" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R177" s="31" t="s">
         <v>20</v>
@@ -10050,10 +10053,10 @@
       </c>
       <c r="O178" s="31"/>
       <c r="P178" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q178" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R178" s="31" t="s">
         <v>20</v>
@@ -10070,7 +10073,7 @@
       </c>
       <c r="O179" s="31"/>
       <c r="P179" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q179" s="31" t="s">
         <v>24</v>
@@ -10090,7 +10093,7 @@
       </c>
       <c r="O180" s="31"/>
       <c r="P180" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q180" s="31" t="s">
         <v>24</v>
@@ -10110,7 +10113,7 @@
       </c>
       <c r="O181" s="31"/>
       <c r="P181" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q181" s="31" t="s">
         <v>24</v>
@@ -10130,10 +10133,10 @@
       </c>
       <c r="O182" s="31"/>
       <c r="P182" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q182" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R182" s="31" t="s">
         <v>20</v>
@@ -10143,17 +10146,17 @@
     <row r="183" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L183" s="43"/>
       <c r="M183" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N183" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O183" s="31"/>
       <c r="P183" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q183" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R183" s="31" t="s">
         <v>20</v>
@@ -10163,17 +10166,17 @@
     <row r="184" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L184" s="43"/>
       <c r="M184" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N184" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O184" s="31"/>
       <c r="P184" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q184" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R184" s="31" t="s">
         <v>20</v>
@@ -10190,10 +10193,10 @@
       </c>
       <c r="O185" s="31"/>
       <c r="P185" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q185" s="31" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="R185" s="31" t="s">
         <v>20</v>
@@ -10210,10 +10213,10 @@
       </c>
       <c r="O186" s="31"/>
       <c r="P186" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q186" s="31" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="R186" s="31" t="s">
         <v>20</v>
@@ -10230,7 +10233,7 @@
       </c>
       <c r="O187" s="31"/>
       <c r="P187" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q187" s="31" t="s">
         <v>24</v>
@@ -10250,10 +10253,10 @@
       </c>
       <c r="O188" s="31"/>
       <c r="P188" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q188" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R188" s="31" t="s">
         <v>20</v>
@@ -10270,10 +10273,10 @@
       </c>
       <c r="O189" s="31"/>
       <c r="P189" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q189" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R189" s="31" t="s">
         <v>20</v>
@@ -10283,14 +10286,14 @@
     <row r="190" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L190" s="43"/>
       <c r="M190" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N190" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O190" s="31"/>
       <c r="P190" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q190" s="31" t="s">
         <v>16</v>
@@ -10310,10 +10313,10 @@
       </c>
       <c r="O191" s="31"/>
       <c r="P191" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q191" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R191" s="31" t="s">
         <v>20</v>
@@ -10330,10 +10333,10 @@
       </c>
       <c r="O192" s="31"/>
       <c r="P192" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q192" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R192" s="31" t="s">
         <v>20</v>
@@ -10350,7 +10353,7 @@
       </c>
       <c r="O193" s="31"/>
       <c r="P193" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q193" s="31" t="s">
         <v>16</v>
@@ -10363,17 +10366,17 @@
     <row r="194" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L194" s="43"/>
       <c r="M194" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N194" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O194" s="31"/>
       <c r="P194" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q194" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R194" s="31" t="s">
         <v>20</v>
@@ -10383,17 +10386,17 @@
     <row r="195" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L195" s="43"/>
       <c r="M195" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N195" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O195" s="31"/>
       <c r="P195" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q195" s="31" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="R195" s="31" t="s">
         <v>20</v>
@@ -10403,17 +10406,17 @@
     <row r="196" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L196" s="43"/>
       <c r="M196" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N196" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O196" s="31"/>
       <c r="P196" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q196" s="31" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="R196" s="31" t="s">
         <v>20</v>
@@ -10430,10 +10433,10 @@
       </c>
       <c r="O197" s="31"/>
       <c r="P197" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q197" s="31" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="R197" s="31" t="s">
         <v>20</v>
@@ -10450,7 +10453,7 @@
       </c>
       <c r="O198" s="31"/>
       <c r="P198" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q198" s="31" t="s">
         <v>278</v>
@@ -10463,17 +10466,17 @@
     <row r="199" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L199" s="43"/>
       <c r="M199" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N199" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O199" s="31"/>
       <c r="P199" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q199" s="31" t="s">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="R199" s="31" t="s">
         <v>20</v>
@@ -10490,7 +10493,7 @@
       </c>
       <c r="O200" s="31"/>
       <c r="P200" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q200" s="31" t="s">
         <v>16</v>
@@ -10503,17 +10506,17 @@
     <row r="201" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L201" s="43"/>
       <c r="M201" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N201" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O201" s="31"/>
       <c r="P201" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q201" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R201" s="31" t="s">
         <v>20</v>
@@ -10523,17 +10526,17 @@
     <row r="202" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L202" s="43"/>
       <c r="M202" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N202" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O202" s="31"/>
       <c r="P202" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q202" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R202" s="31" t="s">
         <v>20</v>
@@ -10543,17 +10546,17 @@
     <row r="203" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L203" s="43"/>
       <c r="M203" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N203" s="31" t="s">
         <v>385</v>
       </c>
       <c r="O203" s="31"/>
       <c r="P203" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q203" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R203" s="31" t="s">
         <v>20</v>
@@ -10570,7 +10573,7 @@
       </c>
       <c r="O204" s="31"/>
       <c r="P204" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q204" s="31" t="s">
         <v>24</v>
@@ -10590,7 +10593,7 @@
       </c>
       <c r="O205" s="31"/>
       <c r="P205" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q205" s="31" t="s">
         <v>24</v>
@@ -10610,7 +10613,7 @@
       </c>
       <c r="O206" s="31"/>
       <c r="P206" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q206" s="31" t="s">
         <v>24</v>
@@ -10630,10 +10633,10 @@
       </c>
       <c r="O207" s="31"/>
       <c r="P207" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q207" s="31" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="R207" s="31" t="s">
         <v>20</v>
@@ -10650,35 +10653,55 @@
       </c>
       <c r="O208" s="31"/>
       <c r="P208" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q208" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="R208" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S208" s="34"/>
+    </row>
+    <row r="209" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L209" s="43"/>
+      <c r="M209" s="33">
+        <v>45</v>
+      </c>
+      <c r="N209" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="O209" s="31"/>
+      <c r="P209" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="Q208" s="31" t="s">
+      <c r="Q209" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="R208" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S208" s="34"/>
-    </row>
-    <row r="209" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L209" s="44"/>
-      <c r="M209" s="32">
+      <c r="R209" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S209" s="34"/>
+    </row>
+    <row r="210" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L210" s="44"/>
+      <c r="M210" s="32">
         <v>45</v>
       </c>
-      <c r="N209" s="39" t="s">
+      <c r="N210" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="O209" s="39"/>
-      <c r="P209" s="39" t="s">
+      <c r="O210" s="39"/>
+      <c r="P210" s="39" t="s">
         <v>384</v>
       </c>
-      <c r="Q209" s="39" t="s">
+      <c r="Q210" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R209" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S209" s="35"/>
+      <c r="R210" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S210" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10699,10 +10722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R134"/>
+  <dimension ref="B1:R135"/>
   <sheetViews>
-    <sheetView topLeftCell="K118" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51:R51"/>
+    <sheetView topLeftCell="I40" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10741,26 +10764,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="146" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
@@ -10773,13 +10796,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="154"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="155"/>
+      <c r="H4" s="132"/>
       <c r="I4" s="24" t="s">
         <v>779</v>
       </c>
@@ -10790,13 +10813,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="154"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="156"/>
+      <c r="H5" s="133"/>
       <c r="I5" s="28" t="s">
         <v>780</v>
       </c>
@@ -10811,29 +10834,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="159"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="132" t="s">
+      <c r="M7" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12052,22 +12075,22 @@
     </row>
     <row r="51" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L51" s="43"/>
-      <c r="M51" s="157">
+      <c r="M51" s="134">
         <v>29</v>
       </c>
-      <c r="N51" s="158" t="s">
+      <c r="N51" s="135" t="s">
         <v>306</v>
       </c>
-      <c r="O51" s="158" t="s">
+      <c r="O51" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="P51" s="158" t="s">
+      <c r="P51" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="Q51" s="158" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="161"/>
+      <c r="Q51" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="138"/>
     </row>
     <row r="52" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L52" s="43"/>
@@ -12154,7 +12177,7 @@
         <v>306</v>
       </c>
       <c r="O56" s="31" t="s">
-        <v>223</v>
+        <v>781</v>
       </c>
       <c r="P56" s="31" t="s">
         <v>186</v>
@@ -12164,64 +12187,64 @@
       </c>
       <c r="R56" s="37"/>
     </row>
-    <row r="57" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L57" s="44"/>
-      <c r="M57" s="110">
+    <row r="57" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L57" s="43"/>
+      <c r="M57" s="105">
         <v>25</v>
       </c>
-      <c r="N57" s="90" t="s">
+      <c r="N57" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="O57" s="90" t="s">
+      <c r="O57" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="P57" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="37"/>
+    </row>
+    <row r="58" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L58" s="44"/>
+      <c r="M58" s="110">
+        <v>25</v>
+      </c>
+      <c r="N58" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="O58" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="P57" s="90" t="s">
+      <c r="P58" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="Q57" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="77"/>
-    </row>
-    <row r="58" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L58" s="80"/>
-      <c r="M58" s="57">
-        <v>20</v>
-      </c>
-      <c r="N58" s="101" t="s">
+      <c r="Q58" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="77"/>
+    </row>
+    <row r="59" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L59" s="80"/>
+      <c r="M59" s="57">
+        <v>20</v>
+      </c>
+      <c r="N59" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="O58" s="101" t="s">
+      <c r="O59" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="P58" s="101" t="s">
+      <c r="P59" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="101" t="s">
+      <c r="Q59" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="R58" s="78" t="s">
+      <c r="R59" s="78" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="59" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L59" s="43"/>
-      <c r="M59" s="33">
-        <v>24</v>
-      </c>
-      <c r="N59" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="O59" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="P59" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q59" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R59" s="34"/>
     </row>
     <row r="60" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L60" s="43"/>
@@ -12232,7 +12255,7 @@
         <v>313</v>
       </c>
       <c r="O60" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P60" s="31" t="s">
         <v>24</v>
@@ -12245,16 +12268,16 @@
     <row r="61" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L61" s="43"/>
       <c r="M61" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N61" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O61" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P61" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q61" s="31" t="s">
         <v>20</v>
@@ -12270,7 +12293,7 @@
         <v>313</v>
       </c>
       <c r="O62" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P62" s="31" t="s">
         <v>19</v>
@@ -12289,7 +12312,7 @@
         <v>313</v>
       </c>
       <c r="O63" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P63" s="31" t="s">
         <v>19</v>
@@ -12302,16 +12325,16 @@
     <row r="64" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L64" s="43"/>
       <c r="M64" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N64" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O64" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P64" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q64" s="31" t="s">
         <v>20</v>
@@ -12321,16 +12344,16 @@
     <row r="65" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L65" s="43"/>
       <c r="M65" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N65" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O65" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P65" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q65" s="31" t="s">
         <v>20</v>
@@ -12340,16 +12363,16 @@
     <row r="66" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L66" s="43"/>
       <c r="M66" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N66" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O66" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P66" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q66" s="31" t="s">
         <v>20</v>
@@ -12359,16 +12382,16 @@
     <row r="67" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L67" s="43"/>
       <c r="M67" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N67" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O67" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P67" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q67" s="31" t="s">
         <v>20</v>
@@ -12378,16 +12401,16 @@
     <row r="68" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L68" s="43"/>
       <c r="M68" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N68" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O68" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P68" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q68" s="31" t="s">
         <v>20</v>
@@ -12397,16 +12420,16 @@
     <row r="69" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L69" s="43"/>
       <c r="M69" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N69" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O69" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P69" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q69" s="31" t="s">
         <v>20</v>
@@ -12416,16 +12439,16 @@
     <row r="70" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L70" s="43"/>
       <c r="M70" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N70" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O70" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P70" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q70" s="31" t="s">
         <v>20</v>
@@ -12441,7 +12464,7 @@
         <v>313</v>
       </c>
       <c r="O71" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P71" s="31" t="s">
         <v>24</v>
@@ -12454,16 +12477,16 @@
     <row r="72" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L72" s="43"/>
       <c r="M72" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N72" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O72" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P72" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q72" s="31" t="s">
         <v>20</v>
@@ -12473,16 +12496,16 @@
     <row r="73" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L73" s="43"/>
       <c r="M73" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N73" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O73" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P73" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q73" s="31" t="s">
         <v>20</v>
@@ -12492,16 +12515,16 @@
     <row r="74" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L74" s="43"/>
       <c r="M74" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N74" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O74" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P74" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q74" s="31" t="s">
         <v>20</v>
@@ -12511,16 +12534,16 @@
     <row r="75" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L75" s="43"/>
       <c r="M75" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N75" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O75" s="31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P75" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q75" s="31" t="s">
         <v>20</v>
@@ -12530,16 +12553,16 @@
     <row r="76" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L76" s="43"/>
       <c r="M76" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N76" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O76" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P76" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q76" s="31" t="s">
         <v>20</v>
@@ -12549,16 +12572,16 @@
     <row r="77" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L77" s="43"/>
       <c r="M77" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N77" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O77" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P77" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q77" s="31" t="s">
         <v>20</v>
@@ -12568,16 +12591,16 @@
     <row r="78" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L78" s="43"/>
       <c r="M78" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N78" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O78" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P78" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q78" s="31" t="s">
         <v>20</v>
@@ -12587,16 +12610,16 @@
     <row r="79" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L79" s="43"/>
       <c r="M79" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N79" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O79" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P79" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q79" s="31" t="s">
         <v>20</v>
@@ -12606,16 +12629,16 @@
     <row r="80" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L80" s="43"/>
       <c r="M80" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N80" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O80" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P80" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q80" s="31" t="s">
         <v>20</v>
@@ -12625,16 +12648,16 @@
     <row r="81" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L81" s="43"/>
       <c r="M81" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N81" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O81" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P81" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q81" s="31" t="s">
         <v>20</v>
@@ -12644,35 +12667,35 @@
     <row r="82" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L82" s="43"/>
       <c r="M82" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N82" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O82" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P82" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q82" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R82" s="37"/>
+      <c r="R82" s="34"/>
     </row>
     <row r="83" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L83" s="43"/>
       <c r="M83" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N83" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O83" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P83" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q83" s="31" t="s">
         <v>20</v>
@@ -12682,16 +12705,16 @@
     <row r="84" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L84" s="43"/>
       <c r="M84" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N84" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O84" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P84" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q84" s="31" t="s">
         <v>20</v>
@@ -12701,16 +12724,16 @@
     <row r="85" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L85" s="43"/>
       <c r="M85" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N85" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O85" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P85" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q85" s="31" t="s">
         <v>20</v>
@@ -12720,16 +12743,16 @@
     <row r="86" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L86" s="43"/>
       <c r="M86" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N86" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O86" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P86" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q86" s="31" t="s">
         <v>20</v>
@@ -12739,16 +12762,16 @@
     <row r="87" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L87" s="43"/>
       <c r="M87" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N87" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O87" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P87" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q87" s="31" t="s">
         <v>20</v>
@@ -12758,16 +12781,16 @@
     <row r="88" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L88" s="43"/>
       <c r="M88" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N88" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O88" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P88" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q88" s="31" t="s">
         <v>20</v>
@@ -12777,35 +12800,35 @@
     <row r="89" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L89" s="43"/>
       <c r="M89" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N89" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O89" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P89" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q89" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R89" s="34"/>
+      <c r="R89" s="37"/>
     </row>
     <row r="90" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L90" s="43"/>
       <c r="M90" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N90" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O90" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P90" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q90" s="31" t="s">
         <v>20</v>
@@ -12815,16 +12838,16 @@
     <row r="91" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L91" s="43"/>
       <c r="M91" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N91" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O91" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P91" s="31" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="Q91" s="31" t="s">
         <v>20</v>
@@ -12834,16 +12857,16 @@
     <row r="92" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L92" s="43"/>
       <c r="M92" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N92" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O92" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P92" s="31" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="Q92" s="31" t="s">
         <v>20</v>
@@ -12859,7 +12882,7 @@
         <v>313</v>
       </c>
       <c r="O93" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P93" s="31" t="s">
         <v>19</v>
@@ -12872,16 +12895,16 @@
     <row r="94" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L94" s="43"/>
       <c r="M94" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N94" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O94" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P94" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q94" s="31" t="s">
         <v>20</v>
@@ -12891,16 +12914,16 @@
     <row r="95" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L95" s="43"/>
       <c r="M95" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N95" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O95" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P95" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q95" s="31" t="s">
         <v>20</v>
@@ -12916,10 +12939,10 @@
         <v>313</v>
       </c>
       <c r="O96" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P96" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q96" s="31" t="s">
         <v>20</v>
@@ -12935,7 +12958,7 @@
         <v>313</v>
       </c>
       <c r="O97" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P97" s="31" t="s">
         <v>19</v>
@@ -12954,10 +12977,10 @@
         <v>313</v>
       </c>
       <c r="O98" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P98" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q98" s="31" t="s">
         <v>20</v>
@@ -12966,17 +12989,17 @@
     </row>
     <row r="99" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L99" s="43"/>
-      <c r="M99" s="74">
-        <v>5</v>
+      <c r="M99" s="33">
+        <v>25</v>
       </c>
       <c r="N99" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O99" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P99" s="31" t="s">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="Q99" s="31" t="s">
         <v>20</v>
@@ -12985,17 +13008,17 @@
     </row>
     <row r="100" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L100" s="43"/>
-      <c r="M100" s="33">
-        <v>16</v>
+      <c r="M100" s="74">
+        <v>5</v>
       </c>
       <c r="N100" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O100" s="31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P100" s="31" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="Q100" s="31" t="s">
         <v>20</v>
@@ -13005,16 +13028,16 @@
     <row r="101" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L101" s="43"/>
       <c r="M101" s="33">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N101" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O101" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P101" s="31" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="Q101" s="31" t="s">
         <v>20</v>
@@ -13030,7 +13053,7 @@
         <v>313</v>
       </c>
       <c r="O102" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P102" s="31" t="s">
         <v>179</v>
@@ -13043,16 +13066,16 @@
     <row r="103" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L103" s="43"/>
       <c r="M103" s="33">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="N103" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O103" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P103" s="31" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="Q103" s="31" t="s">
         <v>20</v>
@@ -13062,13 +13085,13 @@
     <row r="104" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L104" s="43"/>
       <c r="M104" s="33">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N104" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O104" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P104" s="31" t="s">
         <v>85</v>
@@ -13081,16 +13104,16 @@
     <row r="105" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L105" s="43"/>
       <c r="M105" s="33">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N105" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O105" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P105" s="31" t="s">
-        <v>278</v>
+        <v>85</v>
       </c>
       <c r="Q105" s="31" t="s">
         <v>20</v>
@@ -13100,13 +13123,13 @@
     <row r="106" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L106" s="43"/>
       <c r="M106" s="33">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="N106" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O106" s="31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P106" s="31" t="s">
         <v>278</v>
@@ -13125,10 +13148,10 @@
         <v>313</v>
       </c>
       <c r="O107" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P107" s="31" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="Q107" s="31" t="s">
         <v>20</v>
@@ -13144,10 +13167,10 @@
         <v>313</v>
       </c>
       <c r="O108" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P108" s="31" t="s">
-        <v>271</v>
+        <v>38</v>
       </c>
       <c r="Q108" s="31" t="s">
         <v>20</v>
@@ -13163,7 +13186,7 @@
         <v>313</v>
       </c>
       <c r="O109" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P109" s="31" t="s">
         <v>271</v>
@@ -13182,7 +13205,7 @@
         <v>313</v>
       </c>
       <c r="O110" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P110" s="31" t="s">
         <v>271</v>
@@ -13201,7 +13224,7 @@
         <v>313</v>
       </c>
       <c r="O111" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P111" s="31" t="s">
         <v>271</v>
@@ -13220,7 +13243,7 @@
         <v>313</v>
       </c>
       <c r="O112" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P112" s="31" t="s">
         <v>271</v>
@@ -13239,7 +13262,7 @@
         <v>313</v>
       </c>
       <c r="O113" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P113" s="31" t="s">
         <v>271</v>
@@ -13258,10 +13281,10 @@
         <v>313</v>
       </c>
       <c r="O114" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P114" s="31" t="s">
-        <v>24</v>
+        <v>271</v>
       </c>
       <c r="Q114" s="31" t="s">
         <v>20</v>
@@ -13271,16 +13294,16 @@
     <row r="115" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L115" s="43"/>
       <c r="M115" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N115" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O115" s="31" t="s">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="P115" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q115" s="31" t="s">
         <v>20</v>
@@ -13290,13 +13313,13 @@
     <row r="116" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L116" s="43"/>
       <c r="M116" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N116" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O116" s="31" t="s">
-        <v>288</v>
+        <v>84</v>
       </c>
       <c r="P116" s="31" t="s">
         <v>16</v>
@@ -13309,13 +13332,13 @@
     <row r="117" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L117" s="43"/>
       <c r="M117" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N117" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O117" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P117" s="31" t="s">
         <v>16</v>
@@ -13323,21 +13346,21 @@
       <c r="Q117" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R117" s="37"/>
+      <c r="R117" s="34"/>
     </row>
     <row r="118" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L118" s="43"/>
       <c r="M118" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N118" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O118" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P118" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q118" s="31" t="s">
         <v>20</v>
@@ -13353,10 +13376,10 @@
         <v>313</v>
       </c>
       <c r="O119" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P119" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q119" s="31" t="s">
         <v>20</v>
@@ -13366,13 +13389,13 @@
     <row r="120" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L120" s="43"/>
       <c r="M120" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N120" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O120" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P120" s="31" t="s">
         <v>16</v>
@@ -13380,21 +13403,21 @@
       <c r="Q120" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R120" s="34"/>
+      <c r="R120" s="37"/>
     </row>
     <row r="121" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L121" s="43"/>
       <c r="M121" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N121" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O121" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P121" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q121" s="31" t="s">
         <v>20</v>
@@ -13410,10 +13433,10 @@
         <v>313</v>
       </c>
       <c r="O122" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P122" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q122" s="31" t="s">
         <v>20</v>
@@ -13423,13 +13446,13 @@
     <row r="123" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L123" s="43"/>
       <c r="M123" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N123" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O123" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P123" s="31" t="s">
         <v>16</v>
@@ -13448,7 +13471,7 @@
         <v>313</v>
       </c>
       <c r="O124" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P124" s="31" t="s">
         <v>16</v>
@@ -13467,7 +13490,7 @@
         <v>313</v>
       </c>
       <c r="O125" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P125" s="31" t="s">
         <v>16</v>
@@ -13486,7 +13509,7 @@
         <v>313</v>
       </c>
       <c r="O126" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P126" s="31" t="s">
         <v>16</v>
@@ -13499,16 +13522,16 @@
     <row r="127" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L127" s="43"/>
       <c r="M127" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N127" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O127" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P127" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q127" s="31" t="s">
         <v>20</v>
@@ -13518,16 +13541,16 @@
     <row r="128" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L128" s="43"/>
       <c r="M128" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N128" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O128" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P128" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q128" s="31" t="s">
         <v>20</v>
@@ -13537,13 +13560,13 @@
     <row r="129" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L129" s="43"/>
       <c r="M129" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N129" s="31" t="s">
         <v>313</v>
       </c>
       <c r="O129" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P129" s="31" t="s">
         <v>16</v>
@@ -13562,7 +13585,7 @@
         <v>313</v>
       </c>
       <c r="O130" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P130" s="31" t="s">
         <v>16</v>
@@ -13581,10 +13604,10 @@
         <v>313</v>
       </c>
       <c r="O131" s="31" t="s">
-        <v>772</v>
+        <v>302</v>
       </c>
       <c r="P131" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q131" s="31" t="s">
         <v>20</v>
@@ -13600,7 +13623,7 @@
         <v>313</v>
       </c>
       <c r="O132" s="31" t="s">
-        <v>303</v>
+        <v>772</v>
       </c>
       <c r="P132" s="31" t="s">
         <v>24</v>
@@ -13619,34 +13642,53 @@
         <v>313</v>
       </c>
       <c r="O133" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="P133" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q133" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R133" s="34"/>
+    </row>
+    <row r="134" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L134" s="43"/>
+      <c r="M134" s="33">
+        <v>25</v>
+      </c>
+      <c r="N134" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="O134" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="P133" s="31" t="s">
+      <c r="P134" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="Q133" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R133" s="34"/>
-    </row>
-    <row r="134" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L134" s="44"/>
-      <c r="M134" s="32">
+      <c r="Q134" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="34"/>
+    </row>
+    <row r="135" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L135" s="44"/>
+      <c r="M135" s="32">
         <v>25</v>
       </c>
-      <c r="N134" s="39" t="s">
+      <c r="N135" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="O134" s="39" t="s">
+      <c r="O135" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="P134" s="39" t="s">
+      <c r="P135" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="Q134" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R134" s="35"/>
+      <c r="Q135" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R135" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13667,10 +13709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R57"/>
+  <dimension ref="B1:R58"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51:R51"/>
+    <sheetView topLeftCell="I11" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13709,26 +13751,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="146" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
@@ -13741,13 +13783,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="154"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="155"/>
+      <c r="H4" s="132"/>
       <c r="I4" s="24" t="s">
         <v>779</v>
       </c>
@@ -13758,13 +13800,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="154"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="156"/>
+      <c r="H5" s="133"/>
       <c r="I5" s="28" t="s">
         <v>780</v>
       </c>
@@ -13779,29 +13821,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="159"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="132" t="s">
+      <c r="M7" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14968,22 +15010,22 @@
     </row>
     <row r="51" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L51" s="83"/>
-      <c r="M51" s="160">
+      <c r="M51" s="137">
         <v>13</v>
       </c>
-      <c r="N51" s="158" t="s">
+      <c r="N51" s="135" t="s">
         <v>306</v>
       </c>
-      <c r="O51" s="158" t="s">
+      <c r="O51" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="P51" s="158" t="s">
+      <c r="P51" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="Q51" s="158" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="161"/>
+      <c r="Q51" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="138"/>
     </row>
     <row r="52" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L52" s="83"/>
@@ -15063,14 +15105,14 @@
     </row>
     <row r="56" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L56" s="83"/>
-      <c r="M56" s="48">
+      <c r="M56" s="97">
         <v>19</v>
       </c>
       <c r="N56" s="31" t="s">
         <v>306</v>
       </c>
       <c r="O56" s="31" t="s">
-        <v>223</v>
+        <v>781</v>
       </c>
       <c r="P56" s="31" t="s">
         <v>186</v>
@@ -15080,24 +15122,43 @@
       </c>
       <c r="R56" s="37"/>
     </row>
-    <row r="57" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L57" s="84"/>
-      <c r="M57" s="53">
+    <row r="57" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L57" s="83"/>
+      <c r="M57" s="48">
         <v>19</v>
       </c>
-      <c r="N57" s="39" t="s">
+      <c r="N57" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="O57" s="39" t="s">
+      <c r="O57" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="P57" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="37"/>
+    </row>
+    <row r="58" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L58" s="84"/>
+      <c r="M58" s="53">
+        <v>19</v>
+      </c>
+      <c r="N58" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="O58" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="P57" s="39" t="s">
+      <c r="P58" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="Q57" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="103"/>
+      <c r="Q58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15118,10 +15179,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R134"/>
+  <dimension ref="B1:R135"/>
   <sheetViews>
-    <sheetView topLeftCell="K118" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51:R51"/>
+    <sheetView tabSelected="1" topLeftCell="I37" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15160,26 +15221,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
@@ -15192,13 +15253,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="154"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="155"/>
+      <c r="H4" s="132"/>
       <c r="I4" s="24" t="s">
         <v>779</v>
       </c>
@@ -15209,13 +15270,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="154"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="156"/>
+      <c r="H5" s="133"/>
       <c r="I5" s="28" t="s">
         <v>780</v>
       </c>
@@ -15230,29 +15291,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="159"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="151" t="s">
+      <c r="M7" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="153"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="162"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16841,7 +16902,7 @@
         <v>306</v>
       </c>
       <c r="O50" s="31" t="s">
-        <v>219</v>
+        <v>781</v>
       </c>
       <c r="P50" s="31" t="s">
         <v>186</v>
@@ -16849,7 +16910,7 @@
       <c r="Q50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="87"/>
+      <c r="R50" s="37"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="48">
@@ -16867,22 +16928,22 @@
       <c r="F51" s="70"/>
       <c r="G51" s="71"/>
       <c r="L51" s="43"/>
-      <c r="M51" s="160">
-        <v>87</v>
-      </c>
-      <c r="N51" s="158" t="s">
+      <c r="M51" s="48">
+        <v>95</v>
+      </c>
+      <c r="N51" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="O51" s="158" t="s">
-        <v>220</v>
-      </c>
-      <c r="P51" s="158" t="s">
+      <c r="O51" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="P51" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="Q51" s="158" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="161"/>
+      <c r="Q51" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="87"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="48">
@@ -16900,22 +16961,22 @@
       <c r="F52" s="70"/>
       <c r="G52" s="71"/>
       <c r="L52" s="43"/>
-      <c r="M52" s="59">
-        <v>107</v>
-      </c>
-      <c r="N52" s="109" t="s">
+      <c r="M52" s="137">
+        <v>87</v>
+      </c>
+      <c r="N52" s="135" t="s">
         <v>306</v>
       </c>
-      <c r="O52" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="P52" s="109" t="s">
+      <c r="O52" s="135" t="s">
+        <v>220</v>
+      </c>
+      <c r="P52" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="Q52" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="60"/>
+      <c r="Q52" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="138"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="74">
@@ -16933,22 +16994,22 @@
       <c r="F53" s="70"/>
       <c r="G53" s="71"/>
       <c r="L53" s="43"/>
-      <c r="M53" s="48">
-        <v>95</v>
-      </c>
-      <c r="N53" s="31" t="s">
+      <c r="M53" s="59">
+        <v>107</v>
+      </c>
+      <c r="N53" s="109" t="s">
         <v>306</v>
       </c>
-      <c r="O53" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="P53" s="31" t="s">
+      <c r="O53" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="109" t="s">
         <v>186</v>
       </c>
-      <c r="Q53" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R53" s="87"/>
+      <c r="Q53" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="60"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="48">
@@ -16967,13 +17028,13 @@
       <c r="G54" s="71"/>
       <c r="L54" s="43"/>
       <c r="M54" s="48">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N54" s="31" t="s">
         <v>306</v>
       </c>
       <c r="O54" s="31" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="P54" s="31" t="s">
         <v>186</v>
@@ -16999,14 +17060,14 @@
       <c r="F55" s="70"/>
       <c r="G55" s="71"/>
       <c r="L55" s="43"/>
-      <c r="M55" s="97">
-        <v>14</v>
+      <c r="M55" s="48">
+        <v>94</v>
       </c>
       <c r="N55" s="31" t="s">
         <v>306</v>
       </c>
       <c r="O55" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P55" s="31" t="s">
         <v>186</v>
@@ -17014,7 +17075,7 @@
       <c r="Q55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R55" s="37"/>
+      <c r="R55" s="87"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56" s="48">
@@ -17032,14 +17093,14 @@
       <c r="F56" s="70"/>
       <c r="G56" s="71"/>
       <c r="L56" s="43"/>
-      <c r="M56" s="48">
-        <v>95</v>
+      <c r="M56" s="97">
+        <v>14</v>
       </c>
       <c r="N56" s="31" t="s">
         <v>306</v>
       </c>
       <c r="O56" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P56" s="31" t="s">
         <v>186</v>
@@ -17049,7 +17110,7 @@
       </c>
       <c r="R56" s="37"/>
     </row>
-    <row r="57" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" s="74">
         <v>49</v>
       </c>
@@ -17064,25 +17125,25 @@
       </c>
       <c r="F57" s="70"/>
       <c r="G57" s="71"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="98">
+      <c r="L57" s="43"/>
+      <c r="M57" s="48">
         <v>95</v>
       </c>
-      <c r="N57" s="90" t="s">
+      <c r="N57" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="O57" s="90" t="s">
-        <v>224</v>
-      </c>
-      <c r="P57" s="90" t="s">
+      <c r="O57" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="P57" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="Q57" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="77"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="37"/>
+    </row>
+    <row r="58" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="48">
         <v>50</v>
       </c>
@@ -17097,25 +17158,23 @@
       </c>
       <c r="F58" s="70"/>
       <c r="G58" s="71"/>
-      <c r="L58" s="89"/>
-      <c r="M58" s="57">
-        <v>90</v>
-      </c>
-      <c r="N58" s="101" t="s">
-        <v>730</v>
-      </c>
-      <c r="O58" s="101" t="s">
-        <v>180</v>
-      </c>
-      <c r="P58" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q58" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="R58" s="88" t="s">
-        <v>177</v>
-      </c>
+      <c r="L58" s="44"/>
+      <c r="M58" s="98">
+        <v>95</v>
+      </c>
+      <c r="N58" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="O58" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="P58" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q58" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="77"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B59" s="48">
@@ -17132,23 +17191,25 @@
       </c>
       <c r="F59" s="70"/>
       <c r="G59" s="71"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="33">
-        <v>94</v>
-      </c>
-      <c r="N59" s="31" t="s">
+      <c r="L59" s="89"/>
+      <c r="M59" s="57">
+        <v>90</v>
+      </c>
+      <c r="N59" s="101" t="s">
         <v>730</v>
       </c>
-      <c r="O59" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="P59" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q59" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R59" s="34"/>
+      <c r="O59" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="P59" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q59" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="R59" s="88" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B60" s="48">
@@ -17167,16 +17228,16 @@
       <c r="G60" s="71"/>
       <c r="L60" s="83"/>
       <c r="M60" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N60" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O60" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P60" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q60" s="31" t="s">
         <v>20</v>
@@ -17200,16 +17261,16 @@
       <c r="G61" s="71"/>
       <c r="L61" s="83"/>
       <c r="M61" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N61" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O61" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P61" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q61" s="31" t="s">
         <v>20</v>
@@ -17233,16 +17294,16 @@
       <c r="G62" s="71"/>
       <c r="L62" s="83"/>
       <c r="M62" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N62" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O62" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P62" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q62" s="31" t="s">
         <v>20</v>
@@ -17266,16 +17327,16 @@
       <c r="G63" s="71"/>
       <c r="L63" s="83"/>
       <c r="M63" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N63" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O63" s="31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P63" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q63" s="31" t="s">
         <v>20</v>
@@ -17299,16 +17360,16 @@
       <c r="G64" s="71"/>
       <c r="L64" s="83"/>
       <c r="M64" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N64" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O64" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P64" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q64" s="31" t="s">
         <v>20</v>
@@ -17332,16 +17393,16 @@
       <c r="G65" s="71"/>
       <c r="L65" s="83"/>
       <c r="M65" s="33">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N65" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O65" s="31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P65" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q65" s="31" t="s">
         <v>20</v>
@@ -17365,16 +17426,16 @@
       <c r="G66" s="71"/>
       <c r="L66" s="83"/>
       <c r="M66" s="33">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N66" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O66" s="31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P66" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q66" s="31" t="s">
         <v>20</v>
@@ -17398,16 +17459,16 @@
       <c r="G67" s="71"/>
       <c r="L67" s="83"/>
       <c r="M67" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N67" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O67" s="31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P67" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q67" s="31" t="s">
         <v>20</v>
@@ -17431,16 +17492,16 @@
       <c r="G68" s="71"/>
       <c r="L68" s="83"/>
       <c r="M68" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N68" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O68" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P68" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q68" s="31" t="s">
         <v>20</v>
@@ -17464,16 +17525,16 @@
       <c r="G69" s="71"/>
       <c r="L69" s="83"/>
       <c r="M69" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N69" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O69" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P69" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q69" s="31" t="s">
         <v>20</v>
@@ -17497,16 +17558,16 @@
       <c r="G70" s="71"/>
       <c r="L70" s="83"/>
       <c r="M70" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N70" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O70" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P70" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q70" s="31" t="s">
         <v>20</v>
@@ -17530,16 +17591,16 @@
       <c r="G71" s="71"/>
       <c r="L71" s="83"/>
       <c r="M71" s="33">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="N71" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O71" s="31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P71" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q71" s="31" t="s">
         <v>20</v>
@@ -17563,16 +17624,16 @@
       <c r="G72" s="71"/>
       <c r="L72" s="83"/>
       <c r="M72" s="33">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="N72" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O72" s="31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P72" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q72" s="31" t="s">
         <v>20</v>
@@ -17596,16 +17657,16 @@
       <c r="G73" s="71"/>
       <c r="L73" s="83"/>
       <c r="M73" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N73" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O73" s="31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P73" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q73" s="31" t="s">
         <v>20</v>
@@ -17629,16 +17690,16 @@
       <c r="G74" s="71"/>
       <c r="L74" s="83"/>
       <c r="M74" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N74" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O74" s="31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P74" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q74" s="31" t="s">
         <v>20</v>
@@ -17661,22 +17722,22 @@
       <c r="F75" s="70"/>
       <c r="G75" s="71"/>
       <c r="L75" s="83"/>
-      <c r="M75" s="97">
-        <v>104</v>
+      <c r="M75" s="33">
+        <v>95</v>
       </c>
       <c r="N75" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O75" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P75" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q75" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R75" s="37"/>
+      <c r="R75" s="34"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="48">
@@ -17694,22 +17755,22 @@
       <c r="F76" s="70"/>
       <c r="G76" s="71"/>
       <c r="L76" s="83"/>
-      <c r="M76" s="33">
-        <v>95</v>
+      <c r="M76" s="97">
+        <v>104</v>
       </c>
       <c r="N76" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O76" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P76" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q76" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R76" s="34"/>
+      <c r="R76" s="37"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" s="74">
@@ -17728,16 +17789,16 @@
       <c r="G77" s="71"/>
       <c r="L77" s="83"/>
       <c r="M77" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N77" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O77" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P77" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q77" s="31" t="s">
         <v>20</v>
@@ -17761,16 +17822,16 @@
       <c r="G78" s="71"/>
       <c r="L78" s="83"/>
       <c r="M78" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N78" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O78" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P78" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q78" s="31" t="s">
         <v>20</v>
@@ -17793,22 +17854,22 @@
       <c r="F79" s="70"/>
       <c r="G79" s="71"/>
       <c r="L79" s="83"/>
-      <c r="M79" s="97">
-        <v>98</v>
+      <c r="M79" s="33">
+        <v>95</v>
       </c>
       <c r="N79" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O79" s="31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P79" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q79" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R79" s="37"/>
+      <c r="R79" s="34"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" s="48">
@@ -17826,22 +17887,22 @@
       <c r="F80" s="70"/>
       <c r="G80" s="71"/>
       <c r="L80" s="83"/>
-      <c r="M80" s="33">
-        <v>89</v>
+      <c r="M80" s="97">
+        <v>98</v>
       </c>
       <c r="N80" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O80" s="31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P80" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q80" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R80" s="34"/>
+      <c r="R80" s="37"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" s="74">
@@ -17860,16 +17921,16 @@
       <c r="G81" s="71"/>
       <c r="L81" s="83"/>
       <c r="M81" s="33">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N81" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O81" s="31" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P81" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q81" s="31" t="s">
         <v>20</v>
@@ -17893,16 +17954,16 @@
       <c r="G82" s="71"/>
       <c r="L82" s="83"/>
       <c r="M82" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N82" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O82" s="31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P82" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q82" s="31" t="s">
         <v>20</v>
@@ -17926,16 +17987,16 @@
       <c r="G83" s="71"/>
       <c r="L83" s="83"/>
       <c r="M83" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N83" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O83" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P83" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q83" s="31" t="s">
         <v>20</v>
@@ -17959,16 +18020,16 @@
       <c r="G84" s="71"/>
       <c r="L84" s="83"/>
       <c r="M84" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N84" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O84" s="31" t="s">
-        <v>321</v>
+        <v>466</v>
       </c>
       <c r="P84" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q84" s="31" t="s">
         <v>20</v>
@@ -17991,22 +18052,22 @@
       <c r="F85" s="70"/>
       <c r="G85" s="71"/>
       <c r="L85" s="83"/>
-      <c r="M85" s="48">
-        <v>105</v>
+      <c r="M85" s="33">
+        <v>95</v>
       </c>
       <c r="N85" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O85" s="31" t="s">
-        <v>467</v>
+        <v>321</v>
       </c>
       <c r="P85" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q85" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R85" s="37"/>
+      <c r="R85" s="34"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B86" s="48">
@@ -18024,22 +18085,22 @@
       <c r="F86" s="70"/>
       <c r="G86" s="71"/>
       <c r="L86" s="83"/>
-      <c r="M86" s="33">
-        <v>95</v>
+      <c r="M86" s="48">
+        <v>105</v>
       </c>
       <c r="N86" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O86" s="31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P86" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q86" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R86" s="34"/>
+      <c r="R86" s="37"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B87" s="48">
@@ -18058,16 +18119,16 @@
       <c r="G87" s="71"/>
       <c r="L87" s="83"/>
       <c r="M87" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N87" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O87" s="31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P87" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q87" s="31" t="s">
         <v>20</v>
@@ -18091,16 +18152,16 @@
       <c r="G88" s="71"/>
       <c r="L88" s="83"/>
       <c r="M88" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N88" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O88" s="31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P88" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q88" s="31" t="s">
         <v>20</v>
@@ -18130,10 +18191,10 @@
         <v>730</v>
       </c>
       <c r="O89" s="31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P89" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q89" s="31" t="s">
         <v>20</v>
@@ -18163,10 +18224,10 @@
         <v>730</v>
       </c>
       <c r="O90" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P90" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q90" s="31" t="s">
         <v>20</v>
@@ -18196,7 +18257,7 @@
         <v>730</v>
       </c>
       <c r="O91" s="31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P91" s="31" t="s">
         <v>19</v>
@@ -18223,16 +18284,16 @@
       <c r="G92" s="71"/>
       <c r="L92" s="83"/>
       <c r="M92" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N92" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O92" s="31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P92" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q92" s="31" t="s">
         <v>20</v>
@@ -18256,16 +18317,16 @@
       <c r="G93" s="71"/>
       <c r="L93" s="83"/>
       <c r="M93" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N93" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O93" s="31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P93" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q93" s="31" t="s">
         <v>20</v>
@@ -18295,7 +18356,7 @@
         <v>730</v>
       </c>
       <c r="O94" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P94" s="31" t="s">
         <v>19</v>
@@ -18321,14 +18382,14 @@
       <c r="F95" s="70"/>
       <c r="G95" s="71"/>
       <c r="L95" s="83"/>
-      <c r="M95" s="74">
-        <v>81</v>
+      <c r="M95" s="33">
+        <v>95</v>
       </c>
       <c r="N95" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O95" s="31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P95" s="31" t="s">
         <v>19</v>
@@ -18354,17 +18415,17 @@
       <c r="F96" s="70"/>
       <c r="G96" s="71"/>
       <c r="L96" s="83"/>
-      <c r="M96" s="33">
-        <v>95</v>
+      <c r="M96" s="74">
+        <v>81</v>
       </c>
       <c r="N96" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O96" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P96" s="31" t="s">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="Q96" s="31" t="s">
         <v>20</v>
@@ -18394,7 +18455,7 @@
         <v>730</v>
       </c>
       <c r="O97" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P97" s="31" t="s">
         <v>271</v>
@@ -18413,10 +18474,10 @@
         <v>730</v>
       </c>
       <c r="O98" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P98" s="31" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q98" s="31" t="s">
         <v>20</v>
@@ -18426,13 +18487,13 @@
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L99" s="83"/>
       <c r="M99" s="33">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="N99" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O99" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P99" s="31" t="s">
         <v>278</v>
@@ -18445,16 +18506,16 @@
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L100" s="83"/>
       <c r="M100" s="33">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="N100" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O100" s="31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P100" s="31" t="s">
-        <v>483</v>
+        <v>278</v>
       </c>
       <c r="Q100" s="31" t="s">
         <v>20</v>
@@ -18464,16 +18525,16 @@
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L101" s="83"/>
       <c r="M101" s="33">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N101" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O101" s="31" t="s">
-        <v>84</v>
+        <v>482</v>
       </c>
       <c r="P101" s="31" t="s">
-        <v>16</v>
+        <v>483</v>
       </c>
       <c r="Q101" s="31" t="s">
         <v>20</v>
@@ -18483,16 +18544,16 @@
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L102" s="83"/>
       <c r="M102" s="33">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="N102" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O102" s="31" t="s">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="P102" s="31" t="s">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="Q102" s="31" t="s">
         <v>20</v>
@@ -18502,16 +18563,16 @@
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L103" s="83"/>
       <c r="M103" s="33">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="N103" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O103" s="31" t="s">
-        <v>484</v>
+        <v>222</v>
       </c>
       <c r="P103" s="31" t="s">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="Q103" s="31" t="s">
         <v>20</v>
@@ -18521,16 +18582,16 @@
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L104" s="83"/>
       <c r="M104" s="33">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="N104" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O104" s="31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P104" s="31" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="Q104" s="31" t="s">
         <v>20</v>
@@ -18540,13 +18601,13 @@
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L105" s="83"/>
       <c r="M105" s="33">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="N105" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O105" s="31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P105" s="31" t="s">
         <v>16</v>
@@ -18559,16 +18620,16 @@
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L106" s="83"/>
       <c r="M106" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N106" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O106" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P106" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q106" s="31" t="s">
         <v>20</v>
@@ -18584,10 +18645,10 @@
         <v>730</v>
       </c>
       <c r="O107" s="31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P107" s="31" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q107" s="31" t="s">
         <v>20</v>
@@ -18603,7 +18664,7 @@
         <v>730</v>
       </c>
       <c r="O108" s="31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P108" s="31" t="s">
         <v>38</v>
@@ -18622,7 +18683,7 @@
         <v>730</v>
       </c>
       <c r="O109" s="31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P109" s="31" t="s">
         <v>38</v>
@@ -18635,146 +18696,146 @@
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L110" s="83"/>
       <c r="M110" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N110" s="31" t="s">
         <v>730</v>
       </c>
       <c r="O110" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="P110" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q110" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R110" s="34"/>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L111" s="83"/>
+      <c r="M111" s="33">
+        <v>94</v>
+      </c>
+      <c r="N111" s="31" t="s">
+        <v>730</v>
+      </c>
+      <c r="O111" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="P110" s="31" t="s">
+      <c r="P111" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q110" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R110" s="34"/>
-    </row>
-    <row r="111" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L111" s="84"/>
-      <c r="M111" s="32">
+      <c r="Q111" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R111" s="34"/>
+    </row>
+    <row r="112" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L112" s="84"/>
+      <c r="M112" s="32">
         <v>71</v>
       </c>
-      <c r="N111" s="39" t="s">
+      <c r="N112" s="39" t="s">
         <v>730</v>
       </c>
-      <c r="O111" s="39" t="s">
+      <c r="O112" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="P111" s="114" t="s">
+      <c r="P112" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="Q111" s="114" t="s">
-        <v>20</v>
-      </c>
-      <c r="R111" s="35"/>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L112" s="80"/>
-      <c r="M112" s="124">
+      <c r="Q112" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="R112" s="35"/>
+    </row>
+    <row r="113" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L113" s="80"/>
+      <c r="M113" s="124">
         <v>90</v>
       </c>
-      <c r="N112" s="115" t="s">
+      <c r="N113" s="115" t="s">
         <v>520</v>
       </c>
-      <c r="O112" s="115" t="s">
+      <c r="O113" s="115" t="s">
         <v>496</v>
       </c>
-      <c r="P112" s="115" t="s">
+      <c r="P113" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="Q112" s="115" t="s">
+      <c r="Q113" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="R112" s="125"/>
-    </row>
-    <row r="113" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L113" s="43"/>
-      <c r="M113" s="33">
-        <v>94</v>
-      </c>
-      <c r="N113" s="31" t="s">
-        <v>520</v>
-      </c>
-      <c r="O113" s="31" t="s">
-        <v>497</v>
-      </c>
-      <c r="P113" s="31" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q113" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R113" s="34"/>
+      <c r="R113" s="125"/>
     </row>
     <row r="114" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L114" s="43"/>
       <c r="M114" s="33">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N114" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O114" s="31" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="P114" s="31" t="s">
-        <v>16</v>
+        <v>498</v>
       </c>
       <c r="Q114" s="31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R114" s="34"/>
     </row>
     <row r="115" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L115" s="43"/>
       <c r="M115" s="33">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N115" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O115" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P115" s="31" t="s">
-        <v>498</v>
+        <v>16</v>
       </c>
       <c r="Q115" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R115" s="34"/>
     </row>
     <row r="116" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L116" s="43"/>
-      <c r="M116" s="97">
-        <v>98</v>
+      <c r="M116" s="33">
+        <v>94</v>
       </c>
       <c r="N116" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O116" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P116" s="31" t="s">
-        <v>24</v>
+        <v>498</v>
       </c>
       <c r="Q116" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R116" s="37"/>
+      <c r="R116" s="34"/>
     </row>
     <row r="117" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L117" s="43"/>
-      <c r="M117" s="33">
-        <v>89</v>
+      <c r="M117" s="97">
+        <v>98</v>
       </c>
       <c r="N117" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O117" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P117" s="31" t="s">
         <v>24</v>
@@ -18782,18 +18843,18 @@
       <c r="Q117" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R117" s="34"/>
+      <c r="R117" s="37"/>
     </row>
     <row r="118" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L118" s="43"/>
       <c r="M118" s="33">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N118" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O118" s="31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P118" s="31" t="s">
         <v>24</v>
@@ -18806,16 +18867,16 @@
     <row r="119" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L119" s="43"/>
       <c r="M119" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N119" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O119" s="31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P119" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q119" s="31" t="s">
         <v>20</v>
@@ -18825,16 +18886,16 @@
     <row r="120" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L120" s="43"/>
       <c r="M120" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N120" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O120" s="31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P120" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q120" s="31" t="s">
         <v>20</v>
@@ -18844,16 +18905,16 @@
     <row r="121" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L121" s="43"/>
       <c r="M121" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N121" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O121" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P121" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q121" s="31" t="s">
         <v>20</v>
@@ -18863,16 +18924,16 @@
     <row r="122" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L122" s="43"/>
       <c r="M122" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N122" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O122" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P122" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q122" s="31" t="s">
         <v>20</v>
@@ -18882,16 +18943,16 @@
     <row r="123" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L123" s="43"/>
       <c r="M123" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N123" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O123" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P123" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q123" s="31" t="s">
         <v>20</v>
@@ -18901,16 +18962,16 @@
     <row r="124" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L124" s="43"/>
       <c r="M124" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N124" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O124" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P124" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q124" s="31" t="s">
         <v>20</v>
@@ -18920,16 +18981,16 @@
     <row r="125" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L125" s="43"/>
       <c r="M125" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N125" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O125" s="31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P125" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q125" s="31" t="s">
         <v>20</v>
@@ -18939,16 +19000,16 @@
     <row r="126" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L126" s="43"/>
       <c r="M126" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N126" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O126" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P126" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q126" s="31" t="s">
         <v>20</v>
@@ -18958,16 +19019,16 @@
     <row r="127" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L127" s="43"/>
       <c r="M127" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N127" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O127" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P127" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q127" s="31" t="s">
         <v>20</v>
@@ -18977,16 +19038,16 @@
     <row r="128" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L128" s="43"/>
       <c r="M128" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N128" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O128" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P128" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q128" s="31" t="s">
         <v>20</v>
@@ -18996,16 +19057,16 @@
     <row r="129" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L129" s="43"/>
       <c r="M129" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N129" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O129" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P129" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q129" s="31" t="s">
         <v>20</v>
@@ -19015,16 +19076,16 @@
     <row r="130" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L130" s="43"/>
       <c r="M130" s="33">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N130" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O130" s="31" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P130" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q130" s="31" t="s">
         <v>20</v>
@@ -19034,16 +19095,16 @@
     <row r="131" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L131" s="43"/>
       <c r="M131" s="33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N131" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O131" s="31" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P131" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q131" s="31" t="s">
         <v>20</v>
@@ -19053,16 +19114,16 @@
     <row r="132" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L132" s="43"/>
       <c r="M132" s="33">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="N132" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O132" s="31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P132" s="31" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q132" s="31" t="s">
         <v>20</v>
@@ -19072,13 +19133,13 @@
     <row r="133" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L133" s="43"/>
       <c r="M133" s="33">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="N133" s="31" t="s">
         <v>520</v>
       </c>
       <c r="O133" s="31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P133" s="31" t="s">
         <v>38</v>
@@ -19088,24 +19149,43 @@
       </c>
       <c r="R133" s="34"/>
     </row>
-    <row r="134" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L134" s="44"/>
-      <c r="M134" s="32">
+    <row r="134" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L134" s="43"/>
+      <c r="M134" s="33">
+        <v>94</v>
+      </c>
+      <c r="N134" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="O134" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="P134" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q134" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="34"/>
+    </row>
+    <row r="135" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L135" s="44"/>
+      <c r="M135" s="32">
         <v>2</v>
       </c>
-      <c r="N134" s="39" t="s">
+      <c r="N135" s="39" t="s">
         <v>520</v>
       </c>
-      <c r="O134" s="39" t="s">
+      <c r="O135" s="39" t="s">
         <v>519</v>
       </c>
-      <c r="P134" s="39" t="s">
+      <c r="P135" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="Q134" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R134" s="35"/>
+      <c r="Q135" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R135" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19168,26 +19248,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="146" t="s">
         <v>594</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
@@ -19200,13 +19280,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="154"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="155"/>
+      <c r="H4" s="132"/>
       <c r="I4" s="24" t="s">
         <v>779</v>
       </c>
@@ -19217,13 +19297,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="154"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="156"/>
+      <c r="H5" s="133"/>
       <c r="I5" s="28" t="s">
         <v>780</v>
       </c>
@@ -19238,29 +19318,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="159"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="151" t="s">
+      <c r="M7" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="153"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="162"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -19687,22 +19767,22 @@
         <v>35</v>
       </c>
       <c r="L17" s="49"/>
-      <c r="M17" s="157">
+      <c r="M17" s="134">
         <v>27</v>
       </c>
-      <c r="N17" s="158" t="s">
+      <c r="N17" s="135" t="s">
         <v>578</v>
       </c>
-      <c r="O17" s="158" t="s">
+      <c r="O17" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="P17" s="158" t="s">
+      <c r="P17" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="158" t="s">
+      <c r="Q17" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="R17" s="159" t="s">
+      <c r="R17" s="136" t="s">
         <v>177</v>
       </c>
     </row>
@@ -20527,26 +20607,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="146" t="s">
         <v>612</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
@@ -20559,13 +20639,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="154"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="155"/>
+      <c r="H4" s="132"/>
       <c r="I4" s="24" t="s">
         <v>779</v>
       </c>
@@ -20576,13 +20656,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="154"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="156"/>
+      <c r="H5" s="133"/>
       <c r="I5" s="28" t="s">
         <v>780</v>
       </c>
@@ -20597,29 +20677,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="159"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="154" t="s">
+      <c r="M7" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="153"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="162"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -21177,26 +21257,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="146" t="s">
         <v>615</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
@@ -21209,13 +21289,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="154"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="155"/>
+      <c r="H4" s="132"/>
       <c r="I4" s="24" t="s">
         <v>779</v>
       </c>
@@ -21226,13 +21306,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="154"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="156"/>
+      <c r="H5" s="133"/>
       <c r="I5" s="28" t="s">
         <v>780</v>
       </c>
@@ -21247,29 +21327,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="159"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="154" t="s">
+      <c r="M7" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="153"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="162"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -23226,7 +23306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4:J5"/>
     </sheetView>
   </sheetViews>
@@ -23266,26 +23346,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="146" t="s">
         <v>732</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
@@ -23298,13 +23378,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="154"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="155"/>
+      <c r="H4" s="132"/>
       <c r="I4" s="24" t="s">
         <v>779</v>
       </c>
@@ -23315,13 +23395,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="154"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="156"/>
+      <c r="H5" s="133"/>
       <c r="I5" s="28" t="s">
         <v>780</v>
       </c>
@@ -23336,29 +23416,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="159"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="154" t="s">
+      <c r="M7" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="153"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="162"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">

--- a/Cnl/Mapeos_INV_CNL_V1.xlsx
+++ b/Cnl/Mapeos_INV_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583" activeTab="3"/>
+    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="T20TERCERO" sheetId="28" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="782">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -5717,7 +5717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5727,8 +5727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S210"/>
   <sheetViews>
-    <sheetView topLeftCell="L46" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" topLeftCell="L184" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10724,8 +10724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R135"/>
   <sheetViews>
-    <sheetView topLeftCell="I40" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView topLeftCell="K124" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11009,7 +11009,9 @@
         <v>15</v>
       </c>
       <c r="F11" s="61"/>
-      <c r="G11" s="69"/>
+      <c r="G11" s="69" t="s">
+        <v>177</v>
+      </c>
       <c r="H11" s="43"/>
       <c r="I11" s="42">
         <v>22</v>
@@ -13711,7 +13713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R58"/>
   <sheetViews>
-    <sheetView topLeftCell="I11" workbookViewId="0">
+    <sheetView topLeftCell="K8" workbookViewId="0">
       <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
@@ -15181,8 +15183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I37" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="K22" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15378,7 +15380,9 @@
         <v>20</v>
       </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="62"/>
+      <c r="G9" s="62" t="s">
+        <v>177</v>
+      </c>
       <c r="H9" s="43"/>
       <c r="I9" s="92">
         <v>90</v>
@@ -19208,8 +19212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:R17"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19536,7 +19540,9 @@
         <v>20</v>
       </c>
       <c r="F12" s="61"/>
-      <c r="G12" s="69"/>
+      <c r="G12" s="69" t="s">
+        <v>177</v>
+      </c>
       <c r="H12" s="43"/>
       <c r="I12" s="42">
         <v>25</v>
@@ -20568,7 +20574,7 @@
   <dimension ref="B1:R25"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:J5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21006,7 +21012,9 @@
         <v>20</v>
       </c>
       <c r="F15" s="70"/>
-      <c r="G15" s="86"/>
+      <c r="G15" s="86" t="s">
+        <v>177</v>
+      </c>
       <c r="H15" s="43"/>
       <c r="L15" s="84"/>
       <c r="M15" s="53">
@@ -21217,8 +21225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R122"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:J5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21441,7 +21449,9 @@
       <c r="Q9" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="41"/>
+      <c r="R9" s="41" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="48">
@@ -21683,7 +21693,9 @@
         <v>20</v>
       </c>
       <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
+      <c r="G22" s="71" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="48">
@@ -23306,8 +23318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:J5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23503,7 +23515,9 @@
         <v>50</v>
       </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="62"/>
+      <c r="G9" s="62" t="s">
+        <v>177</v>
+      </c>
       <c r="H9" s="43"/>
       <c r="I9" s="92">
         <v>3</v>

--- a/Cnl/Mapeos_INV_CNL_V1.xlsx
+++ b/Cnl/Mapeos_INV_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583"/>
+    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T20TERCERO" sheetId="28" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="782">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -5717,7 +5717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5727,7 +5727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L184" workbookViewId="0">
+    <sheetView topLeftCell="L191" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -10724,7 +10724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R135"/>
   <sheetViews>
-    <sheetView topLeftCell="K124" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -13713,7 +13713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R58"/>
   <sheetViews>
-    <sheetView topLeftCell="K8" workbookViewId="0">
+    <sheetView topLeftCell="K39" workbookViewId="0">
       <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
@@ -15183,8 +15183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R135"/>
   <sheetViews>
-    <sheetView topLeftCell="K22" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="K116" workbookViewId="0">
+      <selection activeCell="R115" sqref="R115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18771,7 +18771,9 @@
       <c r="Q113" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="R113" s="125"/>
+      <c r="R113" s="125" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="114" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L114" s="43"/>

--- a/Cnl/Mapeos_INV_CNL_V1.xlsx
+++ b/Cnl/Mapeos_INV_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="T20TERCERO" sheetId="28" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="787">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3631,16 +3631,29 @@
   </si>
   <si>
     <t>ID_TIP_TEN_VIV</t>
+  </si>
+  <si>
+    <t>ID_SUC_PRI</t>
+  </si>
+  <si>
+    <t>ID_REL_AGTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3816,6 +3829,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4624,253 +4643,299 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4885,11 +4950,11 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4897,83 +4962,101 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="129" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="130" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4982,80 +5065,68 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="129" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="131" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="130" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="176" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="177">
     <cellStyle name="20% - Accent1" xfId="1"/>
     <cellStyle name="20% - Accent2" xfId="2"/>
     <cellStyle name="20% - Accent3" xfId="3"/>
@@ -5064,16 +5135,22 @@
     <cellStyle name="20% - Accent6" xfId="6"/>
     <cellStyle name="20% - Énfasis1" xfId="7" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis1 2" xfId="88"/>
+    <cellStyle name="20% - Énfasis1 3" xfId="133"/>
     <cellStyle name="20% - Énfasis2" xfId="8" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2 2" xfId="89"/>
+    <cellStyle name="20% - Énfasis2 3" xfId="134"/>
     <cellStyle name="20% - Énfasis3" xfId="9" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3 2" xfId="90"/>
+    <cellStyle name="20% - Énfasis3 3" xfId="135"/>
     <cellStyle name="20% - Énfasis4" xfId="10" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis4 2" xfId="91"/>
+    <cellStyle name="20% - Énfasis4 3" xfId="136"/>
     <cellStyle name="20% - Énfasis5" xfId="11" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis5 2" xfId="92"/>
+    <cellStyle name="20% - Énfasis5 3" xfId="137"/>
     <cellStyle name="20% - Énfasis6" xfId="12" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis6 2" xfId="93"/>
+    <cellStyle name="20% - Énfasis6 3" xfId="138"/>
     <cellStyle name="40% - Accent1" xfId="13"/>
     <cellStyle name="40% - Accent2" xfId="14"/>
     <cellStyle name="40% - Accent3" xfId="15"/>
@@ -5082,16 +5159,22 @@
     <cellStyle name="40% - Accent6" xfId="18"/>
     <cellStyle name="40% - Énfasis1" xfId="19" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis1 2" xfId="94"/>
+    <cellStyle name="40% - Énfasis1 3" xfId="139"/>
     <cellStyle name="40% - Énfasis2" xfId="20" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis2 2" xfId="95"/>
+    <cellStyle name="40% - Énfasis2 3" xfId="140"/>
     <cellStyle name="40% - Énfasis3" xfId="21" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis3 2" xfId="96"/>
+    <cellStyle name="40% - Énfasis3 3" xfId="141"/>
     <cellStyle name="40% - Énfasis4" xfId="22" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis4 2" xfId="97"/>
+    <cellStyle name="40% - Énfasis4 3" xfId="142"/>
     <cellStyle name="40% - Énfasis5" xfId="23" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis5 2" xfId="98"/>
+    <cellStyle name="40% - Énfasis5 3" xfId="143"/>
     <cellStyle name="40% - Énfasis6" xfId="24" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis6 2" xfId="99"/>
+    <cellStyle name="40% - Énfasis6 3" xfId="144"/>
     <cellStyle name="60% - Accent1" xfId="25"/>
     <cellStyle name="60% - Accent2" xfId="26"/>
     <cellStyle name="60% - Accent3" xfId="27"/>
@@ -5100,16 +5183,22 @@
     <cellStyle name="60% - Accent6" xfId="30"/>
     <cellStyle name="60% - Énfasis1" xfId="31" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis1 2" xfId="100"/>
+    <cellStyle name="60% - Énfasis1 3" xfId="145"/>
     <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis2 2" xfId="101"/>
+    <cellStyle name="60% - Énfasis2 3" xfId="146"/>
     <cellStyle name="60% - Énfasis3" xfId="33" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis3 2" xfId="102"/>
+    <cellStyle name="60% - Énfasis3 3" xfId="147"/>
     <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis4 2" xfId="103"/>
+    <cellStyle name="60% - Énfasis4 3" xfId="148"/>
     <cellStyle name="60% - Énfasis5" xfId="35" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5 2" xfId="104"/>
+    <cellStyle name="60% - Énfasis5 3" xfId="149"/>
     <cellStyle name="60% - Énfasis6" xfId="36" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6 2" xfId="105"/>
+    <cellStyle name="60% - Énfasis6 3" xfId="150"/>
     <cellStyle name="Accent1" xfId="37"/>
     <cellStyle name="Accent2" xfId="38"/>
     <cellStyle name="Accent3" xfId="39"/>
@@ -5119,30 +5208,42 @@
     <cellStyle name="Bad" xfId="43"/>
     <cellStyle name="Buena" xfId="44" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Buena 2" xfId="106"/>
+    <cellStyle name="Buena 3" xfId="151"/>
     <cellStyle name="Calculation" xfId="45"/>
     <cellStyle name="Cálculo" xfId="46" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cálculo 2" xfId="107"/>
+    <cellStyle name="Cálculo 3" xfId="152"/>
     <cellStyle name="Celda de comprobación" xfId="47" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación 2" xfId="108"/>
+    <cellStyle name="Celda de comprobación 3" xfId="153"/>
     <cellStyle name="Celda vinculada" xfId="48" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Celda vinculada 2" xfId="109"/>
+    <cellStyle name="Celda vinculada 3" xfId="154"/>
     <cellStyle name="Check Cell" xfId="49"/>
     <cellStyle name="Encabezado 4" xfId="50" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Encabezado 4 2" xfId="110"/>
+    <cellStyle name="Encabezado 4 3" xfId="155"/>
     <cellStyle name="Énfasis1" xfId="51" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis1 2" xfId="111"/>
+    <cellStyle name="Énfasis1 3" xfId="156"/>
     <cellStyle name="Énfasis2" xfId="52" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Énfasis2 2" xfId="112"/>
+    <cellStyle name="Énfasis2 3" xfId="157"/>
     <cellStyle name="Énfasis3" xfId="53" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Énfasis3 2" xfId="113"/>
+    <cellStyle name="Énfasis3 3" xfId="158"/>
     <cellStyle name="Énfasis4" xfId="54" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Énfasis4 2" xfId="114"/>
+    <cellStyle name="Énfasis4 3" xfId="159"/>
     <cellStyle name="Énfasis5" xfId="55" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis5 2" xfId="115"/>
+    <cellStyle name="Énfasis5 3" xfId="160"/>
     <cellStyle name="Énfasis6" xfId="56" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Énfasis6 2" xfId="116"/>
+    <cellStyle name="Énfasis6 3" xfId="161"/>
     <cellStyle name="Entrada" xfId="57" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Entrada 2" xfId="117"/>
+    <cellStyle name="Entrada 3" xfId="162"/>
     <cellStyle name="Explanatory Text" xfId="58"/>
     <cellStyle name="Good" xfId="59"/>
     <cellStyle name="Heading 1" xfId="60"/>
@@ -5151,41 +5252,57 @@
     <cellStyle name="Heading 4" xfId="63"/>
     <cellStyle name="Incorrecto" xfId="64" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Incorrecto 2" xfId="118"/>
+    <cellStyle name="Incorrecto 3" xfId="163"/>
     <cellStyle name="Input" xfId="65"/>
     <cellStyle name="l]_x000d__x000a_MultiplesUnidades=True_x000d__x000a_log=2_x000d__x000a_DistribucionForm=False_x000d__x000a_Novedades=proxy:8080/data/sim/sim44htm" xfId="66"/>
     <cellStyle name="Linked Cell" xfId="67"/>
     <cellStyle name="Neutral" xfId="68" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Neutral 2" xfId="119"/>
+    <cellStyle name="Neutral 3" xfId="164"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="69"/>
     <cellStyle name="Normal 3" xfId="85"/>
     <cellStyle name="Normal 4" xfId="87"/>
     <cellStyle name="Normal 5" xfId="86"/>
     <cellStyle name="Normal 5 2" xfId="130"/>
+    <cellStyle name="Normal 5 2 2" xfId="176"/>
+    <cellStyle name="Normal 5 3" xfId="174"/>
     <cellStyle name="Normal 6" xfId="129"/>
+    <cellStyle name="Normal 6 2" xfId="175"/>
+    <cellStyle name="Normal 7" xfId="132"/>
+    <cellStyle name="Normal 8" xfId="131"/>
     <cellStyle name="Normal_Libro1" xfId="70"/>
     <cellStyle name="Normal_Planilla_Mapeo_CCCLTEMT" xfId="71"/>
     <cellStyle name="Notas" xfId="72" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Notas 2" xfId="120"/>
+    <cellStyle name="Notas 3" xfId="165"/>
     <cellStyle name="Note" xfId="73"/>
     <cellStyle name="Output" xfId="74"/>
     <cellStyle name="Salida" xfId="75" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Salida 2" xfId="121"/>
+    <cellStyle name="Salida 3" xfId="166"/>
     <cellStyle name="Texto de advertencia" xfId="76" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia 2" xfId="122"/>
+    <cellStyle name="Texto de advertencia 3" xfId="167"/>
     <cellStyle name="Texto explicativo" xfId="77" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Texto explicativo 2" xfId="123"/>
+    <cellStyle name="Texto explicativo 3" xfId="168"/>
     <cellStyle name="Title" xfId="78"/>
     <cellStyle name="Título" xfId="79" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 1" xfId="80"/>
     <cellStyle name="Título 1 2" xfId="125"/>
+    <cellStyle name="Título 1 3" xfId="170"/>
     <cellStyle name="Título 2" xfId="81" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 2 2" xfId="126"/>
+    <cellStyle name="Título 2 3" xfId="171"/>
     <cellStyle name="Título 3" xfId="82" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Título 3 2" xfId="127"/>
+    <cellStyle name="Título 3 3" xfId="172"/>
     <cellStyle name="Título 4" xfId="124"/>
+    <cellStyle name="Título 5" xfId="169"/>
     <cellStyle name="Total" xfId="83" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Total 2" xfId="128"/>
+    <cellStyle name="Total 3" xfId="173"/>
     <cellStyle name="Warning Text" xfId="84"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5577,7 +5694,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5585,10 +5702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S211"/>
+  <dimension ref="B1:S213"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:S211"/>
+    <sheetView tabSelected="1" topLeftCell="D131" workbookViewId="0">
+      <selection activeCell="M152" sqref="M152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5628,26 +5745,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="133"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="153"/>
       <c r="G3" s="10"/>
       <c r="H3" s="67"/>
       <c r="I3" s="24" t="s">
@@ -5660,11 +5777,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
       <c r="G4" s="7"/>
       <c r="H4" s="121"/>
       <c r="I4" s="24" t="s">
@@ -5677,11 +5794,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="156"/>
       <c r="G5" s="7"/>
       <c r="H5" s="122"/>
       <c r="I5" s="28" t="s">
@@ -5698,30 +5815,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="146"/>
-      <c r="K7" s="147"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="161"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="129" t="s">
+      <c r="M7" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="144"/>
+      <c r="S7" s="144"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6204,22 +6321,22 @@
       <c r="M18" s="99">
         <v>48</v>
       </c>
-      <c r="N18" s="165" t="s">
+      <c r="N18" s="142" t="s">
         <v>303</v>
       </c>
-      <c r="O18" s="165" t="s">
+      <c r="O18" s="142" t="s">
         <v>591</v>
       </c>
-      <c r="P18" s="165" t="s">
+      <c r="P18" s="142" t="s">
         <v>187</v>
       </c>
-      <c r="Q18" s="165" t="s">
+      <c r="Q18" s="142" t="s">
         <v>186</v>
       </c>
-      <c r="R18" s="165" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="161"/>
+      <c r="R18" s="142" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="138"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="73">
@@ -6250,22 +6367,22 @@
       <c r="M19" s="99">
         <v>48</v>
       </c>
-      <c r="N19" s="165" t="s">
+      <c r="N19" s="142" t="s">
         <v>303</v>
       </c>
-      <c r="O19" s="165" t="s">
+      <c r="O19" s="142" t="s">
         <v>591</v>
       </c>
-      <c r="P19" s="165" t="s">
+      <c r="P19" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="Q19" s="165" t="s">
+      <c r="Q19" s="142" t="s">
         <v>186</v>
       </c>
-      <c r="R19" s="165" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" s="161"/>
+      <c r="R19" s="142" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="138"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="48">
@@ -7344,17 +7461,17 @@
       <c r="M51" s="123">
         <v>36</v>
       </c>
-      <c r="N51" s="164" t="s">
+      <c r="N51" s="141" t="s">
         <v>303</v>
       </c>
-      <c r="O51" s="164"/>
-      <c r="P51" s="164" t="s">
+      <c r="O51" s="141"/>
+      <c r="P51" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="Q51" s="164" t="s">
+      <c r="Q51" s="141" t="s">
         <v>186</v>
       </c>
-      <c r="R51" s="164" t="s">
+      <c r="R51" s="141" t="s">
         <v>20</v>
       </c>
       <c r="S51" s="125"/>
@@ -7364,20 +7481,20 @@
       <c r="M52" s="119">
         <v>58</v>
       </c>
-      <c r="N52" s="163" t="s">
+      <c r="N52" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="O52" s="163"/>
-      <c r="P52" s="163" t="s">
+      <c r="O52" s="140"/>
+      <c r="P52" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="Q52" s="163" t="s">
+      <c r="Q52" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="R52" s="163" t="s">
-        <v>20</v>
-      </c>
-      <c r="S52" s="162"/>
+      <c r="R52" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="139"/>
     </row>
     <row r="53" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L53" s="43"/>
@@ -7461,47 +7578,47 @@
     </row>
     <row r="57" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L57" s="43"/>
-      <c r="M57" s="160">
+      <c r="M57" s="137">
         <v>45</v>
       </c>
-      <c r="N57" s="159" t="s">
+      <c r="N57" s="136" t="s">
         <v>303</v>
       </c>
-      <c r="O57" s="159"/>
-      <c r="P57" s="159" t="s">
+      <c r="O57" s="136"/>
+      <c r="P57" s="136" t="s">
         <v>773</v>
       </c>
-      <c r="Q57" s="159" t="s">
+      <c r="Q57" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="R57" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="S57" s="158"/>
+      <c r="R57" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="135"/>
     </row>
     <row r="58" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L58" s="44"/>
-      <c r="M58" s="160">
+      <c r="M58" s="137">
         <v>45</v>
       </c>
-      <c r="N58" s="159" t="s">
+      <c r="N58" s="136" t="s">
         <v>303</v>
       </c>
-      <c r="O58" s="159"/>
-      <c r="P58" s="159" t="s">
+      <c r="O58" s="136"/>
+      <c r="P58" s="136" t="s">
         <v>224</v>
       </c>
-      <c r="Q58" s="159" t="s">
+      <c r="Q58" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="R58" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="S58" s="158"/>
+      <c r="R58" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" s="135"/>
     </row>
     <row r="59" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L59" s="78"/>
-      <c r="M59" s="157">
+      <c r="M59" s="134">
         <v>40</v>
       </c>
       <c r="N59" s="50" t="s">
@@ -7983,25 +8100,25 @@
     </row>
     <row r="83" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L83" s="43"/>
-      <c r="M83" s="156">
+      <c r="M83" s="133">
         <v>48</v>
       </c>
-      <c r="N83" s="165" t="s">
+      <c r="N83" s="142" t="s">
         <v>310</v>
       </c>
-      <c r="O83" s="165" t="s">
+      <c r="O83" s="142" t="s">
         <v>609</v>
       </c>
-      <c r="P83" s="165" t="s">
+      <c r="P83" s="142" t="s">
         <v>252</v>
       </c>
-      <c r="Q83" s="165" t="s">
+      <c r="Q83" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="R83" s="165" t="s">
-        <v>20</v>
-      </c>
-      <c r="S83" s="161"/>
+      <c r="R83" s="142" t="s">
+        <v>20</v>
+      </c>
+      <c r="S83" s="138"/>
     </row>
     <row r="84" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L84" s="43"/>
@@ -8045,25 +8162,25 @@
     </row>
     <row r="86" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L86" s="43"/>
-      <c r="M86" s="156">
+      <c r="M86" s="133">
         <v>48</v>
       </c>
-      <c r="N86" s="165" t="s">
+      <c r="N86" s="142" t="s">
         <v>310</v>
       </c>
-      <c r="O86" s="165" t="s">
+      <c r="O86" s="142" t="s">
         <v>609</v>
       </c>
-      <c r="P86" s="165" t="s">
+      <c r="P86" s="142" t="s">
         <v>780</v>
       </c>
-      <c r="Q86" s="165" t="s">
+      <c r="Q86" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="R86" s="165" t="s">
-        <v>20</v>
-      </c>
-      <c r="S86" s="161"/>
+      <c r="R86" s="142" t="s">
+        <v>20</v>
+      </c>
+      <c r="S86" s="138"/>
     </row>
     <row r="87" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L87" s="43"/>
@@ -8087,47 +8204,47 @@
     </row>
     <row r="88" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L88" s="43"/>
-      <c r="M88" s="156">
+      <c r="M88" s="133">
         <v>48</v>
       </c>
-      <c r="N88" s="165" t="s">
+      <c r="N88" s="142" t="s">
         <v>310</v>
       </c>
-      <c r="O88" s="165" t="s">
+      <c r="O88" s="142" t="s">
         <v>609</v>
       </c>
-      <c r="P88" s="165" t="s">
+      <c r="P88" s="142" t="s">
         <v>257</v>
       </c>
-      <c r="Q88" s="165" t="s">
+      <c r="Q88" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="R88" s="165" t="s">
-        <v>20</v>
-      </c>
-      <c r="S88" s="161"/>
+      <c r="R88" s="142" t="s">
+        <v>20</v>
+      </c>
+      <c r="S88" s="138"/>
     </row>
     <row r="89" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L89" s="43"/>
-      <c r="M89" s="156">
+      <c r="M89" s="133">
         <v>48</v>
       </c>
-      <c r="N89" s="165" t="s">
+      <c r="N89" s="142" t="s">
         <v>310</v>
       </c>
-      <c r="O89" s="165" t="s">
+      <c r="O89" s="142" t="s">
         <v>609</v>
       </c>
-      <c r="P89" s="165" t="s">
+      <c r="P89" s="142" t="s">
         <v>258</v>
       </c>
-      <c r="Q89" s="165" t="s">
+      <c r="Q89" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="R89" s="165" t="s">
-        <v>20</v>
-      </c>
-      <c r="S89" s="161"/>
+      <c r="R89" s="142" t="s">
+        <v>20</v>
+      </c>
+      <c r="S89" s="138"/>
     </row>
     <row r="90" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L90" s="43"/>
@@ -8691,69 +8808,69 @@
     </row>
     <row r="118" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L118" s="43"/>
-      <c r="M118" s="156">
+      <c r="M118" s="133">
         <v>48</v>
       </c>
-      <c r="N118" s="165" t="s">
+      <c r="N118" s="142" t="s">
         <v>310</v>
       </c>
-      <c r="O118" s="165" t="s">
+      <c r="O118" s="142" t="s">
         <v>609</v>
       </c>
-      <c r="P118" s="165" t="s">
+      <c r="P118" s="142" t="s">
         <v>782</v>
       </c>
-      <c r="Q118" s="165" t="s">
+      <c r="Q118" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="R118" s="165" t="s">
-        <v>20</v>
-      </c>
-      <c r="S118" s="161"/>
+      <c r="R118" s="142" t="s">
+        <v>20</v>
+      </c>
+      <c r="S118" s="138"/>
     </row>
     <row r="119" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L119" s="43"/>
-      <c r="M119" s="156">
+      <c r="M119" s="133">
         <v>48</v>
       </c>
-      <c r="N119" s="165" t="s">
+      <c r="N119" s="142" t="s">
         <v>310</v>
       </c>
-      <c r="O119" s="165" t="s">
+      <c r="O119" s="142" t="s">
         <v>609</v>
       </c>
-      <c r="P119" s="165" t="s">
+      <c r="P119" s="142" t="s">
         <v>287</v>
       </c>
-      <c r="Q119" s="165" t="s">
+      <c r="Q119" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="R119" s="165" t="s">
-        <v>20</v>
-      </c>
-      <c r="S119" s="161"/>
+      <c r="R119" s="142" t="s">
+        <v>20</v>
+      </c>
+      <c r="S119" s="138"/>
     </row>
     <row r="120" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L120" s="43"/>
-      <c r="M120" s="156">
+      <c r="M120" s="133">
         <v>48</v>
       </c>
-      <c r="N120" s="165" t="s">
+      <c r="N120" s="142" t="s">
         <v>310</v>
       </c>
-      <c r="O120" s="165" t="s">
+      <c r="O120" s="142" t="s">
         <v>591</v>
       </c>
-      <c r="P120" s="165" t="s">
+      <c r="P120" s="142" t="s">
         <v>288</v>
       </c>
-      <c r="Q120" s="165" t="s">
+      <c r="Q120" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="R120" s="165" t="s">
-        <v>20</v>
-      </c>
-      <c r="S120" s="161"/>
+      <c r="R120" s="142" t="s">
+        <v>20</v>
+      </c>
+      <c r="S120" s="138"/>
     </row>
     <row r="121" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L121" s="43"/>
@@ -8804,10 +8921,10 @@
         <v>310</v>
       </c>
       <c r="O123" s="38"/>
-      <c r="P123" s="152" t="s">
+      <c r="P123" s="129" t="s">
         <v>783</v>
       </c>
-      <c r="Q123" s="152" t="s">
+      <c r="Q123" s="129" t="s">
         <v>495</v>
       </c>
       <c r="R123" s="38" t="s">
@@ -9077,27 +9194,27 @@
     </row>
     <row r="137" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L137" s="44"/>
-      <c r="M137" s="155">
+      <c r="M137" s="132">
         <v>45</v>
       </c>
-      <c r="N137" s="159" t="s">
+      <c r="N137" s="136" t="s">
         <v>310</v>
       </c>
-      <c r="O137" s="159"/>
-      <c r="P137" s="159" t="s">
+      <c r="O137" s="136"/>
+      <c r="P137" s="136" t="s">
         <v>302</v>
       </c>
-      <c r="Q137" s="159" t="s">
+      <c r="Q137" s="136" t="s">
         <v>178</v>
       </c>
-      <c r="R137" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="S137" s="154"/>
+      <c r="R137" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="S137" s="131"/>
     </row>
     <row r="138" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L138" s="78"/>
-      <c r="M138" s="157">
+      <c r="M138" s="134">
         <v>40</v>
       </c>
       <c r="N138" s="50" t="s">
@@ -9346,11 +9463,11 @@
         <v>382</v>
       </c>
       <c r="O150" s="38"/>
-      <c r="P150" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q150" s="38" t="s">
-        <v>24</v>
+      <c r="P150" s="166" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q150" s="166" t="s">
+        <v>495</v>
       </c>
       <c r="R150" s="38" t="s">
         <v>20</v>
@@ -9360,17 +9477,17 @@
     <row r="151" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L151" s="43"/>
       <c r="M151" s="73">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N151" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O151" s="38"/>
-      <c r="P151" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q151" s="38" t="s">
-        <v>19</v>
+      <c r="P151" s="167" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q151" s="167" t="s">
+        <v>16</v>
       </c>
       <c r="R151" s="38" t="s">
         <v>20</v>
@@ -9387,7 +9504,7 @@
       </c>
       <c r="O152" s="38"/>
       <c r="P152" s="38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Q152" s="38" t="s">
         <v>24</v>
@@ -9407,7 +9524,7 @@
       </c>
       <c r="O153" s="38"/>
       <c r="P153" s="38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q153" s="38" t="s">
         <v>19</v>
@@ -9427,7 +9544,7 @@
       </c>
       <c r="O154" s="38"/>
       <c r="P154" s="38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q154" s="38" t="s">
         <v>24</v>
@@ -9447,7 +9564,7 @@
       </c>
       <c r="O155" s="38"/>
       <c r="P155" s="38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q155" s="38" t="s">
         <v>19</v>
@@ -9467,7 +9584,7 @@
       </c>
       <c r="O156" s="38"/>
       <c r="P156" s="38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q156" s="38" t="s">
         <v>24</v>
@@ -9487,7 +9604,7 @@
       </c>
       <c r="O157" s="38"/>
       <c r="P157" s="38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q157" s="38" t="s">
         <v>19</v>
@@ -9507,7 +9624,7 @@
       </c>
       <c r="O158" s="38"/>
       <c r="P158" s="38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q158" s="38" t="s">
         <v>24</v>
@@ -9527,7 +9644,7 @@
       </c>
       <c r="O159" s="38"/>
       <c r="P159" s="38" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q159" s="38" t="s">
         <v>19</v>
@@ -9540,17 +9657,17 @@
     <row r="160" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L160" s="43"/>
       <c r="M160" s="73">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N160" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O160" s="38"/>
       <c r="P160" s="38" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q160" s="38" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="R160" s="38" t="s">
         <v>20</v>
@@ -9567,7 +9684,7 @@
       </c>
       <c r="O161" s="38"/>
       <c r="P161" s="38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q161" s="38" t="s">
         <v>19</v>
@@ -9579,40 +9696,38 @@
     </row>
     <row r="162" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L162" s="43"/>
-      <c r="M162" s="156">
-        <v>48</v>
-      </c>
-      <c r="N162" s="165" t="s">
+      <c r="M162" s="73">
+        <v>21</v>
+      </c>
+      <c r="N162" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="O162" s="165" t="s">
-        <v>612</v>
-      </c>
-      <c r="P162" s="165" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q162" s="165" t="s">
-        <v>16</v>
-      </c>
-      <c r="R162" s="165" t="s">
-        <v>20</v>
-      </c>
-      <c r="S162" s="161"/>
+      <c r="O162" s="38"/>
+      <c r="P162" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q162" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="R162" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S162" s="55"/>
     </row>
     <row r="163" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L163" s="43"/>
       <c r="M163" s="73">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N163" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O163" s="38"/>
       <c r="P163" s="38" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q163" s="38" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R163" s="38" t="s">
         <v>20</v>
@@ -9621,38 +9736,40 @@
     </row>
     <row r="164" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L164" s="43"/>
-      <c r="M164" s="73">
-        <v>45</v>
-      </c>
-      <c r="N164" s="38" t="s">
+      <c r="M164" s="133">
+        <v>48</v>
+      </c>
+      <c r="N164" s="142" t="s">
         <v>382</v>
       </c>
-      <c r="O164" s="38"/>
-      <c r="P164" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q164" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="R164" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="S164" s="55"/>
+      <c r="O164" s="142" t="s">
+        <v>612</v>
+      </c>
+      <c r="P164" s="142" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q164" s="142" t="s">
+        <v>16</v>
+      </c>
+      <c r="R164" s="142" t="s">
+        <v>20</v>
+      </c>
+      <c r="S164" s="138"/>
     </row>
     <row r="165" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L165" s="43"/>
       <c r="M165" s="73">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N165" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O165" s="38"/>
       <c r="P165" s="38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q165" s="38" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R165" s="38" t="s">
         <v>20</v>
@@ -9661,25 +9778,23 @@
     </row>
     <row r="166" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L166" s="43"/>
-      <c r="M166" s="156">
-        <v>48</v>
-      </c>
-      <c r="N166" s="165" t="s">
+      <c r="M166" s="73">
+        <v>45</v>
+      </c>
+      <c r="N166" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="O166" s="165" t="s">
-        <v>612</v>
-      </c>
-      <c r="P166" s="165" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q166" s="165" t="s">
-        <v>16</v>
-      </c>
-      <c r="R166" s="165" t="s">
-        <v>20</v>
-      </c>
-      <c r="S166" s="161"/>
+      <c r="O166" s="38"/>
+      <c r="P166" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q166" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="R166" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S166" s="55"/>
     </row>
     <row r="167" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L167" s="43"/>
@@ -9691,10 +9806,10 @@
       </c>
       <c r="O167" s="38"/>
       <c r="P167" s="38" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q167" s="38" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R167" s="38" t="s">
         <v>20</v>
@@ -9703,85 +9818,87 @@
     </row>
     <row r="168" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L168" s="43"/>
-      <c r="M168" s="126">
-        <v>39</v>
-      </c>
-      <c r="N168" s="164" t="s">
+      <c r="M168" s="133">
+        <v>48</v>
+      </c>
+      <c r="N168" s="142" t="s">
         <v>382</v>
       </c>
-      <c r="O168" s="164"/>
-      <c r="P168" s="164" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q168" s="164" t="s">
-        <v>19</v>
-      </c>
-      <c r="R168" s="164" t="s">
-        <v>17</v>
-      </c>
-      <c r="S168" s="125" t="s">
-        <v>177</v>
-      </c>
+      <c r="O168" s="142" t="s">
+        <v>612</v>
+      </c>
+      <c r="P168" s="142" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q168" s="142" t="s">
+        <v>16</v>
+      </c>
+      <c r="R168" s="142" t="s">
+        <v>20</v>
+      </c>
+      <c r="S168" s="138"/>
     </row>
     <row r="169" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L169" s="43"/>
-      <c r="M169" s="59">
-        <v>58</v>
-      </c>
-      <c r="N169" s="163" t="s">
+      <c r="M169" s="73">
+        <v>45</v>
+      </c>
+      <c r="N169" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="O169" s="163"/>
-      <c r="P169" s="163" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q169" s="163" t="s">
-        <v>19</v>
-      </c>
-      <c r="R169" s="163" t="s">
-        <v>20</v>
-      </c>
-      <c r="S169" s="162"/>
+      <c r="O169" s="38"/>
+      <c r="P169" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q169" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="R169" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S169" s="55"/>
     </row>
     <row r="170" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L170" s="43"/>
-      <c r="M170" s="73">
-        <v>45</v>
-      </c>
-      <c r="N170" s="38" t="s">
+      <c r="M170" s="126">
+        <v>39</v>
+      </c>
+      <c r="N170" s="141" t="s">
         <v>382</v>
       </c>
-      <c r="O170" s="38"/>
-      <c r="P170" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q170" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="R170" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="S170" s="55"/>
+      <c r="O170" s="141"/>
+      <c r="P170" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q170" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="R170" s="141" t="s">
+        <v>17</v>
+      </c>
+      <c r="S170" s="125" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="171" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L171" s="43"/>
-      <c r="M171" s="73">
-        <v>44</v>
-      </c>
-      <c r="N171" s="38" t="s">
+      <c r="M171" s="59">
+        <v>58</v>
+      </c>
+      <c r="N171" s="140" t="s">
         <v>382</v>
       </c>
-      <c r="O171" s="38"/>
-      <c r="P171" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q171" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="R171" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="S171" s="55"/>
+      <c r="O171" s="140"/>
+      <c r="P171" s="140" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q171" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="R171" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="S171" s="139"/>
     </row>
     <row r="172" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L172" s="43"/>
@@ -9793,7 +9910,7 @@
       </c>
       <c r="O172" s="38"/>
       <c r="P172" s="38" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q172" s="38" t="s">
         <v>24</v>
@@ -9806,17 +9923,17 @@
     <row r="173" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L173" s="43"/>
       <c r="M173" s="73">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N173" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O173" s="38"/>
       <c r="P173" s="38" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q173" s="38" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R173" s="38" t="s">
         <v>20</v>
@@ -9833,7 +9950,7 @@
       </c>
       <c r="O174" s="38"/>
       <c r="P174" s="38" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q174" s="38" t="s">
         <v>24</v>
@@ -9846,17 +9963,17 @@
     <row r="175" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L175" s="43"/>
       <c r="M175" s="73">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N175" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O175" s="38"/>
       <c r="P175" s="38" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Q175" s="38" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R175" s="38" t="s">
         <v>20</v>
@@ -9873,7 +9990,7 @@
       </c>
       <c r="O176" s="38"/>
       <c r="P176" s="38" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q176" s="38" t="s">
         <v>24</v>
@@ -9886,17 +10003,17 @@
     <row r="177" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L177" s="43"/>
       <c r="M177" s="73">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N177" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O177" s="38"/>
       <c r="P177" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q177" s="38" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R177" s="38" t="s">
         <v>20</v>
@@ -9913,7 +10030,7 @@
       </c>
       <c r="O178" s="38"/>
       <c r="P178" s="38" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Q178" s="38" t="s">
         <v>24</v>
@@ -9933,10 +10050,10 @@
       </c>
       <c r="O179" s="38"/>
       <c r="P179" s="38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q179" s="38" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R179" s="38" t="s">
         <v>20</v>
@@ -9953,7 +10070,7 @@
       </c>
       <c r="O180" s="38"/>
       <c r="P180" s="38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q180" s="38" t="s">
         <v>24</v>
@@ -9973,10 +10090,10 @@
       </c>
       <c r="O181" s="38"/>
       <c r="P181" s="38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q181" s="38" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R181" s="38" t="s">
         <v>20</v>
@@ -9993,7 +10110,7 @@
       </c>
       <c r="O182" s="38"/>
       <c r="P182" s="38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q182" s="38" t="s">
         <v>24</v>
@@ -10013,7 +10130,7 @@
       </c>
       <c r="O183" s="38"/>
       <c r="P183" s="38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q183" s="38" t="s">
         <v>24</v>
@@ -10033,10 +10150,10 @@
       </c>
       <c r="O184" s="38"/>
       <c r="P184" s="38" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q184" s="38" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R184" s="38" t="s">
         <v>20</v>
@@ -10046,17 +10163,17 @@
     <row r="185" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L185" s="43"/>
       <c r="M185" s="73">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N185" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O185" s="38"/>
       <c r="P185" s="38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q185" s="38" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R185" s="38" t="s">
         <v>20</v>
@@ -10073,7 +10190,7 @@
       </c>
       <c r="O186" s="38"/>
       <c r="P186" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Q186" s="38" t="s">
         <v>19</v>
@@ -10086,17 +10203,17 @@
     <row r="187" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L187" s="43"/>
       <c r="M187" s="73">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N187" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O187" s="38"/>
       <c r="P187" s="38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q187" s="38" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="R187" s="38" t="s">
         <v>20</v>
@@ -10113,10 +10230,10 @@
       </c>
       <c r="O188" s="38"/>
       <c r="P188" s="38" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Q188" s="38" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R188" s="38" t="s">
         <v>20</v>
@@ -10133,10 +10250,10 @@
       </c>
       <c r="O189" s="38"/>
       <c r="P189" s="38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q189" s="38" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="R189" s="38" t="s">
         <v>20</v>
@@ -10153,10 +10270,10 @@
       </c>
       <c r="O190" s="38"/>
       <c r="P190" s="38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q190" s="38" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R190" s="38" t="s">
         <v>20</v>
@@ -10173,10 +10290,10 @@
       </c>
       <c r="O191" s="38"/>
       <c r="P191" s="38" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q191" s="38" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R191" s="38" t="s">
         <v>20</v>
@@ -10186,17 +10303,17 @@
     <row r="192" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L192" s="43"/>
       <c r="M192" s="73">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N192" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O192" s="38"/>
       <c r="P192" s="38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q192" s="38" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R192" s="38" t="s">
         <v>20</v>
@@ -10206,17 +10323,17 @@
     <row r="193" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L193" s="43"/>
       <c r="M193" s="73">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N193" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O193" s="38"/>
       <c r="P193" s="38" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q193" s="38" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R193" s="38" t="s">
         <v>20</v>
@@ -10233,7 +10350,7 @@
       </c>
       <c r="O194" s="38"/>
       <c r="P194" s="38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q194" s="38" t="s">
         <v>16</v>
@@ -10253,10 +10370,10 @@
       </c>
       <c r="O195" s="38"/>
       <c r="P195" s="38" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q195" s="38" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R195" s="38" t="s">
         <v>20</v>
@@ -10266,17 +10383,17 @@
     <row r="196" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L196" s="43"/>
       <c r="M196" s="73">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N196" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O196" s="38"/>
       <c r="P196" s="38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q196" s="38" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R196" s="38" t="s">
         <v>20</v>
@@ -10293,10 +10410,10 @@
       </c>
       <c r="O197" s="38"/>
       <c r="P197" s="38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q197" s="38" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="R197" s="38" t="s">
         <v>20</v>
@@ -10313,10 +10430,10 @@
       </c>
       <c r="O198" s="38"/>
       <c r="P198" s="38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q198" s="38" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R198" s="38" t="s">
         <v>20</v>
@@ -10326,17 +10443,17 @@
     <row r="199" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L199" s="43"/>
       <c r="M199" s="73">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N199" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O199" s="38"/>
       <c r="P199" s="38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q199" s="38" t="s">
-        <v>276</v>
+        <v>186</v>
       </c>
       <c r="R199" s="38" t="s">
         <v>20</v>
@@ -10353,10 +10470,10 @@
       </c>
       <c r="O200" s="38"/>
       <c r="P200" s="38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q200" s="38" t="s">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="R200" s="38" t="s">
         <v>20</v>
@@ -10366,17 +10483,17 @@
     <row r="201" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L201" s="43"/>
       <c r="M201" s="73">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N201" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O201" s="38"/>
       <c r="P201" s="38" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q201" s="38" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="R201" s="38" t="s">
         <v>20</v>
@@ -10386,17 +10503,17 @@
     <row r="202" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L202" s="43"/>
       <c r="M202" s="73">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N202" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O202" s="38"/>
       <c r="P202" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q202" s="38" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="R202" s="38" t="s">
         <v>20</v>
@@ -10406,17 +10523,17 @@
     <row r="203" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L203" s="43"/>
       <c r="M203" s="73">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N203" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O203" s="38"/>
       <c r="P203" s="38" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q203" s="38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R203" s="38" t="s">
         <v>20</v>
@@ -10433,7 +10550,7 @@
       </c>
       <c r="O204" s="38"/>
       <c r="P204" s="38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q204" s="38" t="s">
         <v>16</v>
@@ -10453,10 +10570,10 @@
       </c>
       <c r="O205" s="38"/>
       <c r="P205" s="38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q205" s="38" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R205" s="38" t="s">
         <v>20</v>
@@ -10466,17 +10583,17 @@
     <row r="206" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L206" s="43"/>
       <c r="M206" s="73">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N206" s="38" t="s">
         <v>382</v>
       </c>
       <c r="O206" s="38"/>
       <c r="P206" s="38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Q206" s="38" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R206" s="38" t="s">
         <v>20</v>
@@ -10493,7 +10610,7 @@
       </c>
       <c r="O207" s="38"/>
       <c r="P207" s="38" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q207" s="38" t="s">
         <v>24</v>
@@ -10513,7 +10630,7 @@
       </c>
       <c r="O208" s="38"/>
       <c r="P208" s="38" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Q208" s="38" t="s">
         <v>24</v>
@@ -10533,10 +10650,10 @@
       </c>
       <c r="O209" s="38"/>
       <c r="P209" s="38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Q209" s="38" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="R209" s="38" t="s">
         <v>20</v>
@@ -10553,35 +10670,75 @@
       </c>
       <c r="O210" s="38"/>
       <c r="P210" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q210" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="R210" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S210" s="55"/>
+    </row>
+    <row r="211" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L211" s="43"/>
+      <c r="M211" s="73">
+        <v>45</v>
+      </c>
+      <c r="N211" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="O211" s="38"/>
+      <c r="P211" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q211" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="R211" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S211" s="55"/>
+    </row>
+    <row r="212" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L212" s="43"/>
+      <c r="M212" s="73">
+        <v>45</v>
+      </c>
+      <c r="N212" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="O212" s="38"/>
+      <c r="P212" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="Q210" s="38" t="s">
+      <c r="Q212" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="R210" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="S210" s="55"/>
-    </row>
-    <row r="211" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L211" s="44"/>
-      <c r="M211" s="46">
+      <c r="R212" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S212" s="55"/>
+    </row>
+    <row r="213" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L213" s="44"/>
+      <c r="M213" s="46">
         <v>45</v>
       </c>
-      <c r="N211" s="54" t="s">
+      <c r="N213" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="O211" s="54"/>
-      <c r="P211" s="54" t="s">
+      <c r="O213" s="54"/>
+      <c r="P213" s="54" t="s">
         <v>381</v>
       </c>
-      <c r="Q211" s="54" t="s">
+      <c r="Q213" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="R211" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="S211" s="63"/>
+      <c r="R213" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="S213" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10604,7 +10761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9:R137"/>
     </sheetView>
   </sheetViews>
@@ -10644,26 +10801,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="148" t="s">
         <v>437</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="133"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="153"/>
       <c r="G3" s="10"/>
       <c r="H3" s="67"/>
       <c r="I3" s="24" t="s">
@@ -10676,11 +10833,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
       <c r="G4" s="7"/>
       <c r="H4" s="121"/>
       <c r="I4" s="24" t="s">
@@ -10693,11 +10850,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="156"/>
       <c r="G5" s="7"/>
       <c r="H5" s="122"/>
       <c r="I5" s="28" t="s">
@@ -10714,29 +10871,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="146"/>
-      <c r="K7" s="147"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="161"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="129" t="s">
+      <c r="M7" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="144"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -11960,16 +12117,16 @@
       <c r="M51" s="123">
         <v>29</v>
       </c>
-      <c r="N51" s="164" t="s">
+      <c r="N51" s="141" t="s">
         <v>303</v>
       </c>
-      <c r="O51" s="164" t="s">
+      <c r="O51" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="P51" s="164" t="s">
+      <c r="P51" s="141" t="s">
         <v>186</v>
       </c>
-      <c r="Q51" s="164" t="s">
+      <c r="Q51" s="141" t="s">
         <v>20</v>
       </c>
       <c r="R51" s="125"/>
@@ -11979,19 +12136,19 @@
       <c r="M52" s="119">
         <v>30</v>
       </c>
-      <c r="N52" s="163" t="s">
+      <c r="N52" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="O52" s="163" t="s">
+      <c r="O52" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="163" t="s">
+      <c r="P52" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="Q52" s="163" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="162"/>
+      <c r="Q52" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="139"/>
     </row>
     <row r="53" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L53" s="43"/>
@@ -12090,26 +12247,26 @@
     </row>
     <row r="58" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L58" s="44"/>
-      <c r="M58" s="160">
+      <c r="M58" s="137">
         <v>25</v>
       </c>
-      <c r="N58" s="159" t="s">
+      <c r="N58" s="136" t="s">
         <v>303</v>
       </c>
-      <c r="O58" s="159" t="s">
+      <c r="O58" s="136" t="s">
         <v>224</v>
       </c>
-      <c r="P58" s="159" t="s">
+      <c r="P58" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="Q58" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="R58" s="158"/>
+      <c r="Q58" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="135"/>
     </row>
     <row r="59" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L59" s="78"/>
-      <c r="M59" s="157">
+      <c r="M59" s="134">
         <v>20</v>
       </c>
       <c r="N59" s="50" t="s">
@@ -13314,10 +13471,10 @@
       <c r="N122" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="O122" s="153" t="s">
+      <c r="O122" s="130" t="s">
         <v>783</v>
       </c>
-      <c r="P122" s="153" t="s">
+      <c r="P122" s="130" t="s">
         <v>495</v>
       </c>
       <c r="Q122" s="38" t="s">
@@ -13333,10 +13490,10 @@
       <c r="N123" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="O123" s="153" t="s">
+      <c r="O123" s="130" t="s">
         <v>763</v>
       </c>
-      <c r="P123" s="153" t="s">
+      <c r="P123" s="130" t="s">
         <v>24</v>
       </c>
       <c r="Q123" s="38" t="s">
@@ -13671,26 +13828,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="148" t="s">
         <v>438</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="133"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="153"/>
       <c r="G3" s="10"/>
       <c r="H3" s="67"/>
       <c r="I3" s="24" t="s">
@@ -13703,11 +13860,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
       <c r="G4" s="7"/>
       <c r="H4" s="121"/>
       <c r="I4" s="24" t="s">
@@ -13720,11 +13877,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="156"/>
       <c r="G5" s="7"/>
       <c r="H5" s="122"/>
       <c r="I5" s="28" t="s">
@@ -13741,29 +13898,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="146"/>
-      <c r="K7" s="147"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="161"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="129" t="s">
+      <c r="M7" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="144"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15141,26 +15298,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="133"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="153"/>
       <c r="G3" s="10"/>
       <c r="H3" s="67"/>
       <c r="I3" s="24" t="s">
@@ -15173,11 +15330,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
       <c r="G4" s="7"/>
       <c r="H4" s="121"/>
       <c r="I4" s="24" t="s">
@@ -15190,11 +15347,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="156"/>
       <c r="G5" s="7"/>
       <c r="H5" s="122"/>
       <c r="I5" s="28" t="s">
@@ -15211,29 +15368,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="146"/>
-      <c r="K7" s="147"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="161"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="148" t="s">
+      <c r="M7" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="149"/>
-      <c r="Q7" s="149"/>
-      <c r="R7" s="150"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="164"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -19172,26 +19329,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="148" t="s">
         <v>591</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="133"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="153"/>
       <c r="G3" s="10"/>
       <c r="H3" s="67"/>
       <c r="I3" s="24" t="s">
@@ -19204,11 +19361,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
       <c r="G4" s="7"/>
       <c r="H4" s="121"/>
       <c r="I4" s="24" t="s">
@@ -19221,11 +19378,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="156"/>
       <c r="G5" s="7"/>
       <c r="H5" s="122"/>
       <c r="I5" s="28" t="s">
@@ -19242,29 +19399,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="146"/>
-      <c r="K7" s="147"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="161"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="148" t="s">
+      <c r="M7" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="149"/>
-      <c r="Q7" s="149"/>
-      <c r="R7" s="150"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="164"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20533,26 +20690,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="133"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="153"/>
       <c r="G3" s="10"/>
       <c r="H3" s="67"/>
       <c r="I3" s="24" t="s">
@@ -20565,11 +20722,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
       <c r="G4" s="7"/>
       <c r="H4" s="121"/>
       <c r="I4" s="24" t="s">
@@ -20582,11 +20739,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="156"/>
       <c r="G5" s="7"/>
       <c r="H5" s="122"/>
       <c r="I5" s="28" t="s">
@@ -20603,29 +20760,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="146"/>
-      <c r="K7" s="147"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="161"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="151" t="s">
+      <c r="M7" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="149"/>
-      <c r="Q7" s="149"/>
-      <c r="R7" s="150"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="164"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -21423,26 +21580,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="148" t="s">
         <v>612</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="133"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="153"/>
       <c r="G3" s="10"/>
       <c r="H3" s="67"/>
       <c r="I3" s="24" t="s">
@@ -21455,11 +21612,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
       <c r="G4" s="7"/>
       <c r="H4" s="121"/>
       <c r="I4" s="24" t="s">
@@ -21472,11 +21629,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="156"/>
       <c r="G5" s="7"/>
       <c r="H5" s="122"/>
       <c r="I5" s="28" t="s">
@@ -21493,29 +21650,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="146"/>
-      <c r="K7" s="147"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="161"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="151" t="s">
+      <c r="M7" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="149"/>
-      <c r="Q7" s="149"/>
-      <c r="R7" s="150"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="164"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
